--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -152,6 +152,12 @@
     <t>i9@gmail.com</t>
   </si>
   <si>
+    <t>list : Assortment_Item</t>
+  </si>
+  <si>
+    <t>Amount : 10</t>
+  </si>
+  <si>
     <t>E_50</t>
   </si>
   <si>
@@ -159,12 +165,6 @@
   </si>
   <si>
     <t>8906118410781: 4</t>
-  </si>
-  <si>
-    <t>list : Assortment_Item</t>
-  </si>
-  <si>
-    <t>Amount : 10</t>
   </si>
   <si>
     <t>E_51</t>
@@ -786,7 +786,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="O1">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1160,10 +1160,10 @@
         <v>29</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>29</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="6" ht="33.75" customHeight="1">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
@@ -1213,13 +1213,13 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O6" s="4">
         <v>45384</v>
@@ -1231,13 +1231,13 @@
         <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>29</v>
@@ -1290,7 +1290,7 @@
         <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O7" s="4">
         <v>45384</v>
@@ -1361,7 +1361,7 @@
         <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O8" s="4">
         <v>45384</v>
@@ -1574,7 +1574,7 @@
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O11" s="4">
         <v>45384</v>
@@ -1645,7 +1645,7 @@
         <v>30</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O12" s="4">
         <v>45384</v>
@@ -1716,7 +1716,7 @@
         <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O13" s="4">
         <v>45384</v>
@@ -1787,7 +1787,7 @@
         <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O14" s="4">
         <v>45384</v>
@@ -1858,7 +1858,7 @@
         <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O15" s="4">
         <v>45384</v>
@@ -2645,7 +2645,7 @@
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O17" s="4">
         <v>45384</v>
@@ -2663,7 +2663,7 @@
         <v>73</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>29</v>
@@ -3000,7 +3000,7 @@
         <v>30</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O22" s="4">
         <v>45384</v>
@@ -3071,7 +3071,7 @@
         <v>30</v>
       </c>
       <c r="N23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O23" s="4">
         <v>45384</v>
@@ -3142,7 +3142,7 @@
         <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O24" s="4">
         <v>45384</v>
@@ -3213,7 +3213,7 @@
         <v>30</v>
       </c>
       <c r="N25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O25" s="4">
         <v>45384</v>
@@ -3284,7 +3284,7 @@
         <v>30</v>
       </c>
       <c r="N26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O26" s="4">
         <v>45384</v>
@@ -3355,7 +3355,7 @@
         <v>30</v>
       </c>
       <c r="N27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O27" s="4">
         <v>45384</v>
@@ -3426,7 +3426,7 @@
         <v>30</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O28" s="4">
         <v>45384</v>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157" count="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157" count="645">
   <si>
     <t>TC_Id</t>
   </si>
@@ -500,6 +500,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -511,6 +512,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -523,6 +525,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -535,6 +538,7 @@
       <sz val="10"/>
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <u val="single"/>
@@ -542,6 +546,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="0"/>
     </font>
     <font>
       <u val="single"/>
@@ -549,6 +554,7 @@
       <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -603,7 +609,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1177,95 +1183,449 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>123456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>123456</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>600</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>123456</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>123456</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>600</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>123456</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>123456</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>600</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>123456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>123456</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>600</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>123456</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>123456</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>600</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>123456</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>123456</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <v>600</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="A9" t="s">

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157" count="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159" count="665">
   <si>
     <t>TC_Id</t>
   </si>
@@ -485,6 +485,12 @@
   </si>
   <si>
     <t>E_91</t>
+  </si>
+  <si>
+    <t>select_invoice_option</t>
+  </si>
+  <si>
+    <t>Customer Phone</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1041,7 @@
     <col min="21" max="1021" width="12.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1107,6 +1113,9 @@
       </c>
       <c r="X1" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
@@ -1627,20 +1636,82 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>123456</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>123456</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9">
+        <v>600</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" t="s">

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159" count="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162" count="1391">
   <si>
     <t>TC_Id</t>
   </si>
@@ -491,6 +491,15 @@
   </si>
   <si>
     <t>Customer Phone</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>search_invoice</t>
+  </si>
+  <si>
+    <t>Mrunal Jagtap</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1050,7 @@
     <col min="21" max="1021" width="12.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1117,8 +1126,11 @@
       <c r="Y1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+      <c r="Z1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -1191,8 +1203,14 @@
       <c r="X2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+      <c r="Y2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -1265,8 +1283,14 @@
       <c r="X3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+      <c r="Y3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -1339,8 +1363,14 @@
       <c r="X4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+      <c r="Y4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -1413,8 +1443,14 @@
       <c r="X5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+      <c r="Y5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -1487,8 +1523,14 @@
       <c r="X6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+      <c r="Y6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -1561,8 +1603,14 @@
       <c r="X7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+      <c r="Y7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -1635,8 +1683,14 @@
       <c r="X8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Y8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -1710,563 +1764,2860 @@
         <v>34</v>
       </c>
       <c r="Y9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1">
+        <v>159</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>123456</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>123456</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10">
+        <v>600</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>123456</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>123456</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11">
+        <v>600</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>123456</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>123456</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>123456</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>123456</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <v>600</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>123456</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>123456</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>600</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>123456</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <v>123456</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>600</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" t="s">
+        <v>33</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>123456</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>123456</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16">
+        <v>600</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" t="s">
+        <v>33</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>123456</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>123456</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>600</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>123456</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>123456</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>600</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" t="s">
+        <v>33</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1">
       <c r="A19" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>123456</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>123456</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+      <c r="H19">
+        <v>600</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" t="s">
+        <v>33</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>123456</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>123456</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>600</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" t="s">
+        <v>33</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1">
       <c r="A21" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>123456</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <v>123456</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>600</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" t="s">
+        <v>29</v>
+      </c>
+      <c r="V21" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>123456</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>123456</v>
+      </c>
+      <c r="G22">
+        <v>1000</v>
+      </c>
+      <c r="H22">
+        <v>600</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U22" t="s">
+        <v>29</v>
+      </c>
+      <c r="V22" t="s">
+        <v>33</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>123456</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <v>123456</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23">
+        <v>600</v>
+      </c>
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1">
       <c r="A24" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>123456</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <v>123456</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+      <c r="H24">
+        <v>600</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U24" t="s">
+        <v>29</v>
+      </c>
+      <c r="V24" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>123456</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <v>123456</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+      <c r="H25">
+        <v>600</v>
+      </c>
+      <c r="I25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25" t="s">
+        <v>29</v>
+      </c>
+      <c r="V25" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>123456</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <v>123456</v>
+      </c>
+      <c r="G26">
+        <v>1000</v>
+      </c>
+      <c r="H26">
+        <v>600</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26" t="s">
+        <v>29</v>
+      </c>
+      <c r="V26" t="s">
+        <v>33</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>123456</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>123456</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <v>600</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U27" t="s">
+        <v>29</v>
+      </c>
+      <c r="V27" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>123456</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>123456</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28">
+        <v>600</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" t="s">
+        <v>29</v>
+      </c>
+      <c r="V28" t="s">
+        <v>33</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>123456</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>123456</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+      <c r="H29">
+        <v>600</v>
+      </c>
+      <c r="I29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U29" t="s">
+        <v>29</v>
+      </c>
+      <c r="V29" t="s">
+        <v>33</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>123456</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <v>123456</v>
+      </c>
+      <c r="G30">
+        <v>1000</v>
+      </c>
+      <c r="H30">
+        <v>600</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U30" t="s">
+        <v>29</v>
+      </c>
+      <c r="V30" t="s">
+        <v>33</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>123456</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <v>123456</v>
+      </c>
+      <c r="G31">
+        <v>1000</v>
+      </c>
+      <c r="H31">
+        <v>600</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U31" t="s">
+        <v>29</v>
+      </c>
+      <c r="V31" t="s">
+        <v>33</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>123456</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <v>123456</v>
+      </c>
+      <c r="G32">
+        <v>1000</v>
+      </c>
+      <c r="H32">
+        <v>600</v>
+      </c>
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U32" t="s">
+        <v>29</v>
+      </c>
+      <c r="V32" t="s">
+        <v>33</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X32" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>123456</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <v>123456</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33">
+        <v>600</v>
+      </c>
+      <c r="I33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U33" t="s">
+        <v>29</v>
+      </c>
+      <c r="V33" t="s">
+        <v>33</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>123456</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34">
+        <v>123456</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>600</v>
+      </c>
+      <c r="I34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U34" t="s">
+        <v>29</v>
+      </c>
+      <c r="V34" t="s">
+        <v>33</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X34" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>123456</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35">
+        <v>123456</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35">
+        <v>600</v>
+      </c>
+      <c r="I35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U35" t="s">
+        <v>29</v>
+      </c>
+      <c r="V35" t="s">
+        <v>33</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X35" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>123456</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36">
+        <v>123456</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36">
+        <v>600</v>
+      </c>
+      <c r="I36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U36" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" t="s">
+        <v>33</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X36" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>123456</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37">
+        <v>123456</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>600</v>
+      </c>
+      <c r="I37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U37" t="s">
+        <v>29</v>
+      </c>
+      <c r="V37" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>123456</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38">
+        <v>123456</v>
+      </c>
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38">
+        <v>600</v>
+      </c>
+      <c r="I38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U38" t="s">
+        <v>29</v>
+      </c>
+      <c r="V38" t="s">
+        <v>33</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <v>123456</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39">
+        <v>123456</v>
+      </c>
+      <c r="G39">
+        <v>1000</v>
+      </c>
+      <c r="H39">
+        <v>600</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U39" t="s">
+        <v>29</v>
+      </c>
+      <c r="V39" t="s">
+        <v>33</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>123456</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40">
+        <v>123456</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <v>600</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V40" t="s">
+        <v>33</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X40" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41">
+        <v>123456</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41">
+        <v>123456</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
+      </c>
+      <c r="H41">
+        <v>600</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U41" t="s">
+        <v>29</v>
+      </c>
+      <c r="V41" t="s">
+        <v>33</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>123456</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42">
+        <v>123456</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42">
+        <v>600</v>
+      </c>
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U42" t="s">
+        <v>29</v>
+      </c>
+      <c r="V42" t="s">
+        <v>33</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X42" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <v>123456</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <v>123456</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>600</v>
+      </c>
+      <c r="I43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U43" t="s">
+        <v>29</v>
+      </c>
+      <c r="V43" t="s">
+        <v>33</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X43" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>123456</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44">
+        <v>123456</v>
+      </c>
+      <c r="G44">
+        <v>1000</v>
+      </c>
+      <c r="H44">
+        <v>600</v>
+      </c>
+      <c r="I44" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U44" t="s">
+        <v>29</v>
+      </c>
+      <c r="V44" t="s">
+        <v>33</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X44" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-    </row>
-    <row r="46" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45">
+        <v>123456</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45">
+        <v>123456</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>600</v>
+      </c>
+      <c r="I45" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U45" t="s">
+        <v>29</v>
+      </c>
+      <c r="V45" t="s">
+        <v>33</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X45" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
+      <c r="B46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46">
+        <v>123456</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46">
+        <v>123456</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>600</v>
+      </c>
+      <c r="I46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U46" t="s">
+        <v>29</v>
+      </c>
+      <c r="V46" t="s">
+        <v>33</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X46" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="A47" t="s">

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -92,7 +92,7 @@
     <t>Mode</t>
   </si>
   <si>
-    <t>salesperson_name</t>
+    <t>select_invoice_option</t>
   </si>
   <si>
     <t>E_01</t>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Exchange</t>
+  </si>
+  <si>
+    <t>Customer Phone</t>
   </si>
   <si>
     <t>E_02</t>
@@ -492,9 +495,6 @@
   </si>
   <si>
     <t>E_99</t>
-  </si>
-  <si>
-    <t>saloni</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1014,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="Q17">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="Q101">
+      <selection activeCell="Y74" sqref="Y74:Y113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1187,11 +1187,13 @@
       <c r="X2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2"/>
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
@@ -1227,7 +1229,7 @@
         <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
         <v>30</v>
@@ -1262,11 +1264,13 @@
       <c r="X3" t="s">
         <v>35</v>
       </c>
-      <c r="Y3"/>
+      <c r="Y3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>26</v>
@@ -1293,7 +1297,7 @@
         <v>29</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1336,11 +1340,14 @@
       </c>
       <c r="X4" t="s">
         <v>35</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>26</v>
@@ -1367,7 +1374,7 @@
         <v>29</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1394,10 +1401,10 @@
         <v>30</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>30</v>
@@ -1410,11 +1417,14 @@
       </c>
       <c r="X5" t="s">
         <v>35</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>26</v>
@@ -1447,13 +1457,13 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O6" s="4">
         <v>45384</v>
@@ -1465,13 +1475,13 @@
         <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>30</v>
@@ -1484,11 +1494,14 @@
       </c>
       <c r="X6" t="s">
         <v>35</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="34.8" customHeight="1">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>26</v>
@@ -1521,13 +1534,13 @@
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O7" s="4">
         <v>45384</v>
@@ -1558,11 +1571,14 @@
       </c>
       <c r="X7" t="s">
         <v>35</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="33.75" customHeight="1">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>26</v>
@@ -1595,13 +1611,13 @@
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O8" s="4">
         <v>45384</v>
@@ -1632,11 +1648,14 @@
       </c>
       <c r="X8" t="s">
         <v>35</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="33.75" customHeight="1">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>26</v>
@@ -1663,13 +1682,13 @@
         <v>29</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>31</v>
@@ -1706,11 +1725,14 @@
       </c>
       <c r="X9" t="s">
         <v>35</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="33.75" customHeight="1">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
@@ -1737,13 +1759,13 @@
         <v>29</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>31</v>
@@ -1780,11 +1802,14 @@
       </c>
       <c r="X10" t="s">
         <v>35</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" ht="33.75" customHeight="1">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>26</v>
@@ -1817,13 +1842,13 @@
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O11" s="4">
         <v>45384</v>
@@ -1854,11 +1879,14 @@
       </c>
       <c r="X11" t="s">
         <v>35</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" ht="33.75" customHeight="1">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>26</v>
@@ -1891,13 +1919,13 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O12" s="4">
         <v>45384</v>
@@ -1928,11 +1956,14 @@
       </c>
       <c r="X12" t="s">
         <v>35</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>26</v>
@@ -1965,13 +1996,13 @@
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O13" s="4">
         <v>45384</v>
@@ -2002,11 +2033,14 @@
       </c>
       <c r="X13" t="s">
         <v>35</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2039,13 +2073,13 @@
         <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="4">
         <v>45384</v>
@@ -2076,11 +2110,14 @@
       </c>
       <c r="X14" t="s">
         <v>35</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
@@ -2113,13 +2150,13 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="4">
         <v>45384</v>
@@ -2150,11 +2187,14 @@
       </c>
       <c r="X15" t="s">
         <v>35</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="26.25" customHeight="1">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
@@ -2187,13 +2227,13 @@
         <v>1</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="16">
         <v>45384</v>
@@ -2208,10 +2248,10 @@
         <v>7709577438</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U16" s="13" t="s">
         <v>30</v>
@@ -2224,11 +2264,14 @@
       </c>
       <c r="X16" t="s">
         <v>35</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
@@ -2261,13 +2304,13 @@
         <v>1</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O17" s="16">
         <v>45384</v>
@@ -2282,10 +2325,10 @@
         <v>7709577438</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U17" s="13" t="s">
         <v>30</v>
@@ -2298,11 +2341,14 @@
       </c>
       <c r="X17" t="s">
         <v>35</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="15">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>26</v>
@@ -2335,13 +2381,13 @@
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O18" s="19">
         <v>45384</v>
@@ -2356,10 +2402,10 @@
         <v>7709577438</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U18" t="s">
         <v>30</v>
@@ -2372,11 +2418,14 @@
       </c>
       <c r="X18" t="s">
         <v>35</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="31.5" customHeight="1">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>26</v>
@@ -2403,7 +2452,7 @@
         <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2442,15 +2491,18 @@
         <v>34</v>
       </c>
       <c r="W19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s">
         <v>35</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="31.5" customHeight="1">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
@@ -2483,7 +2535,7 @@
         <v>30</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>31</v>
@@ -2516,15 +2568,18 @@
         <v>34</v>
       </c>
       <c r="W20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s">
         <v>35</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="31.5" customHeight="1">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -2557,7 +2612,7 @@
         <v>30</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>31</v>
@@ -2590,15 +2645,18 @@
         <v>34</v>
       </c>
       <c r="W21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s">
         <v>35</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="31.5" customHeight="1">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>26</v>
@@ -2631,13 +2689,13 @@
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O22" s="4">
         <v>45384</v>
@@ -2664,15 +2722,18 @@
         <v>34</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s">
         <v>35</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" ht="31.5" customHeight="1">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>26</v>
@@ -2705,13 +2766,13 @@
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O23" s="4">
         <v>45384</v>
@@ -2738,15 +2799,18 @@
         <v>34</v>
       </c>
       <c r="W23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s">
         <v>35</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" ht="32.25" customHeight="1">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>26</v>
@@ -2779,13 +2843,13 @@
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O24" s="4">
         <v>45384</v>
@@ -2816,11 +2880,14 @@
       </c>
       <c r="X24" t="s">
         <v>35</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="28.5" customHeight="1">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>26</v>
@@ -2853,13 +2920,13 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O25" s="4">
         <v>45384</v>
@@ -2890,11 +2957,14 @@
       </c>
       <c r="X25" t="s">
         <v>35</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>26</v>
@@ -2927,13 +2997,13 @@
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O26" s="4">
         <v>45384</v>
@@ -2964,11 +3034,14 @@
       </c>
       <c r="X26" t="s">
         <v>35</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
@@ -3001,13 +3074,13 @@
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O27" s="4">
         <v>45384</v>
@@ -3038,11 +3111,14 @@
       </c>
       <c r="X27" t="s">
         <v>35</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>26</v>
@@ -3075,13 +3151,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O28" s="4">
         <v>45384</v>
@@ -3096,7 +3172,7 @@
         <v>7709577438</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>30</v>
@@ -3112,11 +3188,14 @@
       </c>
       <c r="X28" t="s">
         <v>35</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>26</v>
@@ -3149,13 +3228,13 @@
         <v>1</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O29" s="4">
         <v>45384</v>
@@ -3182,15 +3261,18 @@
         <v>34</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s">
         <v>35</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>26</v>
@@ -3223,13 +3305,13 @@
         <v>1</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O30" s="4">
         <v>45384</v>
@@ -3256,15 +3338,18 @@
         <v>34</v>
       </c>
       <c r="W30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X30" t="s">
         <v>35</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>26</v>
@@ -3297,13 +3382,13 @@
         <v>1</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O31" s="4">
         <v>45384</v>
@@ -3334,11 +3419,14 @@
       </c>
       <c r="X31" t="s">
         <v>35</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>26</v>
@@ -3371,13 +3459,13 @@
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O32" s="4">
         <v>45384</v>
@@ -3408,11 +3496,14 @@
       </c>
       <c r="X32" t="s">
         <v>35</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>26</v>
@@ -3445,13 +3536,13 @@
         <v>1</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O33" s="4">
         <v>45384</v>
@@ -3482,11 +3573,14 @@
       </c>
       <c r="X33" t="s">
         <v>35</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>26</v>
@@ -3519,13 +3613,13 @@
         <v>1</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O34" s="4">
         <v>45384</v>
@@ -3556,11 +3650,14 @@
       </c>
       <c r="X34" t="s">
         <v>35</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>26</v>
@@ -3593,13 +3690,13 @@
         <v>1</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O35" s="4">
         <v>45384</v>
@@ -3626,15 +3723,18 @@
         <v>34</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s">
         <v>35</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>26</v>
@@ -3667,13 +3767,13 @@
         <v>1</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O36" s="4">
         <v>45384</v>
@@ -3700,15 +3800,18 @@
         <v>34</v>
       </c>
       <c r="W36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s">
         <v>35</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>26</v>
@@ -3741,13 +3844,13 @@
         <v>1</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O37" s="4">
         <v>45384</v>
@@ -3778,11 +3881,14 @@
       </c>
       <c r="X37" t="s">
         <v>35</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>26</v>
@@ -3815,13 +3921,13 @@
         <v>1</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O38" s="4">
         <v>45384</v>
@@ -3852,11 +3958,14 @@
       </c>
       <c r="X38" t="s">
         <v>35</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>26</v>
@@ -3889,13 +3998,13 @@
         <v>1</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O39" s="4">
         <v>45384</v>
@@ -3926,11 +4035,14 @@
       </c>
       <c r="X39" t="s">
         <v>35</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>26</v>
@@ -3963,13 +4075,13 @@
         <v>1</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O40" s="4">
         <v>45384</v>
@@ -4000,11 +4112,14 @@
       </c>
       <c r="X40" t="s">
         <v>35</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>26</v>
@@ -4037,13 +4152,13 @@
         <v>1</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O41" s="4">
         <v>45384</v>
@@ -4070,15 +4185,18 @@
         <v>34</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X41" t="s">
         <v>35</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>26</v>
@@ -4111,13 +4229,13 @@
         <v>1</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O42" s="4">
         <v>45384</v>
@@ -4144,15 +4262,18 @@
         <v>34</v>
       </c>
       <c r="W42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s">
         <v>35</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>26</v>
@@ -4185,13 +4306,13 @@
         <v>1</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O43" s="4">
         <v>45384</v>
@@ -4222,11 +4343,14 @@
       </c>
       <c r="X43" t="s">
         <v>35</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>26</v>
@@ -4259,13 +4383,13 @@
         <v>1</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O44" s="4">
         <v>45384</v>
@@ -4296,11 +4420,14 @@
       </c>
       <c r="X44" t="s">
         <v>35</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>26</v>
@@ -4333,13 +4460,13 @@
         <v>1</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O45" s="4">
         <v>45384</v>
@@ -4370,11 +4497,14 @@
       </c>
       <c r="X45" t="s">
         <v>35</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>26</v>
@@ -4407,13 +4537,13 @@
         <v>1</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O46" s="4">
         <v>45384</v>
@@ -4444,11 +4574,14 @@
       </c>
       <c r="X46" t="s">
         <v>35</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>26</v>
@@ -4518,11 +4651,14 @@
       </c>
       <c r="X47" t="s">
         <v>35</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>26</v>
@@ -4558,7 +4694,7 @@
         <v>30</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N48" t="s">
         <v>30</v>
@@ -4592,11 +4728,14 @@
       </c>
       <c r="X48" t="s">
         <v>35</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="49" ht="28.5">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>26</v>
@@ -4623,7 +4762,7 @@
         <v>29</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -4666,11 +4805,14 @@
       </c>
       <c r="X49" t="s">
         <v>35</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="50" ht="28.5">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>26</v>
@@ -4697,7 +4839,7 @@
         <v>29</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -4724,10 +4866,10 @@
         <v>30</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U50" s="2" t="s">
         <v>30</v>
@@ -4740,11 +4882,14 @@
       </c>
       <c r="X50" t="s">
         <v>35</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>26</v>
@@ -4777,13 +4922,13 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O51" s="4">
         <v>45384</v>
@@ -4795,13 +4940,13 @@
         <v>33</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U51" s="2" t="s">
         <v>30</v>
@@ -4814,11 +4959,14 @@
       </c>
       <c r="X51" t="s">
         <v>35</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>26</v>
@@ -4851,13 +4999,13 @@
         <v>1</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O52" s="4">
         <v>45384</v>
@@ -4888,11 +5036,14 @@
       </c>
       <c r="X52" t="s">
         <v>35</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>26</v>
@@ -4925,13 +5076,13 @@
         <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O53" s="4">
         <v>45384</v>
@@ -4962,11 +5113,14 @@
       </c>
       <c r="X53" t="s">
         <v>35</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="28.5">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>26</v>
@@ -4993,13 +5147,13 @@
         <v>29</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>31</v>
@@ -5036,11 +5190,14 @@
       </c>
       <c r="X54" t="s">
         <v>35</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>26</v>
@@ -5067,13 +5224,13 @@
         <v>29</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>31</v>
@@ -5110,11 +5267,14 @@
       </c>
       <c r="X55" t="s">
         <v>35</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>26</v>
@@ -5147,13 +5307,13 @@
         <v>1</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O56" s="4">
         <v>45384</v>
@@ -5184,11 +5344,14 @@
       </c>
       <c r="X56" t="s">
         <v>35</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>26</v>
@@ -5221,13 +5384,13 @@
         <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O57" s="4">
         <v>45384</v>
@@ -5258,11 +5421,14 @@
       </c>
       <c r="X57" t="s">
         <v>35</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>26</v>
@@ -5295,13 +5461,13 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O58" s="4">
         <v>45384</v>
@@ -5332,11 +5498,14 @@
       </c>
       <c r="X58" t="s">
         <v>35</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>26</v>
@@ -5369,13 +5538,13 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O59" s="4">
         <v>45384</v>
@@ -5406,11 +5575,14 @@
       </c>
       <c r="X59" t="s">
         <v>35</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>26</v>
@@ -5443,13 +5615,13 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O60" s="4">
         <v>45384</v>
@@ -5480,11 +5652,14 @@
       </c>
       <c r="X60" t="s">
         <v>35</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="61" ht="15">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>26</v>
@@ -5517,13 +5692,13 @@
         <v>1</v>
       </c>
       <c r="L61" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M61" s="14" t="s">
         <v>31</v>
       </c>
       <c r="N61" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O61" s="16">
         <v>45384</v>
@@ -5538,10 +5713,10 @@
         <v>7709577438</v>
       </c>
       <c r="S61" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T61" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U61" s="13" t="s">
         <v>30</v>
@@ -5554,11 +5729,14 @@
       </c>
       <c r="X61" t="s">
         <v>35</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="62" ht="15">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>26</v>
@@ -5591,13 +5769,13 @@
         <v>1</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M62" s="14" t="s">
         <v>31</v>
       </c>
       <c r="N62" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O62" s="16">
         <v>45384</v>
@@ -5612,10 +5790,10 @@
         <v>7709577438</v>
       </c>
       <c r="S62" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T62" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U62" s="13" t="s">
         <v>30</v>
@@ -5628,11 +5806,14 @@
       </c>
       <c r="X62" t="s">
         <v>35</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="63" ht="15">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>26</v>
@@ -5665,13 +5846,13 @@
         <v>1</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O63" s="19">
         <v>45384</v>
@@ -5686,10 +5867,10 @@
         <v>7709577438</v>
       </c>
       <c r="S63" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T63" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U63" t="s">
         <v>30</v>
@@ -5702,11 +5883,14 @@
       </c>
       <c r="X63" t="s">
         <v>35</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>26</v>
@@ -5733,7 +5917,7 @@
         <v>29</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
@@ -5772,15 +5956,18 @@
         <v>34</v>
       </c>
       <c r="W64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X64" t="s">
         <v>35</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>26</v>
@@ -5813,7 +6000,7 @@
         <v>30</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>31</v>
@@ -5846,15 +6033,18 @@
         <v>34</v>
       </c>
       <c r="W65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X65" t="s">
         <v>35</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>26</v>
@@ -5887,7 +6077,7 @@
         <v>30</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>31</v>
@@ -5920,15 +6110,18 @@
         <v>34</v>
       </c>
       <c r="W66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X66" t="s">
         <v>35</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>26</v>
@@ -5961,13 +6154,13 @@
         <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O67" s="4">
         <v>45384</v>
@@ -5994,15 +6187,18 @@
         <v>34</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X67" t="s">
         <v>35</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>26</v>
@@ -6035,13 +6231,13 @@
         <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O68" s="4">
         <v>45384</v>
@@ -6068,15 +6264,18 @@
         <v>34</v>
       </c>
       <c r="W68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X68" t="s">
         <v>35</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>26</v>
@@ -6109,13 +6308,13 @@
         <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O69" s="4">
         <v>45384</v>
@@ -6146,11 +6345,14 @@
       </c>
       <c r="X69" t="s">
         <v>35</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>26</v>
@@ -6183,13 +6385,13 @@
         <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O70" s="4">
         <v>45384</v>
@@ -6220,11 +6422,14 @@
       </c>
       <c r="X70" t="s">
         <v>35</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>26</v>
@@ -6257,13 +6462,13 @@
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O71" s="4">
         <v>45384</v>
@@ -6294,11 +6499,14 @@
       </c>
       <c r="X71" t="s">
         <v>35</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>26</v>
@@ -6331,13 +6539,13 @@
         <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O72" s="4">
         <v>45384</v>
@@ -6368,11 +6576,14 @@
       </c>
       <c r="X72" t="s">
         <v>35</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>26</v>
@@ -6405,13 +6616,13 @@
         <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O73" s="4">
         <v>45384</v>
@@ -6426,7 +6637,7 @@
         <v>7709577438</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T73" s="2" t="s">
         <v>30</v>
@@ -6442,11 +6653,14 @@
       </c>
       <c r="X73" t="s">
         <v>35</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6462,7 +6676,7 @@
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6478,7 +6692,7 @@
     </row>
     <row r="76" ht="14.25">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6494,7 +6708,7 @@
     </row>
     <row r="77" ht="14.25">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6510,7 +6724,7 @@
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6526,7 +6740,7 @@
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6542,7 +6756,7 @@
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6558,7 +6772,7 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6574,7 +6788,7 @@
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6590,7 +6804,7 @@
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6606,72 +6820,72 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B97"/>
       <c r="C97"/>
@@ -6699,7 +6913,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B98"/>
       <c r="C98"/>
@@ -6727,7 +6941,7 @@
     </row>
     <row r="99" ht="33" customHeight="1">
       <c r="A99" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B99"/>
       <c r="C99"/>
@@ -6755,7 +6969,7 @@
     </row>
     <row r="100" ht="34.8" customHeight="1">
       <c r="A100" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B100"/>
       <c r="C100"/>
@@ -6792,6 +7006,7 @@
     <row r="109" ht="26.25" customHeight="1"/>
     <row r="110" ht="30" customHeight="1"/>
     <row r="111" s="1" customFormat="1">
+      <c r="Y111"/>
       <c r="AA111"/>
       <c r="AB111"/>
       <c r="AC111"/>
@@ -23145,11 +23360,7 @@
       <c r="XEW111"/>
     </row>
     <row r="112" ht="31.5" customHeight="1"/>
-    <row r="113" ht="31.5" customHeight="1">
-      <c r="Y113" t="s">
-        <v>158</v>
-      </c>
-    </row>
+    <row r="113" ht="31.5" customHeight="1"/>
     <row r="114" ht="31.5" customHeight="1"/>
     <row r="115" ht="31.5" customHeight="1"/>
     <row r="116" ht="31.5" customHeight="1"/>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>select_invoice_option</t>
+  </si>
+  <si>
+    <t>search_invoice</t>
+  </si>
+  <si>
+    <t>replace_qty</t>
   </si>
   <si>
     <t>E_01</t>
@@ -261,6 +267,12 @@
   </si>
   <si>
     <t>cash : 275 , paytm : 275</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Mrunal Jagtap</t>
   </si>
   <si>
     <t>E_22</t>
@@ -504,7 +516,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -532,11 +544,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -567,25 +574,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -598,11 +588,11 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -629,20 +619,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -1014,8 +990,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="Q101">
-      <selection activeCell="Y74" sqref="Y74:Y113"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="Q17">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1113,22 +1089,28 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>123456</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>123456</v>
@@ -1140,72 +1122,72 @@
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O2" s="4">
         <v>45384</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>123456</v>
@@ -1217,72 +1199,72 @@
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O3" s="4">
         <v>45384</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6">
         <v>123456</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="6">
         <v>123456</v>
@@ -1294,10 +1276,10 @@
         <v>600</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1306,60 +1288,60 @@
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O4" s="4">
         <v>45384</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6">
         <v>123456</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6">
         <v>123456</v>
@@ -1371,10 +1353,10 @@
         <v>600</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1383,60 +1365,60 @@
         <v>2</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O5" s="4">
         <v>45384</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3">
         <v>123456</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3">
         <v>123456</v>
@@ -1448,7 +1430,7 @@
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J6" s="9">
         <v>1</v>
@@ -1457,63 +1439,63 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O6" s="4">
         <v>45384</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="U6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="34.8" customHeight="1">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3">
         <v>123456</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3">
         <v>123456</v>
@@ -1525,7 +1507,7 @@
         <v>600</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J7" s="9">
         <v>1</v>
@@ -1534,63 +1516,63 @@
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
         <v>48</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
       </c>
       <c r="O7" s="4">
         <v>45384</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R7" s="10">
         <v>7709577438</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="33.75" customHeight="1">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3">
         <v>123456</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3">
         <v>123456</v>
@@ -1602,7 +1584,7 @@
         <v>600</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J8" s="9">
         <v>1</v>
@@ -1611,63 +1593,63 @@
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O8" s="4">
         <v>45384</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R8" s="10">
         <v>7709577438</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="33.75" customHeight="1">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6">
         <v>123456</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6">
         <v>123456</v>
@@ -1679,72 +1661,72 @@
         <v>600</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O9" s="4">
         <v>45384</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" ht="33.75" customHeight="1">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3">
         <v>123456</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6">
         <v>123456</v>
@@ -1756,72 +1738,73 @@
         <v>600</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O10" s="4">
         <v>45384</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AA10"/>
     </row>
     <row r="11" ht="33.75" customHeight="1">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3">
         <v>123456</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3">
         <v>123456</v>
@@ -1833,7 +1816,7 @@
         <v>600</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J11" s="9">
         <v>1</v>
@@ -1842,63 +1825,63 @@
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O11" s="4">
         <v>45384</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R11" s="10">
         <v>7709577438</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" ht="33.75" customHeight="1">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3">
         <v>123456</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3">
         <v>123456</v>
@@ -1910,7 +1893,7 @@
         <v>600</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J12" s="9">
         <v>1</v>
@@ -1919,63 +1902,63 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O12" s="4">
         <v>45384</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R12" s="10">
         <v>7709577438</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3">
         <v>123456</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" s="3">
         <v>123456</v>
@@ -1987,7 +1970,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J13" s="9">
         <v>1</v>
@@ -1996,63 +1979,63 @@
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O13" s="4">
         <v>45384</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R13" s="10">
         <v>7709577438</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3">
         <v>123456</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3">
         <v>123456</v>
@@ -2064,7 +2047,7 @@
         <v>600</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J14" s="9">
         <v>1</v>
@@ -2073,63 +2056,63 @@
         <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O14" s="4">
         <v>45384</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R14" s="10">
         <v>7709577438</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="11">
         <v>123456</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="3">
         <v>123456</v>
@@ -2141,7 +2124,7 @@
         <v>600</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J15" s="9">
         <v>1</v>
@@ -2150,140 +2133,140 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O15" s="4">
         <v>45384</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R15" s="10">
         <v>7709577438</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="26.25" customHeight="1">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6">
         <v>123456</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="12">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
         <v>123456</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16">
         <v>1000</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16">
         <v>600</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="I16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="9">
         <v>1</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="9">
         <v>1</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="16">
+      <c r="O16" s="4">
         <v>45384</v>
       </c>
-      <c r="P16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="17">
+      <c r="P16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="10">
         <v>7709577438</v>
       </c>
-      <c r="S16" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="V16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>30</v>
+      <c r="S16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" t="s">
+        <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3">
         <v>123456</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17" s="3">
         <v>123456</v>
@@ -2295,72 +2278,72 @@
         <v>600</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" s="10">
+        <v>7709577438</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U17" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="15">
-        <v>1</v>
-      </c>
-      <c r="K17" s="15">
-        <v>1</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="16">
-        <v>45384</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="17">
-        <v>7709577438</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="U17" s="13" t="s">
+      <c r="D18" s="12">
+        <v>123456</v>
+      </c>
+      <c r="E18" t="s">
         <v>30</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="X17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" ht="15">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="18">
-        <v>123456</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
       </c>
       <c r="F18">
         <v>123456</v>
@@ -2372,72 +2355,72 @@
         <v>600</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="15">
+        <v>31</v>
+      </c>
+      <c r="J18" s="9">
         <v>1</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="9">
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O18" s="19">
+      <c r="O18" s="13">
         <v>45384</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="17">
+        <v>35</v>
+      </c>
+      <c r="R18" s="10">
         <v>7709577438</v>
       </c>
-      <c r="S18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>68</v>
+      <c r="S18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="U18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="31.5" customHeight="1">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6">
         <v>123456</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F19" s="6">
         <v>123456</v>
@@ -2449,10 +2432,10 @@
         <v>600</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2461,60 +2444,60 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O19" s="19">
+        <v>32</v>
+      </c>
+      <c r="O19" s="13">
         <v>45384</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="31.5" customHeight="1">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>123456</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F20">
         <v>123456</v>
@@ -2526,72 +2509,72 @@
         <v>600</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" s="19">
+        <v>32</v>
+      </c>
+      <c r="O20" s="13">
         <v>45384</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R20" s="10">
         <v>7709577438</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="31.5" customHeight="1">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>123456</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21">
         <v>123456</v>
@@ -2603,72 +2586,72 @@
         <v>600</v>
       </c>
       <c r="I21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" s="19">
+        <v>32</v>
+      </c>
+      <c r="O21" s="13">
         <v>45384</v>
       </c>
       <c r="P21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R21" s="10">
         <v>7709577438</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T21" s="2">
         <v>300</v>
       </c>
       <c r="U21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="31.5" customHeight="1">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3">
         <v>123456</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F22" s="3">
         <v>123456</v>
@@ -2680,7 +2663,7 @@
         <v>600</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J22" s="9">
         <v>1</v>
@@ -2689,63 +2672,69 @@
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O22" s="4">
         <v>45384</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R22" s="10">
         <v>7709577438</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y22" t="s">
-        <v>36</v>
+        <v>83</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="31.5" customHeight="1">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3">
         <v>123456</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F23" s="3">
         <v>123456</v>
@@ -2757,7 +2746,7 @@
         <v>600</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J23" s="9">
         <v>1</v>
@@ -2766,63 +2755,63 @@
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" t="s">
         <v>48</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" t="s">
-        <v>46</v>
       </c>
       <c r="O23" s="4">
         <v>45384</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R23" s="10">
         <v>7709577438</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="32.25" customHeight="1">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3">
         <v>123456</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="3">
         <v>123456</v>
@@ -2834,7 +2823,7 @@
         <v>600</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J24" s="9">
         <v>1</v>
@@ -2843,63 +2832,63 @@
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" t="s">
         <v>48</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" t="s">
-        <v>46</v>
       </c>
       <c r="O24" s="4">
         <v>45384</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R24" s="10">
         <v>7709577438</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="28.5" customHeight="1">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3">
         <v>123456</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F25" s="3">
         <v>123456</v>
@@ -2911,7 +2900,7 @@
         <v>600</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J25" s="9">
         <v>1</v>
@@ -2920,63 +2909,63 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" t="s">
         <v>48</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" t="s">
-        <v>46</v>
       </c>
       <c r="O25" s="4">
         <v>45384</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R25" s="10">
         <v>6375266109</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3">
         <v>123456</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F26" s="3">
         <v>123456</v>
@@ -2988,7 +2977,7 @@
         <v>600</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J26" s="9">
         <v>1</v>
@@ -2997,63 +2986,63 @@
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" t="s">
         <v>48</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" t="s">
-        <v>46</v>
       </c>
       <c r="O26" s="4">
         <v>45384</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R26" s="10">
         <v>7709577438</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3">
         <v>123456</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="3">
         <v>123456</v>
@@ -3065,7 +3054,7 @@
         <v>600</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J27" s="9">
         <v>1</v>
@@ -3074,63 +3063,63 @@
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" t="s">
         <v>48</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" t="s">
-        <v>46</v>
       </c>
       <c r="O27" s="4">
         <v>45384</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R27" s="10">
         <v>7709577438</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="3">
         <v>123456</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F28" s="3">
         <v>123456</v>
@@ -3142,7 +3131,7 @@
         <v>600</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J28" s="9">
         <v>1</v>
@@ -3151,63 +3140,63 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" t="s">
         <v>48</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" t="s">
-        <v>46</v>
       </c>
       <c r="O28" s="4">
         <v>45384</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R28" s="10">
         <v>7709577438</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" s="3">
         <v>123456</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F29" s="3">
         <v>123456</v>
@@ -3219,7 +3208,7 @@
         <v>600</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J29" s="9">
         <v>1</v>
@@ -3228,63 +3217,63 @@
         <v>1</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O29" s="4">
         <v>45384</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R29" s="10">
         <v>7709577438</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3">
         <v>123456</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="3">
         <v>123456</v>
@@ -3296,7 +3285,7 @@
         <v>600</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J30" s="9">
         <v>1</v>
@@ -3305,63 +3294,63 @@
         <v>1</v>
       </c>
       <c r="L30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" t="s">
         <v>48</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30" t="s">
-        <v>46</v>
       </c>
       <c r="O30" s="4">
         <v>45384</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R30" s="10">
         <v>7709577438</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3">
         <v>123456</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F31" s="3">
         <v>123456</v>
@@ -3373,7 +3362,7 @@
         <v>600</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J31" s="9">
         <v>1</v>
@@ -3382,63 +3371,63 @@
         <v>1</v>
       </c>
       <c r="L31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" t="s">
         <v>48</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" t="s">
-        <v>46</v>
       </c>
       <c r="O31" s="4">
         <v>45384</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R31" s="10">
         <v>7709577438</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" s="3">
         <v>123456</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F32" s="3">
         <v>123456</v>
@@ -3450,7 +3439,7 @@
         <v>600</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J32" s="9">
         <v>1</v>
@@ -3459,63 +3448,63 @@
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" t="s">
         <v>48</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" t="s">
-        <v>46</v>
       </c>
       <c r="O32" s="4">
         <v>45384</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R32" s="10">
         <v>6375266109</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="3">
         <v>123456</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="3">
         <v>123456</v>
@@ -3527,7 +3516,7 @@
         <v>600</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J33" s="9">
         <v>1</v>
@@ -3536,63 +3525,63 @@
         <v>1</v>
       </c>
       <c r="L33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" t="s">
         <v>48</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" t="s">
-        <v>46</v>
       </c>
       <c r="O33" s="4">
         <v>45384</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R33" s="10">
         <v>7709577438</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34" s="3">
         <v>123456</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F34" s="3">
         <v>123456</v>
@@ -3604,7 +3593,7 @@
         <v>600</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J34" s="9">
         <v>1</v>
@@ -3613,63 +3602,63 @@
         <v>1</v>
       </c>
       <c r="L34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34" t="s">
         <v>48</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N34" t="s">
-        <v>46</v>
       </c>
       <c r="O34" s="4">
         <v>45384</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R34" s="10">
         <v>7709577438</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" s="3">
         <v>123456</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F35" s="3">
         <v>123456</v>
@@ -3681,7 +3670,7 @@
         <v>600</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J35" s="9">
         <v>1</v>
@@ -3690,63 +3679,63 @@
         <v>1</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O35" s="4">
         <v>45384</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R35" s="10">
         <v>7709577438</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D36" s="3">
         <v>123456</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F36" s="3">
         <v>123456</v>
@@ -3758,7 +3747,7 @@
         <v>600</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J36" s="9">
         <v>1</v>
@@ -3767,63 +3756,63 @@
         <v>1</v>
       </c>
       <c r="L36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36" t="s">
         <v>48</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" t="s">
-        <v>46</v>
       </c>
       <c r="O36" s="4">
         <v>45384</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R36" s="10">
         <v>7709577438</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3">
         <v>123456</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F37" s="3">
         <v>123456</v>
@@ -3835,7 +3824,7 @@
         <v>600</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J37" s="9">
         <v>1</v>
@@ -3844,63 +3833,63 @@
         <v>1</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" t="s">
         <v>48</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N37" t="s">
-        <v>46</v>
       </c>
       <c r="O37" s="4">
         <v>45384</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R37" s="10">
         <v>7709577438</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="3">
         <v>123456</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F38" s="3">
         <v>123456</v>
@@ -3912,7 +3901,7 @@
         <v>600</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J38" s="9">
         <v>1</v>
@@ -3921,63 +3910,63 @@
         <v>1</v>
       </c>
       <c r="L38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38" t="s">
         <v>48</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" t="s">
-        <v>46</v>
       </c>
       <c r="O38" s="4">
         <v>45384</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R38" s="10">
         <v>6375266109</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" s="3">
         <v>123456</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F39" s="3">
         <v>123456</v>
@@ -3989,7 +3978,7 @@
         <v>600</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J39" s="9">
         <v>1</v>
@@ -3998,63 +3987,63 @@
         <v>1</v>
       </c>
       <c r="L39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N39" t="s">
         <v>48</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" t="s">
-        <v>46</v>
       </c>
       <c r="O39" s="4">
         <v>45384</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R39" s="10">
         <v>7709577438</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="3">
         <v>123456</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F40" s="3">
         <v>123456</v>
@@ -4066,7 +4055,7 @@
         <v>600</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J40" s="9">
         <v>1</v>
@@ -4075,63 +4064,63 @@
         <v>1</v>
       </c>
       <c r="L40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N40" t="s">
         <v>48</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N40" t="s">
-        <v>46</v>
       </c>
       <c r="O40" s="4">
         <v>45384</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R40" s="10">
         <v>7709577438</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41" s="3">
         <v>123456</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F41" s="3">
         <v>123456</v>
@@ -4143,7 +4132,7 @@
         <v>600</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J41" s="9">
         <v>1</v>
@@ -4152,63 +4141,63 @@
         <v>1</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O41" s="4">
         <v>45384</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R41" s="10">
         <v>7709577438</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D42" s="3">
         <v>123456</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F42" s="3">
         <v>123456</v>
@@ -4220,7 +4209,7 @@
         <v>600</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J42" s="9">
         <v>1</v>
@@ -4229,63 +4218,63 @@
         <v>1</v>
       </c>
       <c r="L42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N42" t="s">
         <v>48</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N42" t="s">
-        <v>46</v>
       </c>
       <c r="O42" s="4">
         <v>45384</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R42" s="10">
         <v>7709577438</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D43" s="3">
         <v>123456</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F43" s="3">
         <v>123456</v>
@@ -4297,7 +4286,7 @@
         <v>600</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J43" s="9">
         <v>1</v>
@@ -4306,63 +4295,63 @@
         <v>1</v>
       </c>
       <c r="L43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" t="s">
         <v>48</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N43" t="s">
-        <v>46</v>
       </c>
       <c r="O43" s="4">
         <v>45384</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R43" s="10">
         <v>7709577438</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44" s="3">
         <v>123456</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F44" s="3">
         <v>123456</v>
@@ -4374,7 +4363,7 @@
         <v>600</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J44" s="9">
         <v>1</v>
@@ -4383,63 +4372,63 @@
         <v>1</v>
       </c>
       <c r="L44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N44" t="s">
         <v>48</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N44" t="s">
-        <v>46</v>
       </c>
       <c r="O44" s="4">
         <v>45384</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R44" s="10">
         <v>6375266109</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D45" s="3">
         <v>123456</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F45" s="3">
         <v>123456</v>
@@ -4451,7 +4440,7 @@
         <v>600</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J45" s="9">
         <v>1</v>
@@ -4460,63 +4449,63 @@
         <v>1</v>
       </c>
       <c r="L45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N45" t="s">
         <v>48</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N45" t="s">
-        <v>46</v>
       </c>
       <c r="O45" s="4">
         <v>45384</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R45" s="10">
         <v>7709577438</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D46" s="3">
         <v>123456</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F46" s="3">
         <v>123456</v>
@@ -4528,7 +4517,7 @@
         <v>600</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J46" s="9">
         <v>1</v>
@@ -4537,63 +4526,63 @@
         <v>1</v>
       </c>
       <c r="L46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N46" t="s">
         <v>48</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N46" t="s">
-        <v>46</v>
       </c>
       <c r="O46" s="4">
         <v>45384</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R46" s="10">
         <v>7709577438</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47">
         <v>123456</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F47">
         <v>123456</v>
@@ -4605,72 +4594,72 @@
         <v>600</v>
       </c>
       <c r="I47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O47" s="4">
         <v>45384</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48">
         <v>123456</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F48">
         <v>123456</v>
@@ -4682,72 +4671,72 @@
         <v>600</v>
       </c>
       <c r="I48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O48" s="4">
         <v>45384</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y48" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="28.5">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49" s="6">
         <v>123456</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F49" s="6">
         <v>123456</v>
@@ -4759,10 +4748,10 @@
         <v>600</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -4771,60 +4760,60 @@
         <v>2</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O49" s="4">
         <v>45384</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" ht="28.5">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" s="6">
         <v>123456</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F50" s="6">
         <v>123456</v>
@@ -4836,10 +4825,10 @@
         <v>600</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -4848,60 +4837,60 @@
         <v>2</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O50" s="4">
         <v>45384</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" s="3">
         <v>123456</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F51" s="3">
         <v>123456</v>
@@ -4913,7 +4902,7 @@
         <v>600</v>
       </c>
       <c r="I51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J51" s="9">
         <v>1</v>
@@ -4922,63 +4911,63 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O51" s="4">
         <v>45384</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="U51" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3">
         <v>123456</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F52" s="3">
         <v>123456</v>
@@ -4990,7 +4979,7 @@
         <v>600</v>
       </c>
       <c r="I52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J52" s="9">
         <v>1</v>
@@ -4999,63 +4988,63 @@
         <v>1</v>
       </c>
       <c r="L52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N52" t="s">
         <v>48</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N52" t="s">
-        <v>46</v>
       </c>
       <c r="O52" s="4">
         <v>45384</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R52" s="10">
         <v>7709577438</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="3">
         <v>123456</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F53" s="3">
         <v>123456</v>
@@ -5067,7 +5056,7 @@
         <v>600</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J53" s="9">
         <v>1</v>
@@ -5076,63 +5065,63 @@
         <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O53" s="4">
         <v>45384</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R53" s="10">
         <v>7709577438</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="28.5">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" s="6">
         <v>123456</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F54" s="6">
         <v>123456</v>
@@ -5144,72 +5133,72 @@
         <v>600</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O54" s="4">
         <v>45384</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D55" s="3">
         <v>123456</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F55" s="6">
         <v>123456</v>
@@ -5221,72 +5210,72 @@
         <v>600</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O55" s="4">
         <v>45384</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="3">
         <v>123456</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F56" s="3">
         <v>123456</v>
@@ -5298,7 +5287,7 @@
         <v>600</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J56" s="9">
         <v>1</v>
@@ -5307,63 +5296,63 @@
         <v>1</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O56" s="4">
         <v>45384</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R56" s="10">
         <v>7709577438</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="3">
         <v>123456</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F57" s="3">
         <v>123456</v>
@@ -5375,7 +5364,7 @@
         <v>600</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J57" s="9">
         <v>1</v>
@@ -5384,63 +5373,63 @@
         <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O57" s="4">
         <v>45384</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R57" s="10">
         <v>7709577438</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="3">
         <v>123456</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F58" s="3">
         <v>123456</v>
@@ -5452,7 +5441,7 @@
         <v>600</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J58" s="9">
         <v>1</v>
@@ -5461,63 +5450,63 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O58" s="4">
         <v>45384</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R58" s="10">
         <v>7709577438</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59" s="3">
         <v>123456</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F59" s="3">
         <v>123456</v>
@@ -5529,7 +5518,7 @@
         <v>600</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J59" s="9">
         <v>1</v>
@@ -5538,63 +5527,63 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O59" s="4">
         <v>45384</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R59" s="10">
         <v>7709577438</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60" s="11">
         <v>123456</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F60" s="3">
         <v>123456</v>
@@ -5606,7 +5595,7 @@
         <v>600</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J60" s="9">
         <v>1</v>
@@ -5615,140 +5604,140 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O60" s="4">
         <v>45384</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R60" s="10">
         <v>7709577438</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y60" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="61" ht="15">
+    <row r="61" ht="14.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61" s="6">
         <v>123456</v>
       </c>
       <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61">
+        <v>600</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="9">
+        <v>1</v>
+      </c>
+      <c r="K61" s="9">
+        <v>1</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N61" t="s">
+        <v>48</v>
+      </c>
+      <c r="O61" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R61" s="10">
+        <v>7709577438</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U61" t="s">
+        <v>32</v>
+      </c>
+      <c r="V61" t="s">
+        <v>36</v>
+      </c>
+      <c r="W61" t="s">
+        <v>32</v>
+      </c>
+      <c r="X61" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F61" s="12">
-        <v>123456</v>
-      </c>
-      <c r="G61" s="13">
-        <v>1000</v>
-      </c>
-      <c r="H61" s="13">
-        <v>600</v>
-      </c>
-      <c r="I61" s="14" t="s">
+      <c r="C62" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="J61" s="15">
-        <v>1</v>
-      </c>
-      <c r="K61" s="15">
-        <v>1</v>
-      </c>
-      <c r="L61" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M61" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N61" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O61" s="16">
-        <v>45384</v>
-      </c>
-      <c r="P61" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R61" s="17">
-        <v>7709577438</v>
-      </c>
-      <c r="S61" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="T61" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="U61" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="V61" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W61" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="X61" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" ht="15">
-      <c r="A62" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D62" s="3">
         <v>123456</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F62" s="3">
         <v>123456</v>
@@ -5760,72 +5749,72 @@
         <v>600</v>
       </c>
       <c r="I62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" s="9">
+        <v>1</v>
+      </c>
+      <c r="K62" s="9">
+        <v>1</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N62" t="s">
+        <v>48</v>
+      </c>
+      <c r="O62" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R62" s="10">
+        <v>7709577438</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U62" t="s">
+        <v>32</v>
+      </c>
+      <c r="V62" t="s">
+        <v>36</v>
+      </c>
+      <c r="W62" t="s">
+        <v>32</v>
+      </c>
+      <c r="X62" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
         <v>29</v>
       </c>
-      <c r="J62" s="15">
-        <v>1</v>
-      </c>
-      <c r="K62" s="15">
-        <v>1</v>
-      </c>
-      <c r="L62" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M62" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N62" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O62" s="16">
-        <v>45384</v>
-      </c>
-      <c r="P62" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q62" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R62" s="17">
-        <v>7709577438</v>
-      </c>
-      <c r="S62" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="T62" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="U62" s="13" t="s">
+      <c r="D63" s="12">
+        <v>123456</v>
+      </c>
+      <c r="E63" t="s">
         <v>30</v>
-      </c>
-      <c r="V62" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W62" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="X62" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" ht="15">
-      <c r="A63" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="18">
-        <v>123456</v>
-      </c>
-      <c r="E63" t="s">
-        <v>28</v>
       </c>
       <c r="F63">
         <v>123456</v>
@@ -5837,72 +5826,72 @@
         <v>600</v>
       </c>
       <c r="I63" t="s">
-        <v>29</v>
-      </c>
-      <c r="J63" s="15">
+        <v>31</v>
+      </c>
+      <c r="J63" s="9">
         <v>1</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K63" s="9">
         <v>1</v>
       </c>
       <c r="L63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N63" t="s">
         <v>48</v>
       </c>
-      <c r="M63" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N63" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O63" s="19">
+      <c r="O63" s="13">
         <v>45384</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R63" s="17">
+        <v>35</v>
+      </c>
+      <c r="R63" s="10">
         <v>7709577438</v>
       </c>
-      <c r="S63" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="T63" s="14" t="s">
-        <v>68</v>
+      <c r="S63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="U63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y63" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" s="6">
         <v>123456</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F64" s="6">
         <v>123456</v>
@@ -5914,10 +5903,10 @@
         <v>600</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
@@ -5926,60 +5915,60 @@
         <v>1</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O64" s="19">
+        <v>32</v>
+      </c>
+      <c r="O64" s="13">
         <v>45384</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y64" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D65">
         <v>123456</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F65">
         <v>123456</v>
@@ -5991,72 +5980,72 @@
         <v>600</v>
       </c>
       <c r="I65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N65" t="s">
-        <v>30</v>
-      </c>
-      <c r="O65" s="19">
+        <v>32</v>
+      </c>
+      <c r="O65" s="13">
         <v>45384</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R65" s="10">
         <v>7709577438</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W65" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66">
         <v>123456</v>
       </c>
       <c r="E66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F66">
         <v>123456</v>
@@ -6068,72 +6057,72 @@
         <v>600</v>
       </c>
       <c r="I66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N66" t="s">
-        <v>30</v>
-      </c>
-      <c r="O66" s="19">
+        <v>32</v>
+      </c>
+      <c r="O66" s="13">
         <v>45384</v>
       </c>
       <c r="P66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R66" s="10">
         <v>7709577438</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T66" s="2">
         <v>300</v>
       </c>
       <c r="U66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X66" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D67" s="3">
         <v>123456</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F67" s="3">
         <v>123456</v>
@@ -6145,7 +6134,7 @@
         <v>600</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J67" s="9">
         <v>1</v>
@@ -6154,63 +6143,63 @@
         <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O67" s="4">
         <v>45384</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R67" s="10">
         <v>7709577438</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y67" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D68" s="3">
         <v>123456</v>
       </c>
       <c r="E68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F68" s="3">
         <v>123456</v>
@@ -6222,7 +6211,7 @@
         <v>600</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J68" s="9">
         <v>1</v>
@@ -6231,63 +6220,63 @@
         <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N68" t="s">
         <v>48</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N68" t="s">
-        <v>46</v>
       </c>
       <c r="O68" s="4">
         <v>45384</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R68" s="10">
         <v>7709577438</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V68" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W68" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D69" s="3">
         <v>123456</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F69" s="3">
         <v>123456</v>
@@ -6299,7 +6288,7 @@
         <v>600</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J69" s="9">
         <v>1</v>
@@ -6308,63 +6297,63 @@
         <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N69" t="s">
         <v>48</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N69" t="s">
-        <v>46</v>
       </c>
       <c r="O69" s="4">
         <v>45384</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R69" s="10">
         <v>7709577438</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D70" s="3">
         <v>123456</v>
       </c>
       <c r="E70" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F70" s="3">
         <v>123456</v>
@@ -6376,7 +6365,7 @@
         <v>600</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J70" s="9">
         <v>1</v>
@@ -6385,63 +6374,63 @@
         <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N70" t="s">
         <v>48</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N70" t="s">
-        <v>46</v>
       </c>
       <c r="O70" s="4">
         <v>45384</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R70" s="10">
         <v>6375266109</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X70" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D71" s="3">
         <v>123456</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F71" s="3">
         <v>123456</v>
@@ -6453,7 +6442,7 @@
         <v>600</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J71" s="9">
         <v>1</v>
@@ -6462,63 +6451,63 @@
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N71" t="s">
         <v>48</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N71" t="s">
-        <v>46</v>
       </c>
       <c r="O71" s="4">
         <v>45384</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R71" s="10">
         <v>7709577438</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X71" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D72" s="3">
         <v>123456</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F72" s="3">
         <v>123456</v>
@@ -6530,7 +6519,7 @@
         <v>600</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J72" s="9">
         <v>1</v>
@@ -6539,63 +6528,63 @@
         <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N72" t="s">
         <v>48</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N72" t="s">
-        <v>46</v>
       </c>
       <c r="O72" s="4">
         <v>45384</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R72" s="10">
         <v>7709577438</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="3">
         <v>123456</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F73" s="3">
         <v>123456</v>
@@ -6607,7 +6596,7 @@
         <v>600</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J73" s="9">
         <v>1</v>
@@ -6616,51 +6605,51 @@
         <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N73" t="s">
         <v>48</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N73" t="s">
-        <v>46</v>
       </c>
       <c r="O73" s="4">
         <v>45384</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R73" s="10">
         <v>7709577438</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6676,7 +6665,7 @@
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6692,7 +6681,7 @@
     </row>
     <row r="76" ht="14.25">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6708,7 +6697,7 @@
     </row>
     <row r="77" ht="14.25">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6724,7 +6713,7 @@
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6740,7 +6729,7 @@
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6756,7 +6745,7 @@
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6772,7 +6761,7 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6788,7 +6777,7 @@
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6804,7 +6793,7 @@
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6820,180 +6809,108 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>155</v>
-      </c>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
+        <v>159</v>
+      </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
-      <c r="O97"/>
-      <c r="P97"/>
-      <c r="Q97"/>
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
-      <c r="U97"/>
-      <c r="V97"/>
-      <c r="W97"/>
-      <c r="X97"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>156</v>
-      </c>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
+        <v>160</v>
+      </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
-      <c r="L98"/>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="O98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
-      <c r="U98"/>
-      <c r="V98"/>
-      <c r="W98"/>
-      <c r="X98"/>
     </row>
     <row r="99" ht="33" customHeight="1">
       <c r="A99" t="s">
-        <v>157</v>
-      </c>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
+        <v>161</v>
+      </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
-      <c r="P99"/>
-      <c r="Q99"/>
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
-      <c r="U99"/>
-      <c r="V99"/>
-      <c r="W99"/>
-      <c r="X99"/>
     </row>
     <row r="100" ht="34.8" customHeight="1">
       <c r="A100" t="s">
-        <v>158</v>
-      </c>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
+        <v>162</v>
+      </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-      <c r="O100"/>
-      <c r="P100"/>
-      <c r="Q100"/>
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
-      <c r="U100"/>
-      <c r="V100"/>
-      <c r="W100"/>
-      <c r="X100"/>
     </row>
     <row r="101" ht="33.75" customHeight="1"/>
     <row r="102" ht="33.75" customHeight="1"/>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162" count="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163" count="1385">
   <si>
     <t>TC_Id</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>Mrunal Jagtap</t>
+  </si>
+  <si>
+    <t>458-*+++++</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1773,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -1846,8 +1849,11 @@
       <c r="Y10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z10">
+        <v>9149212438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>127</v>
       </c>
@@ -1922,6 +1928,9 @@
       </c>
       <c r="Y11" t="s">
         <v>158</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -269,12 +269,6 @@
     <t>cash : 275 , paytm : 275</t>
   </si>
   <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>Mrunal Jagtap</t>
-  </si>
-  <si>
     <t>E_22</t>
   </si>
   <si>
@@ -296,6 +290,9 @@
     <t>E_28</t>
   </si>
   <si>
+    <t>JVL003 : 1</t>
+  </si>
+  <si>
     <t>E_29</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>E_31</t>
+  </si>
+  <si>
+    <t>jvlearphone : 1</t>
   </si>
   <si>
     <t>E_32</t>
@@ -317,7 +317,13 @@
     <t>E_35</t>
   </si>
   <si>
+    <t>8906118412556 : 1</t>
+  </si>
+  <si>
     <t>E_36</t>
+  </si>
+  <si>
+    <t>JVL001 : 1</t>
   </si>
   <si>
     <t>E_37</t>
@@ -990,8 +996,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="Q17">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="R25">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1010,7 +1016,9 @@
     <col min="15" max="17" width="19.11" customWidth="1"/>
     <col min="18" max="20" width="29.44" style="2" customWidth="1"/>
     <col min="21" max="22" width="12.63" customWidth="1"/>
-    <col min="23" max="1021" width="12.63" customWidth="1"/>
+    <col min="23" max="24" width="12.63" customWidth="1"/>
+    <col min="25" max="25" width="18.85547" customWidth="1"/>
+    <col min="26" max="1020" width="12.63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1089,10 +1097,10 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
       <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1788,7 +1796,7 @@
       <c r="Y10" t="s">
         <v>38</v>
       </c>
-      <c r="AA10"/>
+      <c r="Z10"/>
     </row>
     <row r="11" ht="33.75" customHeight="1">
       <c r="A11" t="s">
@@ -2711,18 +2719,18 @@
         <v>37</v>
       </c>
       <c r="Y22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB22">
+        <v>38</v>
+      </c>
+      <c r="Z22">
+        <v>7719921544</v>
+      </c>
+      <c r="AA22">
         <v>1</v>
       </c>
     </row>
     <row r="23" ht="31.5" customHeight="1">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
@@ -2795,11 +2803,17 @@
       </c>
       <c r="Y23" t="s">
         <v>38</v>
+      </c>
+      <c r="Z23">
+        <v>7719921544</v>
+      </c>
+      <c r="AA23">
+        <v>10</v>
       </c>
     </row>
     <row r="24" ht="32.25" customHeight="1">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>28</v>
@@ -2872,11 +2886,17 @@
       </c>
       <c r="Y24" t="s">
         <v>38</v>
+      </c>
+      <c r="Z24">
+        <v>7719921544</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="28.5" customHeight="1">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>28</v>
@@ -2949,11 +2969,17 @@
       </c>
       <c r="Y25" t="s">
         <v>38</v>
+      </c>
+      <c r="Z25">
+        <v>7719921544</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>28</v>
@@ -3026,11 +3052,17 @@
       </c>
       <c r="Y26" t="s">
         <v>38</v>
+      </c>
+      <c r="Z26">
+        <v>7719921544</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
@@ -3103,11 +3135,17 @@
       </c>
       <c r="Y27" t="s">
         <v>38</v>
+      </c>
+      <c r="Z27">
+        <v>7719921544</v>
+      </c>
+      <c r="AA27">
+        <v>2</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>28</v>
@@ -3180,11 +3218,17 @@
       </c>
       <c r="Y28" t="s">
         <v>38</v>
+      </c>
+      <c r="Z28">
+        <v>7719921544</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
@@ -3220,7 +3264,7 @@
         <v>82</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="N29" t="s">
         <v>48</v>
@@ -3257,11 +3301,17 @@
       </c>
       <c r="Y29" t="s">
         <v>38</v>
+      </c>
+      <c r="Z29">
+        <v>7719921544</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>28</v>
@@ -3334,11 +3384,17 @@
       </c>
       <c r="Y30" t="s">
         <v>38</v>
+      </c>
+      <c r="Z30">
+        <v>7719921544</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>28</v>
@@ -3411,11 +3467,17 @@
       </c>
       <c r="Y31" t="s">
         <v>38</v>
+      </c>
+      <c r="Z31">
+        <v>7719921544</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>28</v>
@@ -3448,10 +3510,10 @@
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="N32" t="s">
         <v>48</v>
@@ -3488,6 +3550,12 @@
       </c>
       <c r="Y32" t="s">
         <v>38</v>
+      </c>
+      <c r="Z32">
+        <v>7719921544</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="14.25">
@@ -3525,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>33</v>
@@ -3565,6 +3633,12 @@
       </c>
       <c r="Y33" t="s">
         <v>38</v>
+      </c>
+      <c r="Z33">
+        <v>7719921544</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="14.25">
@@ -3643,6 +3717,12 @@
       <c r="Y34" t="s">
         <v>38</v>
       </c>
+      <c r="Z34">
+        <v>7719921544</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
@@ -3720,6 +3800,12 @@
       <c r="Y35" t="s">
         <v>38</v>
       </c>
+      <c r="Z35">
+        <v>7719921544</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
@@ -3759,7 +3845,7 @@
         <v>50</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="N36" t="s">
         <v>48</v>
@@ -3796,11 +3882,17 @@
       </c>
       <c r="Y36" t="s">
         <v>38</v>
+      </c>
+      <c r="Z36">
+        <v>7719921544</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>28</v>
@@ -3836,7 +3928,7 @@
         <v>50</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="N37" t="s">
         <v>48</v>
@@ -3873,11 +3965,17 @@
       </c>
       <c r="Y37" t="s">
         <v>38</v>
+      </c>
+      <c r="Z37">
+        <v>7719921544</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>28</v>
@@ -3950,11 +4048,17 @@
       </c>
       <c r="Y38" t="s">
         <v>38</v>
+      </c>
+      <c r="Z38">
+        <v>7719921544</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>28</v>
@@ -3990,7 +4094,7 @@
         <v>50</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="N39" t="s">
         <v>48</v>
@@ -4027,11 +4131,17 @@
       </c>
       <c r="Y39" t="s">
         <v>38</v>
+      </c>
+      <c r="Z39">
+        <v>7719921544</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>28</v>
@@ -4104,11 +4214,17 @@
       </c>
       <c r="Y40" t="s">
         <v>38</v>
+      </c>
+      <c r="Z40">
+        <v>7719921544</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>28</v>
@@ -4181,11 +4297,17 @@
       </c>
       <c r="Y41" t="s">
         <v>38</v>
+      </c>
+      <c r="Z41">
+        <v>7719921544</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>28</v>
@@ -4258,11 +4380,17 @@
       </c>
       <c r="Y42" t="s">
         <v>38</v>
+      </c>
+      <c r="Z42">
+        <v>7719921544</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>28</v>
@@ -4339,7 +4467,7 @@
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>28</v>
@@ -4416,7 +4544,7 @@
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>28</v>
@@ -4493,7 +4621,7 @@
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>28</v>
@@ -4570,7 +4698,7 @@
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>28</v>
@@ -4647,7 +4775,7 @@
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>28</v>
@@ -4724,7 +4852,7 @@
     </row>
     <row r="49" ht="28.5">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>28</v>
@@ -4801,7 +4929,7 @@
     </row>
     <row r="50" ht="28.5">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>28</v>
@@ -4878,7 +5006,7 @@
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>28</v>
@@ -4955,7 +5083,7 @@
     </row>
     <row r="52" ht="14.25">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>28</v>
@@ -5032,7 +5160,7 @@
     </row>
     <row r="53" ht="14.25">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>28</v>
@@ -5109,7 +5237,7 @@
     </row>
     <row r="54" ht="28.5">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>28</v>
@@ -5186,7 +5314,7 @@
     </row>
     <row r="55" ht="14.25">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>28</v>
@@ -5263,7 +5391,7 @@
     </row>
     <row r="56" ht="14.25">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>28</v>
@@ -5340,7 +5468,7 @@
     </row>
     <row r="57" ht="14.25">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>28</v>
@@ -5417,7 +5545,7 @@
     </row>
     <row r="58" ht="14.25">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>28</v>
@@ -5494,7 +5622,7 @@
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>28</v>
@@ -5571,7 +5699,7 @@
     </row>
     <row r="60" ht="14.25">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>28</v>
@@ -5648,7 +5776,7 @@
     </row>
     <row r="61" ht="14.25">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>28</v>
@@ -5725,7 +5853,7 @@
     </row>
     <row r="62" ht="14.25">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>28</v>
@@ -5802,7 +5930,7 @@
     </row>
     <row r="63" ht="14.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>28</v>
@@ -5879,7 +6007,7 @@
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>28</v>
@@ -5956,7 +6084,7 @@
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>28</v>
@@ -6033,7 +6161,7 @@
     </row>
     <row r="66" ht="14.25">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>28</v>
@@ -6110,7 +6238,7 @@
     </row>
     <row r="67" ht="14.25">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>28</v>
@@ -6187,7 +6315,7 @@
     </row>
     <row r="68" ht="14.25">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>28</v>
@@ -6264,7 +6392,7 @@
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>28</v>
@@ -6341,7 +6469,7 @@
     </row>
     <row r="70" ht="14.25">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>28</v>
@@ -6418,7 +6546,7 @@
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>28</v>
@@ -6495,7 +6623,7 @@
     </row>
     <row r="72" ht="14.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>28</v>
@@ -6572,7 +6700,7 @@
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>28</v>
@@ -6649,7 +6777,7 @@
     </row>
     <row r="74" ht="14.25">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6665,7 +6793,7 @@
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6681,7 +6809,7 @@
     </row>
     <row r="76" ht="14.25">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6697,7 +6825,7 @@
     </row>
     <row r="77" ht="14.25">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6713,7 +6841,7 @@
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6729,7 +6857,7 @@
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6745,7 +6873,7 @@
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6761,7 +6889,7 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6777,7 +6905,7 @@
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6793,7 +6921,7 @@
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6809,72 +6937,72 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -6884,7 +7012,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -6894,7 +7022,7 @@
     </row>
     <row r="99" ht="33" customHeight="1">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -6904,7 +7032,7 @@
     </row>
     <row r="100" ht="34.8" customHeight="1">
       <c r="A100" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -6924,6 +7052,7 @@
     <row r="110" ht="30" customHeight="1"/>
     <row r="111" s="1" customFormat="1">
       <c r="Y111"/>
+      <c r="Z111"/>
       <c r="AA111"/>
       <c r="AB111"/>
       <c r="AC111"/>
@@ -23274,7 +23403,6 @@
       <c r="XET111"/>
       <c r="XEU111"/>
       <c r="XEV111"/>
-      <c r="XEW111"/>
     </row>
     <row r="112" ht="31.5" customHeight="1"/>
     <row r="113" ht="31.5" customHeight="1"/>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163" count="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166" count="1393">
   <si>
     <t>TC_Id</t>
   </si>
@@ -503,6 +503,15 @@
   </si>
   <si>
     <t>458-*+++++</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>ITi904240046</t>
+  </si>
+  <si>
+    <t>SIsp1021272440268</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1942,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -2007,10 +2016,13 @@
         <v>34</v>
       </c>
       <c r="Y12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+        <v>163</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -2084,7 +2096,10 @@
         <v>34</v>
       </c>
       <c r="Y13" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -332,7 +332,13 @@
     <t>E_38</t>
   </si>
   <si>
+    <t>JVL010 : 1</t>
+  </si>
+  <si>
     <t>E_39</t>
+  </si>
+  <si>
+    <t>TS002 : 1</t>
   </si>
   <si>
     <t>E_40</t>
@@ -996,8 +1002,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="R25">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="G25">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4094,7 +4100,7 @@
         <v>50</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="N39" t="s">
         <v>48</v>
@@ -4141,7 +4147,7 @@
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>28</v>
@@ -4177,7 +4183,7 @@
         <v>50</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="N40" t="s">
         <v>48</v>
@@ -4224,7 +4230,7 @@
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>28</v>
@@ -4307,7 +4313,7 @@
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>28</v>
@@ -4390,7 +4396,7 @@
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>28</v>
@@ -4467,7 +4473,7 @@
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>28</v>
@@ -4544,7 +4550,7 @@
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>28</v>
@@ -4621,7 +4627,7 @@
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>28</v>
@@ -4698,7 +4704,7 @@
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>28</v>
@@ -4775,7 +4781,7 @@
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>28</v>
@@ -4852,7 +4858,7 @@
     </row>
     <row r="49" ht="28.5">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>28</v>
@@ -4929,7 +4935,7 @@
     </row>
     <row r="50" ht="28.5">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>28</v>
@@ -5006,7 +5012,7 @@
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>28</v>
@@ -5083,7 +5089,7 @@
     </row>
     <row r="52" ht="14.25">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>28</v>
@@ -5160,7 +5166,7 @@
     </row>
     <row r="53" ht="14.25">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>28</v>
@@ -5237,7 +5243,7 @@
     </row>
     <row r="54" ht="28.5">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>28</v>
@@ -5314,7 +5320,7 @@
     </row>
     <row r="55" ht="14.25">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>28</v>
@@ -5391,7 +5397,7 @@
     </row>
     <row r="56" ht="14.25">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>28</v>
@@ -5468,7 +5474,7 @@
     </row>
     <row r="57" ht="14.25">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>28</v>
@@ -5545,7 +5551,7 @@
     </row>
     <row r="58" ht="14.25">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>28</v>
@@ -5622,7 +5628,7 @@
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>28</v>
@@ -5699,7 +5705,7 @@
     </row>
     <row r="60" ht="14.25">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>28</v>
@@ -5776,7 +5782,7 @@
     </row>
     <row r="61" ht="14.25">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>28</v>
@@ -5853,7 +5859,7 @@
     </row>
     <row r="62" ht="14.25">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>28</v>
@@ -5930,7 +5936,7 @@
     </row>
     <row r="63" ht="14.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>28</v>
@@ -6007,7 +6013,7 @@
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>28</v>
@@ -6084,7 +6090,7 @@
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>28</v>
@@ -6161,7 +6167,7 @@
     </row>
     <row r="66" ht="14.25">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>28</v>
@@ -6238,7 +6244,7 @@
     </row>
     <row r="67" ht="14.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>28</v>
@@ -6315,7 +6321,7 @@
     </row>
     <row r="68" ht="14.25">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>28</v>
@@ -6392,7 +6398,7 @@
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>28</v>
@@ -6469,7 +6475,7 @@
     </row>
     <row r="70" ht="14.25">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>28</v>
@@ -6546,7 +6552,7 @@
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>28</v>
@@ -6623,7 +6629,7 @@
     </row>
     <row r="72" ht="14.25">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>28</v>
@@ -6700,7 +6706,7 @@
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>28</v>
@@ -6777,7 +6783,7 @@
     </row>
     <row r="74" ht="14.25">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6793,7 +6799,7 @@
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6809,7 +6815,7 @@
     </row>
     <row r="76" ht="14.25">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6825,7 +6831,7 @@
     </row>
     <row r="77" ht="14.25">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6841,7 +6847,7 @@
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6857,7 +6863,7 @@
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6873,7 +6879,7 @@
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6889,7 +6895,7 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6905,7 +6911,7 @@
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6921,7 +6927,7 @@
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6937,72 +6943,72 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -7012,7 +7018,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -7022,7 +7028,7 @@
     </row>
     <row r="99" ht="33" customHeight="1">
       <c r="A99" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -7032,7 +7038,7 @@
     </row>
     <row r="100" ht="34.8" customHeight="1">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -99,6 +99,9 @@
     <t>search_invoice</t>
   </si>
   <si>
+    <t>replace_qty</t>
+  </si>
+  <si>
     <t>E_1</t>
   </si>
   <si>
@@ -174,6 +177,12 @@
     <t>E_11</t>
   </si>
   <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>SIsp1021272440268</t>
+  </si>
+  <si>
     <t>E_12</t>
   </si>
   <si>
@@ -190,6 +199,9 @@
   </si>
   <si>
     <t>E_17</t>
+  </si>
+  <si>
+    <t>8906118410781 : 5</t>
   </si>
   <si>
     <t>E_18</t>
@@ -1123,8 +1135,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="Q79">
-      <selection activeCell="Y101" sqref="Y101"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="R1">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1226,22 +1238,25 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>123456</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>123456</v>
@@ -1253,75 +1268,78 @@
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="4">
         <v>45384</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>123456</v>
@@ -1333,75 +1351,78 @@
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="4">
         <v>45384</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>123456</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>123456</v>
@@ -1413,75 +1434,78 @@
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O4" s="4">
         <v>45384</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>123456</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>123456</v>
@@ -1493,75 +1517,78 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O5" s="4">
         <v>45384</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>123456</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>123456</v>
@@ -1573,75 +1600,78 @@
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O6" s="4">
         <v>45384</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>123456</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>123456</v>
@@ -1653,75 +1683,78 @@
         <v>600</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O7" s="4">
         <v>45384</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>123456</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>123456</v>
@@ -1733,75 +1766,78 @@
         <v>600</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O8" s="4">
         <v>45384</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>123456</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>123456</v>
@@ -1813,75 +1849,78 @@
         <v>600</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O9" s="4">
         <v>45384</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>123456</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>123456</v>
@@ -1893,155 +1932,161 @@
         <v>600</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O10" s="4">
         <v>45384</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z10">
         <v>9149212438</v>
       </c>
+      <c r="AA10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>123456</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>123456</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11">
+        <v>600</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>123456</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11">
-        <v>123456</v>
-      </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-      <c r="H11">
-        <v>600</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" t="s">
-        <v>35</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>47</v>
-      </c>
       <c r="Z11" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>123456</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>123456</v>
@@ -2053,72 +2098,78 @@
         <v>600</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="4">
         <v>45384</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y12" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>123456</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <v>123456</v>
@@ -2130,72 +2181,78 @@
         <v>600</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O13" s="4">
         <v>45384</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>123456</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>123456</v>
@@ -2207,72 +2264,78 @@
         <v>600</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O14" s="4">
         <v>45384</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y14" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="Z14">
+        <v>9149212438</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>123456</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <v>123456</v>
@@ -2284,72 +2347,78 @@
         <v>600</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O15" s="4">
         <v>45384</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y15" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="Z15">
+        <v>9149212438</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>123456</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16">
         <v>123456</v>
@@ -2361,72 +2430,78 @@
         <v>600</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O16" s="4">
         <v>45384</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y16" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="Z16">
+        <v>9149212438</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>123456</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17">
         <v>123456</v>
@@ -2438,72 +2513,78 @@
         <v>600</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O17" s="4">
         <v>45384</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y17" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="Z17">
+        <v>9149212438</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>123456</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18">
         <v>123456</v>
@@ -2515,72 +2596,75 @@
         <v>600</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="N18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O18" s="4">
         <v>45384</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y18" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="Z18">
+        <v>9149212438</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>123456</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>123456</v>
@@ -2592,72 +2676,75 @@
         <v>600</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O19" s="4">
         <v>45384</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="Z19">
+        <v>9149212438</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>123456</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20">
         <v>123456</v>
@@ -2669,72 +2756,72 @@
         <v>600</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O20" s="4">
         <v>45384</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>123456</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21">
         <v>123456</v>
@@ -2746,72 +2833,72 @@
         <v>600</v>
       </c>
       <c r="I21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O21" s="4">
         <v>45384</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>123456</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22">
         <v>123456</v>
@@ -2823,72 +2910,72 @@
         <v>600</v>
       </c>
       <c r="I22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O22" s="4">
         <v>45384</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>123456</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23">
         <v>123456</v>
@@ -2900,72 +2987,72 @@
         <v>600</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O23" s="4">
         <v>45384</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24">
         <v>123456</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F24">
         <v>123456</v>
@@ -2977,72 +3064,72 @@
         <v>600</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O24" s="4">
         <v>45384</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25">
         <v>123456</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F25">
         <v>123456</v>
@@ -3054,72 +3141,72 @@
         <v>600</v>
       </c>
       <c r="I25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O25" s="4">
         <v>45384</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>123456</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F26">
         <v>123456</v>
@@ -3131,72 +3218,72 @@
         <v>600</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O26" s="4">
         <v>45384</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>123456</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F27">
         <v>123456</v>
@@ -3208,72 +3295,72 @@
         <v>600</v>
       </c>
       <c r="I27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O27" s="4">
         <v>45384</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>123456</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28">
         <v>123456</v>
@@ -3285,72 +3372,72 @@
         <v>600</v>
       </c>
       <c r="I28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O28" s="4">
         <v>45384</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29">
         <v>123456</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F29">
         <v>123456</v>
@@ -3362,72 +3449,72 @@
         <v>600</v>
       </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O29" s="4">
         <v>45384</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>123456</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30">
         <v>123456</v>
@@ -3439,72 +3526,72 @@
         <v>600</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O30" s="4">
         <v>45384</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31">
         <v>123456</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31">
         <v>123456</v>
@@ -3516,72 +3603,72 @@
         <v>600</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O31" s="4">
         <v>45384</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <v>123456</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32">
         <v>123456</v>
@@ -3593,72 +3680,72 @@
         <v>600</v>
       </c>
       <c r="I32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O32" s="4">
         <v>45384</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33">
         <v>123456</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33">
         <v>123456</v>
@@ -3670,72 +3757,72 @@
         <v>600</v>
       </c>
       <c r="I33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O33" s="4">
         <v>45384</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34">
         <v>123456</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34">
         <v>123456</v>
@@ -3747,72 +3834,72 @@
         <v>600</v>
       </c>
       <c r="I34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O34" s="4">
         <v>45384</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35">
         <v>123456</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35">
         <v>123456</v>
@@ -3824,72 +3911,72 @@
         <v>600</v>
       </c>
       <c r="I35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O35" s="4">
         <v>45384</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36">
         <v>123456</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F36">
         <v>123456</v>
@@ -3901,72 +3988,72 @@
         <v>600</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O36" s="4">
         <v>45384</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37">
         <v>123456</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F37">
         <v>123456</v>
@@ -3978,72 +4065,72 @@
         <v>600</v>
       </c>
       <c r="I37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O37" s="4">
         <v>45384</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38">
         <v>123456</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F38">
         <v>123456</v>
@@ -4055,72 +4142,72 @@
         <v>600</v>
       </c>
       <c r="I38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O38" s="4">
         <v>45384</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39">
         <v>123456</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F39">
         <v>123456</v>
@@ -4132,72 +4219,72 @@
         <v>600</v>
       </c>
       <c r="I39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O39" s="4">
         <v>45384</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40">
         <v>123456</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F40">
         <v>123456</v>
@@ -4209,72 +4296,72 @@
         <v>600</v>
       </c>
       <c r="I40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O40" s="4">
         <v>45384</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41">
         <v>123456</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41">
         <v>123456</v>
@@ -4286,72 +4373,72 @@
         <v>600</v>
       </c>
       <c r="I41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O41" s="4">
         <v>45384</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42">
         <v>123456</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F42">
         <v>123456</v>
@@ -4363,72 +4450,72 @@
         <v>600</v>
       </c>
       <c r="I42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O42" s="4">
         <v>45384</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43">
         <v>123456</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F43">
         <v>123456</v>
@@ -4440,72 +4527,72 @@
         <v>600</v>
       </c>
       <c r="I43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O43" s="4">
         <v>45384</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44">
         <v>123456</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F44">
         <v>123456</v>
@@ -4517,72 +4604,72 @@
         <v>600</v>
       </c>
       <c r="I44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O44" s="4">
         <v>45384</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45">
         <v>123456</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F45">
         <v>123456</v>
@@ -4594,72 +4681,72 @@
         <v>600</v>
       </c>
       <c r="I45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O45" s="4">
         <v>45384</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46">
         <v>123456</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F46">
         <v>123456</v>
@@ -4671,72 +4758,72 @@
         <v>600</v>
       </c>
       <c r="I46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O46" s="4">
         <v>45384</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47">
         <v>123456</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F47">
         <v>123456</v>
@@ -4748,69 +4835,69 @@
         <v>600</v>
       </c>
       <c r="I47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O47" s="4">
         <v>45384</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48">
         <v>123456</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F48">
         <v>123456</v>
@@ -4822,69 +4909,69 @@
         <v>600</v>
       </c>
       <c r="I48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O48" s="4">
         <v>45384</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="33" customHeight="1">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" s="6">
         <v>123456</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F49" s="6">
         <v>123456</v>
@@ -4896,10 +4983,10 @@
         <v>600</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -4908,57 +4995,57 @@
         <v>2</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O49" s="4">
         <v>45384</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="34.8" customHeight="1">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" s="6">
         <v>123456</v>
       </c>
       <c r="E50" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F50" s="6">
         <v>123456</v>
@@ -4970,10 +5057,10 @@
         <v>600</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -4982,57 +5069,57 @@
         <v>2</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O50" s="4">
         <v>45384</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" ht="33.75" customHeight="1">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" s="3">
         <v>123456</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F51" s="3">
         <v>123456</v>
@@ -5044,7 +5131,7 @@
         <v>600</v>
       </c>
       <c r="I51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J51" s="9">
         <v>1</v>
@@ -5053,60 +5140,58 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N51" t="s">
+        <v>103</v>
+      </c>
+      <c r="O51" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O51" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="T51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X51" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X51"/>
     </row>
     <row r="52" ht="33.75" customHeight="1">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3">
         <v>123456</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F52" s="3">
         <v>123456</v>
@@ -5118,7 +5203,7 @@
         <v>600</v>
       </c>
       <c r="I52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J52" s="9">
         <v>1</v>
@@ -5127,60 +5212,58 @@
         <v>1</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N52" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O52" s="4">
         <v>45384</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R52" s="10">
         <v>7709577438</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X52" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X52"/>
     </row>
     <row r="53" ht="33.75" customHeight="1">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" s="3">
         <v>123456</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F53" s="3">
         <v>123456</v>
@@ -5192,7 +5275,7 @@
         <v>600</v>
       </c>
       <c r="I53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J53" s="9">
         <v>1</v>
@@ -5201,60 +5284,58 @@
         <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N53" t="s">
         <v>103</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N53" t="s">
-        <v>99</v>
-      </c>
       <c r="O53" s="4">
         <v>45384</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R53" s="10">
         <v>7709577438</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X53" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X53"/>
     </row>
     <row r="54" ht="33.75" customHeight="1">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" s="6">
         <v>123456</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F54" s="6">
         <v>123456</v>
@@ -5266,69 +5347,67 @@
         <v>600</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O54" s="4">
         <v>45384</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X54" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X54"/>
     </row>
     <row r="55" ht="33.75" customHeight="1">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" s="3">
         <v>123456</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F55" s="6">
         <v>123456</v>
@@ -5340,69 +5419,67 @@
         <v>600</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O55" s="4">
         <v>45384</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X55"/>
     </row>
     <row r="56" ht="18" customHeight="1">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" s="3">
         <v>123456</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F56" s="3">
         <v>123456</v>
@@ -5414,7 +5491,7 @@
         <v>600</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J56" s="9">
         <v>1</v>
@@ -5423,60 +5500,58 @@
         <v>1</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N56" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O56" s="4">
         <v>45384</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R56" s="10">
         <v>7709577438</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X56" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X56"/>
     </row>
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" s="3">
         <v>123456</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" s="3">
         <v>123456</v>
@@ -5488,7 +5563,7 @@
         <v>600</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J57" s="9">
         <v>1</v>
@@ -5497,60 +5572,58 @@
         <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N57" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O57" s="4">
         <v>45384</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R57" s="10">
         <v>7709577438</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X57" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X57"/>
     </row>
     <row r="58" ht="30" customHeight="1">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" s="3">
         <v>123456</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F58" s="3">
         <v>123456</v>
@@ -5562,7 +5635,7 @@
         <v>600</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J58" s="9">
         <v>1</v>
@@ -5571,60 +5644,58 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N58" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O58" s="4">
         <v>45384</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R58" s="10">
         <v>7709577438</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X58" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X58"/>
     </row>
     <row r="59" ht="26.25" customHeight="1">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" s="3">
         <v>123456</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F59" s="3">
         <v>123456</v>
@@ -5636,7 +5707,7 @@
         <v>600</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J59" s="9">
         <v>1</v>
@@ -5645,60 +5716,58 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N59" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O59" s="4">
         <v>45384</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R59" s="10">
         <v>7709577438</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X59" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X59"/>
     </row>
     <row r="60" ht="30" customHeight="1">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" s="11">
         <v>123456</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F60" s="3">
         <v>123456</v>
@@ -5710,7 +5779,7 @@
         <v>600</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J60" s="9">
         <v>1</v>
@@ -5719,60 +5788,58 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N60" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O60" s="4">
         <v>45384</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R60" s="10">
         <v>7709577438</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X60" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X60"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="14.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" s="6">
         <v>123456</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F61" s="6">
         <v>123456</v>
@@ -5784,53 +5851,53 @@
         <v>600</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K61" s="1">
         <v>1</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O61" s="12">
         <v>45384</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X61" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X61"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
@@ -6479,19 +6546,19 @@
     </row>
     <row r="62" ht="31.5" customHeight="1">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" s="3">
         <v>123456</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F62" s="3">
         <v>123456</v>
@@ -6503,7 +6570,7 @@
         <v>600</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J62" s="9">
         <v>1</v>
@@ -6512,60 +6579,58 @@
         <v>1</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N62" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O62" s="4">
         <v>45384</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R62" s="10">
         <v>7709577438</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X62" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X62"/>
     </row>
     <row r="63" ht="31.5" customHeight="1">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" s="14">
         <v>123456</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F63">
         <v>123456</v>
@@ -6577,69 +6642,67 @@
         <v>600</v>
       </c>
       <c r="I63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O63" s="12">
         <v>45384</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X63" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X63"/>
     </row>
     <row r="64" ht="31.5" customHeight="1">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" s="6">
         <v>123456</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F64" s="6">
         <v>123456</v>
@@ -6651,10 +6714,10 @@
         <v>600</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
@@ -6663,57 +6726,55 @@
         <v>1</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O64" s="12">
         <v>45384</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W64" t="s">
-        <v>128</v>
-      </c>
-      <c r="X64" t="s">
-        <v>36</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X64"/>
     </row>
     <row r="65" ht="31.5" customHeight="1">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65">
         <v>123456</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F65">
         <v>123456</v>
@@ -6725,69 +6786,67 @@
         <v>600</v>
       </c>
       <c r="I65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O65" s="12">
         <v>45384</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R65" s="10">
         <v>7709577438</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W65" t="s">
-        <v>128</v>
-      </c>
-      <c r="X65" t="s">
-        <v>36</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X65"/>
     </row>
     <row r="66" ht="31.5" customHeight="1">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66">
         <v>123456</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F66">
         <v>123456</v>
@@ -6799,69 +6858,67 @@
         <v>600</v>
       </c>
       <c r="I66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O66" s="12">
         <v>45384</v>
       </c>
       <c r="P66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R66" s="10">
         <v>7709577438</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T66" s="2">
         <v>300</v>
       </c>
       <c r="U66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W66" t="s">
-        <v>133</v>
-      </c>
-      <c r="X66" t="s">
-        <v>36</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="X66"/>
     </row>
     <row r="67" ht="32.25" customHeight="1">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" s="3">
         <v>123456</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F67" s="3">
         <v>123456</v>
@@ -6873,7 +6930,7 @@
         <v>600</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J67" s="9">
         <v>1</v>
@@ -6882,60 +6939,58 @@
         <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N67" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O67" s="4">
         <v>45384</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R67" s="10">
         <v>7709577438</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="X67" t="s">
-        <v>36</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X67"/>
     </row>
     <row r="68" ht="28.5" customHeight="1">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" s="3">
         <v>123456</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F68" s="3">
         <v>123456</v>
@@ -6947,7 +7002,7 @@
         <v>600</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J68" s="9">
         <v>1</v>
@@ -6956,60 +7011,58 @@
         <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N68" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O68" s="4">
         <v>45384</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R68" s="10">
         <v>7709577438</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W68" t="s">
-        <v>128</v>
-      </c>
-      <c r="X68" t="s">
-        <v>36</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X68"/>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D69" s="3">
         <v>123456</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F69" s="3">
         <v>123456</v>
@@ -7021,7 +7074,7 @@
         <v>600</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J69" s="9">
         <v>1</v>
@@ -7030,60 +7083,58 @@
         <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N69" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O69" s="4">
         <v>45384</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R69" s="10">
         <v>7709577438</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X69" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X69"/>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D70" s="3">
         <v>123456</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F70" s="3">
         <v>123456</v>
@@ -7095,7 +7146,7 @@
         <v>600</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J70" s="9">
         <v>1</v>
@@ -7104,60 +7155,58 @@
         <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N70" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O70" s="4">
         <v>45384</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R70" s="10">
         <v>6375266109</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X70" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X70"/>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D71" s="3">
         <v>123456</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F71" s="3">
         <v>123456</v>
@@ -7169,7 +7218,7 @@
         <v>600</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J71" s="9">
         <v>1</v>
@@ -7178,60 +7227,58 @@
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N71" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O71" s="4">
         <v>45384</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R71" s="10">
         <v>7709577438</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X71" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X71"/>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" s="3">
         <v>123456</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F72" s="3">
         <v>123456</v>
@@ -7243,7 +7290,7 @@
         <v>600</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J72" s="9">
         <v>1</v>
@@ -7252,60 +7299,58 @@
         <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N72" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O72" s="4">
         <v>45384</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R72" s="10">
         <v>7709577438</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X72" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X72"/>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" s="3">
         <v>123456</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F73" s="3">
         <v>123456</v>
@@ -7317,7 +7362,7 @@
         <v>600</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J73" s="9">
         <v>1</v>
@@ -7326,48 +7371,46 @@
         <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N73" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O73" s="4">
         <v>45384</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R73" s="10">
         <v>7709577438</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X73" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X73"/>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -7381,12 +7424,12 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="10"/>
       <c r="X74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -7400,12 +7443,12 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="10"/>
       <c r="X75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="14.25">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -7419,12 +7462,12 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="10"/>
       <c r="X76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -7438,12 +7481,12 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="10"/>
       <c r="X77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -7457,12 +7500,12 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="10"/>
       <c r="X78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -7476,12 +7519,12 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="10"/>
       <c r="X79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -7495,12 +7538,12 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="10"/>
       <c r="X80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -7514,12 +7557,12 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="10"/>
       <c r="X81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -7533,12 +7576,12 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="10"/>
       <c r="X82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -7552,96 +7595,96 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="10"/>
       <c r="X83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="X85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="X86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="X87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="X88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="X89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="X90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="X91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="X92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" ht="14.25">
       <c r="A93" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D93" s="3">
         <v>123456</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F93" s="3">
         <v>123456</v>
@@ -7653,53 +7696,53 @@
         <v>600</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O93" s="4">
         <v>45384</v>
       </c>
       <c r="P93" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q93" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R93" s="10"/>
       <c r="V93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W93" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D94" s="3">
         <v>123456</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F94" s="3">
         <v>123456</v>
@@ -7711,53 +7754,53 @@
         <v>600</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O94" s="4">
         <v>45384</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q94" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R94" s="10"/>
       <c r="V94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" ht="14.25">
       <c r="A95" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D95" s="3">
         <v>123456</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F95" s="3">
         <v>123456</v>
@@ -7769,53 +7812,53 @@
         <v>600</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O95" s="4">
         <v>45384</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q95" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R95" s="10"/>
       <c r="V95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" ht="14.25">
       <c r="A96" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" s="3">
         <v>123456</v>
       </c>
       <c r="E96" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F96" s="3">
         <v>123456</v>
@@ -7827,53 +7870,53 @@
         <v>600</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O96" s="4">
         <v>45384</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q96" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R96" s="10"/>
       <c r="V96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" s="3">
         <v>123456</v>
       </c>
       <c r="E97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F97" s="3">
         <v>123456</v>
@@ -7885,59 +7928,59 @@
         <v>600</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O97" s="4">
         <v>45384</v>
       </c>
       <c r="P97" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q97" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R97" s="10"/>
       <c r="V97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="14.25">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D98" s="3">
         <v>123456</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F98" s="3">
         <v>123456</v>
@@ -7949,39 +7992,39 @@
         <v>600</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O98" s="4">
         <v>45384</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R98" s="10"/>
       <c r="V98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z98">
         <v>9149212438</v>
@@ -7989,19 +8032,19 @@
     </row>
     <row r="99" ht="14.25">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D99" s="3">
         <v>123456</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F99" s="3">
         <v>123456</v>
@@ -8013,53 +8056,53 @@
         <v>600</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O99" s="4">
         <v>45384</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R99" s="10"/>
       <c r="V99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="14.25">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D100" s="3">
         <v>123456</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F100" s="3">
         <v>123456</v>
@@ -8071,59 +8114,59 @@
         <v>600</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O100" s="4">
         <v>45384</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R100" s="10"/>
       <c r="V100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z100" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" ht="14.25">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D101" s="3">
         <v>123456</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F101" s="3">
         <v>123456</v>
@@ -8135,53 +8178,53 @@
         <v>600</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O101" s="4">
         <v>45384</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R101" s="10"/>
       <c r="V101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W101" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" ht="14.25">
       <c r="A102" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D102" s="3">
         <v>123456</v>
       </c>
       <c r="E102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F102" s="3">
         <v>123456</v>
@@ -8193,53 +8236,53 @@
         <v>600</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O102" s="4">
         <v>45384</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R102" s="10"/>
       <c r="V102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W102" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" ht="14.25">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D103" s="3">
         <v>123456</v>
       </c>
       <c r="E103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F103" s="3">
         <v>123456</v>
@@ -8251,53 +8294,53 @@
         <v>600</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O103" s="4">
         <v>45384</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R103" s="10"/>
       <c r="V103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W103" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" ht="14.25">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D104" s="3">
         <v>123456</v>
       </c>
       <c r="E104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F104" s="3">
         <v>123456</v>
@@ -8309,53 +8352,53 @@
         <v>600</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O104" s="4">
         <v>45384</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q104" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R104" s="10"/>
       <c r="V104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W104" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" ht="14.25">
       <c r="A105" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D105" s="3">
         <v>123456</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F105" s="3">
         <v>123456</v>
@@ -8367,53 +8410,53 @@
         <v>600</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O105" s="4">
         <v>45384</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R105" s="10"/>
       <c r="V105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W105" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" ht="14.25">
       <c r="A106" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D106" s="3">
         <v>123456</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F106" s="3">
         <v>123456</v>
@@ -8425,53 +8468,53 @@
         <v>600</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O106" s="4">
         <v>45384</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R106" s="10"/>
       <c r="V106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W106" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" ht="14.25">
       <c r="A107" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D107" s="3">
         <v>123456</v>
       </c>
       <c r="E107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F107" s="3">
         <v>123456</v>
@@ -8483,53 +8526,53 @@
         <v>600</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O107" s="4">
         <v>45384</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q107" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R107" s="10"/>
       <c r="V107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W107" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" ht="14.25">
       <c r="A108" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D108" s="3">
         <v>123456</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F108" s="3">
         <v>123456</v>
@@ -8541,53 +8584,53 @@
         <v>600</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O108" s="4">
         <v>45384</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q108" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R108" s="10"/>
       <c r="V108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W108" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" ht="14.25">
       <c r="A109" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D109" s="3">
         <v>123456</v>
       </c>
       <c r="E109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F109" s="3">
         <v>123456</v>
@@ -8599,53 +8642,53 @@
         <v>600</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O109" s="4">
         <v>45384</v>
       </c>
       <c r="P109" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q109" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R109" s="10"/>
       <c r="V109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W109" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" ht="14.25">
       <c r="A110" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D110" s="3">
         <v>123456</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F110" s="3">
         <v>123456</v>
@@ -8657,53 +8700,53 @@
         <v>600</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O110" s="4">
         <v>45384</v>
       </c>
       <c r="P110" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q110" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R110" s="10"/>
       <c r="V110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W110" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" ht="14.25">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" s="3">
         <v>123456</v>
       </c>
       <c r="E111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F111" s="3">
         <v>123456</v>
@@ -8715,53 +8758,53 @@
         <v>600</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O111" s="4">
         <v>45384</v>
       </c>
       <c r="P111" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R111" s="10"/>
       <c r="V111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" ht="14.25">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" s="3">
         <v>123456</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F112" s="3">
         <v>123456</v>
@@ -8773,53 +8816,53 @@
         <v>600</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O112" s="4">
         <v>45384</v>
       </c>
       <c r="P112" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q112" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R112" s="10"/>
       <c r="V112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" ht="14.25">
       <c r="A113" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D113" s="3">
         <v>123456</v>
       </c>
       <c r="E113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F113" s="3">
         <v>123456</v>
@@ -8831,53 +8874,53 @@
         <v>600</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O113" s="4">
         <v>45384</v>
       </c>
       <c r="P113" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q113" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R113" s="10"/>
       <c r="V113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W113" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" ht="14.25">
       <c r="A114" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D114" s="3">
         <v>123456</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F114" s="3">
         <v>123456</v>
@@ -8889,53 +8932,53 @@
         <v>600</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O114" s="4">
         <v>45384</v>
       </c>
       <c r="P114" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q114" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R114" s="10"/>
       <c r="V114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W114" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" ht="14.25">
       <c r="A115" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D115" s="3">
         <v>123456</v>
       </c>
       <c r="E115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F115" s="3">
         <v>123456</v>
@@ -8947,53 +8990,53 @@
         <v>600</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O115" s="4">
         <v>45384</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q115" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R115" s="10"/>
       <c r="V115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W115" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" ht="14.25">
       <c r="A116" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D116" s="3">
         <v>123456</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F116" s="3">
         <v>123456</v>
@@ -9005,53 +9048,53 @@
         <v>600</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O116" s="4">
         <v>45384</v>
       </c>
       <c r="P116" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q116" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R116" s="10"/>
       <c r="V116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W116" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" ht="14.25">
       <c r="A117" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D117" s="3">
         <v>123456</v>
       </c>
       <c r="E117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F117" s="3">
         <v>123456</v>
@@ -9063,53 +9106,53 @@
         <v>600</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O117" s="4">
         <v>45384</v>
       </c>
       <c r="P117" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q117" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R117" s="10"/>
       <c r="V117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W117" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" ht="14.25">
       <c r="A118" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D118" s="3">
         <v>123456</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F118" s="3">
         <v>123456</v>
@@ -9121,53 +9164,53 @@
         <v>600</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O118" s="4">
         <v>45384</v>
       </c>
       <c r="P118" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q118" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R118" s="10"/>
       <c r="V118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W118" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" ht="14.25">
       <c r="A119" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D119" s="3">
         <v>123456</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F119" s="3">
         <v>123456</v>
@@ -9179,53 +9222,53 @@
         <v>600</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O119" s="4">
         <v>45384</v>
       </c>
       <c r="P119" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q119" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R119" s="10"/>
       <c r="V119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W119" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" ht="14.25">
       <c r="A120" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D120" s="3">
         <v>123456</v>
       </c>
       <c r="E120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F120" s="3">
         <v>123456</v>
@@ -9237,53 +9280,53 @@
         <v>600</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L120" s="2"/>
       <c r="M120" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O120" s="4">
         <v>45384</v>
       </c>
       <c r="P120" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q120" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R120" s="10"/>
       <c r="V120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W120" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" ht="14.25">
       <c r="A121" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D121" s="3">
         <v>123456</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F121" s="3">
         <v>123456</v>
@@ -9295,53 +9338,53 @@
         <v>600</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O121" s="4">
         <v>45384</v>
       </c>
       <c r="P121" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q121" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R121" s="10"/>
       <c r="V121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W121" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" ht="14.25">
       <c r="A122" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D122" s="3">
         <v>123456</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F122" s="3">
         <v>123456</v>
@@ -9353,53 +9396,53 @@
         <v>600</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O122" s="4">
         <v>45384</v>
       </c>
       <c r="P122" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q122" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R122" s="10"/>
       <c r="V122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W122" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" ht="14.25">
       <c r="A123" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D123" s="3">
         <v>123456</v>
       </c>
       <c r="E123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F123" s="3">
         <v>123456</v>
@@ -9411,53 +9454,53 @@
         <v>600</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O123" s="4">
         <v>45384</v>
       </c>
       <c r="P123" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q123" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R123" s="10"/>
       <c r="V123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W123" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" ht="14.25">
       <c r="A124" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D124" s="3">
         <v>123456</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F124" s="3">
         <v>123456</v>
@@ -9469,53 +9512,53 @@
         <v>600</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O124" s="4">
         <v>45384</v>
       </c>
       <c r="P124" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q124" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R124" s="10"/>
       <c r="V124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W124" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" ht="14.25">
       <c r="A125" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D125" s="3">
         <v>123456</v>
       </c>
       <c r="E125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F125" s="3">
         <v>123456</v>
@@ -9527,53 +9570,53 @@
         <v>600</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O125" s="4">
         <v>45384</v>
       </c>
       <c r="P125" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q125" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R125" s="10"/>
       <c r="V125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W125" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" ht="14.25">
       <c r="A126" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D126" s="3">
         <v>123456</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F126" s="3">
         <v>123456</v>
@@ -9585,53 +9628,53 @@
         <v>600</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O126" s="4">
         <v>45384</v>
       </c>
       <c r="P126" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q126" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R126" s="10"/>
       <c r="V126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W126" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" ht="14.25">
       <c r="A127" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D127" s="3">
         <v>123456</v>
       </c>
       <c r="E127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F127" s="3">
         <v>123456</v>
@@ -9643,53 +9686,53 @@
         <v>600</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L127" s="2"/>
       <c r="M127" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O127" s="4">
         <v>45384</v>
       </c>
       <c r="P127" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q127" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R127" s="10"/>
       <c r="V127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W127" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" ht="14.25">
       <c r="A128" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D128" s="3">
         <v>123456</v>
       </c>
       <c r="E128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F128" s="3">
         <v>123456</v>
@@ -9701,53 +9744,53 @@
         <v>600</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O128" s="4">
         <v>45384</v>
       </c>
       <c r="P128" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q128" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R128" s="10"/>
       <c r="V128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W128" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" ht="14.25">
       <c r="A129" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D129" s="3">
         <v>123456</v>
       </c>
       <c r="E129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F129" s="3">
         <v>123456</v>
@@ -9759,53 +9802,53 @@
         <v>600</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L129" s="2"/>
       <c r="M129" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O129" s="4">
         <v>45384</v>
       </c>
       <c r="P129" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q129" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R129" s="10"/>
       <c r="V129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W129" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" ht="14.25">
       <c r="A130" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D130" s="3">
         <v>123456</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F130" s="3">
         <v>123456</v>
@@ -9817,53 +9860,53 @@
         <v>600</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L130" s="2"/>
       <c r="M130" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O130" s="4">
         <v>45384</v>
       </c>
       <c r="P130" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q130" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R130" s="10"/>
       <c r="V130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W130" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" ht="14.25">
       <c r="A131" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D131" s="3">
         <v>123456</v>
       </c>
       <c r="E131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F131" s="3">
         <v>123456</v>
@@ -9875,53 +9918,53 @@
         <v>600</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O131" s="4">
         <v>45384</v>
       </c>
       <c r="P131" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q131" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R131" s="10"/>
       <c r="V131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W131" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" ht="14.25">
       <c r="A132" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D132" s="3">
         <v>123456</v>
       </c>
       <c r="E132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F132" s="3">
         <v>123456</v>
@@ -9933,36 +9976,36 @@
         <v>600</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O132" s="4">
         <v>45384</v>
       </c>
       <c r="P132" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q132" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R132" s="10"/>
       <c r="V132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W132" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -102,6 +102,9 @@
     <t>replace_qty</t>
   </si>
   <si>
+    <t>cust_name_tag</t>
+  </si>
+  <si>
     <t>E_1</t>
   </si>
   <si>
@@ -199,6 +202,12 @@
   </si>
   <si>
     <t>E_17</t>
+  </si>
+  <si>
+    <t>8906118410781 : 5</t>
+  </si>
+  <si>
+    <t>XYZQA</t>
   </si>
   <si>
     <t>E_18</t>
@@ -1012,8 +1021,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="Q1">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="R1">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1119,22 +1128,25 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>123456</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>123456</v>
@@ -1146,78 +1158,81 @@
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="4">
         <v>45384</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>123456</v>
@@ -1229,78 +1244,81 @@
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="4">
         <v>45384</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>123456</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>123456</v>
@@ -1312,78 +1330,81 @@
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="4">
         <v>45384</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>123456</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>123456</v>
@@ -1395,78 +1416,81 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="4">
         <v>45384</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>123456</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>123456</v>
@@ -1478,78 +1502,81 @@
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6" s="4">
         <v>45384</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>123456</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>123456</v>
@@ -1561,78 +1588,81 @@
         <v>600</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O7" s="4">
         <v>45384</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>123456</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>123456</v>
@@ -1644,78 +1674,81 @@
         <v>600</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O8" s="4">
         <v>45384</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>123456</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9">
         <v>123456</v>
@@ -1727,78 +1760,81 @@
         <v>600</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O9" s="4">
         <v>45384</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>123456</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>123456</v>
@@ -1810,78 +1846,81 @@
         <v>600</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O10" s="4">
         <v>45384</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z10" s="6">
         <v>9149212438</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>123456</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>123456</v>
@@ -1893,78 +1932,81 @@
         <v>600</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="4">
         <v>45384</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>123456</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>123456</v>
@@ -1976,78 +2018,81 @@
         <v>600</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="4">
         <v>45384</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>123456</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13">
         <v>123456</v>
@@ -2059,78 +2104,81 @@
         <v>600</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O13" s="4">
         <v>45384</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>123456</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14">
         <v>123456</v>
@@ -2142,78 +2190,81 @@
         <v>600</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O14" s="4">
         <v>45384</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z14" s="6">
         <v>9149212438</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>123456</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15">
         <v>123456</v>
@@ -2225,55 +2276,55 @@
         <v>600</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O15" s="4">
         <v>45384</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z15" s="6">
         <v>9149212438</v>
@@ -2281,22 +2332,25 @@
       <c r="AA15">
         <v>1</v>
       </c>
+      <c r="AB15" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>123456</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16">
         <v>123456</v>
@@ -2308,55 +2362,55 @@
         <v>600</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O16" s="4">
         <v>45384</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z16" s="6">
         <v>9149212438</v>
@@ -2364,22 +2418,25 @@
       <c r="AA16">
         <v>1</v>
       </c>
+      <c r="AB16" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>123456</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17">
         <v>123456</v>
@@ -2391,78 +2448,81 @@
         <v>600</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="4">
         <v>45384</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z17" s="6">
         <v>9149212438</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>123456</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>123456</v>
@@ -2474,75 +2534,78 @@
         <v>600</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O18" s="4">
         <v>45384</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="R18" s="2">
+        <v>3030303030</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>9149212438</v>
+        <v>46</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>123456</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19">
         <v>123456</v>
@@ -2554,55 +2617,55 @@
         <v>600</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O19" s="4">
         <v>45384</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z19" s="6">
         <v>9149212438</v>
@@ -2610,19 +2673,19 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>123456</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20">
         <v>123456</v>
@@ -2634,72 +2697,72 @@
         <v>600</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O20" s="4">
         <v>45384</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>123456</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21">
         <v>123456</v>
@@ -2711,72 +2774,72 @@
         <v>600</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O21" s="4">
         <v>45384</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22">
         <v>123456</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22">
         <v>123456</v>
@@ -2788,72 +2851,72 @@
         <v>600</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O22" s="4">
         <v>45384</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>123456</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23">
         <v>123456</v>
@@ -2865,72 +2928,72 @@
         <v>600</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O23" s="4">
         <v>45384</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>123456</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24">
         <v>123456</v>
@@ -2942,72 +3005,72 @@
         <v>600</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O24" s="4">
         <v>45384</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>123456</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F25">
         <v>123456</v>
@@ -3019,72 +3082,72 @@
         <v>600</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O25" s="4">
         <v>45384</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>123456</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26">
         <v>123456</v>
@@ -3096,72 +3159,72 @@
         <v>600</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O26" s="4">
         <v>45384</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>123456</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27">
         <v>123456</v>
@@ -3173,72 +3236,72 @@
         <v>600</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O27" s="4">
         <v>45384</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28">
         <v>123456</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28">
         <v>123456</v>
@@ -3250,72 +3313,72 @@
         <v>600</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O28" s="4">
         <v>45384</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29">
         <v>123456</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29">
         <v>123456</v>
@@ -3327,72 +3390,72 @@
         <v>600</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O29" s="4">
         <v>45384</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30">
         <v>123456</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30">
         <v>123456</v>
@@ -3404,72 +3467,72 @@
         <v>600</v>
       </c>
       <c r="I30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O30" s="4">
         <v>45384</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31">
         <v>123456</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F31">
         <v>123456</v>
@@ -3481,72 +3544,72 @@
         <v>600</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O31" s="4">
         <v>45384</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>123456</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32">
         <v>123456</v>
@@ -3558,72 +3621,72 @@
         <v>600</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O32" s="4">
         <v>45384</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>123456</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33">
         <v>123456</v>
@@ -3635,72 +3698,72 @@
         <v>600</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O33" s="4">
         <v>45384</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>123456</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F34">
         <v>123456</v>
@@ -3712,72 +3775,72 @@
         <v>600</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O34" s="4">
         <v>45384</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>123456</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35">
         <v>123456</v>
@@ -3789,72 +3852,72 @@
         <v>600</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O35" s="4">
         <v>45384</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>123456</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F36">
         <v>123456</v>
@@ -3866,72 +3929,72 @@
         <v>600</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O36" s="4">
         <v>45384</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37">
         <v>123456</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F37">
         <v>123456</v>
@@ -3943,72 +4006,72 @@
         <v>600</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O37" s="4">
         <v>45384</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38">
         <v>123456</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F38">
         <v>123456</v>
@@ -4020,72 +4083,72 @@
         <v>600</v>
       </c>
       <c r="I38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O38" s="4">
         <v>45384</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39">
         <v>123456</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F39">
         <v>123456</v>
@@ -4097,72 +4160,72 @@
         <v>600</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O39" s="4">
         <v>45384</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40">
         <v>123456</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F40">
         <v>123456</v>
@@ -4174,72 +4237,72 @@
         <v>600</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O40" s="4">
         <v>45384</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41">
         <v>123456</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F41">
         <v>123456</v>
@@ -4251,72 +4314,72 @@
         <v>600</v>
       </c>
       <c r="I41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O41" s="4">
         <v>45384</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42">
         <v>123456</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F42">
         <v>123456</v>
@@ -4328,72 +4391,72 @@
         <v>600</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O42" s="4">
         <v>45384</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <v>123456</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43">
         <v>123456</v>
@@ -4405,72 +4468,72 @@
         <v>600</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O43" s="4">
         <v>45384</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44">
         <v>123456</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F44">
         <v>123456</v>
@@ -4482,72 +4545,72 @@
         <v>600</v>
       </c>
       <c r="I44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O44" s="4">
         <v>45384</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45">
         <v>123456</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F45">
         <v>123456</v>
@@ -4559,72 +4622,72 @@
         <v>600</v>
       </c>
       <c r="I45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O45" s="4">
         <v>45384</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46">
         <v>123456</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F46">
         <v>123456</v>
@@ -4636,72 +4699,72 @@
         <v>600</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O46" s="4">
         <v>45384</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47">
         <v>123456</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F47">
         <v>123456</v>
@@ -4713,69 +4776,69 @@
         <v>600</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O47" s="4">
         <v>45384</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48">
         <v>123456</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F48">
         <v>123456</v>
@@ -4787,69 +4850,69 @@
         <v>600</v>
       </c>
       <c r="I48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O48" s="4">
         <v>45384</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="33" customHeight="1">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" s="7">
         <v>123456</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F49" s="7">
         <v>123456</v>
@@ -4861,10 +4924,10 @@
         <v>600</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -4873,57 +4936,57 @@
         <v>2</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O49" s="4">
         <v>45384</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" ht="34.8" customHeight="1">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" s="7">
         <v>123456</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F50" s="7">
         <v>123456</v>
@@ -4935,10 +4998,10 @@
         <v>600</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -4947,57 +5010,57 @@
         <v>2</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O50" s="4">
         <v>45384</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" ht="33.75" customHeight="1">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" s="3">
         <v>123456</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F51" s="3">
         <v>123456</v>
@@ -5009,7 +5072,7 @@
         <v>600</v>
       </c>
       <c r="I51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J51" s="10">
         <v>1</v>
@@ -5018,57 +5081,57 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N51" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O51" s="4">
         <v>45384</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="S51" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="T51" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="33.75" customHeight="1">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" s="3">
         <v>123456</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F52" s="3">
         <v>123456</v>
@@ -5080,7 +5143,7 @@
         <v>600</v>
       </c>
       <c r="I52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J52" s="10">
         <v>1</v>
@@ -5089,57 +5152,57 @@
         <v>1</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N52" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O52" s="4">
         <v>45384</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R52" s="11">
         <v>7709577438</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="33.75" customHeight="1">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" s="3">
         <v>123456</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F53" s="3">
         <v>123456</v>
@@ -5151,7 +5214,7 @@
         <v>600</v>
       </c>
       <c r="I53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J53" s="10">
         <v>1</v>
@@ -5160,57 +5223,57 @@
         <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N53" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O53" s="4">
         <v>45384</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R53" s="11">
         <v>7709577438</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="33.75" customHeight="1">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" s="7">
         <v>123456</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F54" s="7">
         <v>123456</v>
@@ -5222,66 +5285,66 @@
         <v>600</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O54" s="4">
         <v>45384</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="33.75" customHeight="1">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" s="3">
         <v>123456</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F55" s="7">
         <v>123456</v>
@@ -5293,66 +5356,66 @@
         <v>600</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O55" s="4">
         <v>45384</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" s="3">
         <v>123456</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" s="3">
         <v>123456</v>
@@ -5364,7 +5427,7 @@
         <v>600</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J56" s="10">
         <v>1</v>
@@ -5373,57 +5436,57 @@
         <v>1</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N56" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O56" s="4">
         <v>45384</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R56" s="11">
         <v>7709577438</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" s="3">
         <v>123456</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" s="3">
         <v>123456</v>
@@ -5435,7 +5498,7 @@
         <v>600</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J57" s="10">
         <v>1</v>
@@ -5444,57 +5507,57 @@
         <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N57" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O57" s="4">
         <v>45384</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R57" s="11">
         <v>7709577438</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" s="3">
         <v>123456</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F58" s="3">
         <v>123456</v>
@@ -5506,7 +5569,7 @@
         <v>600</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J58" s="10">
         <v>1</v>
@@ -5515,57 +5578,57 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N58" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O58" s="4">
         <v>45384</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R58" s="11">
         <v>7709577438</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="26.25" customHeight="1">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" s="3">
         <v>123456</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F59" s="3">
         <v>123456</v>
@@ -5577,7 +5640,7 @@
         <v>600</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J59" s="10">
         <v>1</v>
@@ -5586,57 +5649,57 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N59" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O59" s="4">
         <v>45384</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R59" s="11">
         <v>7709577438</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="30" customHeight="1">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" s="12">
         <v>123456</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F60" s="3">
         <v>123456</v>
@@ -5648,7 +5711,7 @@
         <v>600</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J60" s="10">
         <v>1</v>
@@ -5657,57 +5720,57 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N60" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O60" s="4">
         <v>45384</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R60" s="11">
         <v>7709577438</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="14.25">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" s="7">
         <v>123456</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F61" s="7">
         <v>123456</v>
@@ -5719,49 +5782,49 @@
         <v>600</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K61" s="1">
         <v>1</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O61" s="13">
         <v>45384</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
@@ -6411,19 +6474,19 @@
     </row>
     <row r="62" ht="31.5" customHeight="1">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" s="3">
         <v>123456</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F62" s="3">
         <v>123456</v>
@@ -6435,7 +6498,7 @@
         <v>600</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J62" s="10">
         <v>1</v>
@@ -6444,57 +6507,57 @@
         <v>1</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N62" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O62" s="4">
         <v>45384</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R62" s="11">
         <v>7709577438</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="31.5" customHeight="1">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" s="15">
         <v>123456</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F63">
         <v>123456</v>
@@ -6506,66 +6569,66 @@
         <v>600</v>
       </c>
       <c r="I63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O63" s="13">
         <v>45384</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="31.5" customHeight="1">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" s="7">
         <v>123456</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F64" s="7">
         <v>123456</v>
@@ -6577,10 +6640,10 @@
         <v>600</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
@@ -6589,54 +6652,54 @@
         <v>1</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O64" s="13">
         <v>45384</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W64" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" ht="31.5" customHeight="1">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65">
         <v>123456</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F65">
         <v>123456</v>
@@ -6648,66 +6711,66 @@
         <v>600</v>
       </c>
       <c r="I65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O65" s="13">
         <v>45384</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R65" s="11">
         <v>7709577438</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W65" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" ht="31.5" customHeight="1">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66">
         <v>123456</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F66">
         <v>123456</v>
@@ -6719,66 +6782,66 @@
         <v>600</v>
       </c>
       <c r="I66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O66" s="13">
         <v>45384</v>
       </c>
       <c r="P66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R66" s="11">
         <v>7709577438</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T66" s="2">
         <v>300</v>
       </c>
       <c r="U66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W66" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" ht="32.25" customHeight="1">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" s="3">
         <v>123456</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F67" s="3">
         <v>123456</v>
@@ -6790,7 +6853,7 @@
         <v>600</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J67" s="10">
         <v>1</v>
@@ -6799,57 +6862,57 @@
         <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O67" s="4">
         <v>45384</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R67" s="11">
         <v>7709577438</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" ht="28.5" customHeight="1">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" s="3">
         <v>123456</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F68" s="3">
         <v>123456</v>
@@ -6861,7 +6924,7 @@
         <v>600</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J68" s="10">
         <v>1</v>
@@ -6870,57 +6933,57 @@
         <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O68" s="4">
         <v>45384</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R68" s="11">
         <v>7709577438</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" s="3">
         <v>123456</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F69" s="3">
         <v>123456</v>
@@ -6932,7 +6995,7 @@
         <v>600</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J69" s="10">
         <v>1</v>
@@ -6941,57 +7004,57 @@
         <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N69" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O69" s="4">
         <v>45384</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R69" s="11">
         <v>7709577438</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" s="3">
         <v>123456</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F70" s="3">
         <v>123456</v>
@@ -7003,7 +7066,7 @@
         <v>600</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J70" s="10">
         <v>1</v>
@@ -7012,57 +7075,57 @@
         <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N70" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O70" s="4">
         <v>45384</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R70" s="11">
         <v>6375266109</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D71" s="3">
         <v>123456</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F71" s="3">
         <v>123456</v>
@@ -7074,7 +7137,7 @@
         <v>600</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J71" s="10">
         <v>1</v>
@@ -7083,57 +7146,57 @@
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N71" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O71" s="4">
         <v>45384</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R71" s="11">
         <v>7709577438</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D72" s="3">
         <v>123456</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F72" s="3">
         <v>123456</v>
@@ -7145,7 +7208,7 @@
         <v>600</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J72" s="10">
         <v>1</v>
@@ -7154,57 +7217,57 @@
         <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N72" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O72" s="4">
         <v>45384</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R72" s="11">
         <v>7709577438</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" s="3">
         <v>123456</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F73" s="3">
         <v>123456</v>
@@ -7216,7 +7279,7 @@
         <v>600</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J73" s="10">
         <v>1</v>
@@ -7225,45 +7288,45 @@
         <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N73" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O73" s="4">
         <v>45384</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R73" s="11">
         <v>7709577438</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -7279,7 +7342,7 @@
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -7295,7 +7358,7 @@
     </row>
     <row r="76" ht="14.25">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -7311,7 +7374,7 @@
     </row>
     <row r="77" ht="14.25">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -7327,7 +7390,7 @@
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -7343,7 +7406,7 @@
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -7359,7 +7422,7 @@
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -7375,7 +7438,7 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -7391,7 +7454,7 @@
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -7407,7 +7470,7 @@
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -7423,47 +7486,47 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -105,7 +105,7 @@
     <t>E_1</t>
   </si>
   <si>
-    <t>307260624P3E</t>
+    <t>307260624WoJ</t>
   </si>
   <si>
     <t>zwshashank.agrawal@teampureplay.com</t>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t>E_96</t>
+  </si>
+  <si>
+    <t>Saloni Rajput</t>
   </si>
   <si>
     <t>E_97</t>
@@ -736,7 +739,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -766,6 +769,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1135,8 +1139,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="R1">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="T82">
+      <selection activeCell="AB105" sqref="AB105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1156,7 +1160,8 @@
     <col min="18" max="20" width="29.45703" style="2" customWidth="1"/>
     <col min="21" max="24" width="12.67969" customWidth="1"/>
     <col min="25" max="25" width="18.57031" bestFit="1" customWidth="1"/>
-    <col min="26" max="1021" width="12.67969" customWidth="1"/>
+    <col min="26" max="26" width="17.71094" bestFit="1" customWidth="1"/>
+    <col min="27" max="1021" width="12.67969" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -7963,12 +7968,12 @@
         <v>45</v>
       </c>
       <c r="Z97" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" ht="14.25">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>28</v>
@@ -8032,7 +8037,7 @@
     </row>
     <row r="99" ht="14.25">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>28</v>
@@ -8090,7 +8095,7 @@
     </row>
     <row r="100" ht="14.25">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>28</v>
@@ -8149,12 +8154,12 @@
         <v>45</v>
       </c>
       <c r="Z100" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" ht="14.25">
       <c r="A101" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>28</v>
@@ -8209,10 +8214,16 @@
       <c r="X101" t="s">
         <v>37</v>
       </c>
+      <c r="Y101" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="102" ht="14.25">
       <c r="A102" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>28</v>
@@ -8267,10 +8278,16 @@
       <c r="X102" t="s">
         <v>37</v>
       </c>
+      <c r="Y102" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z102">
+        <v>9149212438</v>
+      </c>
     </row>
     <row r="103" ht="14.25">
       <c r="A103" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>28</v>
@@ -8325,10 +8342,16 @@
       <c r="X103" t="s">
         <v>37</v>
       </c>
+      <c r="Y103" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z103">
+        <v>9149212438</v>
+      </c>
     </row>
     <row r="104" ht="14.25">
       <c r="A104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>28</v>
@@ -8383,10 +8406,16 @@
       <c r="X104" t="s">
         <v>37</v>
       </c>
+      <c r="Y104" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z104" s="15" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="105" ht="14.25">
       <c r="A105" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>28</v>
@@ -8441,10 +8470,16 @@
       <c r="X105" t="s">
         <v>37</v>
       </c>
+      <c r="Y105" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z105" s="15" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="106" ht="14.25">
       <c r="A106" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>28</v>
@@ -8499,10 +8534,16 @@
       <c r="X106" t="s">
         <v>37</v>
       </c>
+      <c r="Y106" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z106">
+        <v>9149212438</v>
+      </c>
     </row>
     <row r="107" ht="14.25">
       <c r="A107" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>28</v>
@@ -8560,7 +8601,7 @@
     </row>
     <row r="108" ht="14.25">
       <c r="A108" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>28</v>
@@ -8618,7 +8659,7 @@
     </row>
     <row r="109" ht="14.25">
       <c r="A109" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>28</v>
@@ -8676,7 +8717,7 @@
     </row>
     <row r="110" ht="14.25">
       <c r="A110" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>28</v>
@@ -8734,7 +8775,7 @@
     </row>
     <row r="111" ht="14.25">
       <c r="A111" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>28</v>
@@ -8792,7 +8833,7 @@
     </row>
     <row r="112" ht="14.25">
       <c r="A112" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>28</v>
@@ -8850,7 +8891,7 @@
     </row>
     <row r="113" ht="14.25">
       <c r="A113" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>28</v>
@@ -8908,7 +8949,7 @@
     </row>
     <row r="114" ht="14.25">
       <c r="A114" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>28</v>
@@ -8966,7 +9007,7 @@
     </row>
     <row r="115" ht="14.25">
       <c r="A115" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>28</v>
@@ -9024,7 +9065,7 @@
     </row>
     <row r="116" ht="14.25">
       <c r="A116" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>28</v>
@@ -9082,7 +9123,7 @@
     </row>
     <row r="117" ht="14.25">
       <c r="A117" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>28</v>
@@ -9140,7 +9181,7 @@
     </row>
     <row r="118" ht="14.25">
       <c r="A118" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>28</v>
@@ -9198,7 +9239,7 @@
     </row>
     <row r="119" ht="14.25">
       <c r="A119" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>28</v>
@@ -9256,7 +9297,7 @@
     </row>
     <row r="120" ht="14.25">
       <c r="A120" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>28</v>
@@ -9314,7 +9355,7 @@
     </row>
     <row r="121" ht="14.25">
       <c r="A121" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>28</v>
@@ -9372,7 +9413,7 @@
     </row>
     <row r="122" ht="14.25">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>28</v>
@@ -9430,7 +9471,7 @@
     </row>
     <row r="123" ht="14.25">
       <c r="A123" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>28</v>
@@ -9488,7 +9529,7 @@
     </row>
     <row r="124" ht="14.25">
       <c r="A124" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>28</v>
@@ -9546,7 +9587,7 @@
     </row>
     <row r="125" ht="14.25">
       <c r="A125" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>28</v>
@@ -9604,7 +9645,7 @@
     </row>
     <row r="126" ht="14.25">
       <c r="A126" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>28</v>
@@ -9662,7 +9703,7 @@
     </row>
     <row r="127" ht="14.25">
       <c r="A127" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>28</v>
@@ -9720,7 +9761,7 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>28</v>
@@ -9778,7 +9819,7 @@
     </row>
     <row r="129" ht="14.25">
       <c r="A129" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>28</v>
@@ -9836,7 +9877,7 @@
     </row>
     <row r="130" ht="14.25">
       <c r="A130" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>28</v>
@@ -9894,7 +9935,7 @@
     </row>
     <row r="131" ht="14.25">
       <c r="A131" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>28</v>
@@ -9952,7 +9993,7 @@
     </row>
     <row r="132" ht="14.25">
       <c r="A132" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>28</v>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -1002,8 +1002,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="G25">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A46">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1802,7 +1802,6 @@
       <c r="Y10" t="s">
         <v>38</v>
       </c>
-      <c r="Z10"/>
     </row>
     <row r="11" ht="33.75" customHeight="1">
       <c r="A11" t="s">
@@ -4266,7 +4265,7 @@
         <v>82</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="N41" t="s">
         <v>48</v>
@@ -4470,6 +4469,12 @@
       <c r="Y43" t="s">
         <v>38</v>
       </c>
+      <c r="Z43">
+        <v>7719921544</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
@@ -4547,6 +4552,12 @@
       <c r="Y44" t="s">
         <v>38</v>
       </c>
+      <c r="Z44">
+        <v>7719921544</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
@@ -4624,6 +4635,12 @@
       <c r="Y45" t="s">
         <v>38</v>
       </c>
+      <c r="Z45">
+        <v>7719921544</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
@@ -4701,6 +4718,12 @@
       <c r="Y46" t="s">
         <v>38</v>
       </c>
+      <c r="Z46">
+        <v>7719921544</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
@@ -4777,6 +4800,12 @@
       </c>
       <c r="Y47" t="s">
         <v>38</v>
+      </c>
+      <c r="Z47">
+        <v>7719921544</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="14.25">

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -105,6 +105,12 @@
     <t>cust_name_tag</t>
   </si>
   <si>
+    <t>tax_invoice</t>
+  </si>
+  <si>
+    <t>cust_name_tag_updated</t>
+  </si>
+  <si>
     <t>E_1</t>
   </si>
   <si>
@@ -211,6 +217,12 @@
   </si>
   <si>
     <t>E_18</t>
+  </si>
+  <si>
+    <t>Jinesh</t>
+  </si>
+  <si>
+    <t>Jinu</t>
   </si>
   <si>
     <t>E_19</t>
@@ -1021,8 +1033,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="R1">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="S1">
+      <selection activeCell="AC18" sqref="AC18:AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1131,22 +1143,28 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>123456</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>123456</v>
@@ -1158,81 +1176,87 @@
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O2" s="4">
         <v>45384</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>123456</v>
@@ -1244,81 +1268,87 @@
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" s="4">
         <v>45384</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>123456</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>123456</v>
@@ -1330,81 +1360,87 @@
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O4" s="4">
         <v>45384</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>123456</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>123456</v>
@@ -1416,81 +1452,87 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O5" s="4">
         <v>45384</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>123456</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>123456</v>
@@ -1502,81 +1544,87 @@
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O6" s="4">
         <v>45384</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>123456</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>123456</v>
@@ -1588,81 +1636,87 @@
         <v>600</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O7" s="4">
         <v>45384</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>123456</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>123456</v>
@@ -1674,81 +1728,87 @@
         <v>600</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O8" s="4">
         <v>45384</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>123456</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9">
         <v>123456</v>
@@ -1760,81 +1820,87 @@
         <v>600</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O9" s="4">
         <v>45384</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>123456</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <v>123456</v>
@@ -1846,81 +1912,87 @@
         <v>600</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O10" s="4">
         <v>45384</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z10" s="6">
         <v>9149212438</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>123456</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>123456</v>
@@ -1932,81 +2004,87 @@
         <v>600</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O11" s="4">
         <v>45384</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>123456</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>123456</v>
@@ -2018,81 +2096,87 @@
         <v>600</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="4">
         <v>45384</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>123456</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>123456</v>
@@ -2104,81 +2188,87 @@
         <v>600</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O13" s="4">
         <v>45384</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>123456</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>123456</v>
@@ -2190,81 +2280,87 @@
         <v>600</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O14" s="4">
         <v>45384</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z14" s="6">
         <v>9149212438</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>123456</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15">
         <v>123456</v>
@@ -2276,55 +2372,55 @@
         <v>600</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O15" s="4">
         <v>45384</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z15" s="6">
         <v>9149212438</v>
@@ -2333,24 +2429,30 @@
         <v>1</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>123456</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F16">
         <v>123456</v>
@@ -2362,55 +2464,55 @@
         <v>600</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O16" s="4">
         <v>45384</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z16" s="6">
         <v>9149212438</v>
@@ -2419,24 +2521,30 @@
         <v>1</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>123456</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F17">
         <v>123456</v>
@@ -2448,81 +2556,87 @@
         <v>600</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O17" s="4">
         <v>45384</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z17" s="6">
         <v>9149212438</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>123456</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F18">
         <v>123456</v>
@@ -2534,78 +2648,87 @@
         <v>600</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O18" s="4">
         <v>45384</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R18" s="2">
         <v>3030303030</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z18" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="AB18" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>123456</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F19">
         <v>123456</v>
@@ -2617,75 +2740,87 @@
         <v>600</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O19" s="4">
         <v>45384</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="R19" s="2">
+        <v>4040404040</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z19" s="6">
-        <v>9149212438</v>
+        <v>48</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>123456</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F20">
         <v>123456</v>
@@ -2697,72 +2832,72 @@
         <v>600</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O20" s="4">
         <v>45384</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>123456</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F21">
         <v>123456</v>
@@ -2774,72 +2909,72 @@
         <v>600</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O21" s="4">
         <v>45384</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>123456</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F22">
         <v>123456</v>
@@ -2851,72 +2986,72 @@
         <v>600</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O22" s="4">
         <v>45384</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>123456</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F23">
         <v>123456</v>
@@ -2928,72 +3063,72 @@
         <v>600</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O23" s="4">
         <v>45384</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>123456</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F24">
         <v>123456</v>
@@ -3005,72 +3140,72 @@
         <v>600</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O24" s="4">
         <v>45384</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>123456</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F25">
         <v>123456</v>
@@ -3082,72 +3217,72 @@
         <v>600</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O25" s="4">
         <v>45384</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>123456</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F26">
         <v>123456</v>
@@ -3159,72 +3294,72 @@
         <v>600</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O26" s="4">
         <v>45384</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>123456</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F27">
         <v>123456</v>
@@ -3236,72 +3371,72 @@
         <v>600</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O27" s="4">
         <v>45384</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>123456</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F28">
         <v>123456</v>
@@ -3313,72 +3448,72 @@
         <v>600</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O28" s="4">
         <v>45384</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>123456</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F29">
         <v>123456</v>
@@ -3390,72 +3525,72 @@
         <v>600</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O29" s="4">
         <v>45384</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>123456</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F30">
         <v>123456</v>
@@ -3467,72 +3602,72 @@
         <v>600</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O30" s="4">
         <v>45384</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>123456</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F31">
         <v>123456</v>
@@ -3544,72 +3679,72 @@
         <v>600</v>
       </c>
       <c r="I31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O31" s="4">
         <v>45384</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32">
         <v>123456</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F32">
         <v>123456</v>
@@ -3621,72 +3756,72 @@
         <v>600</v>
       </c>
       <c r="I32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O32" s="4">
         <v>45384</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D33">
         <v>123456</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F33">
         <v>123456</v>
@@ -3698,72 +3833,72 @@
         <v>600</v>
       </c>
       <c r="I33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O33" s="4">
         <v>45384</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D34">
         <v>123456</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F34">
         <v>123456</v>
@@ -3775,72 +3910,72 @@
         <v>600</v>
       </c>
       <c r="I34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O34" s="4">
         <v>45384</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35">
         <v>123456</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F35">
         <v>123456</v>
@@ -3852,72 +3987,72 @@
         <v>600</v>
       </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O35" s="4">
         <v>45384</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D36">
         <v>123456</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36">
         <v>123456</v>
@@ -3929,72 +4064,72 @@
         <v>600</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O36" s="4">
         <v>45384</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D37">
         <v>123456</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F37">
         <v>123456</v>
@@ -4006,72 +4141,72 @@
         <v>600</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O37" s="4">
         <v>45384</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38">
         <v>123456</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F38">
         <v>123456</v>
@@ -4083,72 +4218,72 @@
         <v>600</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O38" s="4">
         <v>45384</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39">
         <v>123456</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F39">
         <v>123456</v>
@@ -4160,72 +4295,72 @@
         <v>600</v>
       </c>
       <c r="I39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O39" s="4">
         <v>45384</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40">
         <v>123456</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F40">
         <v>123456</v>
@@ -4237,72 +4372,72 @@
         <v>600</v>
       </c>
       <c r="I40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O40" s="4">
         <v>45384</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41">
         <v>123456</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F41">
         <v>123456</v>
@@ -4314,72 +4449,72 @@
         <v>600</v>
       </c>
       <c r="I41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O41" s="4">
         <v>45384</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42">
         <v>123456</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F42">
         <v>123456</v>
@@ -4391,72 +4526,72 @@
         <v>600</v>
       </c>
       <c r="I42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O42" s="4">
         <v>45384</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43">
         <v>123456</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F43">
         <v>123456</v>
@@ -4468,72 +4603,72 @@
         <v>600</v>
       </c>
       <c r="I43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O43" s="4">
         <v>45384</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44">
         <v>123456</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F44">
         <v>123456</v>
@@ -4545,72 +4680,72 @@
         <v>600</v>
       </c>
       <c r="I44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O44" s="4">
         <v>45384</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45">
         <v>123456</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F45">
         <v>123456</v>
@@ -4622,72 +4757,72 @@
         <v>600</v>
       </c>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O45" s="4">
         <v>45384</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D46">
         <v>123456</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F46">
         <v>123456</v>
@@ -4699,72 +4834,72 @@
         <v>600</v>
       </c>
       <c r="I46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O46" s="4">
         <v>45384</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47">
         <v>123456</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F47">
         <v>123456</v>
@@ -4776,69 +4911,69 @@
         <v>600</v>
       </c>
       <c r="I47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O47" s="4">
         <v>45384</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D48">
         <v>123456</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F48">
         <v>123456</v>
@@ -4850,69 +4985,69 @@
         <v>600</v>
       </c>
       <c r="I48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O48" s="4">
         <v>45384</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="33" customHeight="1">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D49" s="7">
         <v>123456</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F49" s="7">
         <v>123456</v>
@@ -4924,10 +5059,10 @@
         <v>600</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -4936,57 +5071,57 @@
         <v>2</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O49" s="4">
         <v>45384</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" ht="34.8" customHeight="1">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" s="7">
         <v>123456</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F50" s="7">
         <v>123456</v>
@@ -4998,10 +5133,10 @@
         <v>600</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -5010,57 +5145,57 @@
         <v>2</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O50" s="4">
         <v>45384</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" ht="33.75" customHeight="1">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D51" s="3">
         <v>123456</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F51" s="3">
         <v>123456</v>
@@ -5072,7 +5207,7 @@
         <v>600</v>
       </c>
       <c r="I51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J51" s="10">
         <v>1</v>
@@ -5081,57 +5216,57 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N51" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O51" s="4">
         <v>45384</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="33.75" customHeight="1">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D52" s="3">
         <v>123456</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F52" s="3">
         <v>123456</v>
@@ -5143,7 +5278,7 @@
         <v>600</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J52" s="10">
         <v>1</v>
@@ -5152,57 +5287,57 @@
         <v>1</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N52" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O52" s="4">
         <v>45384</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R52" s="11">
         <v>7709577438</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="33.75" customHeight="1">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D53" s="3">
         <v>123456</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F53" s="3">
         <v>123456</v>
@@ -5214,7 +5349,7 @@
         <v>600</v>
       </c>
       <c r="I53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J53" s="10">
         <v>1</v>
@@ -5223,57 +5358,57 @@
         <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N53" t="s">
         <v>109</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N53" t="s">
-        <v>105</v>
       </c>
       <c r="O53" s="4">
         <v>45384</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R53" s="11">
         <v>7709577438</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="33.75" customHeight="1">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" s="7">
         <v>123456</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F54" s="7">
         <v>123456</v>
@@ -5285,66 +5420,66 @@
         <v>600</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O54" s="4">
         <v>45384</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="33.75" customHeight="1">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D55" s="3">
         <v>123456</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F55" s="7">
         <v>123456</v>
@@ -5356,66 +5491,66 @@
         <v>600</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O55" s="4">
         <v>45384</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" s="3">
         <v>123456</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F56" s="3">
         <v>123456</v>
@@ -5427,7 +5562,7 @@
         <v>600</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J56" s="10">
         <v>1</v>
@@ -5436,57 +5571,57 @@
         <v>1</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N56" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O56" s="4">
         <v>45384</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R56" s="11">
         <v>7709577438</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D57" s="3">
         <v>123456</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F57" s="3">
         <v>123456</v>
@@ -5498,7 +5633,7 @@
         <v>600</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J57" s="10">
         <v>1</v>
@@ -5507,57 +5642,57 @@
         <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N57" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O57" s="4">
         <v>45384</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R57" s="11">
         <v>7709577438</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D58" s="3">
         <v>123456</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F58" s="3">
         <v>123456</v>
@@ -5569,7 +5704,7 @@
         <v>600</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J58" s="10">
         <v>1</v>
@@ -5578,57 +5713,57 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N58" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O58" s="4">
         <v>45384</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R58" s="11">
         <v>7709577438</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V58" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="26.25" customHeight="1">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D59" s="3">
         <v>123456</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F59" s="3">
         <v>123456</v>
@@ -5640,7 +5775,7 @@
         <v>600</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J59" s="10">
         <v>1</v>
@@ -5649,57 +5784,57 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N59" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O59" s="4">
         <v>45384</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R59" s="11">
         <v>7709577438</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="30" customHeight="1">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D60" s="12">
         <v>123456</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F60" s="3">
         <v>123456</v>
@@ -5711,7 +5846,7 @@
         <v>600</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J60" s="10">
         <v>1</v>
@@ -5720,57 +5855,57 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N60" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O60" s="4">
         <v>45384</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R60" s="11">
         <v>7709577438</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="14.25">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D61" s="7">
         <v>123456</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F61" s="7">
         <v>123456</v>
@@ -5782,49 +5917,49 @@
         <v>600</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K61" s="1">
         <v>1</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O61" s="13">
         <v>45384</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
@@ -6474,19 +6609,19 @@
     </row>
     <row r="62" ht="31.5" customHeight="1">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D62" s="3">
         <v>123456</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F62" s="3">
         <v>123456</v>
@@ -6498,7 +6633,7 @@
         <v>600</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J62" s="10">
         <v>1</v>
@@ -6507,57 +6642,57 @@
         <v>1</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N62" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O62" s="4">
         <v>45384</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R62" s="11">
         <v>7709577438</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="31.5" customHeight="1">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D63" s="15">
         <v>123456</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F63">
         <v>123456</v>
@@ -6569,66 +6704,66 @@
         <v>600</v>
       </c>
       <c r="I63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O63" s="13">
         <v>45384</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="31.5" customHeight="1">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D64" s="7">
         <v>123456</v>
       </c>
       <c r="E64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F64" s="7">
         <v>123456</v>
@@ -6640,10 +6775,10 @@
         <v>600</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
@@ -6652,54 +6787,54 @@
         <v>1</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O64" s="13">
         <v>45384</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V64" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W64" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" ht="31.5" customHeight="1">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D65">
         <v>123456</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F65">
         <v>123456</v>
@@ -6711,66 +6846,66 @@
         <v>600</v>
       </c>
       <c r="I65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O65" s="13">
         <v>45384</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R65" s="11">
         <v>7709577438</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W65" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" ht="31.5" customHeight="1">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D66">
         <v>123456</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F66">
         <v>123456</v>
@@ -6782,66 +6917,66 @@
         <v>600</v>
       </c>
       <c r="I66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O66" s="13">
         <v>45384</v>
       </c>
       <c r="P66" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R66" s="11">
         <v>7709577438</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T66" s="2">
         <v>300</v>
       </c>
       <c r="U66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W66" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" ht="32.25" customHeight="1">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D67" s="3">
         <v>123456</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F67" s="3">
         <v>123456</v>
@@ -6853,7 +6988,7 @@
         <v>600</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J67" s="10">
         <v>1</v>
@@ -6862,57 +6997,57 @@
         <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N67" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O67" s="4">
         <v>45384</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R67" s="11">
         <v>7709577438</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" ht="28.5" customHeight="1">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D68" s="3">
         <v>123456</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F68" s="3">
         <v>123456</v>
@@ -6924,7 +7059,7 @@
         <v>600</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J68" s="10">
         <v>1</v>
@@ -6933,57 +7068,57 @@
         <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N68" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O68" s="4">
         <v>45384</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R68" s="11">
         <v>7709577438</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W68" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D69" s="3">
         <v>123456</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F69" s="3">
         <v>123456</v>
@@ -6995,7 +7130,7 @@
         <v>600</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J69" s="10">
         <v>1</v>
@@ -7004,57 +7139,57 @@
         <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N69" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O69" s="4">
         <v>45384</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R69" s="11">
         <v>7709577438</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D70" s="3">
         <v>123456</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F70" s="3">
         <v>123456</v>
@@ -7066,7 +7201,7 @@
         <v>600</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J70" s="10">
         <v>1</v>
@@ -7075,57 +7210,57 @@
         <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N70" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O70" s="4">
         <v>45384</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R70" s="11">
         <v>6375266109</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D71" s="3">
         <v>123456</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F71" s="3">
         <v>123456</v>
@@ -7137,7 +7272,7 @@
         <v>600</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J71" s="10">
         <v>1</v>
@@ -7146,57 +7281,57 @@
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N71" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O71" s="4">
         <v>45384</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R71" s="11">
         <v>7709577438</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D72" s="3">
         <v>123456</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F72" s="3">
         <v>123456</v>
@@ -7208,7 +7343,7 @@
         <v>600</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J72" s="10">
         <v>1</v>
@@ -7217,57 +7352,57 @@
         <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N72" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O72" s="4">
         <v>45384</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R72" s="11">
         <v>7709577438</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D73" s="3">
         <v>123456</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F73" s="3">
         <v>123456</v>
@@ -7279,7 +7414,7 @@
         <v>600</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J73" s="10">
         <v>1</v>
@@ -7288,45 +7423,45 @@
         <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N73" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O73" s="4">
         <v>45384</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R73" s="11">
         <v>7709577438</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V73" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -7342,7 +7477,7 @@
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -7358,7 +7493,7 @@
     </row>
     <row r="76" ht="14.25">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -7374,7 +7509,7 @@
     </row>
     <row r="77" ht="14.25">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -7390,7 +7525,7 @@
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -7406,7 +7541,7 @@
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -7422,7 +7557,7 @@
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -7438,7 +7573,7 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -7454,7 +7589,7 @@
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -7470,7 +7605,7 @@
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -7486,47 +7621,47 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -573,7 +573,13 @@
     <t>E_105</t>
   </si>
   <si>
+    <t>Sal</t>
+  </si>
+  <si>
     <t>E_106</t>
+  </si>
+  <si>
+    <t>Sa</t>
   </si>
   <si>
     <t>E_107</t>
@@ -1139,8 +1145,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="T82">
-      <selection activeCell="AB105" sqref="AB105"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="Q85">
+      <selection activeCell="Y108" sqref="Y108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8092,6 +8098,9 @@
       <c r="X99" t="s">
         <v>37</v>
       </c>
+      <c r="Y99" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="100" ht="14.25">
       <c r="A100" t="s">
@@ -8535,15 +8544,15 @@
         <v>37</v>
       </c>
       <c r="Y106" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z106">
-        <v>9149212438</v>
+        <v>45</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="107" ht="14.25">
       <c r="A107" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>28</v>
@@ -8598,10 +8607,16 @@
       <c r="X107" t="s">
         <v>37</v>
       </c>
+      <c r="Y107" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="108" ht="14.25">
       <c r="A108" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>28</v>
@@ -8659,7 +8674,7 @@
     </row>
     <row r="109" ht="14.25">
       <c r="A109" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>28</v>
@@ -8717,7 +8732,7 @@
     </row>
     <row r="110" ht="14.25">
       <c r="A110" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>28</v>
@@ -8775,7 +8790,7 @@
     </row>
     <row r="111" ht="14.25">
       <c r="A111" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>28</v>
@@ -8833,7 +8848,7 @@
     </row>
     <row r="112" ht="14.25">
       <c r="A112" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>28</v>
@@ -8891,7 +8906,7 @@
     </row>
     <row r="113" ht="14.25">
       <c r="A113" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>28</v>
@@ -8949,7 +8964,7 @@
     </row>
     <row r="114" ht="14.25">
       <c r="A114" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>28</v>
@@ -9007,7 +9022,7 @@
     </row>
     <row r="115" ht="14.25">
       <c r="A115" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>28</v>
@@ -9065,7 +9080,7 @@
     </row>
     <row r="116" ht="14.25">
       <c r="A116" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>28</v>
@@ -9123,7 +9138,7 @@
     </row>
     <row r="117" ht="14.25">
       <c r="A117" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>28</v>
@@ -9181,7 +9196,7 @@
     </row>
     <row r="118" ht="14.25">
       <c r="A118" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>28</v>
@@ -9239,7 +9254,7 @@
     </row>
     <row r="119" ht="14.25">
       <c r="A119" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>28</v>
@@ -9297,7 +9312,7 @@
     </row>
     <row r="120" ht="14.25">
       <c r="A120" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>28</v>
@@ -9355,7 +9370,7 @@
     </row>
     <row r="121" ht="14.25">
       <c r="A121" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>28</v>
@@ -9413,7 +9428,7 @@
     </row>
     <row r="122" ht="14.25">
       <c r="A122" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>28</v>
@@ -9471,7 +9486,7 @@
     </row>
     <row r="123" ht="14.25">
       <c r="A123" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>28</v>
@@ -9529,7 +9544,7 @@
     </row>
     <row r="124" ht="14.25">
       <c r="A124" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>28</v>
@@ -9587,7 +9602,7 @@
     </row>
     <row r="125" ht="14.25">
       <c r="A125" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>28</v>
@@ -9645,7 +9660,7 @@
     </row>
     <row r="126" ht="14.25">
       <c r="A126" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>28</v>
@@ -9703,7 +9718,7 @@
     </row>
     <row r="127" ht="14.25">
       <c r="A127" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>28</v>
@@ -9761,7 +9776,7 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>28</v>
@@ -9819,7 +9834,7 @@
     </row>
     <row r="129" ht="14.25">
       <c r="A129" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>28</v>
@@ -9877,7 +9892,7 @@
     </row>
     <row r="130" ht="14.25">
       <c r="A130" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>28</v>
@@ -9935,7 +9950,7 @@
     </row>
     <row r="131" ht="14.25">
       <c r="A131" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>28</v>
@@ -9993,7 +10008,7 @@
     </row>
     <row r="132" ht="14.25">
       <c r="A132" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>28</v>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -102,15 +102,9 @@
     <t>replace_qty</t>
   </si>
   <si>
-    <t>cust_name_tag</t>
-  </si>
-  <si>
     <t>tax_invoice</t>
   </si>
   <si>
-    <t>cust_name_tag_updated</t>
-  </si>
-  <si>
     <t>E_1</t>
   </si>
   <si>
@@ -219,13 +213,13 @@
     <t>E_18</t>
   </si>
   <si>
+    <t>Shraddha</t>
+  </si>
+  <si>
+    <t>E_19</t>
+  </si>
+  <si>
     <t>Jinesh</t>
-  </si>
-  <si>
-    <t>Jinu</t>
-  </si>
-  <si>
-    <t>E_19</t>
   </si>
   <si>
     <t>E_20</t>
@@ -1034,7 +1028,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="S1">
-      <selection activeCell="AC18" sqref="AC18:AC19"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1055,7 +1049,7 @@
     <col min="21" max="25" width="12.67969" customWidth="1"/>
     <col min="26" max="26" width="17.57031" customWidth="1"/>
     <col min="27" max="27" width="18.57031" customWidth="1"/>
-    <col min="28" max="1021" width="12.67969" customWidth="1"/>
+    <col min="28" max="1019" width="12.67969" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1143,28 +1137,22 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2">
-        <v>123456</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
       </c>
       <c r="F2">
         <v>123456</v>
@@ -1176,87 +1164,81 @@
         <v>600</v>
       </c>
       <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O2" s="4">
         <v>45384</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="W2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" t="s">
-        <v>40</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>123456</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3">
-        <v>123456</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
       </c>
       <c r="F3">
         <v>123456</v>
@@ -1268,87 +1250,81 @@
         <v>600</v>
       </c>
       <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O3" s="4">
         <v>45384</v>
       </c>
       <c r="P3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="W3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" t="s">
-        <v>40</v>
-      </c>
       <c r="Y3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>123456</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4">
-        <v>123456</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
       </c>
       <c r="F4">
         <v>123456</v>
@@ -1360,87 +1336,81 @@
         <v>600</v>
       </c>
       <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O4" s="4">
         <v>45384</v>
       </c>
       <c r="P4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="W4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" t="s">
-        <v>40</v>
-      </c>
       <c r="Y4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>123456</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>123456</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
       </c>
       <c r="F5">
         <v>123456</v>
@@ -1452,87 +1422,81 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O5" s="4">
         <v>45384</v>
       </c>
       <c r="P5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="W5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" t="s">
-        <v>40</v>
-      </c>
       <c r="Y5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>123456</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
-        <v>123456</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
       </c>
       <c r="F6">
         <v>123456</v>
@@ -1544,87 +1508,81 @@
         <v>600</v>
       </c>
       <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O6" s="4">
         <v>45384</v>
       </c>
       <c r="P6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="W6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" t="s">
-        <v>40</v>
-      </c>
       <c r="Y6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>123456</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>123456</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
       </c>
       <c r="F7">
         <v>123456</v>
@@ -1636,87 +1594,81 @@
         <v>600</v>
       </c>
       <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O7" s="4">
         <v>45384</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="W7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U7" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" t="s">
-        <v>39</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" t="s">
-        <v>40</v>
-      </c>
       <c r="Y7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>123456</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>123456</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
       </c>
       <c r="F8">
         <v>123456</v>
@@ -1728,87 +1680,81 @@
         <v>600</v>
       </c>
       <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O8" s="4">
         <v>45384</v>
       </c>
       <c r="P8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="W8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U8" t="s">
-        <v>35</v>
-      </c>
-      <c r="V8" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X8" t="s">
-        <v>40</v>
-      </c>
       <c r="Y8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>123456</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>123456</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
       </c>
       <c r="F9">
         <v>123456</v>
@@ -1820,87 +1766,81 @@
         <v>600</v>
       </c>
       <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O9" s="4">
         <v>45384</v>
       </c>
       <c r="P9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="W9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U9" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X9" t="s">
-        <v>40</v>
-      </c>
       <c r="Y9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>123456</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>123456</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
       </c>
       <c r="F10">
         <v>123456</v>
@@ -1912,87 +1852,81 @@
         <v>600</v>
       </c>
       <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O10" s="4">
         <v>45384</v>
       </c>
       <c r="P10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="W10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" t="s">
-        <v>39</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X10" t="s">
-        <v>40</v>
-      </c>
       <c r="Y10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z10" s="6">
         <v>9149212438</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>123456</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>123456</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
       </c>
       <c r="F11">
         <v>123456</v>
@@ -2004,87 +1938,81 @@
         <v>600</v>
       </c>
       <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O11" s="4">
         <v>45384</v>
       </c>
       <c r="P11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" t="s">
         <v>37</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="W11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U11" t="s">
-        <v>35</v>
-      </c>
-      <c r="V11" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X11" t="s">
-        <v>40</v>
-      </c>
       <c r="Y11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="AA11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>123456</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>123456</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
       </c>
       <c r="F12">
         <v>123456</v>
@@ -2096,87 +2024,81 @@
         <v>600</v>
       </c>
       <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="4">
         <v>45384</v>
       </c>
       <c r="P12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="W12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U12" t="s">
-        <v>35</v>
-      </c>
-      <c r="V12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X12" t="s">
-        <v>40</v>
-      </c>
       <c r="Y12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>123456</v>
+      </c>
+      <c r="E13" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
-        <v>123456</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
       </c>
       <c r="F13">
         <v>123456</v>
@@ -2188,87 +2110,81 @@
         <v>600</v>
       </c>
       <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O13" s="4">
         <v>45384</v>
       </c>
       <c r="P13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" t="s">
         <v>37</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="W13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" t="s">
         <v>38</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U13" t="s">
-        <v>35</v>
-      </c>
-      <c r="V13" t="s">
-        <v>39</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X13" t="s">
-        <v>40</v>
-      </c>
       <c r="Y13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>123456</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>123456</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
       </c>
       <c r="F14">
         <v>123456</v>
@@ -2280,87 +2196,81 @@
         <v>600</v>
       </c>
       <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O14" s="4">
         <v>45384</v>
       </c>
       <c r="P14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="W14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U14" t="s">
-        <v>35</v>
-      </c>
-      <c r="V14" t="s">
-        <v>39</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X14" t="s">
-        <v>40</v>
-      </c>
       <c r="Y14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z14" s="6">
         <v>9149212438</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>123456</v>
+      </c>
+      <c r="E15" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15">
-        <v>123456</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
       </c>
       <c r="F15">
         <v>123456</v>
@@ -2372,55 +2282,55 @@
         <v>600</v>
       </c>
       <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O15" s="4">
         <v>45384</v>
       </c>
       <c r="P15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="W15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X15" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U15" t="s">
-        <v>35</v>
-      </c>
-      <c r="V15" t="s">
-        <v>39</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X15" t="s">
-        <v>40</v>
-      </c>
       <c r="Y15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z15" s="6">
         <v>9149212438</v>
@@ -2429,30 +2339,24 @@
         <v>1</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>123456</v>
+      </c>
+      <c r="E16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>123456</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
       </c>
       <c r="F16">
         <v>123456</v>
@@ -2464,55 +2368,55 @@
         <v>600</v>
       </c>
       <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O16" s="4">
         <v>45384</v>
       </c>
       <c r="P16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="W16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X16" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U16" t="s">
-        <v>35</v>
-      </c>
-      <c r="V16" t="s">
-        <v>39</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X16" t="s">
-        <v>40</v>
-      </c>
       <c r="Y16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z16" s="6">
         <v>9149212438</v>
@@ -2521,30 +2425,24 @@
         <v>1</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>123456</v>
+      </c>
+      <c r="E17" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>123456</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
       </c>
       <c r="F17">
         <v>123456</v>
@@ -2556,87 +2454,81 @@
         <v>600</v>
       </c>
       <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O17" s="4">
         <v>45384</v>
       </c>
       <c r="P17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" t="s">
         <v>37</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="W17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X17" t="s">
         <v>38</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U17" t="s">
-        <v>35</v>
-      </c>
-      <c r="V17" t="s">
-        <v>39</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X17" t="s">
-        <v>40</v>
-      </c>
       <c r="Y17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z17" s="6">
         <v>9149212438</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>123456</v>
+      </c>
+      <c r="E18" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <v>123456</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
       </c>
       <c r="F18">
         <v>123456</v>
@@ -2648,87 +2540,81 @@
         <v>600</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O18" s="4">
         <v>45384</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R18" s="2">
         <v>3030303030</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>123456</v>
+      </c>
+      <c r="E19" t="s">
         <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19">
-        <v>123456</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
       </c>
       <c r="F19">
         <v>123456</v>
@@ -2740,87 +2626,81 @@
         <v>600</v>
       </c>
       <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O19" s="4">
         <v>45384</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R19" s="2">
         <v>4040404040</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>66</v>
+        <v>33</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>123456</v>
+      </c>
+      <c r="E20" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20">
-        <v>123456</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
       </c>
       <c r="F20">
         <v>123456</v>
@@ -2832,72 +2712,81 @@
         <v>600</v>
       </c>
       <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O20" s="4">
         <v>45384</v>
       </c>
       <c r="P20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="2">
+        <v>5050505050</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" t="s">
+        <v>33</v>
+      </c>
+      <c r="V20" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="W20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X20" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U20" t="s">
-        <v>35</v>
-      </c>
-      <c r="V20" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X20" t="s">
-        <v>40</v>
-      </c>
       <c r="Y20" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>123456</v>
+      </c>
+      <c r="E21" t="s">
         <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21">
-        <v>123456</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
       </c>
       <c r="F21">
         <v>123456</v>
@@ -2909,72 +2798,78 @@
         <v>600</v>
       </c>
       <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O21" s="4">
         <v>45384</v>
       </c>
       <c r="P21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" t="s">
+        <v>33</v>
+      </c>
+      <c r="V21" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="W21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X21" t="s">
         <v>38</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U21" t="s">
-        <v>35</v>
-      </c>
-      <c r="V21" t="s">
-        <v>39</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X21" t="s">
-        <v>40</v>
-      </c>
       <c r="Y21" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>9149212438</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>123456</v>
+      </c>
+      <c r="E22" t="s">
         <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22">
-        <v>123456</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
       </c>
       <c r="F22">
         <v>123456</v>
@@ -2986,72 +2881,72 @@
         <v>600</v>
       </c>
       <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O22" s="4">
         <v>45384</v>
       </c>
       <c r="P22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" t="s">
+        <v>33</v>
+      </c>
+      <c r="V22" t="s">
         <v>37</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="W22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X22" t="s">
         <v>38</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U22" t="s">
-        <v>35</v>
-      </c>
-      <c r="V22" t="s">
-        <v>39</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X22" t="s">
-        <v>40</v>
-      </c>
       <c r="Y22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>123456</v>
+      </c>
+      <c r="E23" t="s">
         <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23">
-        <v>123456</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
       </c>
       <c r="F23">
         <v>123456</v>
@@ -3063,72 +2958,72 @@
         <v>600</v>
       </c>
       <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O23" s="4">
         <v>45384</v>
       </c>
       <c r="P23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" t="s">
+        <v>33</v>
+      </c>
+      <c r="V23" t="s">
         <v>37</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="W23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" t="s">
         <v>38</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U23" t="s">
-        <v>35</v>
-      </c>
-      <c r="V23" t="s">
-        <v>39</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X23" t="s">
-        <v>40</v>
-      </c>
       <c r="Y23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>123456</v>
+      </c>
+      <c r="E24" t="s">
         <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24">
-        <v>123456</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
       </c>
       <c r="F24">
         <v>123456</v>
@@ -3140,72 +3035,72 @@
         <v>600</v>
       </c>
       <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O24" s="4">
         <v>45384</v>
       </c>
       <c r="P24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" t="s">
+        <v>33</v>
+      </c>
+      <c r="V24" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="W24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X24" t="s">
         <v>38</v>
       </c>
-      <c r="R24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U24" t="s">
-        <v>35</v>
-      </c>
-      <c r="V24" t="s">
-        <v>39</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X24" t="s">
-        <v>40</v>
-      </c>
       <c r="Y24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>123456</v>
+      </c>
+      <c r="E25" t="s">
         <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25">
-        <v>123456</v>
-      </c>
-      <c r="E25" t="s">
-        <v>33</v>
       </c>
       <c r="F25">
         <v>123456</v>
@@ -3217,72 +3112,72 @@
         <v>600</v>
       </c>
       <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O25" s="4">
         <v>45384</v>
       </c>
       <c r="P25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" t="s">
+        <v>33</v>
+      </c>
+      <c r="V25" t="s">
         <v>37</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="W25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X25" t="s">
         <v>38</v>
       </c>
-      <c r="R25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U25" t="s">
-        <v>35</v>
-      </c>
-      <c r="V25" t="s">
-        <v>39</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X25" t="s">
-        <v>40</v>
-      </c>
       <c r="Y25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>123456</v>
+      </c>
+      <c r="E26" t="s">
         <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26">
-        <v>123456</v>
-      </c>
-      <c r="E26" t="s">
-        <v>33</v>
       </c>
       <c r="F26">
         <v>123456</v>
@@ -3294,72 +3189,72 @@
         <v>600</v>
       </c>
       <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O26" s="4">
         <v>45384</v>
       </c>
       <c r="P26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U26" t="s">
+        <v>33</v>
+      </c>
+      <c r="V26" t="s">
         <v>37</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="W26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X26" t="s">
         <v>38</v>
       </c>
-      <c r="R26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U26" t="s">
-        <v>35</v>
-      </c>
-      <c r="V26" t="s">
-        <v>39</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X26" t="s">
-        <v>40</v>
-      </c>
       <c r="Y26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>123456</v>
+      </c>
+      <c r="E27" t="s">
         <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27">
-        <v>123456</v>
-      </c>
-      <c r="E27" t="s">
-        <v>33</v>
       </c>
       <c r="F27">
         <v>123456</v>
@@ -3371,72 +3266,72 @@
         <v>600</v>
       </c>
       <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O27" s="4">
         <v>45384</v>
       </c>
       <c r="P27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U27" t="s">
+        <v>33</v>
+      </c>
+      <c r="V27" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="W27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X27" t="s">
         <v>38</v>
       </c>
-      <c r="R27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U27" t="s">
-        <v>35</v>
-      </c>
-      <c r="V27" t="s">
-        <v>39</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X27" t="s">
-        <v>40</v>
-      </c>
       <c r="Y27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>123456</v>
+      </c>
+      <c r="E28" t="s">
         <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28">
-        <v>123456</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
       </c>
       <c r="F28">
         <v>123456</v>
@@ -3448,72 +3343,72 @@
         <v>600</v>
       </c>
       <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O28" s="4">
         <v>45384</v>
       </c>
       <c r="P28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28" t="s">
+        <v>33</v>
+      </c>
+      <c r="V28" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="W28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X28" t="s">
         <v>38</v>
       </c>
-      <c r="R28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V28" t="s">
-        <v>39</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X28" t="s">
-        <v>40</v>
-      </c>
       <c r="Y28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>123456</v>
+      </c>
+      <c r="E29" t="s">
         <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29">
-        <v>123456</v>
-      </c>
-      <c r="E29" t="s">
-        <v>33</v>
       </c>
       <c r="F29">
         <v>123456</v>
@@ -3525,72 +3420,72 @@
         <v>600</v>
       </c>
       <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O29" s="4">
         <v>45384</v>
       </c>
       <c r="P29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U29" t="s">
+        <v>33</v>
+      </c>
+      <c r="V29" t="s">
         <v>37</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="W29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X29" t="s">
         <v>38</v>
       </c>
-      <c r="R29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U29" t="s">
-        <v>35</v>
-      </c>
-      <c r="V29" t="s">
-        <v>39</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X29" t="s">
-        <v>40</v>
-      </c>
       <c r="Y29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>123456</v>
+      </c>
+      <c r="E30" t="s">
         <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30">
-        <v>123456</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
       </c>
       <c r="F30">
         <v>123456</v>
@@ -3602,72 +3497,72 @@
         <v>600</v>
       </c>
       <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O30" s="4">
         <v>45384</v>
       </c>
       <c r="P30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U30" t="s">
+        <v>33</v>
+      </c>
+      <c r="V30" t="s">
         <v>37</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="W30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X30" t="s">
         <v>38</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U30" t="s">
-        <v>35</v>
-      </c>
-      <c r="V30" t="s">
-        <v>39</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X30" t="s">
-        <v>40</v>
-      </c>
       <c r="Y30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>123456</v>
+      </c>
+      <c r="E31" t="s">
         <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31">
-        <v>123456</v>
-      </c>
-      <c r="E31" t="s">
-        <v>33</v>
       </c>
       <c r="F31">
         <v>123456</v>
@@ -3679,72 +3574,72 @@
         <v>600</v>
       </c>
       <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O31" s="4">
         <v>45384</v>
       </c>
       <c r="P31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U31" t="s">
+        <v>33</v>
+      </c>
+      <c r="V31" t="s">
         <v>37</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="W31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X31" t="s">
         <v>38</v>
       </c>
-      <c r="R31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U31" t="s">
-        <v>35</v>
-      </c>
-      <c r="V31" t="s">
-        <v>39</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X31" t="s">
-        <v>40</v>
-      </c>
       <c r="Y31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>123456</v>
+      </c>
+      <c r="E32" t="s">
         <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32">
-        <v>123456</v>
-      </c>
-      <c r="E32" t="s">
-        <v>33</v>
       </c>
       <c r="F32">
         <v>123456</v>
@@ -3756,72 +3651,72 @@
         <v>600</v>
       </c>
       <c r="I32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O32" s="4">
         <v>45384</v>
       </c>
       <c r="P32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U32" t="s">
+        <v>33</v>
+      </c>
+      <c r="V32" t="s">
         <v>37</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="W32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X32" t="s">
         <v>38</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U32" t="s">
-        <v>35</v>
-      </c>
-      <c r="V32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X32" t="s">
-        <v>40</v>
-      </c>
       <c r="Y32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>123456</v>
+      </c>
+      <c r="E33" t="s">
         <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>123456</v>
-      </c>
-      <c r="E33" t="s">
-        <v>33</v>
       </c>
       <c r="F33">
         <v>123456</v>
@@ -3833,72 +3728,72 @@
         <v>600</v>
       </c>
       <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O33" s="4">
         <v>45384</v>
       </c>
       <c r="P33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U33" t="s">
+        <v>33</v>
+      </c>
+      <c r="V33" t="s">
         <v>37</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="W33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X33" t="s">
         <v>38</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U33" t="s">
-        <v>35</v>
-      </c>
-      <c r="V33" t="s">
-        <v>39</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X33" t="s">
-        <v>40</v>
-      </c>
       <c r="Y33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>123456</v>
+      </c>
+      <c r="E34" t="s">
         <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34">
-        <v>123456</v>
-      </c>
-      <c r="E34" t="s">
-        <v>33</v>
       </c>
       <c r="F34">
         <v>123456</v>
@@ -3910,72 +3805,72 @@
         <v>600</v>
       </c>
       <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O34" s="4">
         <v>45384</v>
       </c>
       <c r="P34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U34" t="s">
+        <v>33</v>
+      </c>
+      <c r="V34" t="s">
         <v>37</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="W34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X34" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U34" t="s">
-        <v>35</v>
-      </c>
-      <c r="V34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X34" t="s">
-        <v>40</v>
-      </c>
       <c r="Y34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>123456</v>
+      </c>
+      <c r="E35" t="s">
         <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35">
-        <v>123456</v>
-      </c>
-      <c r="E35" t="s">
-        <v>33</v>
       </c>
       <c r="F35">
         <v>123456</v>
@@ -3987,72 +3882,72 @@
         <v>600</v>
       </c>
       <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O35" s="4">
         <v>45384</v>
       </c>
       <c r="P35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U35" t="s">
+        <v>33</v>
+      </c>
+      <c r="V35" t="s">
         <v>37</v>
       </c>
-      <c r="Q35" s="5" t="s">
+      <c r="W35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X35" t="s">
         <v>38</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U35" t="s">
-        <v>35</v>
-      </c>
-      <c r="V35" t="s">
-        <v>39</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X35" t="s">
-        <v>40</v>
-      </c>
       <c r="Y35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>123456</v>
+      </c>
+      <c r="E36" t="s">
         <v>31</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36">
-        <v>123456</v>
-      </c>
-      <c r="E36" t="s">
-        <v>33</v>
       </c>
       <c r="F36">
         <v>123456</v>
@@ -4064,72 +3959,72 @@
         <v>600</v>
       </c>
       <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O36" s="4">
         <v>45384</v>
       </c>
       <c r="P36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U36" t="s">
+        <v>33</v>
+      </c>
+      <c r="V36" t="s">
         <v>37</v>
       </c>
-      <c r="Q36" s="5" t="s">
+      <c r="W36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X36" t="s">
         <v>38</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U36" t="s">
-        <v>35</v>
-      </c>
-      <c r="V36" t="s">
-        <v>39</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X36" t="s">
-        <v>40</v>
-      </c>
       <c r="Y36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>123456</v>
+      </c>
+      <c r="E37" t="s">
         <v>31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37">
-        <v>123456</v>
-      </c>
-      <c r="E37" t="s">
-        <v>33</v>
       </c>
       <c r="F37">
         <v>123456</v>
@@ -4141,72 +4036,72 @@
         <v>600</v>
       </c>
       <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O37" s="4">
         <v>45384</v>
       </c>
       <c r="P37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U37" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" t="s">
         <v>37</v>
       </c>
-      <c r="Q37" s="5" t="s">
+      <c r="W37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X37" t="s">
         <v>38</v>
       </c>
-      <c r="R37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U37" t="s">
-        <v>35</v>
-      </c>
-      <c r="V37" t="s">
-        <v>39</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X37" t="s">
-        <v>40</v>
-      </c>
       <c r="Y37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>123456</v>
+      </c>
+      <c r="E38" t="s">
         <v>31</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38">
-        <v>123456</v>
-      </c>
-      <c r="E38" t="s">
-        <v>33</v>
       </c>
       <c r="F38">
         <v>123456</v>
@@ -4218,72 +4113,72 @@
         <v>600</v>
       </c>
       <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O38" s="4">
         <v>45384</v>
       </c>
       <c r="P38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U38" t="s">
+        <v>33</v>
+      </c>
+      <c r="V38" t="s">
         <v>37</v>
       </c>
-      <c r="Q38" s="5" t="s">
+      <c r="W38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X38" t="s">
         <v>38</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U38" t="s">
-        <v>35</v>
-      </c>
-      <c r="V38" t="s">
-        <v>39</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X38" t="s">
-        <v>40</v>
-      </c>
       <c r="Y38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>123456</v>
+      </c>
+      <c r="E39" t="s">
         <v>31</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39">
-        <v>123456</v>
-      </c>
-      <c r="E39" t="s">
-        <v>33</v>
       </c>
       <c r="F39">
         <v>123456</v>
@@ -4295,72 +4190,72 @@
         <v>600</v>
       </c>
       <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O39" s="4">
         <v>45384</v>
       </c>
       <c r="P39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U39" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" t="s">
         <v>37</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="W39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X39" t="s">
         <v>38</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U39" t="s">
-        <v>35</v>
-      </c>
-      <c r="V39" t="s">
-        <v>39</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X39" t="s">
-        <v>40</v>
-      </c>
       <c r="Y39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>123456</v>
+      </c>
+      <c r="E40" t="s">
         <v>31</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40">
-        <v>123456</v>
-      </c>
-      <c r="E40" t="s">
-        <v>33</v>
       </c>
       <c r="F40">
         <v>123456</v>
@@ -4372,72 +4267,72 @@
         <v>600</v>
       </c>
       <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O40" s="4">
         <v>45384</v>
       </c>
       <c r="P40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U40" t="s">
+        <v>33</v>
+      </c>
+      <c r="V40" t="s">
         <v>37</v>
       </c>
-      <c r="Q40" s="5" t="s">
+      <c r="W40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X40" t="s">
         <v>38</v>
       </c>
-      <c r="R40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U40" t="s">
-        <v>35</v>
-      </c>
-      <c r="V40" t="s">
-        <v>39</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X40" t="s">
-        <v>40</v>
-      </c>
       <c r="Y40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>123456</v>
+      </c>
+      <c r="E41" t="s">
         <v>31</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41">
-        <v>123456</v>
-      </c>
-      <c r="E41" t="s">
-        <v>33</v>
       </c>
       <c r="F41">
         <v>123456</v>
@@ -4449,72 +4344,72 @@
         <v>600</v>
       </c>
       <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O41" s="4">
         <v>45384</v>
       </c>
       <c r="P41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U41" t="s">
+        <v>33</v>
+      </c>
+      <c r="V41" t="s">
         <v>37</v>
       </c>
-      <c r="Q41" s="5" t="s">
+      <c r="W41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X41" t="s">
         <v>38</v>
       </c>
-      <c r="R41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U41" t="s">
-        <v>35</v>
-      </c>
-      <c r="V41" t="s">
-        <v>39</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X41" t="s">
-        <v>40</v>
-      </c>
       <c r="Y41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>123456</v>
+      </c>
+      <c r="E42" t="s">
         <v>31</v>
-      </c>
-      <c r="C42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42">
-        <v>123456</v>
-      </c>
-      <c r="E42" t="s">
-        <v>33</v>
       </c>
       <c r="F42">
         <v>123456</v>
@@ -4526,72 +4421,72 @@
         <v>600</v>
       </c>
       <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O42" s="4">
         <v>45384</v>
       </c>
       <c r="P42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U42" t="s">
+        <v>33</v>
+      </c>
+      <c r="V42" t="s">
         <v>37</v>
       </c>
-      <c r="Q42" s="5" t="s">
+      <c r="W42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X42" t="s">
         <v>38</v>
       </c>
-      <c r="R42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U42" t="s">
-        <v>35</v>
-      </c>
-      <c r="V42" t="s">
-        <v>39</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X42" t="s">
-        <v>40</v>
-      </c>
       <c r="Y42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>123456</v>
+      </c>
+      <c r="E43" t="s">
         <v>31</v>
-      </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43">
-        <v>123456</v>
-      </c>
-      <c r="E43" t="s">
-        <v>33</v>
       </c>
       <c r="F43">
         <v>123456</v>
@@ -4603,72 +4498,72 @@
         <v>600</v>
       </c>
       <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O43" s="4">
         <v>45384</v>
       </c>
       <c r="P43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U43" t="s">
+        <v>33</v>
+      </c>
+      <c r="V43" t="s">
         <v>37</v>
       </c>
-      <c r="Q43" s="5" t="s">
+      <c r="W43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X43" t="s">
         <v>38</v>
       </c>
-      <c r="R43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U43" t="s">
-        <v>35</v>
-      </c>
-      <c r="V43" t="s">
-        <v>39</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X43" t="s">
-        <v>40</v>
-      </c>
       <c r="Y43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>123456</v>
+      </c>
+      <c r="E44" t="s">
         <v>31</v>
-      </c>
-      <c r="C44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44">
-        <v>123456</v>
-      </c>
-      <c r="E44" t="s">
-        <v>33</v>
       </c>
       <c r="F44">
         <v>123456</v>
@@ -4680,72 +4575,72 @@
         <v>600</v>
       </c>
       <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O44" s="4">
         <v>45384</v>
       </c>
       <c r="P44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U44" t="s">
+        <v>33</v>
+      </c>
+      <c r="V44" t="s">
         <v>37</v>
       </c>
-      <c r="Q44" s="5" t="s">
+      <c r="W44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X44" t="s">
         <v>38</v>
       </c>
-      <c r="R44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U44" t="s">
-        <v>35</v>
-      </c>
-      <c r="V44" t="s">
-        <v>39</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X44" t="s">
-        <v>40</v>
-      </c>
       <c r="Y44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45">
+        <v>123456</v>
+      </c>
+      <c r="E45" t="s">
         <v>31</v>
-      </c>
-      <c r="C45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45">
-        <v>123456</v>
-      </c>
-      <c r="E45" t="s">
-        <v>33</v>
       </c>
       <c r="F45">
         <v>123456</v>
@@ -4757,72 +4652,72 @@
         <v>600</v>
       </c>
       <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O45" s="4">
         <v>45384</v>
       </c>
       <c r="P45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U45" t="s">
+        <v>33</v>
+      </c>
+      <c r="V45" t="s">
         <v>37</v>
       </c>
-      <c r="Q45" s="5" t="s">
+      <c r="W45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X45" t="s">
         <v>38</v>
       </c>
-      <c r="R45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U45" t="s">
-        <v>35</v>
-      </c>
-      <c r="V45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X45" t="s">
-        <v>40</v>
-      </c>
       <c r="Y45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46">
+        <v>123456</v>
+      </c>
+      <c r="E46" t="s">
         <v>31</v>
-      </c>
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46">
-        <v>123456</v>
-      </c>
-      <c r="E46" t="s">
-        <v>33</v>
       </c>
       <c r="F46">
         <v>123456</v>
@@ -4834,72 +4729,72 @@
         <v>600</v>
       </c>
       <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O46" s="4">
         <v>45384</v>
       </c>
       <c r="P46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U46" t="s">
+        <v>33</v>
+      </c>
+      <c r="V46" t="s">
         <v>37</v>
       </c>
-      <c r="Q46" s="5" t="s">
+      <c r="W46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X46" t="s">
         <v>38</v>
       </c>
-      <c r="R46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U46" t="s">
-        <v>35</v>
-      </c>
-      <c r="V46" t="s">
-        <v>39</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X46" t="s">
-        <v>40</v>
-      </c>
       <c r="Y46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>123456</v>
+      </c>
+      <c r="E47" t="s">
         <v>31</v>
-      </c>
-      <c r="C47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47">
-        <v>123456</v>
-      </c>
-      <c r="E47" t="s">
-        <v>33</v>
       </c>
       <c r="F47">
         <v>123456</v>
@@ -4911,69 +4806,69 @@
         <v>600</v>
       </c>
       <c r="I47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O47" s="4">
         <v>45384</v>
       </c>
       <c r="P47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U47" t="s">
+        <v>33</v>
+      </c>
+      <c r="V47" t="s">
         <v>37</v>
       </c>
-      <c r="Q47" s="5" t="s">
+      <c r="W47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X47" t="s">
         <v>38</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U47" t="s">
-        <v>35</v>
-      </c>
-      <c r="V47" t="s">
-        <v>39</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X47" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>123456</v>
+      </c>
+      <c r="E48" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48">
-        <v>123456</v>
-      </c>
-      <c r="E48" t="s">
-        <v>98</v>
       </c>
       <c r="F48">
         <v>123456</v>
@@ -4985,69 +4880,69 @@
         <v>600</v>
       </c>
       <c r="I48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O48" s="4">
         <v>45384</v>
       </c>
       <c r="P48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U48" t="s">
+        <v>33</v>
+      </c>
+      <c r="V48" t="s">
         <v>37</v>
       </c>
-      <c r="Q48" s="5" t="s">
+      <c r="W48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X48" t="s">
         <v>38</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U48" t="s">
-        <v>35</v>
-      </c>
-      <c r="V48" t="s">
-        <v>39</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X48" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="49" ht="33" customHeight="1">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="7">
+        <v>123456</v>
+      </c>
+      <c r="E49" t="s">
         <v>31</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E49" t="s">
-        <v>33</v>
       </c>
       <c r="F49" s="7">
         <v>123456</v>
@@ -5059,10 +4954,10 @@
         <v>600</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -5071,57 +4966,57 @@
         <v>2</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O49" s="4">
         <v>45384</v>
       </c>
       <c r="P49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q49" s="5" t="s">
+      <c r="W49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X49" t="s">
         <v>38</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X49" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="50" ht="34.8" customHeight="1">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="7">
+        <v>123456</v>
+      </c>
+      <c r="E50" t="s">
         <v>102</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E50" t="s">
-        <v>104</v>
       </c>
       <c r="F50" s="7">
         <v>123456</v>
@@ -5133,10 +5028,10 @@
         <v>600</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -5145,57 +5040,57 @@
         <v>2</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O50" s="4">
         <v>45384</v>
       </c>
       <c r="P50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q50" s="5" t="s">
+      <c r="W50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X50" t="s">
         <v>38</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X50" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="51" ht="33.75" customHeight="1">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E51" t="s">
         <v>31</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E51" t="s">
-        <v>33</v>
       </c>
       <c r="F51" s="3">
         <v>123456</v>
@@ -5207,7 +5102,7 @@
         <v>600</v>
       </c>
       <c r="I51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J51" s="10">
         <v>1</v>
@@ -5216,57 +5111,57 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O51" s="4">
         <v>45384</v>
       </c>
       <c r="P51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V51" t="s">
         <v>37</v>
       </c>
-      <c r="Q51" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V51" t="s">
-        <v>39</v>
-      </c>
       <c r="W51" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="33.75" customHeight="1">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E52" t="s">
         <v>31</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E52" t="s">
-        <v>33</v>
       </c>
       <c r="F52" s="3">
         <v>123456</v>
@@ -5278,7 +5173,7 @@
         <v>600</v>
       </c>
       <c r="I52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J52" s="10">
         <v>1</v>
@@ -5287,57 +5182,57 @@
         <v>1</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O52" s="4">
         <v>45384</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R52" s="11">
         <v>7709577438</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="33.75" customHeight="1">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E53" t="s">
         <v>31</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E53" t="s">
-        <v>33</v>
       </c>
       <c r="F53" s="3">
         <v>123456</v>
@@ -5349,7 +5244,7 @@
         <v>600</v>
       </c>
       <c r="I53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J53" s="10">
         <v>1</v>
@@ -5358,57 +5253,57 @@
         <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O53" s="4">
         <v>45384</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R53" s="11">
         <v>7709577438</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="33.75" customHeight="1">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="7">
+        <v>123456</v>
+      </c>
+      <c r="E54" t="s">
         <v>31</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E54" t="s">
-        <v>33</v>
       </c>
       <c r="F54" s="7">
         <v>123456</v>
@@ -5420,66 +5315,66 @@
         <v>600</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O54" s="4">
         <v>45384</v>
       </c>
       <c r="P54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q54" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="W54" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="33.75" customHeight="1">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E55" t="s">
         <v>31</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E55" t="s">
-        <v>33</v>
       </c>
       <c r="F55" s="7">
         <v>123456</v>
@@ -5491,66 +5386,66 @@
         <v>600</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O55" s="4">
         <v>45384</v>
       </c>
       <c r="P55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V55" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q55" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="W55" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E56" t="s">
         <v>31</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E56" t="s">
-        <v>33</v>
       </c>
       <c r="F56" s="3">
         <v>123456</v>
@@ -5562,7 +5457,7 @@
         <v>600</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J56" s="10">
         <v>1</v>
@@ -5571,57 +5466,57 @@
         <v>1</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O56" s="4">
         <v>45384</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R56" s="11">
         <v>7709577438</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E57" t="s">
         <v>31</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E57" t="s">
-        <v>33</v>
       </c>
       <c r="F57" s="3">
         <v>123456</v>
@@ -5633,7 +5528,7 @@
         <v>600</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J57" s="10">
         <v>1</v>
@@ -5642,57 +5537,57 @@
         <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O57" s="4">
         <v>45384</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R57" s="11">
         <v>7709577438</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E58" t="s">
         <v>31</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E58" t="s">
-        <v>33</v>
       </c>
       <c r="F58" s="3">
         <v>123456</v>
@@ -5704,7 +5599,7 @@
         <v>600</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J58" s="10">
         <v>1</v>
@@ -5713,57 +5608,57 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O58" s="4">
         <v>45384</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R58" s="11">
         <v>7709577438</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="26.25" customHeight="1">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E59" t="s">
         <v>31</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E59" t="s">
-        <v>33</v>
       </c>
       <c r="F59" s="3">
         <v>123456</v>
@@ -5775,7 +5670,7 @@
         <v>600</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J59" s="10">
         <v>1</v>
@@ -5784,57 +5679,57 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O59" s="4">
         <v>45384</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R59" s="11">
         <v>7709577438</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="30" customHeight="1">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="12">
+        <v>123456</v>
+      </c>
+      <c r="E60" t="s">
         <v>31</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="12">
-        <v>123456</v>
-      </c>
-      <c r="E60" t="s">
-        <v>33</v>
       </c>
       <c r="F60" s="3">
         <v>123456</v>
@@ -5846,7 +5741,7 @@
         <v>600</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J60" s="10">
         <v>1</v>
@@ -5855,57 +5750,57 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O60" s="4">
         <v>45384</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R60" s="11">
         <v>7709577438</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="14.25">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="7">
+        <v>123456</v>
+      </c>
+      <c r="E61" t="s">
         <v>31</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E61" t="s">
-        <v>33</v>
       </c>
       <c r="F61" s="7">
         <v>123456</v>
@@ -5917,711 +5812,709 @@
         <v>600</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K61" s="1">
         <v>1</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O61" s="13">
         <v>45384</v>
       </c>
       <c r="P61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V61" t="s">
         <v>37</v>
       </c>
-      <c r="Q61" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V61" t="s">
-        <v>39</v>
-      </c>
       <c r="W61" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB61" s="5"/>
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="5"/>
-      <c r="AE61"/>
-      <c r="AF61" s="14"/>
+      <c r="AC61"/>
+      <c r="AD61" s="14"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
       <c r="AG61" s="7"/>
       <c r="AH61" s="7"/>
-      <c r="AI61" s="7"/>
-      <c r="AJ61" s="7"/>
-      <c r="AK61"/>
-      <c r="AL61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AQ61" s="5"/>
+      <c r="AR61" s="5"/>
       <c r="AS61" s="5"/>
-      <c r="AT61" s="5"/>
-      <c r="AU61" s="5"/>
-      <c r="AV61"/>
-      <c r="AW61" s="14"/>
+      <c r="AT61"/>
+      <c r="AU61" s="14"/>
+      <c r="AV61" s="7"/>
+      <c r="AW61" s="7"/>
       <c r="AX61" s="7"/>
       <c r="AY61" s="7"/>
-      <c r="AZ61" s="7"/>
-      <c r="BA61" s="7"/>
-      <c r="BB61"/>
-      <c r="BC61"/>
+      <c r="AZ61"/>
+      <c r="BA61"/>
+      <c r="BH61" s="5"/>
+      <c r="BI61" s="5"/>
       <c r="BJ61" s="5"/>
-      <c r="BK61" s="5"/>
-      <c r="BL61" s="5"/>
-      <c r="BM61"/>
-      <c r="BN61" s="14"/>
+      <c r="BK61"/>
+      <c r="BL61" s="14"/>
+      <c r="BM61" s="7"/>
+      <c r="BN61" s="7"/>
       <c r="BO61" s="7"/>
       <c r="BP61" s="7"/>
-      <c r="BQ61" s="7"/>
-      <c r="BR61" s="7"/>
-      <c r="BS61"/>
-      <c r="BT61"/>
+      <c r="BQ61"/>
+      <c r="BR61"/>
+      <c r="BY61" s="5"/>
+      <c r="BZ61" s="5"/>
       <c r="CA61" s="5"/>
-      <c r="CB61" s="5"/>
-      <c r="CC61" s="5"/>
-      <c r="CD61"/>
-      <c r="CE61" s="14"/>
+      <c r="CB61"/>
+      <c r="CC61" s="14"/>
+      <c r="CD61" s="7"/>
+      <c r="CE61" s="7"/>
       <c r="CF61" s="7"/>
       <c r="CG61" s="7"/>
-      <c r="CH61" s="7"/>
-      <c r="CI61" s="7"/>
-      <c r="CJ61"/>
-      <c r="CK61"/>
+      <c r="CH61"/>
+      <c r="CI61"/>
+      <c r="CP61" s="5"/>
+      <c r="CQ61" s="5"/>
       <c r="CR61" s="5"/>
-      <c r="CS61" s="5"/>
-      <c r="CT61" s="5"/>
-      <c r="CU61"/>
-      <c r="CV61" s="14"/>
+      <c r="CS61"/>
+      <c r="CT61" s="14"/>
+      <c r="CU61" s="7"/>
+      <c r="CV61" s="7"/>
       <c r="CW61" s="7"/>
       <c r="CX61" s="7"/>
-      <c r="CY61" s="7"/>
-      <c r="CZ61" s="7"/>
-      <c r="DA61"/>
-      <c r="DB61"/>
+      <c r="CY61"/>
+      <c r="CZ61"/>
+      <c r="DG61" s="5"/>
+      <c r="DH61" s="5"/>
       <c r="DI61" s="5"/>
-      <c r="DJ61" s="5"/>
-      <c r="DK61" s="5"/>
-      <c r="DL61"/>
-      <c r="DM61" s="14"/>
+      <c r="DJ61"/>
+      <c r="DK61" s="14"/>
+      <c r="DL61" s="7"/>
+      <c r="DM61" s="7"/>
       <c r="DN61" s="7"/>
       <c r="DO61" s="7"/>
-      <c r="DP61" s="7"/>
-      <c r="DQ61" s="7"/>
-      <c r="DR61"/>
-      <c r="DS61"/>
+      <c r="DP61"/>
+      <c r="DQ61"/>
+      <c r="DX61" s="5"/>
+      <c r="DY61" s="5"/>
       <c r="DZ61" s="5"/>
-      <c r="EA61" s="5"/>
-      <c r="EB61" s="5"/>
-      <c r="EC61"/>
-      <c r="ED61" s="14"/>
+      <c r="EA61"/>
+      <c r="EB61" s="14"/>
+      <c r="EC61" s="7"/>
+      <c r="ED61" s="7"/>
       <c r="EE61" s="7"/>
       <c r="EF61" s="7"/>
-      <c r="EG61" s="7"/>
-      <c r="EH61" s="7"/>
-      <c r="EI61"/>
-      <c r="EJ61"/>
+      <c r="EG61"/>
+      <c r="EH61"/>
+      <c r="EO61" s="5"/>
+      <c r="EP61" s="5"/>
       <c r="EQ61" s="5"/>
-      <c r="ER61" s="5"/>
-      <c r="ES61" s="5"/>
-      <c r="ET61"/>
-      <c r="EU61" s="14"/>
+      <c r="ER61"/>
+      <c r="ES61" s="14"/>
+      <c r="ET61" s="7"/>
+      <c r="EU61" s="7"/>
       <c r="EV61" s="7"/>
       <c r="EW61" s="7"/>
-      <c r="EX61" s="7"/>
-      <c r="EY61" s="7"/>
-      <c r="EZ61"/>
-      <c r="FA61"/>
+      <c r="EX61"/>
+      <c r="EY61"/>
+      <c r="FF61" s="5"/>
+      <c r="FG61" s="5"/>
       <c r="FH61" s="5"/>
-      <c r="FI61" s="5"/>
-      <c r="FJ61" s="5"/>
-      <c r="FK61"/>
-      <c r="FL61" s="14"/>
+      <c r="FI61"/>
+      <c r="FJ61" s="14"/>
+      <c r="FK61" s="7"/>
+      <c r="FL61" s="7"/>
       <c r="FM61" s="7"/>
       <c r="FN61" s="7"/>
-      <c r="FO61" s="7"/>
-      <c r="FP61" s="7"/>
-      <c r="FQ61"/>
-      <c r="FR61"/>
+      <c r="FO61"/>
+      <c r="FP61"/>
+      <c r="FW61" s="5"/>
+      <c r="FX61" s="5"/>
       <c r="FY61" s="5"/>
-      <c r="FZ61" s="5"/>
-      <c r="GA61" s="5"/>
-      <c r="GB61"/>
-      <c r="GC61" s="14"/>
+      <c r="FZ61"/>
+      <c r="GA61" s="14"/>
+      <c r="GB61" s="7"/>
+      <c r="GC61" s="7"/>
       <c r="GD61" s="7"/>
       <c r="GE61" s="7"/>
-      <c r="GF61" s="7"/>
-      <c r="GG61" s="7"/>
-      <c r="GH61"/>
-      <c r="GI61"/>
+      <c r="GF61"/>
+      <c r="GG61"/>
+      <c r="GN61" s="5"/>
+      <c r="GO61" s="5"/>
       <c r="GP61" s="5"/>
-      <c r="GQ61" s="5"/>
-      <c r="GR61" s="5"/>
-      <c r="GS61"/>
-      <c r="GT61" s="14"/>
+      <c r="GQ61"/>
+      <c r="GR61" s="14"/>
+      <c r="GS61" s="7"/>
+      <c r="GT61" s="7"/>
       <c r="GU61" s="7"/>
       <c r="GV61" s="7"/>
-      <c r="GW61" s="7"/>
-      <c r="GX61" s="7"/>
-      <c r="GY61"/>
-      <c r="GZ61"/>
+      <c r="GW61"/>
+      <c r="GX61"/>
+      <c r="HE61" s="5"/>
+      <c r="HF61" s="5"/>
       <c r="HG61" s="5"/>
-      <c r="HH61" s="5"/>
-      <c r="HI61" s="5"/>
-      <c r="HJ61"/>
-      <c r="HK61" s="14"/>
+      <c r="HH61"/>
+      <c r="HI61" s="14"/>
+      <c r="HJ61" s="7"/>
+      <c r="HK61" s="7"/>
       <c r="HL61" s="7"/>
       <c r="HM61" s="7"/>
-      <c r="HN61" s="7"/>
-      <c r="HO61" s="7"/>
-      <c r="HP61"/>
-      <c r="HQ61"/>
+      <c r="HN61"/>
+      <c r="HO61"/>
+      <c r="HV61" s="5"/>
+      <c r="HW61" s="5"/>
       <c r="HX61" s="5"/>
-      <c r="HY61" s="5"/>
-      <c r="HZ61" s="5"/>
-      <c r="IA61"/>
-      <c r="IB61" s="14"/>
+      <c r="HY61"/>
+      <c r="HZ61" s="14"/>
+      <c r="IA61" s="7"/>
+      <c r="IB61" s="7"/>
       <c r="IC61" s="7"/>
       <c r="ID61" s="7"/>
-      <c r="IE61" s="7"/>
-      <c r="IF61" s="7"/>
-      <c r="IG61"/>
-      <c r="IH61"/>
+      <c r="IE61"/>
+      <c r="IF61"/>
+      <c r="IM61" s="5"/>
+      <c r="IN61" s="5"/>
       <c r="IO61" s="5"/>
-      <c r="IP61" s="5"/>
-      <c r="IQ61" s="5"/>
-      <c r="IR61"/>
-      <c r="IS61" s="14"/>
+      <c r="IP61"/>
+      <c r="IQ61" s="14"/>
+      <c r="IR61" s="7"/>
+      <c r="IS61" s="7"/>
       <c r="IT61" s="7"/>
       <c r="IU61" s="7"/>
-      <c r="IV61" s="7"/>
-      <c r="IW61" s="7"/>
-      <c r="IX61"/>
-      <c r="IY61"/>
+      <c r="IV61"/>
+      <c r="IW61"/>
+      <c r="JD61" s="5"/>
+      <c r="JE61" s="5"/>
       <c r="JF61" s="5"/>
-      <c r="JG61" s="5"/>
-      <c r="JH61" s="5"/>
-      <c r="JI61"/>
-      <c r="JJ61" s="14"/>
+      <c r="JG61"/>
+      <c r="JH61" s="14"/>
+      <c r="JI61" s="7"/>
+      <c r="JJ61" s="7"/>
       <c r="JK61" s="7"/>
       <c r="JL61" s="7"/>
-      <c r="JM61" s="7"/>
-      <c r="JN61" s="7"/>
-      <c r="JO61"/>
-      <c r="JP61"/>
+      <c r="JM61"/>
+      <c r="JN61"/>
+      <c r="JU61" s="5"/>
+      <c r="JV61" s="5"/>
       <c r="JW61" s="5"/>
-      <c r="JX61" s="5"/>
-      <c r="JY61" s="5"/>
-      <c r="JZ61"/>
-      <c r="KA61" s="14"/>
+      <c r="JX61"/>
+      <c r="JY61" s="14"/>
+      <c r="JZ61" s="7"/>
+      <c r="KA61" s="7"/>
       <c r="KB61" s="7"/>
       <c r="KC61" s="7"/>
-      <c r="KD61" s="7"/>
-      <c r="KE61" s="7"/>
-      <c r="KF61"/>
-      <c r="KG61"/>
+      <c r="KD61"/>
+      <c r="KE61"/>
+      <c r="KL61" s="5"/>
+      <c r="KM61" s="5"/>
       <c r="KN61" s="5"/>
-      <c r="KO61" s="5"/>
-      <c r="KP61" s="5"/>
-      <c r="KQ61"/>
-      <c r="KR61" s="14"/>
+      <c r="KO61"/>
+      <c r="KP61" s="14"/>
+      <c r="KQ61" s="7"/>
+      <c r="KR61" s="7"/>
       <c r="KS61" s="7"/>
       <c r="KT61" s="7"/>
-      <c r="KU61" s="7"/>
-      <c r="KV61" s="7"/>
-      <c r="KW61"/>
-      <c r="KX61"/>
+      <c r="KU61"/>
+      <c r="KV61"/>
+      <c r="LC61" s="5"/>
+      <c r="LD61" s="5"/>
       <c r="LE61" s="5"/>
-      <c r="LF61" s="5"/>
-      <c r="LG61" s="5"/>
-      <c r="LH61"/>
-      <c r="LI61" s="14"/>
+      <c r="LF61"/>
+      <c r="LG61" s="14"/>
+      <c r="LH61" s="7"/>
+      <c r="LI61" s="7"/>
       <c r="LJ61" s="7"/>
       <c r="LK61" s="7"/>
-      <c r="LL61" s="7"/>
-      <c r="LM61" s="7"/>
-      <c r="LN61"/>
-      <c r="LO61"/>
+      <c r="LL61"/>
+      <c r="LM61"/>
+      <c r="LT61" s="5"/>
+      <c r="LU61" s="5"/>
       <c r="LV61" s="5"/>
-      <c r="LW61" s="5"/>
-      <c r="LX61" s="5"/>
-      <c r="LY61"/>
-      <c r="LZ61" s="14"/>
+      <c r="LW61"/>
+      <c r="LX61" s="14"/>
+      <c r="LY61" s="7"/>
+      <c r="LZ61" s="7"/>
       <c r="MA61" s="7"/>
       <c r="MB61" s="7"/>
-      <c r="MC61" s="7"/>
-      <c r="MD61" s="7"/>
-      <c r="ME61"/>
-      <c r="MF61"/>
+      <c r="MC61"/>
+      <c r="MD61"/>
+      <c r="MK61" s="5"/>
+      <c r="ML61" s="5"/>
       <c r="MM61" s="5"/>
-      <c r="MN61" s="5"/>
-      <c r="MO61" s="5"/>
-      <c r="MP61"/>
-      <c r="MQ61" s="14"/>
+      <c r="MN61"/>
+      <c r="MO61" s="14"/>
+      <c r="MP61" s="7"/>
+      <c r="MQ61" s="7"/>
       <c r="MR61" s="7"/>
       <c r="MS61" s="7"/>
-      <c r="MT61" s="7"/>
-      <c r="MU61" s="7"/>
-      <c r="MV61"/>
-      <c r="MW61"/>
+      <c r="MT61"/>
+      <c r="MU61"/>
+      <c r="NB61" s="5"/>
+      <c r="NC61" s="5"/>
       <c r="ND61" s="5"/>
-      <c r="NE61" s="5"/>
-      <c r="NF61" s="5"/>
-      <c r="NG61"/>
-      <c r="NH61" s="14"/>
+      <c r="NE61"/>
+      <c r="NF61" s="14"/>
+      <c r="NG61" s="7"/>
+      <c r="NH61" s="7"/>
       <c r="NI61" s="7"/>
       <c r="NJ61" s="7"/>
-      <c r="NK61" s="7"/>
-      <c r="NL61" s="7"/>
-      <c r="NM61"/>
-      <c r="NN61"/>
+      <c r="NK61"/>
+      <c r="NL61"/>
+      <c r="NS61" s="5"/>
+      <c r="NT61" s="5"/>
       <c r="NU61" s="5"/>
-      <c r="NV61" s="5"/>
-      <c r="NW61" s="5"/>
-      <c r="NX61"/>
-      <c r="NY61" s="14"/>
+      <c r="NV61"/>
+      <c r="NW61" s="14"/>
+      <c r="NX61" s="7"/>
+      <c r="NY61" s="7"/>
       <c r="NZ61" s="7"/>
       <c r="OA61" s="7"/>
-      <c r="OB61" s="7"/>
-      <c r="OC61" s="7"/>
-      <c r="OD61"/>
-      <c r="OE61"/>
+      <c r="OB61"/>
+      <c r="OC61"/>
+      <c r="OJ61" s="5"/>
+      <c r="OK61" s="5"/>
       <c r="OL61" s="5"/>
-      <c r="OM61" s="5"/>
-      <c r="ON61" s="5"/>
-      <c r="OO61"/>
-      <c r="OP61" s="14"/>
+      <c r="OM61"/>
+      <c r="ON61" s="14"/>
+      <c r="OO61" s="7"/>
+      <c r="OP61" s="7"/>
       <c r="OQ61" s="7"/>
       <c r="OR61" s="7"/>
-      <c r="OS61" s="7"/>
-      <c r="OT61" s="7"/>
-      <c r="OU61"/>
-      <c r="OV61"/>
+      <c r="OS61"/>
+      <c r="OT61"/>
+      <c r="PA61" s="5"/>
+      <c r="PB61" s="5"/>
       <c r="PC61" s="5"/>
-      <c r="PD61" s="5"/>
-      <c r="PE61" s="5"/>
-      <c r="PF61"/>
-      <c r="PG61" s="14"/>
+      <c r="PD61"/>
+      <c r="PE61" s="14"/>
+      <c r="PF61" s="7"/>
+      <c r="PG61" s="7"/>
       <c r="PH61" s="7"/>
       <c r="PI61" s="7"/>
-      <c r="PJ61" s="7"/>
-      <c r="PK61" s="7"/>
-      <c r="PL61"/>
-      <c r="PM61"/>
+      <c r="PJ61"/>
+      <c r="PK61"/>
+      <c r="PR61" s="5"/>
+      <c r="PS61" s="5"/>
       <c r="PT61" s="5"/>
-      <c r="PU61" s="5"/>
-      <c r="PV61" s="5"/>
-      <c r="PW61"/>
-      <c r="PX61" s="14"/>
+      <c r="PU61"/>
+      <c r="PV61" s="14"/>
+      <c r="PW61" s="7"/>
+      <c r="PX61" s="7"/>
       <c r="PY61" s="7"/>
       <c r="PZ61" s="7"/>
-      <c r="QA61" s="7"/>
-      <c r="QB61" s="7"/>
-      <c r="QC61"/>
-      <c r="QD61"/>
+      <c r="QA61"/>
+      <c r="QB61"/>
+      <c r="QI61" s="5"/>
+      <c r="QJ61" s="5"/>
       <c r="QK61" s="5"/>
-      <c r="QL61" s="5"/>
-      <c r="QM61" s="5"/>
-      <c r="QN61"/>
-      <c r="QO61" s="14"/>
+      <c r="QL61"/>
+      <c r="QM61" s="14"/>
+      <c r="QN61" s="7"/>
+      <c r="QO61" s="7"/>
       <c r="QP61" s="7"/>
       <c r="QQ61" s="7"/>
-      <c r="QR61" s="7"/>
-      <c r="QS61" s="7"/>
-      <c r="QT61"/>
-      <c r="QU61"/>
+      <c r="QR61"/>
+      <c r="QS61"/>
+      <c r="QZ61" s="5"/>
+      <c r="RA61" s="5"/>
       <c r="RB61" s="5"/>
-      <c r="RC61" s="5"/>
-      <c r="RD61" s="5"/>
-      <c r="RE61"/>
-      <c r="RF61" s="14"/>
+      <c r="RC61"/>
+      <c r="RD61" s="14"/>
+      <c r="RE61" s="7"/>
+      <c r="RF61" s="7"/>
       <c r="RG61" s="7"/>
       <c r="RH61" s="7"/>
-      <c r="RI61" s="7"/>
-      <c r="RJ61" s="7"/>
-      <c r="RK61"/>
-      <c r="RL61"/>
+      <c r="RI61"/>
+      <c r="RJ61"/>
+      <c r="RQ61" s="5"/>
+      <c r="RR61" s="5"/>
       <c r="RS61" s="5"/>
-      <c r="RT61" s="5"/>
-      <c r="RU61" s="5"/>
-      <c r="RV61"/>
-      <c r="RW61" s="14"/>
+      <c r="RT61"/>
+      <c r="RU61" s="14"/>
+      <c r="RV61" s="7"/>
+      <c r="RW61" s="7"/>
       <c r="RX61" s="7"/>
       <c r="RY61" s="7"/>
-      <c r="RZ61" s="7"/>
-      <c r="SA61" s="7"/>
-      <c r="SB61"/>
-      <c r="SC61"/>
+      <c r="RZ61"/>
+      <c r="SA61"/>
+      <c r="SH61" s="5"/>
+      <c r="SI61" s="5"/>
       <c r="SJ61" s="5"/>
-      <c r="SK61" s="5"/>
-      <c r="SL61" s="5"/>
-      <c r="SM61"/>
-      <c r="SN61" s="14"/>
+      <c r="SK61"/>
+      <c r="SL61" s="14"/>
+      <c r="SM61" s="7"/>
+      <c r="SN61" s="7"/>
       <c r="SO61" s="7"/>
       <c r="SP61" s="7"/>
-      <c r="SQ61" s="7"/>
-      <c r="SR61" s="7"/>
-      <c r="SS61"/>
-      <c r="ST61"/>
+      <c r="SQ61"/>
+      <c r="SR61"/>
+      <c r="SY61" s="5"/>
+      <c r="SZ61" s="5"/>
       <c r="TA61" s="5"/>
-      <c r="TB61" s="5"/>
-      <c r="TC61" s="5"/>
-      <c r="TD61"/>
-      <c r="TE61" s="14"/>
+      <c r="TB61"/>
+      <c r="TC61" s="14"/>
+      <c r="TD61" s="7"/>
+      <c r="TE61" s="7"/>
       <c r="TF61" s="7"/>
       <c r="TG61" s="7"/>
-      <c r="TH61" s="7"/>
-      <c r="TI61" s="7"/>
-      <c r="TJ61"/>
-      <c r="TK61"/>
+      <c r="TH61"/>
+      <c r="TI61"/>
+      <c r="TP61" s="5"/>
+      <c r="TQ61" s="5"/>
       <c r="TR61" s="5"/>
-      <c r="TS61" s="5"/>
-      <c r="TT61" s="5"/>
-      <c r="TU61"/>
-      <c r="TV61" s="14"/>
+      <c r="TS61"/>
+      <c r="TT61" s="14"/>
+      <c r="TU61" s="7"/>
+      <c r="TV61" s="7"/>
       <c r="TW61" s="7"/>
       <c r="TX61" s="7"/>
-      <c r="TY61" s="7"/>
-      <c r="TZ61" s="7"/>
-      <c r="UA61"/>
-      <c r="UB61"/>
+      <c r="TY61"/>
+      <c r="TZ61"/>
+      <c r="UG61" s="5"/>
+      <c r="UH61" s="5"/>
       <c r="UI61" s="5"/>
-      <c r="UJ61" s="5"/>
-      <c r="UK61" s="5"/>
-      <c r="UL61"/>
-      <c r="UM61" s="14"/>
+      <c r="UJ61"/>
+      <c r="UK61" s="14"/>
+      <c r="UL61" s="7"/>
+      <c r="UM61" s="7"/>
       <c r="UN61" s="7"/>
       <c r="UO61" s="7"/>
-      <c r="UP61" s="7"/>
-      <c r="UQ61" s="7"/>
-      <c r="UR61"/>
-      <c r="US61"/>
+      <c r="UP61"/>
+      <c r="UQ61"/>
+      <c r="UX61" s="5"/>
+      <c r="UY61" s="5"/>
       <c r="UZ61" s="5"/>
-      <c r="VA61" s="5"/>
-      <c r="VB61" s="5"/>
-      <c r="VC61"/>
-      <c r="VD61" s="14"/>
+      <c r="VA61"/>
+      <c r="VB61" s="14"/>
+      <c r="VC61" s="7"/>
+      <c r="VD61" s="7"/>
       <c r="VE61" s="7"/>
       <c r="VF61" s="7"/>
-      <c r="VG61" s="7"/>
-      <c r="VH61" s="7"/>
-      <c r="VI61"/>
-      <c r="VJ61"/>
+      <c r="VG61"/>
+      <c r="VH61"/>
+      <c r="VO61" s="5"/>
+      <c r="VP61" s="5"/>
       <c r="VQ61" s="5"/>
-      <c r="VR61" s="5"/>
-      <c r="VS61" s="5"/>
-      <c r="VT61"/>
-      <c r="VU61" s="14"/>
+      <c r="VR61"/>
+      <c r="VS61" s="14"/>
+      <c r="VT61" s="7"/>
+      <c r="VU61" s="7"/>
       <c r="VV61" s="7"/>
       <c r="VW61" s="7"/>
-      <c r="VX61" s="7"/>
-      <c r="VY61" s="7"/>
-      <c r="VZ61"/>
-      <c r="WA61"/>
+      <c r="VX61"/>
+      <c r="VY61"/>
+      <c r="WF61" s="5"/>
+      <c r="WG61" s="5"/>
       <c r="WH61" s="5"/>
-      <c r="WI61" s="5"/>
-      <c r="WJ61" s="5"/>
-      <c r="WK61"/>
-      <c r="WL61" s="14"/>
+      <c r="WI61"/>
+      <c r="WJ61" s="14"/>
+      <c r="WK61" s="7"/>
+      <c r="WL61" s="7"/>
       <c r="WM61" s="7"/>
       <c r="WN61" s="7"/>
-      <c r="WO61" s="7"/>
-      <c r="WP61" s="7"/>
-      <c r="WQ61"/>
-      <c r="WR61"/>
+      <c r="WO61"/>
+      <c r="WP61"/>
+      <c r="WW61" s="5"/>
+      <c r="WX61" s="5"/>
       <c r="WY61" s="5"/>
-      <c r="WZ61" s="5"/>
-      <c r="XA61" s="5"/>
-      <c r="XB61"/>
-      <c r="XC61" s="14"/>
+      <c r="WZ61"/>
+      <c r="XA61" s="14"/>
+      <c r="XB61" s="7"/>
+      <c r="XC61" s="7"/>
       <c r="XD61" s="7"/>
       <c r="XE61" s="7"/>
-      <c r="XF61" s="7"/>
-      <c r="XG61" s="7"/>
-      <c r="XH61"/>
-      <c r="XI61"/>
+      <c r="XF61"/>
+      <c r="XG61"/>
+      <c r="XN61" s="5"/>
+      <c r="XO61" s="5"/>
       <c r="XP61" s="5"/>
-      <c r="XQ61" s="5"/>
-      <c r="XR61" s="5"/>
-      <c r="XS61"/>
-      <c r="XT61" s="14"/>
+      <c r="XQ61"/>
+      <c r="XR61" s="14"/>
+      <c r="XS61" s="7"/>
+      <c r="XT61" s="7"/>
       <c r="XU61" s="7"/>
       <c r="XV61" s="7"/>
-      <c r="XW61" s="7"/>
-      <c r="XX61" s="7"/>
-      <c r="XY61"/>
-      <c r="XZ61"/>
+      <c r="XW61"/>
+      <c r="XX61"/>
+      <c r="YE61" s="5"/>
+      <c r="YF61" s="5"/>
       <c r="YG61" s="5"/>
-      <c r="YH61" s="5"/>
-      <c r="YI61" s="5"/>
-      <c r="YJ61"/>
-      <c r="YK61" s="14"/>
+      <c r="YH61"/>
+      <c r="YI61" s="14"/>
+      <c r="YJ61" s="7"/>
+      <c r="YK61" s="7"/>
       <c r="YL61" s="7"/>
       <c r="YM61" s="7"/>
-      <c r="YN61" s="7"/>
-      <c r="YO61" s="7"/>
-      <c r="YP61"/>
-      <c r="YQ61"/>
+      <c r="YN61"/>
+      <c r="YO61"/>
+      <c r="YV61" s="5"/>
+      <c r="YW61" s="5"/>
       <c r="YX61" s="5"/>
-      <c r="YY61" s="5"/>
-      <c r="YZ61" s="5"/>
-      <c r="ZA61"/>
-      <c r="ZB61" s="14"/>
+      <c r="YY61"/>
+      <c r="YZ61" s="14"/>
+      <c r="ZA61" s="7"/>
+      <c r="ZB61" s="7"/>
       <c r="ZC61" s="7"/>
       <c r="ZD61" s="7"/>
-      <c r="ZE61" s="7"/>
-      <c r="ZF61" s="7"/>
-      <c r="ZG61"/>
-      <c r="ZH61"/>
+      <c r="ZE61"/>
+      <c r="ZF61"/>
+      <c r="ZM61" s="5"/>
+      <c r="ZN61" s="5"/>
       <c r="ZO61" s="5"/>
-      <c r="ZP61" s="5"/>
-      <c r="ZQ61" s="5"/>
-      <c r="ZR61"/>
-      <c r="ZS61" s="14"/>
+      <c r="ZP61"/>
+      <c r="ZQ61" s="14"/>
+      <c r="ZR61" s="7"/>
+      <c r="ZS61" s="7"/>
       <c r="ZT61" s="7"/>
       <c r="ZU61" s="7"/>
-      <c r="ZV61" s="7"/>
-      <c r="ZW61" s="7"/>
-      <c r="ZX61"/>
-      <c r="ZY61"/>
+      <c r="ZV61"/>
+      <c r="ZW61"/>
+      <c r="AAD61" s="5"/>
+      <c r="AAE61" s="5"/>
       <c r="AAF61" s="5"/>
-      <c r="AAG61" s="5"/>
-      <c r="AAH61" s="5"/>
-      <c r="AAI61"/>
-      <c r="AAJ61" s="14"/>
+      <c r="AAG61"/>
+      <c r="AAH61" s="14"/>
+      <c r="AAI61" s="7"/>
+      <c r="AAJ61" s="7"/>
       <c r="AAK61" s="7"/>
       <c r="AAL61" s="7"/>
-      <c r="AAM61" s="7"/>
-      <c r="AAN61" s="7"/>
-      <c r="AAO61"/>
-      <c r="AAP61"/>
+      <c r="AAM61"/>
+      <c r="AAN61"/>
+      <c r="AAU61" s="5"/>
+      <c r="AAV61" s="5"/>
       <c r="AAW61" s="5"/>
-      <c r="AAX61" s="5"/>
-      <c r="AAY61" s="5"/>
-      <c r="AAZ61"/>
-      <c r="ABA61" s="14"/>
+      <c r="AAX61"/>
+      <c r="AAY61" s="14"/>
+      <c r="AAZ61" s="7"/>
+      <c r="ABA61" s="7"/>
       <c r="ABB61" s="7"/>
       <c r="ABC61" s="7"/>
-      <c r="ABD61" s="7"/>
-      <c r="ABE61" s="7"/>
-      <c r="ABF61"/>
-      <c r="ABG61"/>
+      <c r="ABD61"/>
+      <c r="ABE61"/>
+      <c r="ABL61" s="5"/>
+      <c r="ABM61" s="5"/>
       <c r="ABN61" s="5"/>
-      <c r="ABO61" s="5"/>
-      <c r="ABP61" s="5"/>
-      <c r="ABQ61"/>
-      <c r="ABR61" s="14"/>
+      <c r="ABO61"/>
+      <c r="ABP61" s="14"/>
+      <c r="ABQ61" s="7"/>
+      <c r="ABR61" s="7"/>
       <c r="ABS61" s="7"/>
       <c r="ABT61" s="7"/>
-      <c r="ABU61" s="7"/>
-      <c r="ABV61" s="7"/>
-      <c r="ABW61"/>
-      <c r="ABX61"/>
+      <c r="ABU61"/>
+      <c r="ABV61"/>
+      <c r="ACC61" s="5"/>
+      <c r="ACD61" s="5"/>
       <c r="ACE61" s="5"/>
-      <c r="ACF61" s="5"/>
-      <c r="ACG61" s="5"/>
-      <c r="ACH61"/>
-      <c r="ACI61" s="14"/>
+      <c r="ACF61"/>
+      <c r="ACG61" s="14"/>
+      <c r="ACH61" s="7"/>
+      <c r="ACI61" s="7"/>
       <c r="ACJ61" s="7"/>
       <c r="ACK61" s="7"/>
-      <c r="ACL61" s="7"/>
-      <c r="ACM61" s="7"/>
-      <c r="ACN61"/>
-      <c r="ACO61"/>
+      <c r="ACL61"/>
+      <c r="ACM61"/>
+      <c r="ACT61" s="5"/>
+      <c r="ACU61" s="5"/>
       <c r="ACV61" s="5"/>
-      <c r="ACW61" s="5"/>
-      <c r="ACX61" s="5"/>
-      <c r="ACY61"/>
-      <c r="ACZ61" s="14"/>
+      <c r="ACW61"/>
+      <c r="ACX61" s="14"/>
+      <c r="ACY61" s="7"/>
+      <c r="ACZ61" s="7"/>
       <c r="ADA61" s="7"/>
       <c r="ADB61" s="7"/>
-      <c r="ADC61" s="7"/>
-      <c r="ADD61" s="7"/>
-      <c r="ADE61"/>
-      <c r="ADF61"/>
+      <c r="ADC61"/>
+      <c r="ADD61"/>
+      <c r="ADK61" s="5"/>
+      <c r="ADL61" s="5"/>
       <c r="ADM61" s="5"/>
-      <c r="ADN61" s="5"/>
-      <c r="ADO61" s="5"/>
-      <c r="ADP61"/>
-      <c r="ADQ61" s="14"/>
+      <c r="ADN61"/>
+      <c r="ADO61" s="14"/>
+      <c r="ADP61" s="7"/>
+      <c r="ADQ61" s="7"/>
       <c r="ADR61" s="7"/>
       <c r="ADS61" s="7"/>
-      <c r="ADT61" s="7"/>
-      <c r="ADU61" s="7"/>
-      <c r="ADV61"/>
-      <c r="ADW61"/>
+      <c r="ADT61"/>
+      <c r="ADU61"/>
+      <c r="AEB61" s="5"/>
+      <c r="AEC61" s="5"/>
       <c r="AED61" s="5"/>
-      <c r="AEE61" s="5"/>
-      <c r="AEF61" s="5"/>
-      <c r="AEG61"/>
-      <c r="AEH61" s="14"/>
+      <c r="AEE61"/>
+      <c r="AEF61" s="14"/>
+      <c r="AEG61" s="7"/>
+      <c r="AEH61" s="7"/>
       <c r="AEI61" s="7"/>
       <c r="AEJ61" s="7"/>
-      <c r="AEK61" s="7"/>
-      <c r="AEL61" s="7"/>
-      <c r="AEM61"/>
-      <c r="AEN61"/>
+      <c r="AEK61"/>
+      <c r="AEL61"/>
+      <c r="AES61" s="5"/>
+      <c r="AET61" s="5"/>
       <c r="AEU61" s="5"/>
-      <c r="AEV61" s="5"/>
-      <c r="AEW61" s="5"/>
-      <c r="AEX61"/>
-      <c r="AEY61" s="14"/>
+      <c r="AEV61"/>
+      <c r="AEW61" s="14"/>
+      <c r="AEX61" s="7"/>
+      <c r="AEY61" s="7"/>
       <c r="AEZ61" s="7"/>
       <c r="AFA61" s="7"/>
-      <c r="AFB61" s="7"/>
-      <c r="AFC61" s="7"/>
-      <c r="AFD61"/>
-      <c r="AFE61"/>
+      <c r="AFB61"/>
+      <c r="AFC61"/>
+      <c r="AFJ61" s="5"/>
+      <c r="AFK61" s="5"/>
       <c r="AFL61" s="5"/>
-      <c r="AFM61" s="5"/>
-      <c r="AFN61" s="5"/>
-      <c r="AFO61"/>
-      <c r="AFP61" s="14"/>
+      <c r="AFM61"/>
+      <c r="AFN61" s="14"/>
+      <c r="AFO61" s="7"/>
+      <c r="AFP61" s="7"/>
       <c r="AFQ61" s="7"/>
       <c r="AFR61" s="7"/>
-      <c r="AFS61" s="7"/>
-      <c r="AFT61" s="7"/>
-      <c r="AFU61"/>
-      <c r="AFV61"/>
+      <c r="AFS61"/>
+      <c r="AFT61"/>
+      <c r="AGA61" s="5"/>
+      <c r="AGB61" s="5"/>
       <c r="AGC61" s="5"/>
-      <c r="AGD61" s="5"/>
-      <c r="AGE61" s="5"/>
-      <c r="AGF61"/>
-      <c r="AGG61" s="14"/>
+      <c r="AGD61"/>
+      <c r="AGE61" s="14"/>
+      <c r="AGF61" s="7"/>
+      <c r="AGG61" s="7"/>
       <c r="AGH61" s="7"/>
       <c r="AGI61" s="7"/>
-      <c r="AGJ61" s="7"/>
-      <c r="AGK61" s="7"/>
-      <c r="AGL61"/>
-      <c r="AGM61"/>
+      <c r="AGJ61"/>
+      <c r="AGK61"/>
+      <c r="AGR61" s="5"/>
+      <c r="AGS61" s="5"/>
       <c r="AGT61" s="5"/>
-      <c r="AGU61" s="5"/>
-      <c r="AGV61" s="5"/>
-      <c r="AGW61"/>
-      <c r="AGX61" s="14"/>
+      <c r="AGU61"/>
+      <c r="AGV61" s="14"/>
+      <c r="AGW61" s="7"/>
+      <c r="AGX61" s="7"/>
       <c r="AGY61" s="7"/>
       <c r="AGZ61" s="7"/>
-      <c r="AHA61" s="7"/>
-      <c r="AHB61" s="7"/>
-      <c r="AHC61"/>
-      <c r="AHD61"/>
+      <c r="AHA61"/>
+      <c r="AHB61"/>
+      <c r="AHI61" s="5"/>
+      <c r="AHJ61" s="5"/>
       <c r="AHK61" s="5"/>
-      <c r="AHL61" s="5"/>
-      <c r="AHM61" s="5"/>
-      <c r="AHN61"/>
-      <c r="AHO61" s="14"/>
+      <c r="AHL61"/>
+      <c r="AHM61" s="14"/>
+      <c r="AHN61" s="7"/>
+      <c r="AHO61" s="7"/>
       <c r="AHP61" s="7"/>
       <c r="AHQ61" s="7"/>
-      <c r="AHR61" s="7"/>
-      <c r="AHS61" s="7"/>
-      <c r="AHT61"/>
-      <c r="AHU61"/>
+      <c r="AHR61"/>
+      <c r="AHS61"/>
+      <c r="AHZ61" s="5"/>
+      <c r="AIA61" s="5"/>
       <c r="AIB61" s="5"/>
-      <c r="AIC61" s="5"/>
-      <c r="AID61" s="5"/>
-      <c r="AIE61"/>
-      <c r="AIF61" s="14"/>
+      <c r="AIC61"/>
+      <c r="AID61" s="14"/>
+      <c r="AIE61" s="7"/>
+      <c r="AIF61" s="7"/>
       <c r="AIG61" s="7"/>
       <c r="AIH61" s="7"/>
-      <c r="AII61" s="7"/>
-      <c r="AIJ61" s="7"/>
-      <c r="AIK61"/>
-      <c r="AIL61"/>
+      <c r="AII61"/>
+      <c r="AIJ61"/>
+      <c r="AIQ61" s="5"/>
+      <c r="AIR61" s="5"/>
       <c r="AIS61" s="5"/>
-      <c r="AIT61" s="5"/>
-      <c r="AIU61" s="5"/>
-      <c r="AIV61"/>
-      <c r="AIW61" s="14"/>
+      <c r="AIT61"/>
+      <c r="AIU61" s="14"/>
+      <c r="AIV61" s="7"/>
+      <c r="AIW61" s="7"/>
       <c r="AIX61" s="7"/>
       <c r="AIY61" s="7"/>
-      <c r="AIZ61" s="7"/>
-      <c r="AJA61" s="7"/>
-      <c r="AJB61"/>
-      <c r="AJC61"/>
+      <c r="AIZ61"/>
+      <c r="AJA61"/>
+      <c r="AJH61" s="5"/>
+      <c r="AJI61" s="5"/>
       <c r="AJJ61" s="5"/>
-      <c r="AJK61" s="5"/>
-      <c r="AJL61" s="5"/>
-      <c r="AJM61"/>
-      <c r="AJN61" s="14"/>
+      <c r="AJK61"/>
+      <c r="AJL61" s="14"/>
+      <c r="AJM61" s="7"/>
+      <c r="AJN61" s="7"/>
       <c r="AJO61" s="7"/>
       <c r="AJP61" s="7"/>
-      <c r="AJQ61" s="7"/>
-      <c r="AJR61" s="7"/>
-      <c r="AJS61"/>
-      <c r="AJT61"/>
+      <c r="AJQ61"/>
+      <c r="AJR61"/>
+      <c r="AJY61" s="5"/>
+      <c r="AJZ61" s="5"/>
       <c r="AKA61" s="5"/>
-      <c r="AKB61" s="5"/>
-      <c r="AKC61" s="5"/>
-      <c r="AKD61"/>
-      <c r="AKE61" s="14"/>
+      <c r="AKB61"/>
+      <c r="AKC61" s="14"/>
+      <c r="AKD61" s="7"/>
+      <c r="AKE61" s="7"/>
       <c r="AKF61" s="7"/>
       <c r="AKG61" s="7"/>
-      <c r="AKH61" s="7"/>
-      <c r="AKI61" s="7"/>
-      <c r="AKJ61"/>
-      <c r="AKK61"/>
+      <c r="AKH61"/>
+      <c r="AKI61"/>
+      <c r="AKP61" s="5"/>
+      <c r="AKQ61" s="5"/>
       <c r="AKR61" s="5"/>
-      <c r="AKS61" s="5"/>
-      <c r="AKT61" s="5"/>
-      <c r="AKU61"/>
-      <c r="AKV61" s="14"/>
+      <c r="AKS61"/>
+      <c r="AKT61" s="14"/>
+      <c r="AKU61" s="7"/>
+      <c r="AKV61" s="7"/>
       <c r="AKW61" s="7"/>
       <c r="AKX61" s="7"/>
-      <c r="AKY61" s="7"/>
-      <c r="AKZ61" s="7"/>
-      <c r="ALA61"/>
-      <c r="ALB61"/>
+      <c r="AKY61"/>
+      <c r="AKZ61"/>
+      <c r="ALG61" s="5"/>
+      <c r="ALH61" s="5"/>
       <c r="ALI61" s="5"/>
-      <c r="ALJ61" s="5"/>
-      <c r="ALK61" s="5"/>
-      <c r="ALL61"/>
-      <c r="ALM61" s="14"/>
+      <c r="ALJ61"/>
+      <c r="ALK61" s="14"/>
+      <c r="ALL61" s="7"/>
+      <c r="ALM61" s="7"/>
       <c r="ALN61" s="7"/>
       <c r="ALO61" s="7"/>
-      <c r="ALP61" s="7"/>
-      <c r="ALQ61" s="7"/>
-      <c r="ALR61"/>
-      <c r="ALS61"/>
+      <c r="ALP61"/>
+      <c r="ALQ61"/>
+      <c r="ALX61" s="5"/>
+      <c r="ALY61" s="5"/>
       <c r="ALZ61" s="5"/>
-      <c r="AMA61" s="5"/>
-      <c r="AMB61" s="5"/>
-      <c r="AMC61"/>
-      <c r="AMD61" s="14"/>
-      <c r="AME61" s="7"/>
-      <c r="AMF61" s="7"/>
+      <c r="AMA61"/>
+      <c r="AMB61" s="14"/>
+      <c r="AMC61" s="7"/>
+      <c r="AMD61" s="7"/>
     </row>
     <row r="62" ht="31.5" customHeight="1">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E62" t="s">
         <v>31</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E62" t="s">
-        <v>33</v>
       </c>
       <c r="F62" s="3">
         <v>123456</v>
@@ -6633,7 +6526,7 @@
         <v>600</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J62" s="10">
         <v>1</v>
@@ -6642,57 +6535,57 @@
         <v>1</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O62" s="4">
         <v>45384</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R62" s="11">
         <v>7709577438</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="31.5" customHeight="1">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="15">
+        <v>123456</v>
+      </c>
+      <c r="E63" t="s">
         <v>31</v>
-      </c>
-      <c r="C63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="15">
-        <v>123456</v>
-      </c>
-      <c r="E63" t="s">
-        <v>33</v>
       </c>
       <c r="F63">
         <v>123456</v>
@@ -6704,66 +6597,66 @@
         <v>600</v>
       </c>
       <c r="I63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J63" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O63" s="13">
         <v>45384</v>
       </c>
       <c r="P63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U63" t="s">
+        <v>33</v>
+      </c>
+      <c r="V63" t="s">
         <v>37</v>
       </c>
-      <c r="Q63" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U63" t="s">
-        <v>35</v>
-      </c>
-      <c r="V63" t="s">
-        <v>39</v>
-      </c>
       <c r="W63" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="31.5" customHeight="1">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="7">
+        <v>123456</v>
+      </c>
+      <c r="E64" t="s">
         <v>31</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E64" t="s">
-        <v>33</v>
       </c>
       <c r="F64" s="7">
         <v>123456</v>
@@ -6775,10 +6668,10 @@
         <v>600</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
@@ -6787,54 +6680,54 @@
         <v>1</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O64" s="13">
         <v>45384</v>
       </c>
       <c r="P64" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U64" t="s">
+        <v>33</v>
+      </c>
+      <c r="V64" t="s">
         <v>37</v>
       </c>
-      <c r="Q64" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U64" t="s">
-        <v>35</v>
-      </c>
-      <c r="V64" t="s">
-        <v>39</v>
-      </c>
       <c r="W64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" ht="31.5" customHeight="1">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>123456</v>
+      </c>
+      <c r="E65" t="s">
         <v>31</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65">
-        <v>123456</v>
-      </c>
-      <c r="E65" t="s">
-        <v>33</v>
       </c>
       <c r="F65">
         <v>123456</v>
@@ -6846,66 +6739,66 @@
         <v>600</v>
       </c>
       <c r="I65" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J65" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O65" s="13">
         <v>45384</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R65" s="11">
         <v>7709577438</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" ht="31.5" customHeight="1">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>123456</v>
+      </c>
+      <c r="E66" t="s">
         <v>31</v>
-      </c>
-      <c r="C66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66">
-        <v>123456</v>
-      </c>
-      <c r="E66" t="s">
-        <v>33</v>
       </c>
       <c r="F66">
         <v>123456</v>
@@ -6917,66 +6810,66 @@
         <v>600</v>
       </c>
       <c r="I66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M66" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K66" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O66" s="13">
         <v>45384</v>
       </c>
       <c r="P66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R66" s="11">
         <v>7709577438</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T66" s="2">
         <v>300</v>
       </c>
       <c r="U66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" ht="32.25" customHeight="1">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E67" t="s">
         <v>31</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E67" t="s">
-        <v>33</v>
       </c>
       <c r="F67" s="3">
         <v>123456</v>
@@ -6988,7 +6881,7 @@
         <v>600</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J67" s="10">
         <v>1</v>
@@ -6997,57 +6890,57 @@
         <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O67" s="4">
         <v>45384</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R67" s="11">
         <v>7709577438</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" ht="28.5" customHeight="1">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E68" t="s">
         <v>31</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E68" t="s">
-        <v>33</v>
       </c>
       <c r="F68" s="3">
         <v>123456</v>
@@ -7059,7 +6952,7 @@
         <v>600</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J68" s="10">
         <v>1</v>
@@ -7068,57 +6961,57 @@
         <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O68" s="4">
         <v>45384</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R68" s="11">
         <v>7709577438</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E69" t="s">
         <v>31</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E69" t="s">
-        <v>33</v>
       </c>
       <c r="F69" s="3">
         <v>123456</v>
@@ -7130,7 +7023,7 @@
         <v>600</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J69" s="10">
         <v>1</v>
@@ -7139,57 +7032,57 @@
         <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O69" s="4">
         <v>45384</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R69" s="11">
         <v>7709577438</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E70" t="s">
         <v>31</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E70" t="s">
-        <v>33</v>
       </c>
       <c r="F70" s="3">
         <v>123456</v>
@@ -7201,7 +7094,7 @@
         <v>600</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J70" s="10">
         <v>1</v>
@@ -7210,57 +7103,57 @@
         <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O70" s="4">
         <v>45384</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R70" s="11">
         <v>6375266109</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E71" t="s">
         <v>31</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E71" t="s">
-        <v>33</v>
       </c>
       <c r="F71" s="3">
         <v>123456</v>
@@ -7272,7 +7165,7 @@
         <v>600</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J71" s="10">
         <v>1</v>
@@ -7281,57 +7174,57 @@
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O71" s="4">
         <v>45384</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R71" s="11">
         <v>7709577438</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E72" t="s">
         <v>31</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E72" t="s">
-        <v>33</v>
       </c>
       <c r="F72" s="3">
         <v>123456</v>
@@ -7343,7 +7236,7 @@
         <v>600</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J72" s="10">
         <v>1</v>
@@ -7352,57 +7245,57 @@
         <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O72" s="4">
         <v>45384</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R72" s="11">
         <v>7709577438</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E73" t="s">
         <v>31</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E73" t="s">
-        <v>33</v>
       </c>
       <c r="F73" s="3">
         <v>123456</v>
@@ -7414,7 +7307,7 @@
         <v>600</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J73" s="10">
         <v>1</v>
@@ -7423,45 +7316,45 @@
         <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O73" s="4">
         <v>45384</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R73" s="11">
         <v>7709577438</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -7477,7 +7370,7 @@
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -7493,7 +7386,7 @@
     </row>
     <row r="76" ht="14.25">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -7509,7 +7402,7 @@
     </row>
     <row r="77" ht="14.25">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -7525,7 +7418,7 @@
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -7541,7 +7434,7 @@
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -7557,7 +7450,7 @@
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -7573,7 +7466,7 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -7589,7 +7482,7 @@
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -7605,7 +7498,7 @@
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -7621,47 +7514,47 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -1027,8 +1027,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="S1">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="M1">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2824,8 +2824,8 @@
       <c r="Q21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>33</v>
+      <c r="R21" s="2">
+        <v>9585698564</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>33</v>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="165">
   <si>
     <t xml:space="preserve">TC_Id</t>
   </si>
@@ -316,25 +316,19 @@
     <t xml:space="preserve">E_49</t>
   </si>
   <si>
-    <t xml:space="preserve">307230524mdV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i9@gmail.com</t>
+    <t xml:space="preserve">E_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8906118410781: 4</t>
   </si>
   <si>
     <t xml:space="preserve">list : Assortment_Item</t>
   </si>
   <si>
     <t xml:space="preserve">Amount : 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118410781: 4</t>
   </si>
   <si>
     <t xml:space="preserve">E_51</t>
@@ -537,6 +531,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -559,12 +554,14 @@
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -807,8 +804,8 @@
   </sheetPr>
   <dimension ref="A1:AMF92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA46" activeCellId="0" sqref="AA46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA50" activeCellId="0" sqref="AA50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -819,13 +816,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="31.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="41.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="28.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="1" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="1" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="21" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.54"/>
   </cols>
@@ -4677,42 +4674,42 @@
         <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="6" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G50" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H50" s="7" t="n">
-        <v>600</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K50" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" s="8" t="n">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N50" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N50" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O50" s="4" t="n">
@@ -4728,15 +4725,15 @@
         <v>33</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V50" s="0" t="s">
         <v>37</v>
       </c>
       <c r="W50" s="1" t="s">
@@ -4745,10 +4742,19 @@
       <c r="X50" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="Y50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>29</v>
@@ -4781,13 +4787,13 @@
         <v>1</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O51" s="4" t="n">
         <v>45384</v>
@@ -4799,13 +4805,13 @@
         <v>36</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>33</v>
@@ -4819,7 +4825,7 @@
     </row>
     <row r="52" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>29</v>
@@ -4852,13 +4858,13 @@
         <v>1</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O52" s="4" t="n">
         <v>45384</v>
@@ -4890,7 +4896,7 @@
     </row>
     <row r="53" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>29</v>
@@ -4923,13 +4929,13 @@
         <v>1</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O53" s="4" t="n">
         <v>45384</v>
@@ -4961,7 +4967,7 @@
     </row>
     <row r="54" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>29</v>
@@ -4994,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>34</v>
@@ -5032,7 +5038,7 @@
     </row>
     <row r="55" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>29</v>
@@ -5059,13 +5065,13 @@
         <v>32</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K55" s="8" t="n">
         <v>1</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>34</v>
@@ -5103,7 +5109,7 @@
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>29</v>
@@ -5136,13 +5142,13 @@
         <v>1</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O56" s="4" t="n">
         <v>45384</v>
@@ -5174,7 +5180,7 @@
     </row>
     <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>29</v>
@@ -5207,13 +5213,13 @@
         <v>1</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O57" s="4" t="n">
         <v>45384</v>
@@ -5245,7 +5251,7 @@
     </row>
     <row r="58" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>29</v>
@@ -5278,13 +5284,13 @@
         <v>1</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O58" s="4" t="n">
         <v>45384</v>
@@ -5316,7 +5322,7 @@
     </row>
     <row r="59" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>29</v>
@@ -5349,13 +5355,13 @@
         <v>1</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O59" s="4" t="n">
         <v>45384</v>
@@ -5387,7 +5393,7 @@
     </row>
     <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>29</v>
@@ -5420,13 +5426,13 @@
         <v>1</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O60" s="4" t="n">
         <v>45384</v>
@@ -5458,7 +5464,7 @@
     </row>
     <row r="61" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>29</v>
@@ -5485,19 +5491,19 @@
         <v>32</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K61" s="8" t="n">
         <v>1</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O61" s="13" t="n">
         <v>45384</v>
@@ -5999,7 +6005,7 @@
     </row>
     <row r="62" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>29</v>
@@ -6032,13 +6038,13 @@
         <v>1</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O62" s="4" t="n">
         <v>45384</v>
@@ -6053,10 +6059,10 @@
         <v>7709577438</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>33</v>
@@ -6070,7 +6076,7 @@
     </row>
     <row r="63" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>29</v>
@@ -6103,7 +6109,7 @@
         <v>33</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>34</v>
@@ -6141,7 +6147,7 @@
     </row>
     <row r="64" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>29</v>
@@ -6168,7 +6174,7 @@
         <v>32</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K64" s="8" t="n">
         <v>1</v>
@@ -6207,12 +6213,12 @@
         <v>37</v>
       </c>
       <c r="W64" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>29</v>
@@ -6245,7 +6251,7 @@
         <v>33</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>34</v>
@@ -6278,12 +6284,12 @@
         <v>37</v>
       </c>
       <c r="W65" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>29</v>
@@ -6316,7 +6322,7 @@
         <v>33</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>34</v>
@@ -6349,12 +6355,12 @@
         <v>37</v>
       </c>
       <c r="W66" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>29</v>
@@ -6387,13 +6393,13 @@
         <v>1</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O67" s="4" t="n">
         <v>45384</v>
@@ -6420,12 +6426,12 @@
         <v>37</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>29</v>
@@ -6458,13 +6464,13 @@
         <v>1</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O68" s="4" t="n">
         <v>45384</v>
@@ -6491,12 +6497,12 @@
         <v>37</v>
       </c>
       <c r="W68" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>29</v>
@@ -6529,13 +6535,13 @@
         <v>1</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O69" s="4" t="n">
         <v>45384</v>
@@ -6567,7 +6573,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>29</v>
@@ -6600,13 +6606,13 @@
         <v>1</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O70" s="4" t="n">
         <v>45384</v>
@@ -6638,7 +6644,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>29</v>
@@ -6671,13 +6677,13 @@
         <v>1</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O71" s="4" t="n">
         <v>45384</v>
@@ -6709,7 +6715,7 @@
     </row>
     <row r="72" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>29</v>
@@ -6742,13 +6748,13 @@
         <v>1</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O72" s="4" t="n">
         <v>45384</v>
@@ -6780,7 +6786,7 @@
     </row>
     <row r="73" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>29</v>
@@ -6813,13 +6819,13 @@
         <v>1</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O73" s="4" t="n">
         <v>45384</v>
@@ -6834,7 +6840,7 @@
         <v>7709577438</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>33</v>
@@ -6851,7 +6857,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6867,7 +6873,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6883,7 +6889,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6899,7 +6905,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6915,7 +6921,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6931,7 +6937,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6947,7 +6953,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6963,7 +6969,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6979,7 +6985,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6995,7 +7001,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7011,47 +7017,47 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -395,10 +395,22 @@
     <t>E_57</t>
   </si>
   <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Sonu nigam</t>
+  </si>
+  <si>
     <t>E_58</t>
   </si>
   <si>
     <t>E_59</t>
+  </si>
+  <si>
+    <t>Alexa : 1</t>
+  </si>
+  <si>
+    <t>Sudhir Phadke</t>
   </si>
   <si>
     <t>E_60</t>
@@ -1002,8 +1014,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A46">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="Q63">
+      <selection activeCell="Z67" sqref="Z67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5652,12 +5664,18 @@
         <v>37</v>
       </c>
       <c r="Y58" t="s">
-        <v>38</v>
+        <v>125</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>28</v>
@@ -5734,7 +5752,7 @@
     </row>
     <row r="60" ht="14.25">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>28</v>
@@ -5770,7 +5788,7 @@
         <v>67</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="N60" t="s">
         <v>48</v>
@@ -5806,12 +5824,18 @@
         <v>37</v>
       </c>
       <c r="Y60" t="s">
-        <v>38</v>
+        <v>125</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>28</v>
@@ -5847,7 +5871,7 @@
         <v>50</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="N61" t="s">
         <v>48</v>
@@ -5884,11 +5908,17 @@
       </c>
       <c r="Y61" t="s">
         <v>38</v>
+      </c>
+      <c r="Z61">
+        <v>7719921544</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>28</v>
@@ -5924,7 +5954,7 @@
         <v>50</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="N62" t="s">
         <v>48</v>
@@ -5961,11 +5991,17 @@
       </c>
       <c r="Y62" t="s">
         <v>38</v>
+      </c>
+      <c r="Z62">
+        <v>7719921544</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="14.25">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>28</v>
@@ -6038,11 +6074,17 @@
       </c>
       <c r="Y63" t="s">
         <v>38</v>
+      </c>
+      <c r="Z63">
+        <v>7719921544</v>
+      </c>
+      <c r="AA63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>28</v>
@@ -6115,11 +6157,17 @@
       </c>
       <c r="Y64" t="s">
         <v>38</v>
+      </c>
+      <c r="Z64">
+        <v>7719921544</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>28</v>
@@ -6192,11 +6240,17 @@
       </c>
       <c r="Y65" t="s">
         <v>38</v>
+      </c>
+      <c r="Z65">
+        <v>7719921544</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>28</v>
@@ -6269,11 +6323,17 @@
       </c>
       <c r="Y66" t="s">
         <v>38</v>
+      </c>
+      <c r="Z66">
+        <v>7719921544</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>28</v>
@@ -6346,11 +6406,17 @@
       </c>
       <c r="Y67" t="s">
         <v>38</v>
+      </c>
+      <c r="Z67">
+        <v>7719921544</v>
+      </c>
+      <c r="AA67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>28</v>
@@ -6427,7 +6493,7 @@
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>28</v>
@@ -6504,7 +6570,7 @@
     </row>
     <row r="70" ht="14.25">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>28</v>
@@ -6581,7 +6647,7 @@
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>28</v>
@@ -6658,7 +6724,7 @@
     </row>
     <row r="72" ht="14.25">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>28</v>
@@ -6735,7 +6801,7 @@
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>28</v>
@@ -6812,7 +6878,7 @@
     </row>
     <row r="74" ht="14.25">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6828,7 +6894,7 @@
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6844,7 +6910,7 @@
     </row>
     <row r="76" ht="14.25">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6860,7 +6926,7 @@
     </row>
     <row r="77" ht="14.25">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6876,7 +6942,7 @@
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6892,7 +6958,7 @@
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6908,7 +6974,7 @@
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6924,7 +6990,7 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6940,7 +7006,7 @@
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6956,7 +7022,7 @@
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6972,72 +7038,72 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -7047,7 +7113,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -7057,7 +7123,7 @@
     </row>
     <row r="99" ht="33" customHeight="1">
       <c r="A99" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -7067,7 +7133,7 @@
     </row>
     <row r="100" ht="34.8" customHeight="1">
       <c r="A100" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -1145,8 +1145,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="Q85">
-      <selection activeCell="Y108" sqref="Y108"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="Q104">
+      <selection activeCell="Y114" sqref="Y114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8671,6 +8671,15 @@
       <c r="X108" t="s">
         <v>37</v>
       </c>
+      <c r="Y108" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" ht="14.25">
       <c r="A109" t="s">
@@ -8729,6 +8738,12 @@
       <c r="X109" t="s">
         <v>37</v>
       </c>
+      <c r="Y109" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z109">
+        <v>2222222222</v>
+      </c>
     </row>
     <row r="110" ht="14.25">
       <c r="A110" t="s">
@@ -8787,6 +8802,12 @@
       <c r="X110" t="s">
         <v>37</v>
       </c>
+      <c r="Y110" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z110">
+        <v>1000000000</v>
+      </c>
     </row>
     <row r="111" ht="14.25">
       <c r="A111" t="s">
@@ -8845,6 +8866,12 @@
       <c r="X111" t="s">
         <v>37</v>
       </c>
+      <c r="Y111" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z111">
+        <v>1000000000</v>
+      </c>
     </row>
     <row r="112" ht="14.25">
       <c r="A112" t="s">
@@ -8902,6 +8929,12 @@
       </c>
       <c r="X112" t="s">
         <v>37</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z112">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="113" ht="14.25">

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samarth\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Exchange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\Web_POS\Exchange\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,16 +101,19 @@
     <t>replace_qty</t>
   </si>
   <si>
-    <t>E_01</t>
+    <t>tax_invoice</t>
   </si>
   <si>
-    <t>307230524mdV</t>
+    <t>E_1</t>
+  </si>
+  <si>
+    <t>307260624P3E</t>
   </si>
   <si>
     <t>zwshashank.agrawal@teampureplay.com</t>
   </si>
   <si>
-    <t>i9@gmail.com</t>
+    <t>userone_p1</t>
   </si>
   <si>
     <t>Index9QA</t>
@@ -134,103 +137,64 @@
     <t>Exchange</t>
   </si>
   <si>
-    <t>Customer Phone</t>
+    <t>E_2</t>
   </si>
   <si>
-    <t>E_02</t>
+    <t>E_3</t>
   </si>
   <si>
-    <t>1234b : 1</t>
+    <t>E_4</t>
   </si>
   <si>
-    <t>E_03</t>
+    <t>E_5</t>
   </si>
   <si>
-    <t>QBSB-Specificqty-Flat-percentage</t>
+    <t>E_6</t>
   </si>
   <si>
-    <t>E_04</t>
+    <t>E_7</t>
   </si>
   <si>
-    <t>list : Assortment_Item</t>
+    <t>E_8</t>
   </si>
   <si>
-    <t>Amount : 10</t>
+    <t>Customer Name</t>
   </si>
   <si>
-    <t>E_05</t>
+    <t>Mrunal Jagtap</t>
   </si>
   <si>
-    <t>Null</t>
+    <t>E_9</t>
   </si>
   <si>
-    <t>8906118410781: 4</t>
-  </si>
-  <si>
-    <t>E_06</t>
-  </si>
-  <si>
-    <t>cash : 100, paytm : 100, voucher : 0</t>
-  </si>
-  <si>
-    <t>E_07</t>
-  </si>
-  <si>
-    <t>on-account : 550</t>
-  </si>
-  <si>
-    <t>E_08</t>
-  </si>
-  <si>
-    <t>cash : 100, on-account : 0</t>
-  </si>
-  <si>
-    <t>E_09</t>
-  </si>
-  <si>
-    <t>QBSB-Specificqty-Flat-rupees</t>
-  </si>
-  <si>
-    <t>cash : 298 , on-account : 252</t>
+    <t>Customer Phone</t>
   </si>
   <si>
     <t>E_10</t>
   </si>
   <si>
-    <t>paytm : 298, on-account : 252</t>
+    <t>458-*+++++</t>
   </si>
   <si>
     <t>E_11</t>
   </si>
   <si>
-    <t>on-account : 252 , card: 100</t>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>SIsp1021272440268</t>
   </si>
   <si>
     <t>E_12</t>
   </si>
   <si>
-    <t>cash : 149, paytm : 149, on-account : 252</t>
-  </si>
-  <si>
     <t>E_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cash : 275, paytm : 275, </t>
   </si>
   <si>
     <t>E_14</t>
   </si>
   <si>
-    <t xml:space="preserve">paytm : 200, card : 0 </t>
-  </si>
-  <si>
     <t>E_15</t>
-  </si>
-  <si>
-    <t>list : Assortment</t>
-  </si>
-  <si>
-    <t>100Rs Discount</t>
   </si>
   <si>
     <t>E_16</t>
@@ -239,37 +203,49 @@
     <t>E_17</t>
   </si>
   <si>
+    <t>8906118410781 : 5</t>
+  </si>
+  <si>
+    <t>XYZQA</t>
+  </si>
+  <si>
     <t>E_18</t>
   </si>
   <si>
-    <t>QBSB-Specificity-Flat-fixed-all</t>
+    <t>Shraddha</t>
+  </si>
+  <si>
+    <t>E_19</t>
+  </si>
+  <si>
+    <t>Jinesh</t>
+  </si>
+  <si>
+    <t>E_20</t>
+  </si>
+  <si>
+    <t>E_21</t>
+  </si>
+  <si>
+    <t>307230524mdV</t>
+  </si>
+  <si>
+    <t>i9@gmail.com</t>
+  </si>
+  <si>
+    <t>cash : 275 , paytm : 275</t>
+  </si>
+  <si>
+    <t>8906118410781: 4</t>
   </si>
   <si>
     <t>O5eza0</t>
   </si>
   <si>
-    <t>E_19</t>
+    <t>E_22</t>
   </si>
   <si>
-    <t>cash : 275, store-credit : 100, voucher : 0</t>
-  </si>
-  <si>
-    <t>E_20</t>
-  </si>
-  <si>
-    <t>cash : 275, store-credit : 275</t>
-  </si>
-  <si>
-    <t>m3DOdg</t>
-  </si>
-  <si>
-    <t>E_21</t>
-  </si>
-  <si>
-    <t>cash : 275 , paytm : 275</t>
-  </si>
-  <si>
-    <t>E_22</t>
+    <t>cash : 100, paytm : 100, voucher : 0</t>
   </si>
   <si>
     <t>E_23</t>
@@ -287,6 +263,9 @@
     <t>E_27</t>
   </si>
   <si>
+    <t>list : Assortment</t>
+  </si>
+  <si>
     <t>E_28</t>
   </si>
   <si>
@@ -300,6 +279,9 @@
   </si>
   <si>
     <t>E_31</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
   <si>
     <t>jvlearphone : 1</t>
@@ -365,10 +347,22 @@
     <t>E_47</t>
   </si>
   <si>
+    <t>1234b : 1</t>
+  </si>
+  <si>
     <t>E_48</t>
   </si>
   <si>
+    <t>QBSB-Specificqty-Flat-percentage</t>
+  </si>
+  <si>
     <t>E_49</t>
+  </si>
+  <si>
+    <t>list : Assortment_Item</t>
+  </si>
+  <si>
+    <t>Amount : 10</t>
   </si>
   <si>
     <t>E_50</t>
@@ -380,22 +374,40 @@
     <t>E_52</t>
   </si>
   <si>
+    <t>on-account : 550</t>
+  </si>
+  <si>
     <t>E_53</t>
+  </si>
+  <si>
+    <t>cash : 100, on-account : 0</t>
   </si>
   <si>
     <t>E_54</t>
   </si>
   <si>
+    <t>QBSB-Specificqty-Flat-rupees</t>
+  </si>
+  <si>
+    <t>cash : 298 , on-account : 252</t>
+  </si>
+  <si>
     <t>E_55</t>
+  </si>
+  <si>
+    <t>paytm : 298, on-account : 252</t>
   </si>
   <si>
     <t>E_56</t>
   </si>
   <si>
+    <t>on-account : 252 , card: 100</t>
+  </si>
+  <si>
     <t>E_57</t>
   </si>
   <si>
-    <t>Customer Name</t>
+    <t>cash : 149, paytm : 149, on-account : 252</t>
   </si>
   <si>
     <t>Sonu nigam</t>
@@ -404,7 +416,13 @@
     <t>E_58</t>
   </si>
   <si>
+    <t xml:space="preserve">cash : 275, paytm : 275, </t>
+  </si>
+  <si>
     <t>E_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paytm : 200, card : 0 </t>
   </si>
   <si>
     <t>Alexa : 1</t>
@@ -416,6 +434,9 @@
     <t>E_60</t>
   </si>
   <si>
+    <t>100Rs Discount</t>
+  </si>
+  <si>
     <t>E_61</t>
   </si>
   <si>
@@ -425,10 +446,22 @@
     <t>E_63</t>
   </si>
   <si>
+    <t>QBSB-Specificity-Flat-fixed-all</t>
+  </si>
+  <si>
     <t>E_64</t>
   </si>
   <si>
+    <t>cash : 275, store-credit : 100, voucher : 0</t>
+  </si>
+  <si>
     <t>E_65</t>
+  </si>
+  <si>
+    <t>cash : 275, store-credit : 275</t>
+  </si>
+  <si>
+    <t>m3DOdg</t>
   </si>
   <si>
     <t>E_66</t>
@@ -540,7 +573,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -566,6 +599,22 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="134"/>
     </font>
@@ -578,12 +627,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -612,11 +667,11 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -625,25 +680,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1014,8 +1082,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="Q63">
-      <selection activeCell="Z67" sqref="Z67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A52">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1121,22 +1189,25 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>123456</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>123456</v>
@@ -1148,72 +1219,81 @@
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
+      <c r="J2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="4">
+        <v>33</v>
+      </c>
+      <c r="O2" s="6">
         <v>45384</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>32</v>
+      <c r="Q2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" t="s">
         <v>38</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>123456</v>
@@ -1225,305 +1305,341 @@
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>40</v>
+      <c r="J3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="4">
+        <v>33</v>
+      </c>
+      <c r="O3" s="6">
         <v>45384</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>32</v>
+      <c r="Q3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y3" t="s">
         <v>38</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="6">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
         <v>123456</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="6">
+        <v>31</v>
+      </c>
+      <c r="F4">
         <v>123456</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
         <v>1000</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4">
         <v>600</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="4">
+      <c r="J4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="6">
         <v>45384</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="5" t="s">
+      <c r="P4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="1" t="s">
+      <c r="Q4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>32</v>
+      <c r="R4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y4" t="s">
         <v>38</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
         <v>123456</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="6">
+        <v>31</v>
+      </c>
+      <c r="F5">
         <v>123456</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <v>1000</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5">
         <v>600</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="4">
+      <c r="J5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="6">
         <v>45384</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="5" t="s">
+      <c r="P5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="Q5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="2" t="s">
-        <v>32</v>
+      <c r="R5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" t="s">
         <v>38</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1">
       <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
         <v>123456</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3">
+        <v>31</v>
+      </c>
+      <c r="F6">
         <v>123456</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>1000</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="4">
+        <v>33</v>
+      </c>
+      <c r="O6" s="6">
         <v>45384</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="4" t="s">
+      <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>32</v>
+      <c r="Q6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" t="s">
+        <v>33</v>
       </c>
       <c r="V6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y6" t="s">
         <v>38</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="34.8" customHeight="1">
       <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
         <v>123456</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3">
+        <v>31</v>
+      </c>
+      <c r="F7">
         <v>123456</v>
       </c>
       <c r="G7">
@@ -1533,74 +1649,83 @@
         <v>600</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="4">
+        <v>33</v>
+      </c>
+      <c r="O7" s="6">
         <v>45384</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="4" t="s">
+      <c r="P7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="10">
-        <v>7709577438</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>32</v>
+      <c r="Q7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
+        <v>33</v>
       </c>
       <c r="V7" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y7" t="s">
         <v>38</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="33.75" customHeight="1">
       <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
         <v>123456</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3">
+        <v>31</v>
+      </c>
+      <c r="F8">
         <v>123456</v>
       </c>
       <c r="G8">
@@ -1610,74 +1735,83 @@
         <v>600</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="4">
+        <v>33</v>
+      </c>
+      <c r="O8" s="6">
         <v>45384</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="P8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="10">
-        <v>7709577438</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>32</v>
+      <c r="Q8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" t="s">
+        <v>33</v>
       </c>
       <c r="V8" t="s">
-        <v>36</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y8" t="s">
         <v>38</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="33.75" customHeight="1">
       <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
         <v>123456</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="6">
+        <v>31</v>
+      </c>
+      <c r="F9">
         <v>123456</v>
       </c>
       <c r="G9">
@@ -1686,75 +1820,84 @@
       <c r="H9">
         <v>600</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="I9" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="4">
+      <c r="J9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="6">
         <v>45384</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="5" t="s">
+      <c r="P9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" s="1" t="s">
+      <c r="Q9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>32</v>
+      <c r="R9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="33.75" customHeight="1">
       <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>123456</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="6">
+        <v>31</v>
+      </c>
+      <c r="F10">
         <v>123456</v>
       </c>
       <c r="G10">
@@ -1763,75 +1906,84 @@
       <c r="H10">
         <v>600</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="I10" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="4">
+      <c r="J10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="6">
         <v>45384</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="5" t="s">
+      <c r="P10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="1" t="s">
+      <c r="Q10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="2" t="s">
-        <v>32</v>
+      <c r="R10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" ht="33.75" customHeight="1">
       <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
         <v>123456</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3">
+        <v>31</v>
+      </c>
+      <c r="F11">
         <v>123456</v>
       </c>
       <c r="G11">
@@ -1840,75 +1992,84 @@
       <c r="H11">
         <v>600</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>33</v>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="4">
+        <v>33</v>
+      </c>
+      <c r="O11" s="6">
         <v>45384</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="4" t="s">
+      <c r="P11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R11" s="10">
-        <v>7709577438</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>32</v>
+      <c r="Q11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" t="s">
+        <v>33</v>
       </c>
       <c r="V11" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="33.75" customHeight="1">
       <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
         <v>123456</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3">
+        <v>31</v>
+      </c>
+      <c r="F12">
         <v>123456</v>
       </c>
       <c r="G12">
@@ -1917,75 +2078,84 @@
       <c r="H12">
         <v>600</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="9">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>33</v>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="4">
+        <v>33</v>
+      </c>
+      <c r="O12" s="6">
         <v>45384</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="4" t="s">
+      <c r="P12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="10">
-        <v>7709577438</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>32</v>
+      <c r="Q12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" t="s">
+        <v>33</v>
       </c>
       <c r="V12" t="s">
-        <v>36</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3">
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
         <v>123456</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3">
+        <v>31</v>
+      </c>
+      <c r="F13">
         <v>123456</v>
       </c>
       <c r="G13">
@@ -1994,75 +2164,84 @@
       <c r="H13">
         <v>600</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
-      <c r="K13" s="9">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>33</v>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="4">
+        <v>33</v>
+      </c>
+      <c r="O13" s="6">
         <v>45384</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="4" t="s">
+      <c r="P13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R13" s="10">
-        <v>7709577438</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>32</v>
+      <c r="Q13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" t="s">
+        <v>33</v>
       </c>
       <c r="V13" t="s">
-        <v>36</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3">
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
         <v>123456</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="3">
+        <v>31</v>
+      </c>
+      <c r="F14">
         <v>123456</v>
       </c>
       <c r="G14">
@@ -2071,75 +2250,84 @@
       <c r="H14">
         <v>600</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>33</v>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="4">
+        <v>33</v>
+      </c>
+      <c r="O14" s="6">
         <v>45384</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="4" t="s">
+      <c r="P14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="10">
-        <v>7709577438</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>32</v>
+      <c r="Q14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" t="s">
+        <v>33</v>
       </c>
       <c r="V14" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="11">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
         <v>123456</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3">
+        <v>31</v>
+      </c>
+      <c r="F15">
         <v>123456</v>
       </c>
       <c r="G15">
@@ -2148,75 +2336,84 @@
       <c r="H15">
         <v>600</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="6">
+        <v>45384</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA15">
         <v>1</v>
       </c>
-      <c r="K15" s="9">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R15" s="10">
-        <v>7709577438</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>38</v>
+      <c r="AB15" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="26.25" customHeight="1">
       <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="6">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
         <v>123456</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="3">
+        <v>31</v>
+      </c>
+      <c r="F16">
         <v>123456</v>
       </c>
       <c r="G16">
@@ -2225,75 +2422,84 @@
       <c r="H16">
         <v>600</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="6">
+        <v>45384</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA16">
         <v>1</v>
       </c>
-      <c r="K16" s="9">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" s="10">
-        <v>7709577438</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="U16" t="s">
-        <v>32</v>
-      </c>
-      <c r="V16" t="s">
-        <v>36</v>
-      </c>
-      <c r="W16" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>38</v>
+      <c r="AB16" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="3">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
         <v>123456</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="3">
+        <v>31</v>
+      </c>
+      <c r="F17">
         <v>123456</v>
       </c>
       <c r="G17">
@@ -2302,73 +2508,82 @@
       <c r="H17">
         <v>600</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
-      <c r="K17" s="9">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>33</v>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O17" s="4">
+        <v>33</v>
+      </c>
+      <c r="O17" s="6">
         <v>45384</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="4" t="s">
+      <c r="P17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="10">
-        <v>7709577438</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>70</v>
+      <c r="Q17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="U17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V17" t="s">
-        <v>36</v>
-      </c>
-      <c r="W17" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="12">
+        <v>30</v>
+      </c>
+      <c r="D18">
         <v>123456</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>123456</v>
@@ -2380,74 +2595,83 @@
         <v>600</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18" s="13">
+        <v>33</v>
+      </c>
+      <c r="O18" s="6">
         <v>45384</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="4" t="s">
+      <c r="P18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="10">
-        <v>7709577438</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>70</v>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="5">
+        <v>3030303030</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="U18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V18" t="s">
-        <v>36</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="31.5" customHeight="1">
       <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="6">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
         <v>123456</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="6">
+        <v>31</v>
+      </c>
+      <c r="F19">
         <v>123456</v>
       </c>
       <c r="G19">
@@ -2456,73 +2680,82 @@
       <c r="H19">
         <v>600</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="I19" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="13">
+      <c r="J19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="6">
         <v>45384</v>
       </c>
-      <c r="P19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="4" t="s">
+      <c r="P19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>32</v>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19" s="5">
+        <v>4040404040</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="U19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W19" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="31.5" customHeight="1">
       <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>65</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>123456</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20">
         <v>123456</v>
@@ -2534,72 +2767,81 @@
         <v>600</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>33</v>
+      <c r="J20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="13">
+        <v>33</v>
+      </c>
+      <c r="O20" s="6">
         <v>45384</v>
       </c>
-      <c r="P20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q20" s="4" t="s">
+      <c r="P20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="10">
-        <v>7709577438</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>32</v>
+      <c r="Q20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="5">
+        <v>5050505050</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="U20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V20" t="s">
-        <v>36</v>
-      </c>
-      <c r="W20" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="31.5" customHeight="1">
       <c r="A21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>67</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>123456</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21">
         <v>123456</v>
@@ -2611,72 +2853,81 @@
         <v>600</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>33</v>
+      <c r="J21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="N21" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="13">
+        <v>33</v>
+      </c>
+      <c r="O21" s="6">
         <v>45384</v>
       </c>
-      <c r="P21" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="P21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="10">
-        <v>7709577438</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="2">
-        <v>300</v>
+      <c r="Q21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="5">
+        <v>9585698564</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="U21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V21" t="s">
-        <v>36</v>
-      </c>
-      <c r="W21" t="s">
-        <v>80</v>
+        <v>37</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="X21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="31.5" customHeight="1">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3">
         <v>123456</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F22" s="3">
         <v>123456</v>
@@ -2688,7 +2939,7 @@
         <v>600</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J22" s="9">
         <v>1</v>
@@ -2697,69 +2948,72 @@
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
-      </c>
-      <c r="O22" s="4">
+        <v>72</v>
+      </c>
+      <c r="O22" s="10">
         <v>45384</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="4" t="s">
+      <c r="P22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R22" s="10">
+      <c r="Q22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="11">
         <v>7709577438</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z22">
         <v>7719921544</v>
       </c>
       <c r="AA22">
         <v>1</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="31.5" customHeight="1">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3">
         <v>123456</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F23" s="3">
         <v>123456</v>
@@ -2771,7 +3025,7 @@
         <v>600</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J23" s="9">
         <v>1</v>
@@ -2780,69 +3034,72 @@
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O23" s="4">
+        <v>72</v>
+      </c>
+      <c r="O23" s="10">
         <v>45384</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23" s="4" t="s">
+      <c r="P23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R23" s="10">
+      <c r="Q23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="11">
         <v>7709577438</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z23">
         <v>7719921544</v>
       </c>
       <c r="AA23">
         <v>10</v>
+      </c>
+      <c r="AB23" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="32.25" customHeight="1">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="3">
         <v>123456</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F24" s="3">
         <v>123456</v>
@@ -2854,7 +3111,7 @@
         <v>600</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J24" s="9">
         <v>1</v>
@@ -2863,69 +3120,72 @@
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>48</v>
-      </c>
-      <c r="O24" s="4">
+        <v>72</v>
+      </c>
+      <c r="O24" s="10">
         <v>45384</v>
       </c>
-      <c r="P24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="4" t="s">
+      <c r="P24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R24" s="10">
+      <c r="Q24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="11">
         <v>7709577438</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z24">
         <v>7719921544</v>
       </c>
       <c r="AA24">
         <v>1</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="28.5" customHeight="1">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3">
         <v>123456</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F25" s="3">
         <v>123456</v>
@@ -2937,7 +3197,7 @@
         <v>600</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J25" s="9">
         <v>1</v>
@@ -2946,69 +3206,72 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
-      </c>
-      <c r="O25" s="4">
+        <v>72</v>
+      </c>
+      <c r="O25" s="10">
         <v>45384</v>
       </c>
-      <c r="P25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25" s="4" t="s">
+      <c r="P25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="10">
+      <c r="Q25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="11">
         <v>6375266109</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z25">
         <v>7719921544</v>
       </c>
       <c r="AA25">
         <v>1</v>
+      </c>
+      <c r="AB25" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3">
         <v>123456</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F26" s="3">
         <v>123456</v>
@@ -3020,7 +3283,7 @@
         <v>600</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J26" s="9">
         <v>1</v>
@@ -3029,69 +3292,72 @@
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>48</v>
-      </c>
-      <c r="O26" s="4">
+        <v>72</v>
+      </c>
+      <c r="O26" s="10">
         <v>45384</v>
       </c>
-      <c r="P26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="4" t="s">
+      <c r="P26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R26" s="10">
+      <c r="Q26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="11">
         <v>7709577438</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z26">
         <v>7719921544</v>
       </c>
       <c r="AA26">
         <v>1</v>
+      </c>
+      <c r="AB26" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3">
         <v>123456</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F27" s="3">
         <v>123456</v>
@@ -3103,7 +3369,7 @@
         <v>600</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J27" s="9">
         <v>1</v>
@@ -3112,69 +3378,72 @@
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O27" s="4">
+        <v>72</v>
+      </c>
+      <c r="O27" s="10">
         <v>45384</v>
       </c>
-      <c r="P27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q27" s="4" t="s">
+      <c r="P27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R27" s="10">
+      <c r="Q27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="11">
         <v>7709577438</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z27">
         <v>7719921544</v>
       </c>
       <c r="AA27">
         <v>2</v>
+      </c>
+      <c r="AB27" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3">
         <v>123456</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F28" s="3">
         <v>123456</v>
@@ -3186,7 +3455,7 @@
         <v>600</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J28" s="9">
         <v>1</v>
@@ -3195,69 +3464,72 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
-      </c>
-      <c r="O28" s="4">
+        <v>72</v>
+      </c>
+      <c r="O28" s="10">
         <v>45384</v>
       </c>
-      <c r="P28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q28" s="4" t="s">
+      <c r="P28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R28" s="10">
+      <c r="Q28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="11">
         <v>7709577438</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z28">
         <v>7719921544</v>
       </c>
       <c r="AA28">
         <v>1</v>
+      </c>
+      <c r="AB28" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="3">
         <v>123456</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F29" s="3">
         <v>123456</v>
@@ -3269,7 +3541,7 @@
         <v>600</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J29" s="9">
         <v>1</v>
@@ -3278,69 +3550,72 @@
         <v>1</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N29" t="s">
-        <v>48</v>
-      </c>
-      <c r="O29" s="4">
+        <v>72</v>
+      </c>
+      <c r="O29" s="10">
         <v>45384</v>
       </c>
-      <c r="P29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q29" s="4" t="s">
+      <c r="P29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R29" s="10">
+      <c r="Q29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" s="11">
         <v>7709577438</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z29">
         <v>7719921544</v>
       </c>
       <c r="AA29">
         <v>1</v>
+      </c>
+      <c r="AB29" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="3">
         <v>123456</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F30" s="3">
         <v>123456</v>
@@ -3352,7 +3627,7 @@
         <v>600</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J30" s="9">
         <v>1</v>
@@ -3361,69 +3636,72 @@
         <v>1</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N30" t="s">
-        <v>48</v>
-      </c>
-      <c r="O30" s="4">
+        <v>72</v>
+      </c>
+      <c r="O30" s="10">
         <v>45384</v>
       </c>
-      <c r="P30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q30" s="4" t="s">
+      <c r="P30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R30" s="10">
+      <c r="Q30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" s="11">
         <v>7709577438</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z30">
         <v>7719921544</v>
       </c>
       <c r="AA30">
         <v>1</v>
+      </c>
+      <c r="AB30" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="3">
         <v>123456</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F31" s="3">
         <v>123456</v>
@@ -3435,7 +3713,7 @@
         <v>600</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J31" s="9">
         <v>1</v>
@@ -3444,69 +3722,72 @@
         <v>1</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" s="4">
+        <v>72</v>
+      </c>
+      <c r="O31" s="10">
         <v>45384</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q31" s="4" t="s">
+      <c r="P31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R31" s="10">
+      <c r="Q31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" s="11">
         <v>7709577438</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z31">
         <v>7719921544</v>
       </c>
       <c r="AA31">
         <v>1</v>
+      </c>
+      <c r="AB31" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3">
         <v>123456</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F32" s="3">
         <v>123456</v>
@@ -3518,7 +3799,7 @@
         <v>600</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J32" s="9">
         <v>1</v>
@@ -3527,69 +3808,72 @@
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N32" t="s">
-        <v>48</v>
-      </c>
-      <c r="O32" s="4">
+        <v>72</v>
+      </c>
+      <c r="O32" s="10">
         <v>45384</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q32" s="4" t="s">
+      <c r="P32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R32" s="10">
+      <c r="Q32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="11">
         <v>6375266109</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z32">
         <v>7719921544</v>
       </c>
       <c r="AA32">
         <v>1</v>
+      </c>
+      <c r="AB32" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3">
         <v>123456</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F33" s="3">
         <v>123456</v>
@@ -3601,7 +3885,7 @@
         <v>600</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J33" s="9">
         <v>1</v>
@@ -3610,69 +3894,72 @@
         <v>1</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>48</v>
-      </c>
-      <c r="O33" s="4">
+        <v>72</v>
+      </c>
+      <c r="O33" s="10">
         <v>45384</v>
       </c>
-      <c r="P33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q33" s="4" t="s">
+      <c r="P33" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R33" s="10">
+      <c r="Q33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="11">
         <v>7709577438</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z33">
         <v>7719921544</v>
       </c>
       <c r="AA33">
         <v>1</v>
+      </c>
+      <c r="AB33" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3">
         <v>123456</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F34" s="3">
         <v>123456</v>
@@ -3684,7 +3971,7 @@
         <v>600</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J34" s="9">
         <v>1</v>
@@ -3693,69 +3980,72 @@
         <v>1</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N34" t="s">
-        <v>48</v>
-      </c>
-      <c r="O34" s="4">
+        <v>72</v>
+      </c>
+      <c r="O34" s="10">
         <v>45384</v>
       </c>
-      <c r="P34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q34" s="4" t="s">
+      <c r="P34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R34" s="10">
+      <c r="Q34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34" s="11">
         <v>7709577438</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z34">
         <v>7719921544</v>
       </c>
       <c r="AA34">
         <v>1</v>
+      </c>
+      <c r="AB34" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" s="3">
         <v>123456</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F35" s="3">
         <v>123456</v>
@@ -3767,7 +4057,7 @@
         <v>600</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J35" s="9">
         <v>1</v>
@@ -3776,69 +4066,72 @@
         <v>1</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N35" t="s">
-        <v>48</v>
-      </c>
-      <c r="O35" s="4">
+        <v>72</v>
+      </c>
+      <c r="O35" s="10">
         <v>45384</v>
       </c>
-      <c r="P35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q35" s="4" t="s">
+      <c r="P35" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R35" s="10">
+      <c r="Q35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R35" s="11">
         <v>7709577438</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z35">
         <v>7719921544</v>
       </c>
       <c r="AA35">
         <v>1</v>
+      </c>
+      <c r="AB35" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" s="3">
         <v>123456</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F36" s="3">
         <v>123456</v>
@@ -3850,7 +4143,7 @@
         <v>600</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J36" s="9">
         <v>1</v>
@@ -3859,69 +4152,72 @@
         <v>1</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="N36" t="s">
-        <v>48</v>
-      </c>
-      <c r="O36" s="4">
+        <v>72</v>
+      </c>
+      <c r="O36" s="10">
         <v>45384</v>
       </c>
-      <c r="P36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q36" s="4" t="s">
+      <c r="P36" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R36" s="10">
+      <c r="Q36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R36" s="11">
         <v>7709577438</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z36">
         <v>7719921544</v>
       </c>
       <c r="AA36">
         <v>1</v>
+      </c>
+      <c r="AB36" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" s="3">
         <v>123456</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F37" s="3">
         <v>123456</v>
@@ -3933,7 +4229,7 @@
         <v>600</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J37" s="9">
         <v>1</v>
@@ -3942,69 +4238,72 @@
         <v>1</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="N37" t="s">
-        <v>48</v>
-      </c>
-      <c r="O37" s="4">
+        <v>72</v>
+      </c>
+      <c r="O37" s="10">
         <v>45384</v>
       </c>
-      <c r="P37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q37" s="4" t="s">
+      <c r="P37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R37" s="10">
+      <c r="Q37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R37" s="11">
         <v>7709577438</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z37">
         <v>7719921544</v>
       </c>
       <c r="AA37">
         <v>1</v>
+      </c>
+      <c r="AB37" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" s="3">
         <v>123456</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F38" s="3">
         <v>123456</v>
@@ -4016,7 +4315,7 @@
         <v>600</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J38" s="9">
         <v>1</v>
@@ -4025,69 +4324,72 @@
         <v>1</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N38" t="s">
-        <v>48</v>
-      </c>
-      <c r="O38" s="4">
+        <v>72</v>
+      </c>
+      <c r="O38" s="10">
         <v>45384</v>
       </c>
-      <c r="P38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q38" s="4" t="s">
+      <c r="P38" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R38" s="10">
+      <c r="Q38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R38" s="11">
         <v>6375266109</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z38">
         <v>7719921544</v>
       </c>
       <c r="AA38">
         <v>1</v>
+      </c>
+      <c r="AB38" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" s="3">
         <v>123456</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F39" s="3">
         <v>123456</v>
@@ -4099,7 +4401,7 @@
         <v>600</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J39" s="9">
         <v>1</v>
@@ -4108,69 +4410,72 @@
         <v>1</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
-      </c>
-      <c r="O39" s="4">
+        <v>72</v>
+      </c>
+      <c r="O39" s="10">
         <v>45384</v>
       </c>
-      <c r="P39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q39" s="4" t="s">
+      <c r="P39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R39" s="10">
+      <c r="Q39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R39" s="11">
         <v>7709577438</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z39">
         <v>7719921544</v>
       </c>
       <c r="AA39">
         <v>1</v>
+      </c>
+      <c r="AB39" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" s="3">
         <v>123456</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F40" s="3">
         <v>123456</v>
@@ -4182,7 +4487,7 @@
         <v>600</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J40" s="9">
         <v>1</v>
@@ -4191,69 +4496,72 @@
         <v>1</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N40" t="s">
-        <v>48</v>
-      </c>
-      <c r="O40" s="4">
+        <v>72</v>
+      </c>
+      <c r="O40" s="10">
         <v>45384</v>
       </c>
-      <c r="P40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q40" s="4" t="s">
+      <c r="P40" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R40" s="10">
+      <c r="Q40" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R40" s="11">
         <v>7709577438</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y40" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z40">
         <v>7719921544</v>
       </c>
       <c r="AA40">
         <v>1</v>
+      </c>
+      <c r="AB40" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" s="3">
         <v>123456</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F41" s="3">
         <v>123456</v>
@@ -4265,7 +4573,7 @@
         <v>600</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J41" s="9">
         <v>1</v>
@@ -4274,69 +4582,72 @@
         <v>1</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N41" t="s">
-        <v>48</v>
-      </c>
-      <c r="O41" s="4">
+        <v>72</v>
+      </c>
+      <c r="O41" s="10">
         <v>45384</v>
       </c>
-      <c r="P41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q41" s="4" t="s">
+      <c r="P41" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R41" s="10">
+      <c r="Q41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R41" s="11">
         <v>7709577438</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z41">
         <v>7719921544</v>
       </c>
       <c r="AA41">
         <v>1</v>
+      </c>
+      <c r="AB41" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" s="3">
         <v>123456</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F42" s="3">
         <v>123456</v>
@@ -4348,7 +4659,7 @@
         <v>600</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J42" s="9">
         <v>1</v>
@@ -4357,69 +4668,72 @@
         <v>1</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N42" t="s">
-        <v>48</v>
-      </c>
-      <c r="O42" s="4">
+        <v>72</v>
+      </c>
+      <c r="O42" s="10">
         <v>45384</v>
       </c>
-      <c r="P42" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q42" s="4" t="s">
+      <c r="P42" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R42" s="10">
+      <c r="Q42" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R42" s="11">
         <v>7709577438</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z42">
         <v>7719921544</v>
       </c>
       <c r="AA42">
         <v>1</v>
+      </c>
+      <c r="AB42" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" s="3">
         <v>123456</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F43" s="3">
         <v>123456</v>
@@ -4431,7 +4745,7 @@
         <v>600</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J43" s="9">
         <v>1</v>
@@ -4440,69 +4754,72 @@
         <v>1</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N43" t="s">
-        <v>48</v>
-      </c>
-      <c r="O43" s="4">
+        <v>72</v>
+      </c>
+      <c r="O43" s="10">
         <v>45384</v>
       </c>
-      <c r="P43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q43" s="4" t="s">
+      <c r="P43" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R43" s="10">
+      <c r="Q43" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R43" s="11">
         <v>7709577438</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z43">
         <v>7719921544</v>
       </c>
       <c r="AA43">
         <v>1</v>
+      </c>
+      <c r="AB43" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="3">
         <v>123456</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F44" s="3">
         <v>123456</v>
@@ -4514,7 +4831,7 @@
         <v>600</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J44" s="9">
         <v>1</v>
@@ -4523,69 +4840,72 @@
         <v>1</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N44" t="s">
-        <v>48</v>
-      </c>
-      <c r="O44" s="4">
+        <v>72</v>
+      </c>
+      <c r="O44" s="10">
         <v>45384</v>
       </c>
-      <c r="P44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q44" s="4" t="s">
+      <c r="P44" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R44" s="10">
+      <c r="Q44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R44" s="11">
         <v>6375266109</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z44">
         <v>7719921544</v>
       </c>
       <c r="AA44">
         <v>1</v>
+      </c>
+      <c r="AB44" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" s="3">
         <v>123456</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F45" s="3">
         <v>123456</v>
@@ -4597,7 +4917,7 @@
         <v>600</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J45" s="9">
         <v>1</v>
@@ -4606,69 +4926,72 @@
         <v>1</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N45" t="s">
-        <v>48</v>
-      </c>
-      <c r="O45" s="4">
+        <v>72</v>
+      </c>
+      <c r="O45" s="10">
         <v>45384</v>
       </c>
-      <c r="P45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q45" s="4" t="s">
+      <c r="P45" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R45" s="10">
+      <c r="Q45" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R45" s="11">
         <v>7709577438</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z45">
         <v>7719921544</v>
       </c>
       <c r="AA45">
         <v>1</v>
+      </c>
+      <c r="AB45" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" s="3">
         <v>123456</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F46" s="3">
         <v>123456</v>
@@ -4680,7 +5003,7 @@
         <v>600</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J46" s="9">
         <v>1</v>
@@ -4689,69 +5012,72 @@
         <v>1</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N46" t="s">
-        <v>48</v>
-      </c>
-      <c r="O46" s="4">
+        <v>72</v>
+      </c>
+      <c r="O46" s="10">
         <v>45384</v>
       </c>
-      <c r="P46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q46" s="4" t="s">
+      <c r="P46" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R46" s="10">
+      <c r="Q46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R46" s="11">
         <v>7709577438</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y46" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z46">
         <v>7719921544</v>
       </c>
       <c r="AA46">
         <v>1</v>
+      </c>
+      <c r="AB46" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47">
         <v>123456</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F47">
         <v>123456</v>
@@ -4763,78 +5089,81 @@
         <v>600</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N47" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="4">
+        <v>33</v>
+      </c>
+      <c r="O47" s="10">
         <v>45384</v>
       </c>
-      <c r="P47" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q47" s="5" t="s">
+      <c r="P47" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="Q47" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="R47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y47" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z47">
         <v>7719921544</v>
       </c>
       <c r="AA47">
         <v>1</v>
+      </c>
+      <c r="AB47" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48">
         <v>123456</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F48">
         <v>123456</v>
@@ -4846,87 +5175,90 @@
         <v>600</v>
       </c>
       <c r="I48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="N48" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="4">
+        <v>33</v>
+      </c>
+      <c r="O48" s="10">
         <v>45384</v>
       </c>
-      <c r="P48" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q48" s="5" t="s">
+      <c r="P48" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="Q48" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="R48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y48" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="AB48" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="28.5">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="6">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="13">
         <v>123456</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="6">
+        <v>70</v>
+      </c>
+      <c r="F49" s="13">
         <v>123456</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="14">
         <v>1000</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="14">
         <v>600</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -4935,75 +5267,78 @@
         <v>2</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="4">
+        <v>33</v>
+      </c>
+      <c r="O49" s="10">
         <v>45384</v>
       </c>
-      <c r="P49" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q49" s="5" t="s">
+      <c r="P49" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="Q49" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="R49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="AB49" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="28.5">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="6">
+        <v>69</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="13">
         <v>123456</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="6">
+        <v>70</v>
+      </c>
+      <c r="F50" s="13">
         <v>123456</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="14">
         <v>1000</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="14">
         <v>600</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -5012,60 +5347,63 @@
         <v>2</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="4">
+        <v>33</v>
+      </c>
+      <c r="O50" s="10">
         <v>45384</v>
       </c>
-      <c r="P50" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q50" s="5" t="s">
+      <c r="P50" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="Q50" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="R50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="AB50" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" s="3">
         <v>123456</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F51" s="3">
         <v>123456</v>
@@ -5077,7 +5415,7 @@
         <v>600</v>
       </c>
       <c r="I51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J51" s="9">
         <v>1</v>
@@ -5086,63 +5424,66 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N51" t="s">
-        <v>48</v>
-      </c>
-      <c r="O51" s="4">
+        <v>72</v>
+      </c>
+      <c r="O51" s="10">
         <v>45384</v>
       </c>
-      <c r="P51" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q51" s="4" t="s">
+      <c r="P51" s="10" t="s">
         <v>35</v>
       </c>
+      <c r="Q51" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="R51" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y51" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="AB51" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" s="3">
         <v>123456</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F52" s="3">
         <v>123456</v>
@@ -5154,7 +5495,7 @@
         <v>600</v>
       </c>
       <c r="I52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J52" s="9">
         <v>1</v>
@@ -5163,63 +5504,66 @@
         <v>1</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N52" t="s">
-        <v>48</v>
-      </c>
-      <c r="O52" s="4">
+        <v>72</v>
+      </c>
+      <c r="O52" s="10">
         <v>45384</v>
       </c>
-      <c r="P52" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q52" s="4" t="s">
+      <c r="P52" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R52" s="10">
+      <c r="Q52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R52" s="11">
         <v>7709577438</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y52" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="AB52" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" s="3">
         <v>123456</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F53" s="3">
         <v>123456</v>
@@ -5231,7 +5575,7 @@
         <v>600</v>
       </c>
       <c r="I53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J53" s="9">
         <v>1</v>
@@ -5240,65 +5584,68 @@
         <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N53" t="s">
-        <v>48</v>
-      </c>
-      <c r="O53" s="4">
+        <v>72</v>
+      </c>
+      <c r="O53" s="10">
         <v>45384</v>
       </c>
-      <c r="P53" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q53" s="4" t="s">
+      <c r="P53" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R53" s="10">
+      <c r="Q53" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R53" s="11">
         <v>7709577438</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y53" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="AB53" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="28.5">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="6">
+        <v>69</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="13">
         <v>123456</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="6">
+        <v>70</v>
+      </c>
+      <c r="F54" s="13">
         <v>123456</v>
       </c>
       <c r="G54">
@@ -5308,55 +5655,58 @@
         <v>600</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="4">
+        <v>33</v>
+      </c>
+      <c r="O54" s="10">
         <v>45384</v>
       </c>
-      <c r="P54" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q54" s="5" t="s">
+      <c r="P54" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="Q54" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="R54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y54" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="AB54" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="14.25">
@@ -5364,18 +5714,18 @@
         <v>121</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D55" s="3">
         <v>123456</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="6">
+        <v>70</v>
+      </c>
+      <c r="F55" s="13">
         <v>123456</v>
       </c>
       <c r="G55">
@@ -5385,72 +5735,75 @@
         <v>600</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>56</v>
+        <v>32</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="4">
+        <v>33</v>
+      </c>
+      <c r="O55" s="10">
         <v>45384</v>
       </c>
-      <c r="P55" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q55" s="5" t="s">
+      <c r="P55" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="Q55" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="R55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y55" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="AB55" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" s="3">
         <v>123456</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F56" s="3">
         <v>123456</v>
@@ -5462,7 +5815,7 @@
         <v>600</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J56" s="9">
         <v>1</v>
@@ -5471,63 +5824,66 @@
         <v>1</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N56" t="s">
-        <v>48</v>
-      </c>
-      <c r="O56" s="4">
+        <v>72</v>
+      </c>
+      <c r="O56" s="10">
         <v>45384</v>
       </c>
-      <c r="P56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q56" s="4" t="s">
+      <c r="P56" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R56" s="10">
+      <c r="Q56" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R56" s="11">
         <v>7709577438</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y56" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="AB56" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" s="3">
         <v>123456</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F57" s="3">
         <v>123456</v>
@@ -5539,7 +5895,7 @@
         <v>600</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J57" s="9">
         <v>1</v>
@@ -5548,63 +5904,66 @@
         <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N57" t="s">
-        <v>48</v>
-      </c>
-      <c r="O57" s="4">
+        <v>72</v>
+      </c>
+      <c r="O57" s="10">
         <v>45384</v>
       </c>
-      <c r="P57" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q57" s="4" t="s">
+      <c r="P57" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R57" s="10">
+      <c r="Q57" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R57" s="11">
         <v>7709577438</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y57" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="AB57" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" s="3">
         <v>123456</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F58" s="3">
         <v>123456</v>
@@ -5616,7 +5975,7 @@
         <v>600</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J58" s="9">
         <v>1</v>
@@ -5625,69 +5984,72 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N58" t="s">
-        <v>48</v>
-      </c>
-      <c r="O58" s="4">
+        <v>72</v>
+      </c>
+      <c r="O58" s="10">
         <v>45384</v>
       </c>
-      <c r="P58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q58" s="4" t="s">
+      <c r="P58" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R58" s="10">
+      <c r="Q58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R58" s="11">
         <v>7709577438</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y58" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="Z58" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AA58">
         <v>1</v>
+      </c>
+      <c r="AB58" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" s="3">
         <v>123456</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F59" s="3">
         <v>123456</v>
@@ -5699,7 +6061,7 @@
         <v>600</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J59" s="9">
         <v>1</v>
@@ -5708,63 +6070,66 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N59" t="s">
-        <v>48</v>
-      </c>
-      <c r="O59" s="4">
+        <v>72</v>
+      </c>
+      <c r="O59" s="10">
         <v>45384</v>
       </c>
-      <c r="P59" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q59" s="4" t="s">
+      <c r="P59" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R59" s="10">
+      <c r="Q59" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R59" s="11">
         <v>7709577438</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y59" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="AB59" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="11">
+        <v>69</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="16">
         <v>123456</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F60" s="3">
         <v>123456</v>
@@ -5776,7 +6141,7 @@
         <v>600</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J60" s="9">
         <v>1</v>
@@ -5785,69 +6150,72 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="N60" t="s">
-        <v>48</v>
-      </c>
-      <c r="O60" s="4">
+        <v>72</v>
+      </c>
+      <c r="O60" s="10">
         <v>45384</v>
       </c>
-      <c r="P60" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q60" s="4" t="s">
+      <c r="P60" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R60" s="10">
+      <c r="Q60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R60" s="11">
         <v>7709577438</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y60" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="Z60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA60">
         <v>1</v>
+      </c>
+      <c r="AB60" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="6">
+        <v>69</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="13">
         <v>123456</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F61" s="3">
         <v>123456</v>
@@ -5859,7 +6227,7 @@
         <v>600</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J61" s="9">
         <v>1</v>
@@ -5868,69 +6236,72 @@
         <v>1</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="N61" t="s">
-        <v>48</v>
-      </c>
-      <c r="O61" s="4">
+        <v>72</v>
+      </c>
+      <c r="O61" s="10">
         <v>45384</v>
       </c>
-      <c r="P61" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q61" s="4" t="s">
+      <c r="P61" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R61" s="10">
+      <c r="Q61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R61" s="11">
         <v>7709577438</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="U61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y61" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z61">
         <v>7719921544</v>
       </c>
       <c r="AA61">
         <v>1</v>
+      </c>
+      <c r="AB61" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" s="3">
         <v>123456</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F62" s="3">
         <v>123456</v>
@@ -5942,7 +6313,7 @@
         <v>600</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J62" s="9">
         <v>1</v>
@@ -5951,69 +6322,72 @@
         <v>1</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="N62" t="s">
-        <v>48</v>
-      </c>
-      <c r="O62" s="4">
+        <v>72</v>
+      </c>
+      <c r="O62" s="10">
         <v>45384</v>
       </c>
-      <c r="P62" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q62" s="4" t="s">
+      <c r="P62" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R62" s="10">
+      <c r="Q62" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R62" s="11">
         <v>7709577438</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="U62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y62" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z62">
         <v>7719921544</v>
       </c>
       <c r="AA62">
         <v>1</v>
+      </c>
+      <c r="AB62" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="14.25">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="12">
+        <v>30</v>
+      </c>
+      <c r="D63" s="17">
         <v>123456</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F63">
         <v>123456</v>
@@ -6025,7 +6399,7 @@
         <v>600</v>
       </c>
       <c r="I63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J63" s="9">
         <v>1</v>
@@ -6034,71 +6408,74 @@
         <v>1</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N63" t="s">
-        <v>48</v>
-      </c>
-      <c r="O63" s="13">
+        <v>72</v>
+      </c>
+      <c r="O63" s="18">
         <v>45384</v>
       </c>
-      <c r="P63" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q63" s="4" t="s">
+      <c r="P63" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R63" s="10">
+      <c r="Q63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R63" s="11">
         <v>7709577438</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="U63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y63" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z63">
         <v>7719921544</v>
       </c>
       <c r="AA63">
         <v>1</v>
+      </c>
+      <c r="AB63" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="6">
+        <v>69</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="13">
         <v>123456</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="6">
+        <v>70</v>
+      </c>
+      <c r="F64" s="13">
         <v>123456</v>
       </c>
       <c r="G64">
@@ -6108,10 +6485,10 @@
         <v>600</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
@@ -6120,66 +6497,69 @@
         <v>1</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O64" s="13">
+        <v>33</v>
+      </c>
+      <c r="O64" s="18">
         <v>45384</v>
       </c>
-      <c r="P64" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q64" s="4" t="s">
+      <c r="P64" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="Q64" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="R64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y64" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z64">
         <v>7719921544</v>
       </c>
       <c r="AA64">
         <v>1</v>
+      </c>
+      <c r="AB64" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65">
         <v>123456</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F65">
         <v>123456</v>
@@ -6191,78 +6571,81 @@
         <v>600</v>
       </c>
       <c r="I65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N65" t="s">
-        <v>32</v>
-      </c>
-      <c r="O65" s="13">
+        <v>33</v>
+      </c>
+      <c r="O65" s="18">
         <v>45384</v>
       </c>
-      <c r="P65" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q65" s="4" t="s">
+      <c r="P65" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R65" s="10">
+      <c r="Q65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R65" s="11">
         <v>7709577438</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W65" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y65" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z65">
         <v>7719921544</v>
       </c>
       <c r="AA65">
         <v>1</v>
+      </c>
+      <c r="AB65" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66">
         <v>123456</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F66">
         <v>123456</v>
@@ -6274,78 +6657,81 @@
         <v>600</v>
       </c>
       <c r="I66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N66" t="s">
-        <v>32</v>
-      </c>
-      <c r="O66" s="13">
+        <v>33</v>
+      </c>
+      <c r="O66" s="18">
         <v>45384</v>
       </c>
       <c r="P66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q66" t="s">
-        <v>35</v>
-      </c>
-      <c r="R66" s="10">
+        <v>36</v>
+      </c>
+      <c r="R66" s="11">
         <v>7709577438</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T66" s="2">
         <v>300</v>
       </c>
       <c r="U66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W66" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="X66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y66" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z66">
         <v>7719921544</v>
       </c>
       <c r="AA66">
         <v>1</v>
+      </c>
+      <c r="AB66" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" s="3">
         <v>123456</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F67" s="3">
         <v>123456</v>
@@ -6357,7 +6743,7 @@
         <v>600</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J67" s="9">
         <v>1</v>
@@ -6366,69 +6752,72 @@
         <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N67" t="s">
-        <v>48</v>
-      </c>
-      <c r="O67" s="4">
+        <v>72</v>
+      </c>
+      <c r="O67" s="10">
         <v>45384</v>
       </c>
-      <c r="P67" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q67" s="4" t="s">
+      <c r="P67" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R67" s="10">
+      <c r="Q67" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R67" s="11">
         <v>7709577438</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y67" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z67">
         <v>7719921544</v>
       </c>
       <c r="AA67">
         <v>1</v>
+      </c>
+      <c r="AB67" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" s="3">
         <v>123456</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F68" s="3">
         <v>123456</v>
@@ -6440,7 +6829,7 @@
         <v>600</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J68" s="9">
         <v>1</v>
@@ -6449,63 +6838,66 @@
         <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N68" t="s">
-        <v>48</v>
-      </c>
-      <c r="O68" s="4">
+        <v>72</v>
+      </c>
+      <c r="O68" s="10">
         <v>45384</v>
       </c>
-      <c r="P68" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q68" s="4" t="s">
+      <c r="P68" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R68" s="10">
+      <c r="Q68" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R68" s="11">
         <v>7709577438</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y68" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="AB68" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>28</v>
+        <v>150</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" s="3">
         <v>123456</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F69" s="3">
         <v>123456</v>
@@ -6517,7 +6909,7 @@
         <v>600</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J69" s="9">
         <v>1</v>
@@ -6526,63 +6918,72 @@
         <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N69" t="s">
-        <v>48</v>
-      </c>
-      <c r="O69" s="4">
+        <v>72</v>
+      </c>
+      <c r="O69" s="10">
         <v>45384</v>
       </c>
-      <c r="P69" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q69" s="4" t="s">
+      <c r="P69" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R69" s="10">
+      <c r="Q69" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R69" s="11">
         <v>7709577438</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y69" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Z69" s="5">
+        <v>8585855895</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="70" ht="14.25">
+    <row r="70" ht="15" customHeight="1">
       <c r="A70" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>28</v>
+        <v>151</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" s="3">
         <v>123456</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F70" s="3">
         <v>123456</v>
@@ -6594,7 +6995,7 @@
         <v>600</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J70" s="9">
         <v>1</v>
@@ -6603,63 +7004,72 @@
         <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N70" t="s">
-        <v>48</v>
-      </c>
-      <c r="O70" s="4">
+        <v>34</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O70" s="10">
         <v>45384</v>
       </c>
-      <c r="P70" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q70" s="4" t="s">
+      <c r="P70" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R70" s="10">
+      <c r="Q70" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R70" s="11">
         <v>6375266109</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y70" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Z70" s="5">
+        <v>9595952595</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="71" ht="14.25">
+    <row r="71" ht="15" customHeight="1">
       <c r="A71" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>28</v>
+        <v>152</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D71" s="3">
         <v>123456</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F71" s="3">
         <v>123456</v>
@@ -6671,7 +7081,7 @@
         <v>600</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J71" s="9">
         <v>1</v>
@@ -6680,63 +7090,72 @@
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N71" t="s">
-        <v>48</v>
-      </c>
-      <c r="O71" s="4">
+        <v>34</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O71" s="10">
         <v>45384</v>
       </c>
-      <c r="P71" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q71" s="4" t="s">
+      <c r="P71" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R71" s="10">
-        <v>7709577438</v>
+      <c r="Q71" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R71" s="11">
+        <v>6375266109</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y71" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Z71" s="5">
+        <v>9595952595</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>28</v>
+        <v>153</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D72" s="3">
         <v>123456</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F72" s="3">
         <v>123456</v>
@@ -6748,7 +7167,7 @@
         <v>600</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J72" s="9">
         <v>1</v>
@@ -6757,63 +7176,72 @@
         <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N72" t="s">
-        <v>48</v>
-      </c>
-      <c r="O72" s="4">
+        <v>72</v>
+      </c>
+      <c r="O72" s="10">
         <v>45384</v>
       </c>
-      <c r="P72" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q72" s="4" t="s">
+      <c r="P72" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R72" s="10">
+      <c r="Q72" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R72" s="11">
         <v>7709577438</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y72" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Z72" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>28</v>
+        <v>154</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" s="3">
         <v>123456</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F73" s="3">
         <v>123456</v>
@@ -6825,7 +7253,7 @@
         <v>600</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J73" s="9">
         <v>1</v>
@@ -6834,147 +7262,576 @@
         <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N73" t="s">
-        <v>48</v>
-      </c>
-      <c r="O73" s="4">
+        <v>72</v>
+      </c>
+      <c r="O73" s="10">
         <v>45384</v>
       </c>
-      <c r="P73" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q73" s="4" t="s">
+      <c r="P73" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R73" s="10">
+      <c r="Q73" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R73" s="11">
         <v>7709577438</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y73" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Z73" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="I74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="10"/>
+        <v>155</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G74">
+        <v>1000</v>
+      </c>
+      <c r="H74">
+        <v>600</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="9">
+        <v>1</v>
+      </c>
+      <c r="K74" s="9">
+        <v>1</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N74" t="s">
+        <v>72</v>
+      </c>
+      <c r="O74" s="10">
+        <v>45384</v>
+      </c>
+      <c r="P74" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q74" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R74" s="11">
+        <v>7709577438</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U74" t="s">
+        <v>33</v>
+      </c>
+      <c r="V74" t="s">
+        <v>37</v>
+      </c>
+      <c r="W74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X74" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z74" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA74">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
-        <v>145</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="I75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="10"/>
+        <v>156</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G75">
+        <v>1000</v>
+      </c>
+      <c r="H75">
+        <v>600</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="9">
+        <v>1</v>
+      </c>
+      <c r="K75" s="9">
+        <v>1</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O75" s="10">
+        <v>45384</v>
+      </c>
+      <c r="P75" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q75" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R75" s="11">
+        <v>7709577438</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U75" t="s">
+        <v>33</v>
+      </c>
+      <c r="V75" t="s">
+        <v>37</v>
+      </c>
+      <c r="W75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X75" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z75" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA75">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="76" ht="14.25">
       <c r="A76" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="I76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="10"/>
+        <v>157</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E76" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G76">
+        <v>1000</v>
+      </c>
+      <c r="H76">
+        <v>600</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="9">
+        <v>1</v>
+      </c>
+      <c r="K76" s="9">
+        <v>1</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N76" t="s">
+        <v>72</v>
+      </c>
+      <c r="O76" s="10">
+        <v>45384</v>
+      </c>
+      <c r="P76" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R76" s="11">
+        <v>7709577438</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U76" t="s">
+        <v>33</v>
+      </c>
+      <c r="V76" t="s">
+        <v>37</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X76" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z76" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA76">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77" t="s">
-        <v>147</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="I77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G77">
+        <v>1000</v>
+      </c>
+      <c r="H77">
+        <v>600</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="9">
+        <v>1</v>
+      </c>
+      <c r="K77" s="9">
+        <v>1</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N77" t="s">
+        <v>72</v>
+      </c>
+      <c r="O77" s="10">
+        <v>45384</v>
+      </c>
+      <c r="P77" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q77" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R77" s="11">
+        <v>7709577438</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U77" t="s">
+        <v>33</v>
+      </c>
+      <c r="V77" t="s">
+        <v>37</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X77" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z77" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA77">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
-        <v>148</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="I78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="10"/>
+        <v>159</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G78">
+        <v>1000</v>
+      </c>
+      <c r="H78">
+        <v>600</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="9">
+        <v>1</v>
+      </c>
+      <c r="K78" s="9">
+        <v>1</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N78" t="s">
+        <v>72</v>
+      </c>
+      <c r="O78" s="10">
+        <v>45384</v>
+      </c>
+      <c r="P78" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R78" s="11">
+        <v>7709577438</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U78" t="s">
+        <v>33</v>
+      </c>
+      <c r="V78" t="s">
+        <v>37</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X78" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z78" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA78">
+        <v>1</v>
+      </c>
+      <c r="AB78" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="I79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="10"/>
+        <v>160</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G79">
+        <v>1000</v>
+      </c>
+      <c r="H79">
+        <v>600</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="9">
+        <v>1</v>
+      </c>
+      <c r="K79" s="9">
+        <v>1</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N79" t="s">
+        <v>72</v>
+      </c>
+      <c r="O79" s="10">
+        <v>45384</v>
+      </c>
+      <c r="P79" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q79" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R79" s="11">
+        <v>7709577438</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U79" t="s">
+        <v>33</v>
+      </c>
+      <c r="V79" t="s">
+        <v>37</v>
+      </c>
+      <c r="W79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X79" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z79" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA79">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6983,14 +7840,52 @@
       <c r="I80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="10"/>
+      <c r="O80" s="10">
+        <v>45384</v>
+      </c>
+      <c r="P80" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q80" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R80" s="11">
+        <v>7709577438</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U80" t="s">
+        <v>33</v>
+      </c>
+      <c r="V80" t="s">
+        <v>37</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X80" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z80" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA80">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6999,14 +7894,52 @@
       <c r="I81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="10"/>
+      <c r="O81" s="10">
+        <v>45384</v>
+      </c>
+      <c r="P81" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q81" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R81" s="11">
+        <v>7709577438</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U81" t="s">
+        <v>33</v>
+      </c>
+      <c r="V81" t="s">
+        <v>37</v>
+      </c>
+      <c r="W81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X81" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z81" s="8">
+        <v>9149212438</v>
+      </c>
+      <c r="AA81">
+        <v>1</v>
+      </c>
+      <c r="AB81" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -7015,14 +7948,14 @@
       <c r="I82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="11"/>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -7031,79 +7964,79 @@
       <c r="I83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="11"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -7113,7 +8046,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -7123,7 +8056,7 @@
     </row>
     <row r="99" ht="33" customHeight="1">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -7133,7 +8066,7 @@
     </row>
     <row r="100" ht="34.8" customHeight="1">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\Web_POS\Exchange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrunal\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\Web_POS\Exchange\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1082,8 +1082,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A52">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="H52">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="160">
   <si>
     <t xml:space="preserve">TC_Id</t>
   </si>
@@ -316,94 +316,79 @@
     <t xml:space="preserve">E_49</t>
   </si>
   <si>
+    <t xml:space="preserve">somesh wankhade</t>
+  </si>
+  <si>
     <t xml:space="preserve">E_50</t>
   </si>
   <si>
-    <t xml:space="preserve">Null</t>
+    <t xml:space="preserve">E_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIi911197240001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash : 149, paytm : 149, on-account : 252</t>
   </si>
   <si>
     <t xml:space="preserve">8906118410781: 4</t>
   </si>
   <si>
-    <t xml:space="preserve">list : Assortment_Item</t>
+    <t xml:space="preserve">E_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash : 275, paytm : 275, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paytm : 200, card : 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QBSB-Any Qty-get pool-spf-Rupees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash : 200, card : 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8906118412761 : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash : 100, paytm : 100, voucher : 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Bill_Level</t>
   </si>
   <si>
     <t xml:space="preserve">Amount : 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cash : 100, paytm : 100, voucher : 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on-account : 550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cash : 100, on-account : 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Specificqty-Flat-rupees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cash : 298 , on-account : 252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paytm : 298, on-account : 252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on-account : 252 , card: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cash : 149, paytm : 149, on-account : 252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cash : 275, paytm : 275, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paytm : 200, card : 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Any Qty-get pool-spf-Rupees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cash : 200, card : 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118412761 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list : Bill_Level</t>
   </si>
   <si>
     <t xml:space="preserve">E_62</t>
@@ -804,8 +789,8 @@
   </sheetPr>
   <dimension ref="A1:AMF92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA50" activeCellId="0" sqref="AA50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S31" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y53" activeCellId="0" sqref="Y53:Z53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -817,11 +802,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="31.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="41.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="28.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="1" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="21" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.54"/>
@@ -4594,6 +4579,15 @@
       <c r="X48" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="Y48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -4668,6 +4662,15 @@
       <c r="X49" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="Y49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -4745,8 +4748,8 @@
       <c r="Y50" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z50" s="3" t="s">
-        <v>89</v>
+      <c r="Z50" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="AA50" s="0" t="n">
         <v>1</v>
@@ -4754,24 +4757,24 @@
     </row>
     <row r="51" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G51" s="1" t="n">
+      <c r="F51" s="0" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G51" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="H51" s="0" t="n">
@@ -4780,40 +4783,40 @@
       <c r="I51" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J51" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>99</v>
+      <c r="J51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="O51" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="P51" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q51" s="4" t="s">
+      <c r="Q51" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="U51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U51" s="0" t="s">
         <v>33</v>
       </c>
       <c r="V51" s="0" t="s">
@@ -4822,24 +4825,36 @@
       <c r="W51" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="X51" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z51" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="G52" s="0" t="n">
@@ -4851,32 +4866,32 @@
       <c r="I52" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" s="10" t="n">
-        <v>1</v>
+      <c r="J52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="O52" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="P52" s="4" t="s">
+      <c r="P52" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q52" s="4" t="s">
+      <c r="Q52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R52" s="11" t="n">
-        <v>7709577438</v>
+      <c r="R52" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>33</v>
@@ -4884,7 +4899,7 @@
       <c r="T52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U52" s="1" t="s">
+      <c r="U52" s="0" t="s">
         <v>33</v>
       </c>
       <c r="V52" s="0" t="s">
@@ -4893,24 +4908,36 @@
       <c r="W52" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="X52" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z52" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA52" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="G53" s="0" t="n">
@@ -4922,32 +4949,32 @@
       <c r="I53" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J53" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" s="10" t="n">
-        <v>1</v>
+      <c r="J53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="O53" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="P53" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="Q53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R53" s="11" t="n">
-        <v>7709577438</v>
+      <c r="R53" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>33</v>
@@ -4955,7 +4982,7 @@
       <c r="T53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U53" s="1" t="s">
+      <c r="U53" s="0" t="s">
         <v>33</v>
       </c>
       <c r="V53" s="0" t="s">
@@ -4964,24 +4991,36 @@
       <c r="W53" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="X53" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z53" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="6" t="n">
+      <c r="D54" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="6" t="n">
+      <c r="F54" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="G54" s="0" t="n">
@@ -4990,22 +5029,22 @@
       <c r="H54" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K54" s="8" t="n">
-        <v>1</v>
+      <c r="J54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N54" s="8" t="s">
+      <c r="N54" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O54" s="4" t="n">
@@ -5026,33 +5065,45 @@
       <c r="T54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V54" s="8" t="s">
+      <c r="U54" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V54" s="0" t="s">
         <v>37</v>
       </c>
       <c r="W54" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="X54" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA54" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="6" t="n">
+      <c r="F55" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="G55" s="0" t="n">
@@ -5061,22 +5112,22 @@
       <c r="H55" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J55" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K55" s="8" t="n">
-        <v>1</v>
+      <c r="J55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N55" s="8" t="s">
+      <c r="N55" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O55" s="4" t="n">
@@ -5097,33 +5148,36 @@
       <c r="T55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V55" s="8" t="s">
+      <c r="U55" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V55" s="0" t="s">
         <v>37</v>
       </c>
       <c r="W55" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="X55" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="2" t="n">
+      <c r="F56" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="G56" s="0" t="n">
@@ -5132,35 +5186,35 @@
       <c r="H56" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J56" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" s="10" t="n">
-        <v>1</v>
+      <c r="J56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="O56" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="P56" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q56" s="4" t="s">
+      <c r="Q56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R56" s="11" t="n">
-        <v>7709577438</v>
+      <c r="R56" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>33</v>
@@ -5168,7 +5222,7 @@
       <c r="T56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U56" s="1" t="s">
+      <c r="U56" s="0" t="s">
         <v>33</v>
       </c>
       <c r="V56" s="0" t="s">
@@ -5177,24 +5231,27 @@
       <c r="W56" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="X56" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="G57" s="0" t="n">
@@ -5203,35 +5260,35 @@
       <c r="H57" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J57" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" s="10" t="n">
-        <v>1</v>
+      <c r="J57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="O57" s="4" t="n">
         <v>45384</v>
       </c>
-      <c r="P57" s="4" t="s">
+      <c r="P57" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q57" s="4" t="s">
+      <c r="Q57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R57" s="11" t="n">
-        <v>7709577438</v>
+      <c r="R57" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>33</v>
@@ -5239,7 +5296,7 @@
       <c r="T57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U57" s="1" t="s">
+      <c r="U57" s="0" t="s">
         <v>33</v>
       </c>
       <c r="V57" s="0" t="s">
@@ -5248,10 +5305,13 @@
       <c r="W57" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="X57" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>29</v>
@@ -5284,13 +5344,13 @@
         <v>1</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O58" s="4" t="n">
         <v>45384</v>
@@ -5322,7 +5382,7 @@
     </row>
     <row r="59" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>29</v>
@@ -5355,13 +5415,13 @@
         <v>1</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O59" s="4" t="n">
         <v>45384</v>
@@ -5393,7 +5453,7 @@
     </row>
     <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>29</v>
@@ -5426,13 +5486,13 @@
         <v>1</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O60" s="4" t="n">
         <v>45384</v>
@@ -5464,7 +5524,7 @@
     </row>
     <row r="61" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>29</v>
@@ -5491,19 +5551,19 @@
         <v>32</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K61" s="8" t="n">
         <v>1</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="O61" s="13" t="n">
         <v>45384</v>
@@ -6005,7 +6065,7 @@
     </row>
     <row r="62" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>29</v>
@@ -6038,13 +6098,13 @@
         <v>1</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O62" s="4" t="n">
         <v>45384</v>
@@ -6059,10 +6119,10 @@
         <v>7709577438</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>33</v>
@@ -6076,7 +6136,7 @@
     </row>
     <row r="63" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>29</v>
@@ -6109,7 +6169,7 @@
         <v>33</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>34</v>
@@ -6147,7 +6207,7 @@
     </row>
     <row r="64" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>29</v>
@@ -6174,7 +6234,7 @@
         <v>32</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K64" s="8" t="n">
         <v>1</v>
@@ -6213,12 +6273,12 @@
         <v>37</v>
       </c>
       <c r="W64" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>29</v>
@@ -6251,7 +6311,7 @@
         <v>33</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>34</v>
@@ -6284,12 +6344,12 @@
         <v>37</v>
       </c>
       <c r="W65" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>29</v>
@@ -6322,7 +6382,7 @@
         <v>33</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>34</v>
@@ -6355,12 +6415,12 @@
         <v>37</v>
       </c>
       <c r="W66" s="0" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>29</v>
@@ -6393,13 +6453,13 @@
         <v>1</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O67" s="4" t="n">
         <v>45384</v>
@@ -6426,12 +6486,12 @@
         <v>37</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>29</v>
@@ -6464,13 +6524,13 @@
         <v>1</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O68" s="4" t="n">
         <v>45384</v>
@@ -6497,12 +6557,12 @@
         <v>37</v>
       </c>
       <c r="W68" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>29</v>
@@ -6535,13 +6595,13 @@
         <v>1</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O69" s="4" t="n">
         <v>45384</v>
@@ -6573,7 +6633,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>29</v>
@@ -6606,13 +6666,13 @@
         <v>1</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O70" s="4" t="n">
         <v>45384</v>
@@ -6644,7 +6704,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>29</v>
@@ -6677,13 +6737,13 @@
         <v>1</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O71" s="4" t="n">
         <v>45384</v>
@@ -6715,7 +6775,7 @@
     </row>
     <row r="72" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>29</v>
@@ -6748,13 +6808,13 @@
         <v>1</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O72" s="4" t="n">
         <v>45384</v>
@@ -6786,7 +6846,7 @@
     </row>
     <row r="73" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>29</v>
@@ -6819,13 +6879,13 @@
         <v>1</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O73" s="4" t="n">
         <v>45384</v>
@@ -6840,7 +6900,7 @@
         <v>7709577438</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>33</v>
@@ -6857,7 +6917,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6873,7 +6933,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6889,7 +6949,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6905,7 +6965,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6921,7 +6981,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6937,7 +6997,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6953,7 +7013,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6969,7 +7029,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6985,7 +7045,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7001,7 +7061,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7017,47 +7077,47 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -101,16 +101,19 @@
     <t>replace_qty</t>
   </si>
   <si>
+    <t>salesperson_name</t>
+  </si>
+  <si>
     <t>E_01</t>
   </si>
   <si>
-    <t>307230524mdV</t>
+    <t>307260624P3E</t>
   </si>
   <si>
     <t>zwshashank.agrawal@teampureplay.com</t>
   </si>
   <si>
-    <t>i9@gmail.com</t>
+    <t>userone_p1</t>
   </si>
   <si>
     <t>Index9QA</t>
@@ -422,7 +425,13 @@
     <t>E_62</t>
   </si>
   <si>
+    <t>Saloni Rajput</t>
+  </si>
+  <si>
     <t>E_63</t>
+  </si>
+  <si>
+    <t>Avinash Patil</t>
   </si>
   <si>
     <t>E_64</t>
@@ -1014,8 +1023,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="Q63">
-      <selection activeCell="Z67" sqref="Z67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A83">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1121,22 +1130,25 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>123456</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>123456</v>
@@ -1148,72 +1160,72 @@
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="4">
         <v>45384</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>123456</v>
@@ -1225,72 +1237,72 @@
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="4">
         <v>45384</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6">
         <v>123456</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="6">
         <v>123456</v>
@@ -1302,10 +1314,10 @@
         <v>600</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1314,60 +1326,60 @@
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="4">
         <v>45384</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6">
         <v>123456</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6">
         <v>123456</v>
@@ -1379,10 +1391,10 @@
         <v>600</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1391,60 +1403,60 @@
         <v>2</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="4">
         <v>45384</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3">
         <v>123456</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3">
         <v>123456</v>
@@ -1456,7 +1468,7 @@
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" s="9">
         <v>1</v>
@@ -1465,63 +1477,63 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="4">
         <v>45384</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" ht="34.8" customHeight="1">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3">
         <v>123456</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3">
         <v>123456</v>
@@ -1533,7 +1545,7 @@
         <v>600</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="9">
         <v>1</v>
@@ -1542,63 +1554,63 @@
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" s="4">
         <v>45384</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R7" s="10">
         <v>7709577438</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" ht="33.75" customHeight="1">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3">
         <v>123456</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3">
         <v>123456</v>
@@ -1610,7 +1622,7 @@
         <v>600</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" s="9">
         <v>1</v>
@@ -1619,63 +1631,63 @@
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O8" s="4">
         <v>45384</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R8" s="10">
         <v>7709577438</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="33.75" customHeight="1">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6">
         <v>123456</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6">
         <v>123456</v>
@@ -1687,72 +1699,72 @@
         <v>600</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O9" s="4">
         <v>45384</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="33.75" customHeight="1">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3">
         <v>123456</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="6">
         <v>123456</v>
@@ -1764,72 +1776,72 @@
         <v>600</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O10" s="4">
         <v>45384</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="33.75" customHeight="1">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3">
         <v>123456</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3">
         <v>123456</v>
@@ -1841,7 +1853,7 @@
         <v>600</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11" s="9">
         <v>1</v>
@@ -1850,63 +1862,63 @@
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O11" s="4">
         <v>45384</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R11" s="10">
         <v>7709577438</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" ht="33.75" customHeight="1">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3">
         <v>123456</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3">
         <v>123456</v>
@@ -1918,7 +1930,7 @@
         <v>600</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J12" s="9">
         <v>1</v>
@@ -1927,63 +1939,63 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O12" s="4">
         <v>45384</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R12" s="10">
         <v>7709577438</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3">
         <v>123456</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3">
         <v>123456</v>
@@ -1995,7 +2007,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J13" s="9">
         <v>1</v>
@@ -2004,63 +2016,63 @@
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O13" s="4">
         <v>45384</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R13" s="10">
         <v>7709577438</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3">
         <v>123456</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3">
         <v>123456</v>
@@ -2072,7 +2084,7 @@
         <v>600</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J14" s="9">
         <v>1</v>
@@ -2081,63 +2093,63 @@
         <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O14" s="4">
         <v>45384</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R14" s="10">
         <v>7709577438</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="11">
         <v>123456</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3">
         <v>123456</v>
@@ -2149,7 +2161,7 @@
         <v>600</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J15" s="9">
         <v>1</v>
@@ -2158,63 +2170,63 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="4">
         <v>45384</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R15" s="10">
         <v>7709577438</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="26.25" customHeight="1">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="6">
         <v>123456</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="3">
         <v>123456</v>
@@ -2226,7 +2238,7 @@
         <v>600</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J16" s="9">
         <v>1</v>
@@ -2235,63 +2247,63 @@
         <v>1</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="4">
         <v>45384</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R16" s="10">
         <v>7709577438</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3">
         <v>123456</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="3">
         <v>123456</v>
@@ -2303,7 +2315,7 @@
         <v>600</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J17" s="9">
         <v>1</v>
@@ -2312,63 +2324,63 @@
         <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="4">
         <v>45384</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R17" s="10">
         <v>7709577438</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="12">
         <v>123456</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>123456</v>
@@ -2380,7 +2392,7 @@
         <v>600</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J18" s="9">
         <v>1</v>
@@ -2389,63 +2401,63 @@
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O18" s="13">
         <v>45384</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R18" s="10">
         <v>7709577438</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="31.5" customHeight="1">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="6">
         <v>123456</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" s="6">
         <v>123456</v>
@@ -2457,10 +2469,10 @@
         <v>600</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2469,60 +2481,60 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O19" s="13">
         <v>45384</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="31.5" customHeight="1">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>123456</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20">
         <v>123456</v>
@@ -2534,72 +2546,72 @@
         <v>600</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O20" s="13">
         <v>45384</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R20" s="10">
         <v>7709577438</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="31.5" customHeight="1">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>123456</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21">
         <v>123456</v>
@@ -2611,72 +2623,72 @@
         <v>600</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O21" s="13">
         <v>45384</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R21" s="10">
         <v>7709577438</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T21" s="2">
         <v>300</v>
       </c>
       <c r="U21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="31.5" customHeight="1">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3">
         <v>123456</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" s="3">
         <v>123456</v>
@@ -2688,7 +2700,7 @@
         <v>600</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J22" s="9">
         <v>1</v>
@@ -2697,46 +2709,46 @@
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O22" s="4">
         <v>45384</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R22" s="10">
         <v>7709577438</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z22">
         <v>7719921544</v>
@@ -2747,19 +2759,19 @@
     </row>
     <row r="23" ht="31.5" customHeight="1">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3">
         <v>123456</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="3">
         <v>123456</v>
@@ -2771,7 +2783,7 @@
         <v>600</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J23" s="9">
         <v>1</v>
@@ -2780,46 +2792,46 @@
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O23" s="4">
         <v>45384</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R23" s="10">
         <v>7709577438</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z23">
         <v>7719921544</v>
@@ -2830,19 +2842,19 @@
     </row>
     <row r="24" ht="32.25" customHeight="1">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="3">
         <v>123456</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" s="3">
         <v>123456</v>
@@ -2854,7 +2866,7 @@
         <v>600</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J24" s="9">
         <v>1</v>
@@ -2863,46 +2875,46 @@
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O24" s="4">
         <v>45384</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R24" s="10">
         <v>7709577438</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z24">
         <v>7719921544</v>
@@ -2913,19 +2925,19 @@
     </row>
     <row r="25" ht="28.5" customHeight="1">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3">
         <v>123456</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F25" s="3">
         <v>123456</v>
@@ -2937,7 +2949,7 @@
         <v>600</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J25" s="9">
         <v>1</v>
@@ -2946,46 +2958,46 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O25" s="4">
         <v>45384</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R25" s="10">
         <v>6375266109</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z25">
         <v>7719921544</v>
@@ -2996,19 +3008,19 @@
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3">
         <v>123456</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" s="3">
         <v>123456</v>
@@ -3020,7 +3032,7 @@
         <v>600</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J26" s="9">
         <v>1</v>
@@ -3029,46 +3041,46 @@
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O26" s="4">
         <v>45384</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R26" s="10">
         <v>7709577438</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z26">
         <v>7719921544</v>
@@ -3079,19 +3091,19 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3">
         <v>123456</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" s="3">
         <v>123456</v>
@@ -3103,7 +3115,7 @@
         <v>600</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J27" s="9">
         <v>1</v>
@@ -3112,46 +3124,46 @@
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O27" s="4">
         <v>45384</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R27" s="10">
         <v>7709577438</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z27">
         <v>7719921544</v>
@@ -3162,19 +3174,19 @@
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3">
         <v>123456</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" s="3">
         <v>123456</v>
@@ -3186,7 +3198,7 @@
         <v>600</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J28" s="9">
         <v>1</v>
@@ -3195,46 +3207,46 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O28" s="4">
         <v>45384</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R28" s="10">
         <v>7709577438</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z28">
         <v>7719921544</v>
@@ -3245,19 +3257,19 @@
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="3">
         <v>123456</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29" s="3">
         <v>123456</v>
@@ -3269,7 +3281,7 @@
         <v>600</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J29" s="9">
         <v>1</v>
@@ -3278,46 +3290,46 @@
         <v>1</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O29" s="4">
         <v>45384</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R29" s="10">
         <v>7709577438</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z29">
         <v>7719921544</v>
@@ -3328,19 +3340,19 @@
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="3">
         <v>123456</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" s="3">
         <v>123456</v>
@@ -3352,7 +3364,7 @@
         <v>600</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J30" s="9">
         <v>1</v>
@@ -3361,46 +3373,46 @@
         <v>1</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O30" s="4">
         <v>45384</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R30" s="10">
         <v>7709577438</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z30">
         <v>7719921544</v>
@@ -3411,19 +3423,19 @@
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="3">
         <v>123456</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F31" s="3">
         <v>123456</v>
@@ -3435,7 +3447,7 @@
         <v>600</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J31" s="9">
         <v>1</v>
@@ -3444,46 +3456,46 @@
         <v>1</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O31" s="4">
         <v>45384</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R31" s="10">
         <v>7709577438</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z31">
         <v>7719921544</v>
@@ -3494,19 +3506,19 @@
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3">
         <v>123456</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" s="3">
         <v>123456</v>
@@ -3518,7 +3530,7 @@
         <v>600</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J32" s="9">
         <v>1</v>
@@ -3527,46 +3539,46 @@
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O32" s="4">
         <v>45384</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R32" s="10">
         <v>6375266109</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z32">
         <v>7719921544</v>
@@ -3577,19 +3589,19 @@
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3">
         <v>123456</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="3">
         <v>123456</v>
@@ -3601,7 +3613,7 @@
         <v>600</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J33" s="9">
         <v>1</v>
@@ -3610,46 +3622,46 @@
         <v>1</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O33" s="4">
         <v>45384</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R33" s="10">
         <v>7709577438</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z33">
         <v>7719921544</v>
@@ -3660,19 +3672,19 @@
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3">
         <v>123456</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F34" s="3">
         <v>123456</v>
@@ -3684,7 +3696,7 @@
         <v>600</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J34" s="9">
         <v>1</v>
@@ -3693,46 +3705,46 @@
         <v>1</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O34" s="4">
         <v>45384</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R34" s="10">
         <v>7709577438</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z34">
         <v>7719921544</v>
@@ -3743,19 +3755,19 @@
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" s="3">
         <v>123456</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" s="3">
         <v>123456</v>
@@ -3767,7 +3779,7 @@
         <v>600</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J35" s="9">
         <v>1</v>
@@ -3776,46 +3788,46 @@
         <v>1</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O35" s="4">
         <v>45384</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R35" s="10">
         <v>7709577438</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z35">
         <v>7719921544</v>
@@ -3826,19 +3838,19 @@
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" s="3">
         <v>123456</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F36" s="3">
         <v>123456</v>
@@ -3850,7 +3862,7 @@
         <v>600</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J36" s="9">
         <v>1</v>
@@ -3859,46 +3871,46 @@
         <v>1</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O36" s="4">
         <v>45384</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R36" s="10">
         <v>7709577438</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z36">
         <v>7719921544</v>
@@ -3909,19 +3921,19 @@
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" s="3">
         <v>123456</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F37" s="3">
         <v>123456</v>
@@ -3933,7 +3945,7 @@
         <v>600</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J37" s="9">
         <v>1</v>
@@ -3942,46 +3954,46 @@
         <v>1</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O37" s="4">
         <v>45384</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R37" s="10">
         <v>7709577438</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z37">
         <v>7719921544</v>
@@ -3992,19 +4004,19 @@
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" s="3">
         <v>123456</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F38" s="3">
         <v>123456</v>
@@ -4016,7 +4028,7 @@
         <v>600</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J38" s="9">
         <v>1</v>
@@ -4025,46 +4037,46 @@
         <v>1</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O38" s="4">
         <v>45384</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R38" s="10">
         <v>6375266109</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z38">
         <v>7719921544</v>
@@ -4075,19 +4087,19 @@
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" s="3">
         <v>123456</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F39" s="3">
         <v>123456</v>
@@ -4099,7 +4111,7 @@
         <v>600</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J39" s="9">
         <v>1</v>
@@ -4108,46 +4120,46 @@
         <v>1</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O39" s="4">
         <v>45384</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R39" s="10">
         <v>7709577438</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z39">
         <v>7719921544</v>
@@ -4158,19 +4170,19 @@
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" s="3">
         <v>123456</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F40" s="3">
         <v>123456</v>
@@ -4182,7 +4194,7 @@
         <v>600</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J40" s="9">
         <v>1</v>
@@ -4191,46 +4203,46 @@
         <v>1</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O40" s="4">
         <v>45384</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R40" s="10">
         <v>7709577438</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z40">
         <v>7719921544</v>
@@ -4241,19 +4253,19 @@
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" s="3">
         <v>123456</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F41" s="3">
         <v>123456</v>
@@ -4265,7 +4277,7 @@
         <v>600</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J41" s="9">
         <v>1</v>
@@ -4274,46 +4286,46 @@
         <v>1</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O41" s="4">
         <v>45384</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R41" s="10">
         <v>7709577438</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z41">
         <v>7719921544</v>
@@ -4324,19 +4336,19 @@
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" s="3">
         <v>123456</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F42" s="3">
         <v>123456</v>
@@ -4348,7 +4360,7 @@
         <v>600</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J42" s="9">
         <v>1</v>
@@ -4357,46 +4369,46 @@
         <v>1</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O42" s="4">
         <v>45384</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R42" s="10">
         <v>7709577438</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z42">
         <v>7719921544</v>
@@ -4407,19 +4419,19 @@
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" s="3">
         <v>123456</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" s="3">
         <v>123456</v>
@@ -4431,7 +4443,7 @@
         <v>600</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J43" s="9">
         <v>1</v>
@@ -4440,46 +4452,46 @@
         <v>1</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O43" s="4">
         <v>45384</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R43" s="10">
         <v>7709577438</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z43">
         <v>7719921544</v>
@@ -4490,19 +4502,19 @@
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="3">
         <v>123456</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F44" s="3">
         <v>123456</v>
@@ -4514,7 +4526,7 @@
         <v>600</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J44" s="9">
         <v>1</v>
@@ -4523,46 +4535,46 @@
         <v>1</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O44" s="4">
         <v>45384</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R44" s="10">
         <v>6375266109</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z44">
         <v>7719921544</v>
@@ -4573,19 +4585,19 @@
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" s="3">
         <v>123456</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F45" s="3">
         <v>123456</v>
@@ -4597,7 +4609,7 @@
         <v>600</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J45" s="9">
         <v>1</v>
@@ -4606,46 +4618,46 @@
         <v>1</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O45" s="4">
         <v>45384</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R45" s="10">
         <v>7709577438</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z45">
         <v>7719921544</v>
@@ -4656,19 +4668,19 @@
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" s="3">
         <v>123456</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F46" s="3">
         <v>123456</v>
@@ -4680,7 +4692,7 @@
         <v>600</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J46" s="9">
         <v>1</v>
@@ -4689,46 +4701,46 @@
         <v>1</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O46" s="4">
         <v>45384</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R46" s="10">
         <v>7709577438</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z46">
         <v>7719921544</v>
@@ -4739,19 +4751,19 @@
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47">
         <v>123456</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F47">
         <v>123456</v>
@@ -4763,55 +4775,55 @@
         <v>600</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O47" s="4">
         <v>45384</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z47">
         <v>7719921544</v>
@@ -4822,19 +4834,19 @@
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48">
         <v>123456</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F48">
         <v>123456</v>
@@ -4846,72 +4858,72 @@
         <v>600</v>
       </c>
       <c r="I48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O48" s="4">
         <v>45384</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" ht="28.5">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" s="6">
         <v>123456</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F49" s="6">
         <v>123456</v>
@@ -4923,10 +4935,10 @@
         <v>600</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -4935,60 +4947,60 @@
         <v>2</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O49" s="4">
         <v>45384</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" ht="28.5">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" s="6">
         <v>123456</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F50" s="6">
         <v>123456</v>
@@ -5000,10 +5012,10 @@
         <v>600</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -5012,60 +5024,60 @@
         <v>2</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O50" s="4">
         <v>45384</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" s="3">
         <v>123456</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F51" s="3">
         <v>123456</v>
@@ -5077,7 +5089,7 @@
         <v>600</v>
       </c>
       <c r="I51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J51" s="9">
         <v>1</v>
@@ -5086,63 +5098,63 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O51" s="4">
         <v>45384</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" s="3">
         <v>123456</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F52" s="3">
         <v>123456</v>
@@ -5154,7 +5166,7 @@
         <v>600</v>
       </c>
       <c r="I52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J52" s="9">
         <v>1</v>
@@ -5163,63 +5175,63 @@
         <v>1</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O52" s="4">
         <v>45384</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R52" s="10">
         <v>7709577438</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" s="3">
         <v>123456</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F53" s="3">
         <v>123456</v>
@@ -5231,7 +5243,7 @@
         <v>600</v>
       </c>
       <c r="I53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J53" s="9">
         <v>1</v>
@@ -5240,63 +5252,63 @@
         <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O53" s="4">
         <v>45384</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R53" s="10">
         <v>7709577438</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="28.5">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" s="6">
         <v>123456</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F54" s="6">
         <v>123456</v>
@@ -5308,72 +5320,72 @@
         <v>600</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O54" s="4">
         <v>45384</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" s="3">
         <v>123456</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F55" s="6">
         <v>123456</v>
@@ -5385,72 +5397,72 @@
         <v>600</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O55" s="4">
         <v>45384</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" s="3">
         <v>123456</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" s="3">
         <v>123456</v>
@@ -5462,7 +5474,7 @@
         <v>600</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J56" s="9">
         <v>1</v>
@@ -5471,63 +5483,63 @@
         <v>1</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O56" s="4">
         <v>45384</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R56" s="10">
         <v>7709577438</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" s="3">
         <v>123456</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" s="3">
         <v>123456</v>
@@ -5539,7 +5551,7 @@
         <v>600</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J57" s="9">
         <v>1</v>
@@ -5548,63 +5560,63 @@
         <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O57" s="4">
         <v>45384</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R57" s="10">
         <v>7709577438</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" s="3">
         <v>123456</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F58" s="3">
         <v>123456</v>
@@ -5616,7 +5628,7 @@
         <v>600</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J58" s="9">
         <v>1</v>
@@ -5625,49 +5637,49 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O58" s="4">
         <v>45384</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R58" s="10">
         <v>7709577438</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA58">
         <v>1</v>
@@ -5675,19 +5687,19 @@
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" s="3">
         <v>123456</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F59" s="3">
         <v>123456</v>
@@ -5699,7 +5711,7 @@
         <v>600</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J59" s="9">
         <v>1</v>
@@ -5708,63 +5720,63 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O59" s="4">
         <v>45384</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R59" s="10">
         <v>7709577438</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11">
         <v>123456</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F60" s="3">
         <v>123456</v>
@@ -5776,7 +5788,7 @@
         <v>600</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J60" s="9">
         <v>1</v>
@@ -5785,49 +5797,49 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O60" s="4">
         <v>45384</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R60" s="10">
         <v>7709577438</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA60">
         <v>1</v>
@@ -5835,19 +5847,19 @@
     </row>
     <row r="61" ht="14.25">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" s="6">
         <v>123456</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F61" s="3">
         <v>123456</v>
@@ -5859,7 +5871,7 @@
         <v>600</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J61" s="9">
         <v>1</v>
@@ -5868,46 +5880,46 @@
         <v>1</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O61" s="4">
         <v>45384</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R61" s="10">
         <v>7709577438</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z61">
         <v>7719921544</v>
@@ -5918,19 +5930,19 @@
     </row>
     <row r="62" ht="14.25">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" s="3">
         <v>123456</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F62" s="3">
         <v>123456</v>
@@ -5942,7 +5954,7 @@
         <v>600</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J62" s="9">
         <v>1</v>
@@ -5951,46 +5963,46 @@
         <v>1</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O62" s="4">
         <v>45384</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R62" s="10">
         <v>7709577438</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z62">
         <v>7719921544</v>
@@ -6001,19 +6013,19 @@
     </row>
     <row r="63" ht="14.25">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" s="12">
         <v>123456</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F63">
         <v>123456</v>
@@ -6025,7 +6037,7 @@
         <v>600</v>
       </c>
       <c r="I63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J63" s="9">
         <v>1</v>
@@ -6034,69 +6046,72 @@
         <v>1</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O63" s="13">
         <v>45384</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R63" s="10">
         <v>7709577438</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z63">
         <v>7719921544</v>
       </c>
       <c r="AA63">
         <v>1</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" s="6">
         <v>123456</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F64" s="6">
         <v>123456</v>
@@ -6108,10 +6123,10 @@
         <v>600</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
@@ -6120,46 +6135,46 @@
         <v>1</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O64" s="13">
         <v>45384</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y64" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z64">
-        <v>7719921544</v>
+        <v>126</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>137</v>
       </c>
       <c r="AA64">
         <v>1</v>
@@ -6167,19 +6182,19 @@
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65">
         <v>123456</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F65">
         <v>123456</v>
@@ -6191,58 +6206,58 @@
         <v>600</v>
       </c>
       <c r="I65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O65" s="13">
         <v>45384</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R65" s="10">
         <v>7709577438</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y65" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z65">
-        <v>7719921544</v>
+        <v>126</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>137</v>
       </c>
       <c r="AA65">
         <v>1</v>
@@ -6250,19 +6265,19 @@
     </row>
     <row r="66" ht="14.25">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66">
         <v>123456</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F66">
         <v>123456</v>
@@ -6274,58 +6289,58 @@
         <v>600</v>
       </c>
       <c r="I66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O66" s="13">
         <v>45384</v>
       </c>
       <c r="P66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R66" s="10">
         <v>7709577438</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T66" s="2">
         <v>300</v>
       </c>
       <c r="U66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y66" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z66">
-        <v>7719921544</v>
+        <v>126</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>137</v>
       </c>
       <c r="AA66">
         <v>1</v>
@@ -6333,19 +6348,19 @@
     </row>
     <row r="67" ht="14.25">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" s="3">
         <v>123456</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F67" s="3">
         <v>123456</v>
@@ -6357,7 +6372,7 @@
         <v>600</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J67" s="9">
         <v>1</v>
@@ -6366,49 +6381,49 @@
         <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O67" s="4">
         <v>45384</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R67" s="10">
         <v>7709577438</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y67" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z67">
-        <v>7719921544</v>
+        <v>126</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>137</v>
       </c>
       <c r="AA67">
         <v>1</v>
@@ -6416,19 +6431,19 @@
     </row>
     <row r="68" ht="14.25">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" s="3">
         <v>123456</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F68" s="3">
         <v>123456</v>
@@ -6440,7 +6455,7 @@
         <v>600</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J68" s="9">
         <v>1</v>
@@ -6449,63 +6464,72 @@
         <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O68" s="4">
         <v>45384</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R68" s="10">
         <v>7709577438</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y68" t="s">
-        <v>38</v>
+        <v>126</v>
+      </c>
+      <c r="Z68">
+        <v>7719921544</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" s="3">
         <v>123456</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F69" s="3">
         <v>123456</v>
@@ -6517,7 +6541,7 @@
         <v>600</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J69" s="9">
         <v>1</v>
@@ -6526,63 +6550,69 @@
         <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O69" s="4">
         <v>45384</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R69" s="10">
         <v>7709577438</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y69" t="s">
-        <v>38</v>
+        <v>126</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" s="3">
         <v>123456</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F70" s="3">
         <v>123456</v>
@@ -6594,7 +6624,7 @@
         <v>600</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J70" s="9">
         <v>1</v>
@@ -6603,63 +6633,69 @@
         <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O70" s="4">
         <v>45384</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R70" s="10">
         <v>6375266109</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y70" t="s">
-        <v>38</v>
+        <v>126</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D71" s="3">
         <v>123456</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F71" s="3">
         <v>123456</v>
@@ -6671,7 +6707,7 @@
         <v>600</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J71" s="9">
         <v>1</v>
@@ -6680,63 +6716,69 @@
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O71" s="4">
         <v>45384</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R71" s="10">
         <v>7709577438</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y71" t="s">
-        <v>38</v>
+        <v>126</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D72" s="3">
         <v>123456</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F72" s="3">
         <v>123456</v>
@@ -6748,7 +6790,7 @@
         <v>600</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J72" s="9">
         <v>1</v>
@@ -6757,63 +6799,69 @@
         <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O72" s="4">
         <v>45384</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R72" s="10">
         <v>7709577438</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y72" t="s">
-        <v>38</v>
+        <v>126</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D73" s="3">
         <v>123456</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F73" s="3">
         <v>123456</v>
@@ -6825,7 +6873,7 @@
         <v>600</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J73" s="9">
         <v>1</v>
@@ -6834,55 +6882,70 @@
         <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O73" s="4">
         <v>45384</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R73" s="10">
         <v>7709577438</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y73" t="s">
-        <v>38</v>
+        <v>126</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E74" t="s">
+        <v>31</v>
+      </c>
       <c r="F74" s="3"/>
       <c r="I74" s="2"/>
       <c r="L74" s="2"/>
@@ -6894,11 +6957,20 @@
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
-        <v>145</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E75" t="s">
+        <v>31</v>
+      </c>
       <c r="F75" s="3"/>
       <c r="I75" s="2"/>
       <c r="L75" s="2"/>
@@ -6910,11 +6982,20 @@
     </row>
     <row r="76" ht="14.25">
       <c r="A76" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E76" t="s">
+        <v>31</v>
+      </c>
       <c r="F76" s="3"/>
       <c r="I76" s="2"/>
       <c r="L76" s="2"/>
@@ -6926,11 +7007,20 @@
     </row>
     <row r="77" ht="14.25">
       <c r="A77" t="s">
-        <v>147</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E77" t="s">
+        <v>31</v>
+      </c>
       <c r="F77" s="3"/>
       <c r="I77" s="2"/>
       <c r="L77" s="2"/>
@@ -6942,11 +7032,20 @@
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
-        <v>148</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E78" t="s">
+        <v>31</v>
+      </c>
       <c r="F78" s="3"/>
       <c r="I78" s="2"/>
       <c r="L78" s="2"/>
@@ -6958,11 +7057,20 @@
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E79" t="s">
+        <v>31</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="I79" s="2"/>
       <c r="L79" s="2"/>
@@ -6974,11 +7082,20 @@
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>150</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E80" t="s">
+        <v>31</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="I80" s="2"/>
       <c r="L80" s="2"/>
@@ -6990,11 +7107,20 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>151</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E81" t="s">
+        <v>31</v>
+      </c>
       <c r="F81" s="3"/>
       <c r="I81" s="2"/>
       <c r="L81" s="2"/>
@@ -7006,11 +7132,20 @@
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E82" t="s">
+        <v>31</v>
+      </c>
       <c r="F82" s="3"/>
       <c r="I82" s="2"/>
       <c r="L82" s="2"/>
@@ -7022,11 +7157,20 @@
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
-        <v>153</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E83" t="s">
+        <v>31</v>
+      </c>
       <c r="F83" s="3"/>
       <c r="I83" s="2"/>
       <c r="L83" s="2"/>
@@ -7036,74 +7180,242 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="10"/>
     </row>
-    <row r="84">
+    <row r="84" ht="14.25">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E84" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="14.25">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E85" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="14.25">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>159</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E86" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" ht="14.25">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E87" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="14.25">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E88" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="14.25">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E89" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="14.25">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>163</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E90" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="14.25">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E91" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="14.25">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E92" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="14.25">
       <c r="A93" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E93" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="14.25">
       <c r="A94" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E94" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="14.25">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E95" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="14.25">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E96" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E97" t="s">
+        <v>31</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -7113,7 +7425,19 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>171</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E98" t="s">
+        <v>31</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -7123,7 +7447,19 @@
     </row>
     <row r="99" ht="33" customHeight="1">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E99" t="s">
+        <v>31</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -7133,7 +7469,19 @@
     </row>
     <row r="100" ht="34.8" customHeight="1">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E100" t="s">
+        <v>31</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="158">
   <si>
     <t xml:space="preserve">TC_Id</t>
   </si>
@@ -323,12 +323,6 @@
   </si>
   <si>
     <t xml:space="preserve">E_51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIi911197240001</t>
   </si>
   <si>
     <t xml:space="preserve">E_52</t>
@@ -790,7 +784,7 @@
   <dimension ref="A1:AMF92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S31" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y53" activeCellId="0" sqref="Y53:Z53"/>
+      <selection pane="topLeft" activeCell="W39" activeCellId="1" sqref="Y52:Z52 W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4912,10 +4906,10 @@
         <v>38</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z52" s="0" t="s">
-        <v>102</v>
+        <v>46</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="AA52" s="0" t="n">
         <v>1</v>
@@ -4923,7 +4917,7 @@
     </row>
     <row r="53" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>29</v>
@@ -4994,19 +4988,19 @@
       <c r="X53" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="Y53" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z53" s="0" t="s">
-        <v>102</v>
+      <c r="Y53" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z53" s="0" t="n">
+        <v>8765234234</v>
       </c>
       <c r="AA53" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>29</v>
@@ -5084,12 +5078,12 @@
         <v>84</v>
       </c>
       <c r="AA54" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>29</v>
@@ -5163,7 +5157,7 @@
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>29</v>
@@ -5237,7 +5231,7 @@
     </row>
     <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>29</v>
@@ -5311,7 +5305,7 @@
     </row>
     <row r="58" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>29</v>
@@ -5344,13 +5338,13 @@
         <v>1</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O58" s="4" t="n">
         <v>45384</v>
@@ -5382,7 +5376,7 @@
     </row>
     <row r="59" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>29</v>
@@ -5415,13 +5409,13 @@
         <v>1</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O59" s="4" t="n">
         <v>45384</v>
@@ -5453,7 +5447,7 @@
     </row>
     <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>29</v>
@@ -5486,13 +5480,13 @@
         <v>1</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O60" s="4" t="n">
         <v>45384</v>
@@ -5524,7 +5518,7 @@
     </row>
     <row r="61" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>29</v>
@@ -5551,19 +5545,19 @@
         <v>32</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K61" s="8" t="n">
         <v>1</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O61" s="13" t="n">
         <v>45384</v>
@@ -6065,7 +6059,7 @@
     </row>
     <row r="62" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>29</v>
@@ -6098,13 +6092,13 @@
         <v>1</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O62" s="4" t="n">
         <v>45384</v>
@@ -6119,10 +6113,10 @@
         <v>7709577438</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>33</v>
@@ -6136,7 +6130,7 @@
     </row>
     <row r="63" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>29</v>
@@ -6169,7 +6163,7 @@
         <v>33</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>34</v>
@@ -6207,7 +6201,7 @@
     </row>
     <row r="64" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>29</v>
@@ -6234,7 +6228,7 @@
         <v>32</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K64" s="8" t="n">
         <v>1</v>
@@ -6273,12 +6267,12 @@
         <v>37</v>
       </c>
       <c r="W64" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>29</v>
@@ -6311,7 +6305,7 @@
         <v>33</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>34</v>
@@ -6344,12 +6338,12 @@
         <v>37</v>
       </c>
       <c r="W65" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>29</v>
@@ -6382,7 +6376,7 @@
         <v>33</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>34</v>
@@ -6415,12 +6409,12 @@
         <v>37</v>
       </c>
       <c r="W66" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>29</v>
@@ -6453,13 +6447,13 @@
         <v>1</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O67" s="4" t="n">
         <v>45384</v>
@@ -6486,12 +6480,12 @@
         <v>37</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>29</v>
@@ -6524,13 +6518,13 @@
         <v>1</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O68" s="4" t="n">
         <v>45384</v>
@@ -6557,12 +6551,12 @@
         <v>37</v>
       </c>
       <c r="W68" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>29</v>
@@ -6595,13 +6589,13 @@
         <v>1</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O69" s="4" t="n">
         <v>45384</v>
@@ -6633,7 +6627,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>29</v>
@@ -6666,13 +6660,13 @@
         <v>1</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O70" s="4" t="n">
         <v>45384</v>
@@ -6704,7 +6698,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>29</v>
@@ -6737,13 +6731,13 @@
         <v>1</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O71" s="4" t="n">
         <v>45384</v>
@@ -6775,7 +6769,7 @@
     </row>
     <row r="72" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>29</v>
@@ -6808,13 +6802,13 @@
         <v>1</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O72" s="4" t="n">
         <v>45384</v>
@@ -6846,7 +6840,7 @@
     </row>
     <row r="73" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>29</v>
@@ -6879,13 +6873,13 @@
         <v>1</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O73" s="4" t="n">
         <v>45384</v>
@@ -6900,7 +6894,7 @@
         <v>7709577438</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>33</v>
@@ -6917,7 +6911,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6933,7 +6927,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6949,7 +6943,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6965,7 +6959,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6981,7 +6975,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6997,7 +6991,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -7013,7 +7007,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -7029,7 +7023,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7045,7 +7039,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7061,7 +7055,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7077,47 +7071,47 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrunal\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\Web_POS\Exchange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\Web_POS\Exchange\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1082,8 +1082,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="H52">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A55">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2213,10 +2213,10 @@
         <v>38</v>
       </c>
       <c r="Y13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>9595952595</v>
       </c>
       <c r="AA13" s="8" t="s">
         <v>33</v>
@@ -2301,8 +2301,8 @@
       <c r="Y14" t="s">
         <v>49</v>
       </c>
-      <c r="Z14" s="8">
-        <v>9149212438</v>
+      <c r="Z14" s="5">
+        <v>9595952595</v>
       </c>
       <c r="AA14" s="8" t="s">
         <v>33</v>
@@ -2387,8 +2387,8 @@
       <c r="Y15" t="s">
         <v>49</v>
       </c>
-      <c r="Z15" s="8">
-        <v>9149212438</v>
+      <c r="Z15" s="5">
+        <v>9595952595</v>
       </c>
       <c r="AA15">
         <v>1</v>
@@ -2473,8 +2473,8 @@
       <c r="Y16" t="s">
         <v>49</v>
       </c>
-      <c r="Z16" s="8">
-        <v>9149212438</v>
+      <c r="Z16" s="5">
+        <v>9595952595</v>
       </c>
       <c r="AA16">
         <v>1</v>
@@ -2559,8 +2559,8 @@
       <c r="Y17" t="s">
         <v>49</v>
       </c>
-      <c r="Z17" s="8">
-        <v>9149212438</v>
+      <c r="Z17" s="5">
+        <v>7709577438</v>
       </c>
       <c r="AA17" s="8" t="s">
         <v>33</v>
@@ -7217,8 +7217,8 @@
       <c r="Y72" t="s">
         <v>49</v>
       </c>
-      <c r="Z72" s="8">
-        <v>9149212438</v>
+      <c r="Z72" s="5">
+        <v>9595952595</v>
       </c>
       <c r="AA72">
         <v>1</v>
@@ -7283,7 +7283,7 @@
         <v>7709577438</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="T73" s="2" t="s">
         <v>33</v>
@@ -7303,8 +7303,8 @@
       <c r="Y73" t="s">
         <v>49</v>
       </c>
-      <c r="Z73" s="8">
-        <v>9149212438</v>
+      <c r="Z73" s="5">
+        <v>9595952595</v>
       </c>
       <c r="AA73">
         <v>1</v>
@@ -7369,7 +7369,7 @@
         <v>7709577438</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="T74" s="2" t="s">
         <v>33</v>
@@ -7389,8 +7389,8 @@
       <c r="Y74" t="s">
         <v>49</v>
       </c>
-      <c r="Z74" s="8">
-        <v>9149212438</v>
+      <c r="Z74" s="5">
+        <v>9595952595</v>
       </c>
       <c r="AA74">
         <v>1</v>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>E_118</t>
+  </si>
+  <si>
+    <t>307260624ih9</t>
   </si>
   <si>
     <t>E_119</t>
@@ -1145,8 +1148,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="Q104">
-      <selection activeCell="Y114" sqref="Y114"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A107">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7728,7 +7731,18 @@
       <c r="Q93" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R93" s="10"/>
+      <c r="R93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U93" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V93" t="s">
         <v>36</v>
       </c>
@@ -7737,6 +7751,12 @@
       </c>
       <c r="X93" t="s">
         <v>37</v>
+      </c>
+      <c r="Y93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94" ht="14.25">
@@ -7786,7 +7806,18 @@
       <c r="Q94" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R94" s="10"/>
+      <c r="R94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U94" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V94" t="s">
         <v>36</v>
       </c>
@@ -7795,6 +7826,12 @@
       </c>
       <c r="X94" t="s">
         <v>37</v>
+      </c>
+      <c r="Y94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95" ht="14.25">
@@ -7844,7 +7881,18 @@
       <c r="Q95" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R95" s="10"/>
+      <c r="R95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U95" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V95" t="s">
         <v>36</v>
       </c>
@@ -7853,6 +7901,12 @@
       </c>
       <c r="X95" t="s">
         <v>37</v>
+      </c>
+      <c r="Y95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96" ht="14.25">
@@ -7902,7 +7956,18 @@
       <c r="Q96" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R96" s="10"/>
+      <c r="R96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V96" t="s">
         <v>36</v>
       </c>
@@ -7911,6 +7976,12 @@
       </c>
       <c r="X96" t="s">
         <v>37</v>
+      </c>
+      <c r="Y96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97" ht="14.25">
@@ -7960,7 +8031,18 @@
       <c r="Q97" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R97" s="10"/>
+      <c r="R97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V97" t="s">
         <v>36</v>
       </c>
@@ -8024,7 +8106,18 @@
       <c r="Q98" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R98" s="10"/>
+      <c r="R98" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U98" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V98" t="s">
         <v>36</v>
       </c>
@@ -8088,7 +8181,18 @@
       <c r="Q99" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R99" s="10"/>
+      <c r="R99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U99" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V99" t="s">
         <v>36</v>
       </c>
@@ -8149,7 +8253,18 @@
       <c r="Q100" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R100" s="10"/>
+      <c r="R100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U100" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V100" t="s">
         <v>36</v>
       </c>
@@ -8213,7 +8328,18 @@
       <c r="Q101" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R101" s="10"/>
+      <c r="R101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U101" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V101" t="s">
         <v>36</v>
       </c>
@@ -8277,7 +8403,18 @@
       <c r="Q102" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R102" s="10"/>
+      <c r="R102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U102" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V102" t="s">
         <v>36</v>
       </c>
@@ -8341,7 +8478,18 @@
       <c r="Q103" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R103" s="10"/>
+      <c r="R103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V103" t="s">
         <v>36</v>
       </c>
@@ -8405,7 +8553,18 @@
       <c r="Q104" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R104" s="10"/>
+      <c r="R104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U104" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V104" t="s">
         <v>36</v>
       </c>
@@ -8469,7 +8628,18 @@
       <c r="Q105" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R105" s="10"/>
+      <c r="R105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U105" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V105" t="s">
         <v>36</v>
       </c>
@@ -8533,7 +8703,18 @@
       <c r="Q106" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R106" s="10"/>
+      <c r="R106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U106" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V106" t="s">
         <v>36</v>
       </c>
@@ -8597,7 +8778,18 @@
       <c r="Q107" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R107" s="10"/>
+      <c r="R107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U107" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V107" t="s">
         <v>36</v>
       </c>
@@ -8661,7 +8853,18 @@
       <c r="Q108" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R108" s="10"/>
+      <c r="R108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U108" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V108" t="s">
         <v>36</v>
       </c>
@@ -8728,7 +8931,18 @@
       <c r="Q109" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R109" s="10"/>
+      <c r="R109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U109" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V109" t="s">
         <v>36</v>
       </c>
@@ -8792,7 +9006,18 @@
       <c r="Q110" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R110" s="10"/>
+      <c r="R110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U110" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V110" t="s">
         <v>36</v>
       </c>
@@ -8856,7 +9081,18 @@
       <c r="Q111" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R111" s="10"/>
+      <c r="R111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U111" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V111" t="s">
         <v>36</v>
       </c>
@@ -8920,7 +9156,18 @@
       <c r="Q112" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R112" s="10"/>
+      <c r="R112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U112" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V112" t="s">
         <v>36</v>
       </c>
@@ -8984,7 +9231,18 @@
       <c r="Q113" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R113" s="10"/>
+      <c r="R113" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S113" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T113" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U113" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V113" t="s">
         <v>36</v>
       </c>
@@ -8993,6 +9251,12 @@
       </c>
       <c r="X113" t="s">
         <v>37</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="114" ht="14.25">
@@ -9042,7 +9306,18 @@
       <c r="Q114" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R114" s="10"/>
+      <c r="R114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U114" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V114" t="s">
         <v>36</v>
       </c>
@@ -9051,6 +9326,12 @@
       </c>
       <c r="X114" t="s">
         <v>37</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="115" ht="14.25">
@@ -9100,7 +9381,18 @@
       <c r="Q115" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R115" s="10"/>
+      <c r="R115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U115" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V115" t="s">
         <v>36</v>
       </c>
@@ -9109,6 +9401,15 @@
       </c>
       <c r="X115" t="s">
         <v>37</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" ht="14.25">
@@ -9158,7 +9459,18 @@
       <c r="Q116" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R116" s="10"/>
+      <c r="R116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U116" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V116" t="s">
         <v>36</v>
       </c>
@@ -9167,6 +9479,15 @@
       </c>
       <c r="X116" t="s">
         <v>37</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" ht="14.25">
@@ -9216,7 +9537,18 @@
       <c r="Q117" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R117" s="10"/>
+      <c r="R117" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S117" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T117" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U117" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V117" t="s">
         <v>36</v>
       </c>
@@ -9225,6 +9557,15 @@
       </c>
       <c r="X117" t="s">
         <v>37</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" ht="14.25">
@@ -9274,7 +9615,18 @@
       <c r="Q118" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R118" s="10"/>
+      <c r="R118" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U118" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V118" t="s">
         <v>36</v>
       </c>
@@ -9283,6 +9635,15 @@
       </c>
       <c r="X118" t="s">
         <v>37</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" ht="14.25">
@@ -9290,7 +9651,7 @@
         <v>198</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>29</v>
@@ -9299,7 +9660,7 @@
         <v>123456</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F119" s="3">
         <v>123456</v>
@@ -9332,7 +9693,18 @@
       <c r="Q119" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R119" s="10"/>
+      <c r="R119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U119" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V119" t="s">
         <v>36</v>
       </c>
@@ -9342,10 +9714,19 @@
       <c r="X119" t="s">
         <v>37</v>
       </c>
+      <c r="Y119" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" ht="14.25">
       <c r="A120" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>28</v>
@@ -9390,7 +9771,18 @@
       <c r="Q120" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R120" s="10"/>
+      <c r="R120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U120" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V120" t="s">
         <v>36</v>
       </c>
@@ -9400,10 +9792,19 @@
       <c r="X120" t="s">
         <v>37</v>
       </c>
+      <c r="Y120" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA120">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" ht="14.25">
       <c r="A121" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>28</v>
@@ -9448,7 +9849,18 @@
       <c r="Q121" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R121" s="10"/>
+      <c r="R121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U121" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V121" t="s">
         <v>36</v>
       </c>
@@ -9458,10 +9870,19 @@
       <c r="X121" t="s">
         <v>37</v>
       </c>
+      <c r="Y121" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" ht="14.25">
       <c r="A122" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>28</v>
@@ -9506,7 +9927,18 @@
       <c r="Q122" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R122" s="10"/>
+      <c r="R122" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S122" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T122" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U122" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V122" t="s">
         <v>36</v>
       </c>
@@ -9516,10 +9948,19 @@
       <c r="X122" t="s">
         <v>37</v>
       </c>
+      <c r="Y122" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" ht="14.25">
       <c r="A123" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>28</v>
@@ -9564,7 +10005,18 @@
       <c r="Q123" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R123" s="10"/>
+      <c r="R123" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U123" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V123" t="s">
         <v>36</v>
       </c>
@@ -9574,10 +10026,19 @@
       <c r="X123" t="s">
         <v>37</v>
       </c>
+      <c r="Y123" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA123">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" ht="14.25">
       <c r="A124" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>28</v>
@@ -9622,7 +10083,18 @@
       <c r="Q124" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R124" s="10"/>
+      <c r="R124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U124" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V124" t="s">
         <v>36</v>
       </c>
@@ -9632,10 +10104,19 @@
       <c r="X124" t="s">
         <v>37</v>
       </c>
+      <c r="Y124" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA124">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" ht="14.25">
       <c r="A125" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>28</v>
@@ -9680,7 +10161,18 @@
       <c r="Q125" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R125" s="10"/>
+      <c r="R125" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S125" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U125" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V125" t="s">
         <v>36</v>
       </c>
@@ -9690,10 +10182,19 @@
       <c r="X125" t="s">
         <v>37</v>
       </c>
+      <c r="Y125" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA125">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" ht="14.25">
       <c r="A126" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>28</v>
@@ -9738,7 +10239,18 @@
       <c r="Q126" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R126" s="10"/>
+      <c r="R126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U126" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V126" t="s">
         <v>36</v>
       </c>
@@ -9748,10 +10260,19 @@
       <c r="X126" t="s">
         <v>37</v>
       </c>
+      <c r="Y126" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" ht="14.25">
       <c r="A127" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>28</v>
@@ -9796,7 +10317,18 @@
       <c r="Q127" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R127" s="10"/>
+      <c r="R127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U127" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V127" t="s">
         <v>36</v>
       </c>
@@ -9806,10 +10338,19 @@
       <c r="X127" t="s">
         <v>37</v>
       </c>
+      <c r="Y127" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA127">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" ht="14.25">
       <c r="A128" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>28</v>
@@ -9854,7 +10395,18 @@
       <c r="Q128" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R128" s="10"/>
+      <c r="R128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U128" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V128" t="s">
         <v>36</v>
       </c>
@@ -9864,10 +10416,19 @@
       <c r="X128" t="s">
         <v>37</v>
       </c>
+      <c r="Y128" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" ht="14.25">
       <c r="A129" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>28</v>
@@ -9912,7 +10473,18 @@
       <c r="Q129" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R129" s="10"/>
+      <c r="R129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U129" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V129" t="s">
         <v>36</v>
       </c>
@@ -9922,10 +10494,19 @@
       <c r="X129" t="s">
         <v>37</v>
       </c>
+      <c r="Y129" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA129">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" ht="14.25">
       <c r="A130" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>28</v>
@@ -9970,7 +10551,18 @@
       <c r="Q130" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R130" s="10"/>
+      <c r="R130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U130" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V130" t="s">
         <v>36</v>
       </c>
@@ -9980,10 +10572,19 @@
       <c r="X130" t="s">
         <v>37</v>
       </c>
+      <c r="Y130" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA130">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" ht="14.25">
       <c r="A131" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>28</v>
@@ -10028,7 +10629,18 @@
       <c r="Q131" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R131" s="10"/>
+      <c r="R131" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S131" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T131" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U131" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V131" t="s">
         <v>36</v>
       </c>
@@ -10038,10 +10650,19 @@
       <c r="X131" t="s">
         <v>37</v>
       </c>
+      <c r="Y131" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA131">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" ht="14.25">
       <c r="A132" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>28</v>
@@ -10086,7 +10707,18 @@
       <c r="Q132" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R132" s="10"/>
+      <c r="R132" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S132" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U132" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V132" t="s">
         <v>36</v>
       </c>
@@ -10095,6 +10727,15 @@
       </c>
       <c r="X132" t="s">
         <v>37</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA132">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="161">
   <si>
     <t xml:space="preserve">TC_Id</t>
   </si>
@@ -338,6 +338,15 @@
   </si>
   <si>
     <t xml:space="preserve">E_56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624cuS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarak mehta</t>
   </si>
   <si>
     <t xml:space="preserve">E_57</t>
@@ -783,8 +792,8 @@
   </sheetPr>
   <dimension ref="A1:AMF92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S31" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W39" activeCellId="1" sqref="Y52:Z52 W39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S34" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X56" activeCellId="0" sqref="X56:AA56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5154,6 +5163,15 @@
       <c r="X55" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="Y55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -5228,13 +5246,22 @@
       <c r="X56" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="Y56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>29</v>
+      <c r="B57" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>30</v>
@@ -5243,7 +5270,7 @@
         <v>123456</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>123456</v>
@@ -5302,10 +5329,19 @@
       <c r="X57" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="Y57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z57" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA57" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>29</v>
@@ -5338,13 +5374,13 @@
         <v>1</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O58" s="4" t="n">
         <v>45384</v>
@@ -5376,7 +5412,7 @@
     </row>
     <row r="59" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>29</v>
@@ -5409,13 +5445,13 @@
         <v>1</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O59" s="4" t="n">
         <v>45384</v>
@@ -5447,7 +5483,7 @@
     </row>
     <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>29</v>
@@ -5480,13 +5516,13 @@
         <v>1</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O60" s="4" t="n">
         <v>45384</v>
@@ -5518,7 +5554,7 @@
     </row>
     <row r="61" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>29</v>
@@ -5545,19 +5581,19 @@
         <v>32</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K61" s="8" t="n">
         <v>1</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O61" s="13" t="n">
         <v>45384</v>
@@ -6059,7 +6095,7 @@
     </row>
     <row r="62" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>29</v>
@@ -6092,13 +6128,13 @@
         <v>1</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O62" s="4" t="n">
         <v>45384</v>
@@ -6113,10 +6149,10 @@
         <v>7709577438</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>33</v>
@@ -6130,7 +6166,7 @@
     </row>
     <row r="63" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>29</v>
@@ -6163,7 +6199,7 @@
         <v>33</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>34</v>
@@ -6201,7 +6237,7 @@
     </row>
     <row r="64" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>29</v>
@@ -6228,7 +6264,7 @@
         <v>32</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K64" s="8" t="n">
         <v>1</v>
@@ -6267,12 +6303,12 @@
         <v>37</v>
       </c>
       <c r="W64" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>29</v>
@@ -6305,7 +6341,7 @@
         <v>33</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>34</v>
@@ -6338,12 +6374,12 @@
         <v>37</v>
       </c>
       <c r="W65" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>29</v>
@@ -6376,7 +6412,7 @@
         <v>33</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>34</v>
@@ -6409,12 +6445,12 @@
         <v>37</v>
       </c>
       <c r="W66" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>29</v>
@@ -6447,13 +6483,13 @@
         <v>1</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O67" s="4" t="n">
         <v>45384</v>
@@ -6480,12 +6516,12 @@
         <v>37</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>29</v>
@@ -6518,13 +6554,13 @@
         <v>1</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O68" s="4" t="n">
         <v>45384</v>
@@ -6551,12 +6587,12 @@
         <v>37</v>
       </c>
       <c r="W68" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>29</v>
@@ -6589,13 +6625,13 @@
         <v>1</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O69" s="4" t="n">
         <v>45384</v>
@@ -6627,7 +6663,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>29</v>
@@ -6660,13 +6696,13 @@
         <v>1</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O70" s="4" t="n">
         <v>45384</v>
@@ -6698,7 +6734,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>29</v>
@@ -6731,13 +6767,13 @@
         <v>1</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O71" s="4" t="n">
         <v>45384</v>
@@ -6769,7 +6805,7 @@
     </row>
     <row r="72" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>29</v>
@@ -6802,13 +6838,13 @@
         <v>1</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O72" s="4" t="n">
         <v>45384</v>
@@ -6840,7 +6876,7 @@
     </row>
     <row r="73" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>29</v>
@@ -6873,13 +6909,13 @@
         <v>1</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O73" s="4" t="n">
         <v>45384</v>
@@ -6894,7 +6930,7 @@
         <v>7709577438</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>33</v>
@@ -6911,7 +6947,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6927,7 +6963,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6943,7 +6979,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6959,7 +6995,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6975,7 +7011,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6991,7 +7027,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -7007,7 +7043,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -7023,7 +7059,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7039,7 +7075,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7055,7 +7091,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7071,47 +7107,47 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -581,10 +581,7 @@
     <t>cash : 100, paytm : 100, voucher : 8</t>
   </si>
   <si>
-    <t>8906118410781 : 9</t>
-  </si>
-  <si>
-    <t>8906118410781: 12</t>
+    <t>Alexa67 : 2</t>
   </si>
   <si>
     <t>E_81</t>
@@ -1342,8 +1339,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="L58">
-      <selection activeCell="M75" sqref="M75"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="K55">
+      <selection activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1462,7 +1459,6 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AO1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
@@ -8350,7 +8346,6 @@
       <c r="AD77" t="s">
         <v>175</v>
       </c>
-      <c r="AE77"/>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
@@ -8590,7 +8585,7 @@
         <v>38</v>
       </c>
       <c r="R80" s="11">
-        <v>7709577438</v>
+        <v>8080808080</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>82</v>
@@ -8663,11 +8658,11 @@
       <c r="L81" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="M81" s="2" t="s">
+      <c r="M81" t="s">
         <v>187</v>
       </c>
       <c r="N81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O81" s="10">
         <v>45384</v>
@@ -8679,7 +8674,7 @@
         <v>38</v>
       </c>
       <c r="R81" s="11">
-        <v>7709577438</v>
+        <v>3030303030</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>82</v>
@@ -8713,11 +8708,14 @@
       </c>
       <c r="AC81" s="8" t="s">
         <v>35</v>
+      </c>
+      <c r="AD81" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>31</v>
@@ -8742,7 +8740,7 @@
     </row>
     <row r="83" ht="14.25">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>31</v>
@@ -8767,7 +8765,7 @@
     </row>
     <row r="84" ht="14.25">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>31</v>
@@ -8784,7 +8782,7 @@
     </row>
     <row r="85" ht="14.25">
       <c r="A85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>31</v>
@@ -8801,7 +8799,7 @@
     </row>
     <row r="86" ht="14.25">
       <c r="A86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>31</v>
@@ -8818,7 +8816,7 @@
     </row>
     <row r="87" ht="14.25">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>31</v>
@@ -8835,7 +8833,7 @@
     </row>
     <row r="88" ht="14.25">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>31</v>
@@ -8852,7 +8850,7 @@
     </row>
     <row r="89" ht="14.25">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>31</v>
@@ -8869,7 +8867,7 @@
     </row>
     <row r="90" ht="14.25">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>31</v>
@@ -8886,7 +8884,7 @@
     </row>
     <row r="91" ht="14.25">
       <c r="A91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>31</v>
@@ -8903,7 +8901,7 @@
     </row>
     <row r="92" ht="14.25">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>31</v>
@@ -8920,10 +8918,10 @@
     </row>
     <row r="93" ht="14.25">
       <c r="A93" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>32</v>
@@ -9009,10 +9007,10 @@
     </row>
     <row r="94" ht="14.25">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>32</v>
@@ -9098,10 +9096,10 @@
     </row>
     <row r="95" ht="14.25">
       <c r="A95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>32</v>
@@ -9187,10 +9185,10 @@
     </row>
     <row r="96" ht="14.25">
       <c r="A96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>32</v>
@@ -9199,7 +9197,7 @@
         <v>123456</v>
       </c>
       <c r="E96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F96" s="4">
         <v>123456</v>
@@ -9276,10 +9274,10 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>32</v>
@@ -9365,10 +9363,10 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>32</v>
@@ -9454,10 +9452,10 @@
     </row>
     <row r="99" ht="33" customHeight="1">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>32</v>
@@ -9540,10 +9538,10 @@
     </row>
     <row r="100" ht="34.8" customHeight="1">
       <c r="A100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>32</v>
@@ -9615,7 +9613,7 @@
         <v>48</v>
       </c>
       <c r="Z100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA100" s="5" t="s">
         <v>35</v>
@@ -9629,10 +9627,10 @@
     </row>
     <row r="101" ht="33.75" customHeight="1">
       <c r="A101" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>32</v>
@@ -9704,7 +9702,7 @@
         <v>51</v>
       </c>
       <c r="Z101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA101" s="5" t="s">
         <v>35</v>
@@ -9718,10 +9716,10 @@
     </row>
     <row r="102" ht="33.75" customHeight="1">
       <c r="A102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>32</v>
@@ -9807,10 +9805,10 @@
     </row>
     <row r="103" ht="33.75" customHeight="1">
       <c r="A103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>32</v>
@@ -9896,10 +9894,10 @@
     </row>
     <row r="104" ht="33.75" customHeight="1">
       <c r="A104" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>32</v>
@@ -9985,10 +9983,10 @@
     </row>
     <row r="105" ht="33.75" customHeight="1">
       <c r="A105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>32</v>
@@ -10074,10 +10072,10 @@
     </row>
     <row r="106" ht="18" customHeight="1">
       <c r="A106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>32</v>
@@ -10149,7 +10147,7 @@
         <v>48</v>
       </c>
       <c r="Z106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA106" s="5" t="s">
         <v>35</v>
@@ -10163,10 +10161,10 @@
     </row>
     <row r="107" ht="19.5" customHeight="1">
       <c r="A107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>32</v>
@@ -10238,7 +10236,7 @@
         <v>48</v>
       </c>
       <c r="Z107" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA107" s="5" t="s">
         <v>35</v>
@@ -10252,10 +10250,10 @@
     </row>
     <row r="108" ht="30" customHeight="1">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>32</v>
@@ -10341,10 +10339,10 @@
     </row>
     <row r="109" ht="26.25" customHeight="1">
       <c r="A109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>32</v>
@@ -10430,10 +10428,10 @@
     </row>
     <row r="110" ht="30" customHeight="1">
       <c r="A110" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>32</v>
@@ -10519,10 +10517,10 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="14.25">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>32</v>
@@ -26955,10 +26953,10 @@
     </row>
     <row r="112" ht="31.5" customHeight="1">
       <c r="A112" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>32</v>
@@ -27044,10 +27042,10 @@
     </row>
     <row r="113" ht="31.5" customHeight="1">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>32</v>
@@ -27133,10 +27131,10 @@
     </row>
     <row r="114" ht="31.5" customHeight="1">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>32</v>
@@ -27222,10 +27220,10 @@
     </row>
     <row r="115" ht="31.5" customHeight="1">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>32</v>
@@ -27311,10 +27309,10 @@
     </row>
     <row r="116" ht="31.5" customHeight="1">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>32</v>
@@ -27400,10 +27398,10 @@
     </row>
     <row r="117" ht="32.25" customHeight="1">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>32</v>
@@ -27489,10 +27487,10 @@
     </row>
     <row r="118" ht="28.5" customHeight="1">
       <c r="A118" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>32</v>
@@ -27578,10 +27576,10 @@
     </row>
     <row r="119" ht="14.25">
       <c r="A119" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>32</v>
@@ -27590,7 +27588,7 @@
         <v>123456</v>
       </c>
       <c r="E119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F119" s="4">
         <v>123456</v>
@@ -27667,10 +27665,10 @@
     </row>
     <row r="120" ht="14.25">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>32</v>
@@ -27756,10 +27754,10 @@
     </row>
     <row r="121" ht="14.25">
       <c r="A121" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>32</v>
@@ -27845,10 +27843,10 @@
     </row>
     <row r="122" ht="14.25">
       <c r="A122" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>32</v>
@@ -27934,10 +27932,10 @@
     </row>
     <row r="123" ht="14.25">
       <c r="A123" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>32</v>
@@ -28023,10 +28021,10 @@
     </row>
     <row r="124" ht="14.25">
       <c r="A124" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>32</v>
@@ -28112,10 +28110,10 @@
     </row>
     <row r="125" ht="14.25">
       <c r="A125" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>32</v>
@@ -28201,10 +28199,10 @@
     </row>
     <row r="126" ht="14.25">
       <c r="A126" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>32</v>
@@ -28290,10 +28288,10 @@
     </row>
     <row r="127" ht="14.25">
       <c r="A127" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>32</v>
@@ -28379,10 +28377,10 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>32</v>
@@ -28468,10 +28466,10 @@
     </row>
     <row r="129" ht="14.25">
       <c r="A129" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>32</v>
@@ -28557,10 +28555,10 @@
     </row>
     <row r="130" ht="14.25">
       <c r="A130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>32</v>
@@ -28646,10 +28644,10 @@
     </row>
     <row r="131" ht="14.25">
       <c r="A131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>32</v>
@@ -28735,10 +28733,10 @@
     </row>
     <row r="132" ht="14.25">
       <c r="A132" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>32</v>
@@ -28824,82 +28822,82 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="162">
   <si>
     <t xml:space="preserve">TC_Id</t>
   </si>
@@ -295,6 +295,7 @@
         <color rgb="FF7A7E85"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8906118412556</t>
     </r>
@@ -302,8 +303,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> : 1</t>
@@ -322,34 +323,46 @@
     <t xml:space="preserve">QBSB-Specificqty-Flat-percentage</t>
   </si>
   <si>
+    <t xml:space="preserve">soham suryawanshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somesh wankhade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suyog wagh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krishna yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8906118412662 : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mohan surve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_55</t>
+  </si>
+  <si>
     <t xml:space="preserve">tushar shinde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">somesh wankhade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krishna yadav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_55</t>
   </si>
   <si>
     <t xml:space="preserve">E_56</t>
@@ -572,12 +585,13 @@
       <color rgb="FF7A7E85"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -668,7 +682,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -689,19 +703,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -936,8 +942,8 @@
   </sheetPr>
   <dimension ref="A1:AMF92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W52" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y55" activeCellId="1" sqref="AC55 Y55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K34" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M50" activeCellId="0" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1044,7 +1050,7 @@
       <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5"/>
+      <c r="AC1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1089,13 +1095,13 @@
       <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R2" s="2" t="s">
@@ -1169,13 +1175,13 @@
       <c r="N3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R3" s="2" t="s">
@@ -1249,13 +1255,13 @@
       <c r="N4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="2" t="s">
@@ -1329,13 +1335,13 @@
       <c r="N5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R5" s="2" t="s">
@@ -1409,13 +1415,13 @@
       <c r="N6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R6" s="2" t="s">
@@ -1489,13 +1495,13 @@
       <c r="N7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R7" s="2" t="s">
@@ -1569,13 +1575,13 @@
       <c r="N8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -1649,13 +1655,13 @@
       <c r="N9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R9" s="2" t="s">
@@ -1729,13 +1735,13 @@
       <c r="N10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="O10" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R10" s="2" t="s">
@@ -1809,13 +1815,13 @@
       <c r="N11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="O11" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R11" s="2" t="s">
@@ -1889,13 +1895,13 @@
       <c r="N12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R12" s="2" t="s">
@@ -1966,13 +1972,13 @@
       <c r="N13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R13" s="2" t="s">
@@ -2043,13 +2049,13 @@
       <c r="N14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R14" s="2" t="s">
@@ -2120,13 +2126,13 @@
       <c r="N15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R15" s="2" t="s">
@@ -2197,13 +2203,13 @@
       <c r="N16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R16" s="2" t="s">
@@ -2274,13 +2280,13 @@
       <c r="N17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R17" s="2" t="s">
@@ -2351,13 +2357,13 @@
       <c r="N18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R18" s="2" t="s">
@@ -2428,13 +2434,13 @@
       <c r="N19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R19" s="2" t="s">
@@ -2505,13 +2511,13 @@
       <c r="N20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R20" s="2" t="s">
@@ -2582,13 +2588,13 @@
       <c r="N21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="6" t="n">
+      <c r="O21" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R21" s="2" t="s">
@@ -2659,13 +2665,13 @@
       <c r="N22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="6" t="n">
+      <c r="O22" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R22" s="2" t="s">
@@ -2736,13 +2742,13 @@
       <c r="N23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -2813,13 +2819,13 @@
       <c r="N24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="6" t="n">
+      <c r="O24" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="P24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R24" s="2" t="s">
@@ -2890,13 +2896,13 @@
       <c r="N25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O25" s="6" t="n">
+      <c r="O25" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="Q25" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R25" s="2" t="s">
@@ -2967,13 +2973,13 @@
       <c r="N26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="O26" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R26" s="2" t="s">
@@ -3044,13 +3050,13 @@
       <c r="N27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="O27" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="P27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q27" s="7" t="s">
+      <c r="Q27" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R27" s="2" t="s">
@@ -3121,13 +3127,13 @@
       <c r="N28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="P28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q28" s="7" t="s">
+      <c r="Q28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R28" s="2" t="s">
@@ -3198,13 +3204,13 @@
       <c r="N29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="O29" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q29" s="7" t="s">
+      <c r="Q29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R29" s="2" t="s">
@@ -3275,13 +3281,13 @@
       <c r="N30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="P30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q30" s="7" t="s">
+      <c r="Q30" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R30" s="2" t="s">
@@ -3352,13 +3358,13 @@
       <c r="N31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="6" t="n">
+      <c r="O31" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="P31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R31" s="2" t="s">
@@ -3429,13 +3435,13 @@
       <c r="N32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O32" s="6" t="n">
+      <c r="O32" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="P32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="Q32" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R32" s="2" t="s">
@@ -3506,13 +3512,13 @@
       <c r="N33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O33" s="6" t="n">
+      <c r="O33" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q33" s="7" t="s">
+      <c r="Q33" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R33" s="2" t="s">
@@ -3583,13 +3589,13 @@
       <c r="N34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="6" t="n">
+      <c r="O34" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="P34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q34" s="7" t="s">
+      <c r="Q34" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R34" s="2" t="s">
@@ -3660,13 +3666,13 @@
       <c r="N35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O35" s="6" t="n">
+      <c r="O35" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="P35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q35" s="7" t="s">
+      <c r="Q35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R35" s="2" t="s">
@@ -3737,13 +3743,13 @@
       <c r="N36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="6" t="n">
+      <c r="O36" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="P36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q36" s="7" t="s">
+      <c r="Q36" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R36" s="2" t="s">
@@ -3814,13 +3820,13 @@
       <c r="N37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="P37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q37" s="7" t="s">
+      <c r="Q37" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R37" s="2" t="s">
@@ -3891,13 +3897,13 @@
       <c r="N38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O38" s="6" t="n">
+      <c r="O38" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="P38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q38" s="7" t="s">
+      <c r="Q38" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R38" s="2" t="s">
@@ -3968,13 +3974,13 @@
       <c r="N39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O39" s="6" t="n">
+      <c r="O39" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="P39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q39" s="7" t="s">
+      <c r="Q39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R39" s="2" t="s">
@@ -4045,13 +4051,13 @@
       <c r="N40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O40" s="6" t="n">
+      <c r="O40" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="P40" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q40" s="7" t="s">
+      <c r="Q40" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R40" s="2" t="s">
@@ -4122,13 +4128,13 @@
       <c r="N41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O41" s="6" t="n">
+      <c r="O41" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="P41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q41" s="7" t="s">
+      <c r="Q41" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R41" s="2" t="s">
@@ -4199,13 +4205,13 @@
       <c r="N42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O42" s="6" t="n">
+      <c r="O42" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="P42" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q42" s="7" t="s">
+      <c r="Q42" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R42" s="2" t="s">
@@ -4282,13 +4288,13 @@
       <c r="N43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O43" s="6" t="n">
+      <c r="O43" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="P43" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q43" s="7" t="s">
+      <c r="Q43" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R43" s="2" t="s">
@@ -4365,13 +4371,13 @@
       <c r="N44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O44" s="6" t="n">
+      <c r="O44" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="P44" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q44" s="7" t="s">
+      <c r="Q44" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R44" s="2" t="s">
@@ -4448,13 +4454,13 @@
       <c r="N45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O45" s="6" t="n">
+      <c r="O45" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="P45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q45" s="7" t="s">
+      <c r="Q45" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R45" s="2" t="s">
@@ -4525,19 +4531,19 @@
       <c r="L46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M46" s="7" t="s">
         <v>89</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O46" s="6" t="n">
+      <c r="O46" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="P46" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q46" s="7" t="s">
+      <c r="Q46" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R46" s="2" t="s">
@@ -4608,19 +4614,19 @@
       <c r="L47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M47" s="8" t="s">
+      <c r="M47" s="7" t="s">
         <v>89</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O47" s="6" t="n">
+      <c r="O47" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="P47" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="7" t="s">
+      <c r="Q47" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R47" s="2" t="s">
@@ -4691,19 +4697,19 @@
       <c r="L48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M48" s="9" t="s">
+      <c r="M48" s="7" t="s">
         <v>89</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O48" s="6" t="n">
+      <c r="O48" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="P48" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" s="7" t="s">
+      <c r="Q48" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R48" s="2" t="s">
@@ -4744,49 +4750,49 @@
       <c r="B49" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="10" t="n">
+      <c r="D49" s="8" t="n">
         <v>123456</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="10" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G49" s="11" t="n">
+      <c r="F49" s="8" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G49" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="H49" s="11" t="n">
+      <c r="H49" s="9" t="n">
         <v>600</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K49" s="12" t="n">
+      <c r="K49" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L49" s="12" t="n">
+      <c r="L49" s="10" t="n">
         <v>2</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N49" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O49" s="6" t="n">
+      <c r="N49" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="P49" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q49" s="7" t="s">
+      <c r="Q49" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R49" s="2" t="s">
@@ -4801,7 +4807,7 @@
       <c r="U49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="12" t="s">
+      <c r="V49" s="10" t="s">
         <v>37</v>
       </c>
       <c r="W49" s="2" t="s">
@@ -4863,13 +4869,13 @@
       <c r="N50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O50" s="6" t="n">
+      <c r="O50" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="P50" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q50" s="7" t="s">
+      <c r="Q50" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R50" s="2" t="s">
@@ -4946,13 +4952,13 @@
       <c r="N51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O51" s="6" t="n">
+      <c r="O51" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="P51" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q51" s="7" t="s">
+      <c r="Q51" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R51" s="2" t="s">
@@ -5029,13 +5035,13 @@
       <c r="N52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O52" s="6" t="n">
+      <c r="O52" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="P52" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q52" s="7" t="s">
+      <c r="Q52" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R52" s="2" t="s">
@@ -5063,7 +5069,7 @@
         <v>46</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA52" s="1" t="n">
         <v>1</v>
@@ -5071,7 +5077,7 @@
     </row>
     <row r="53" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>29</v>
@@ -5112,13 +5118,13 @@
       <c r="N53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O53" s="6" t="n">
+      <c r="O53" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="P53" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q53" s="7" t="s">
+      <c r="Q53" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R53" s="2" t="s">
@@ -5142,19 +5148,19 @@
       <c r="X53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z53" s="1" t="n">
-        <v>8765234234</v>
+      <c r="Y53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z53" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="AA53" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>29</v>
@@ -5195,13 +5201,13 @@
       <c r="N54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O54" s="6" t="n">
+      <c r="O54" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="P54" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q54" s="7" t="s">
+      <c r="Q54" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R54" s="2" t="s">
@@ -5229,15 +5235,15 @@
         <v>46</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>29</v>
@@ -5273,18 +5279,18 @@
         <v>33</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O55" s="6" t="n">
+      <c r="O55" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="P55" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q55" s="7" t="s">
+      <c r="Q55" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R55" s="2" t="s">
@@ -5312,7 +5318,7 @@
         <v>46</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AA55" s="1" t="n">
         <v>3</v>
@@ -5320,7 +5326,7 @@
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>29</v>
@@ -5361,13 +5367,13 @@
       <c r="N56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O56" s="6" t="n">
+      <c r="O56" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="P56" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q56" s="7" t="s">
+      <c r="Q56" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R56" s="2" t="s">
@@ -5395,7 +5401,7 @@
         <v>46</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="AA56" s="1" t="n">
         <v>1</v>
@@ -5403,7 +5409,7 @@
     </row>
     <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>29</v>
@@ -5444,13 +5450,13 @@
       <c r="N57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="6" t="n">
+      <c r="O57" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="P57" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q57" s="7" t="s">
+      <c r="Q57" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R57" s="2" t="s">
@@ -5478,7 +5484,7 @@
         <v>46</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AA57" s="1" t="n">
         <v>1</v>
@@ -5486,7 +5492,7 @@
     </row>
     <row r="58" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>29</v>
@@ -5512,31 +5518,31 @@
       <c r="I58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J58" s="14" t="n">
+      <c r="J58" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K58" s="14" t="n">
+      <c r="K58" s="12" t="n">
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O58" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="O58" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P58" s="6" t="s">
+      <c r="P58" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q58" s="6" t="s">
+      <c r="Q58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R58" s="15" t="n">
+      <c r="R58" s="13" t="n">
         <v>7709577438</v>
       </c>
       <c r="S58" s="2" t="s">
@@ -5557,7 +5563,7 @@
     </row>
     <row r="59" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>29</v>
@@ -5583,31 +5589,31 @@
       <c r="I59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J59" s="14" t="n">
+      <c r="J59" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K59" s="14" t="n">
+      <c r="K59" s="12" t="n">
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O59" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="O59" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P59" s="6" t="s">
+      <c r="P59" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q59" s="6" t="s">
+      <c r="Q59" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R59" s="15" t="n">
+      <c r="R59" s="13" t="n">
         <v>7709577438</v>
       </c>
       <c r="S59" s="2" t="s">
@@ -5628,15 +5634,15 @@
     </row>
     <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="16" t="n">
+      <c r="D60" s="14" t="n">
         <v>123456</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -5654,31 +5660,31 @@
       <c r="I60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J60" s="14" t="n">
+      <c r="J60" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K60" s="14" t="n">
+      <c r="K60" s="12" t="n">
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O60" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="O60" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P60" s="6" t="s">
+      <c r="P60" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q60" s="6" t="s">
+      <c r="Q60" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R60" s="15" t="n">
+      <c r="R60" s="13" t="n">
         <v>7709577438</v>
       </c>
       <c r="S60" s="2" t="s">
@@ -5697,56 +5703,56 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" s="12" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="s">
-        <v>113</v>
+    <row r="61" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="10" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E61" s="12" t="s">
+      <c r="D61" s="8" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="10" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G61" s="12" t="n">
+      <c r="F61" s="8" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G61" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="H61" s="12" t="n">
+      <c r="H61" s="10" t="n">
         <v>600</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="I61" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J61" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K61" s="12" t="n">
+      <c r="J61" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K61" s="10" t="n">
         <v>1</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M61" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M61" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N61" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="O61" s="17" t="n">
+      <c r="N61" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O61" s="15" t="n">
         <v>45384</v>
       </c>
-      <c r="P61" s="7" t="s">
+      <c r="P61" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q61" s="7" t="s">
+      <c r="Q61" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R61" s="2" t="s">
@@ -5761,486 +5767,486 @@
       <c r="U61" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="12" t="s">
+      <c r="V61" s="10" t="s">
         <v>37</v>
       </c>
       <c r="W61" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AB61" s="7"/>
-      <c r="AC61" s="7"/>
-      <c r="AD61" s="7"/>
-      <c r="AF61" s="18"/>
-      <c r="AG61" s="10"/>
-      <c r="AH61" s="10"/>
-      <c r="AI61" s="10"/>
-      <c r="AJ61" s="10"/>
-      <c r="AS61" s="7"/>
-      <c r="AT61" s="7"/>
-      <c r="AU61" s="7"/>
-      <c r="AW61" s="18"/>
-      <c r="AX61" s="10"/>
-      <c r="AY61" s="10"/>
-      <c r="AZ61" s="10"/>
-      <c r="BA61" s="10"/>
-      <c r="BJ61" s="7"/>
-      <c r="BK61" s="7"/>
-      <c r="BL61" s="7"/>
-      <c r="BN61" s="18"/>
-      <c r="BO61" s="10"/>
-      <c r="BP61" s="10"/>
-      <c r="BQ61" s="10"/>
-      <c r="BR61" s="10"/>
-      <c r="CA61" s="7"/>
-      <c r="CB61" s="7"/>
-      <c r="CC61" s="7"/>
-      <c r="CE61" s="18"/>
-      <c r="CF61" s="10"/>
-      <c r="CG61" s="10"/>
-      <c r="CH61" s="10"/>
-      <c r="CI61" s="10"/>
-      <c r="CR61" s="7"/>
-      <c r="CS61" s="7"/>
-      <c r="CT61" s="7"/>
-      <c r="CV61" s="18"/>
-      <c r="CW61" s="10"/>
-      <c r="CX61" s="10"/>
-      <c r="CY61" s="10"/>
-      <c r="CZ61" s="10"/>
-      <c r="DI61" s="7"/>
-      <c r="DJ61" s="7"/>
-      <c r="DK61" s="7"/>
-      <c r="DM61" s="18"/>
-      <c r="DN61" s="10"/>
-      <c r="DO61" s="10"/>
-      <c r="DP61" s="10"/>
-      <c r="DQ61" s="10"/>
-      <c r="DZ61" s="7"/>
-      <c r="EA61" s="7"/>
-      <c r="EB61" s="7"/>
-      <c r="ED61" s="18"/>
-      <c r="EE61" s="10"/>
-      <c r="EF61" s="10"/>
-      <c r="EG61" s="10"/>
-      <c r="EH61" s="10"/>
-      <c r="EQ61" s="7"/>
-      <c r="ER61" s="7"/>
-      <c r="ES61" s="7"/>
-      <c r="EU61" s="18"/>
-      <c r="EV61" s="10"/>
-      <c r="EW61" s="10"/>
-      <c r="EX61" s="10"/>
-      <c r="EY61" s="10"/>
-      <c r="FH61" s="7"/>
-      <c r="FI61" s="7"/>
-      <c r="FJ61" s="7"/>
-      <c r="FL61" s="18"/>
-      <c r="FM61" s="10"/>
-      <c r="FN61" s="10"/>
-      <c r="FO61" s="10"/>
-      <c r="FP61" s="10"/>
-      <c r="FY61" s="7"/>
-      <c r="FZ61" s="7"/>
-      <c r="GA61" s="7"/>
-      <c r="GC61" s="18"/>
-      <c r="GD61" s="10"/>
-      <c r="GE61" s="10"/>
-      <c r="GF61" s="10"/>
-      <c r="GG61" s="10"/>
-      <c r="GP61" s="7"/>
-      <c r="GQ61" s="7"/>
-      <c r="GR61" s="7"/>
-      <c r="GT61" s="18"/>
-      <c r="GU61" s="10"/>
-      <c r="GV61" s="10"/>
-      <c r="GW61" s="10"/>
-      <c r="GX61" s="10"/>
-      <c r="HG61" s="7"/>
-      <c r="HH61" s="7"/>
-      <c r="HI61" s="7"/>
-      <c r="HK61" s="18"/>
-      <c r="HL61" s="10"/>
-      <c r="HM61" s="10"/>
-      <c r="HN61" s="10"/>
-      <c r="HO61" s="10"/>
-      <c r="HX61" s="7"/>
-      <c r="HY61" s="7"/>
-      <c r="HZ61" s="7"/>
-      <c r="IB61" s="18"/>
-      <c r="IC61" s="10"/>
-      <c r="ID61" s="10"/>
-      <c r="IE61" s="10"/>
-      <c r="IF61" s="10"/>
-      <c r="IO61" s="7"/>
-      <c r="IP61" s="7"/>
-      <c r="IQ61" s="7"/>
-      <c r="IS61" s="18"/>
-      <c r="IT61" s="10"/>
-      <c r="IU61" s="10"/>
-      <c r="IV61" s="10"/>
-      <c r="IW61" s="10"/>
-      <c r="JF61" s="7"/>
-      <c r="JG61" s="7"/>
-      <c r="JH61" s="7"/>
-      <c r="JJ61" s="18"/>
-      <c r="JK61" s="10"/>
-      <c r="JL61" s="10"/>
-      <c r="JM61" s="10"/>
-      <c r="JN61" s="10"/>
-      <c r="JW61" s="7"/>
-      <c r="JX61" s="7"/>
-      <c r="JY61" s="7"/>
-      <c r="KA61" s="18"/>
-      <c r="KB61" s="10"/>
-      <c r="KC61" s="10"/>
-      <c r="KD61" s="10"/>
-      <c r="KE61" s="10"/>
-      <c r="KN61" s="7"/>
-      <c r="KO61" s="7"/>
-      <c r="KP61" s="7"/>
-      <c r="KR61" s="18"/>
-      <c r="KS61" s="10"/>
-      <c r="KT61" s="10"/>
-      <c r="KU61" s="10"/>
-      <c r="KV61" s="10"/>
-      <c r="LE61" s="7"/>
-      <c r="LF61" s="7"/>
-      <c r="LG61" s="7"/>
-      <c r="LI61" s="18"/>
-      <c r="LJ61" s="10"/>
-      <c r="LK61" s="10"/>
-      <c r="LL61" s="10"/>
-      <c r="LM61" s="10"/>
-      <c r="LV61" s="7"/>
-      <c r="LW61" s="7"/>
-      <c r="LX61" s="7"/>
-      <c r="LZ61" s="18"/>
-      <c r="MA61" s="10"/>
-      <c r="MB61" s="10"/>
-      <c r="MC61" s="10"/>
-      <c r="MD61" s="10"/>
-      <c r="MM61" s="7"/>
-      <c r="MN61" s="7"/>
-      <c r="MO61" s="7"/>
-      <c r="MQ61" s="18"/>
-      <c r="MR61" s="10"/>
-      <c r="MS61" s="10"/>
-      <c r="MT61" s="10"/>
-      <c r="MU61" s="10"/>
-      <c r="ND61" s="7"/>
-      <c r="NE61" s="7"/>
-      <c r="NF61" s="7"/>
-      <c r="NH61" s="18"/>
-      <c r="NI61" s="10"/>
-      <c r="NJ61" s="10"/>
-      <c r="NK61" s="10"/>
-      <c r="NL61" s="10"/>
-      <c r="NU61" s="7"/>
-      <c r="NV61" s="7"/>
-      <c r="NW61" s="7"/>
-      <c r="NY61" s="18"/>
-      <c r="NZ61" s="10"/>
-      <c r="OA61" s="10"/>
-      <c r="OB61" s="10"/>
-      <c r="OC61" s="10"/>
-      <c r="OL61" s="7"/>
-      <c r="OM61" s="7"/>
-      <c r="ON61" s="7"/>
-      <c r="OP61" s="18"/>
-      <c r="OQ61" s="10"/>
-      <c r="OR61" s="10"/>
-      <c r="OS61" s="10"/>
-      <c r="OT61" s="10"/>
-      <c r="PC61" s="7"/>
-      <c r="PD61" s="7"/>
-      <c r="PE61" s="7"/>
-      <c r="PG61" s="18"/>
-      <c r="PH61" s="10"/>
-      <c r="PI61" s="10"/>
-      <c r="PJ61" s="10"/>
-      <c r="PK61" s="10"/>
-      <c r="PT61" s="7"/>
-      <c r="PU61" s="7"/>
-      <c r="PV61" s="7"/>
-      <c r="PX61" s="18"/>
-      <c r="PY61" s="10"/>
-      <c r="PZ61" s="10"/>
-      <c r="QA61" s="10"/>
-      <c r="QB61" s="10"/>
-      <c r="QK61" s="7"/>
-      <c r="QL61" s="7"/>
-      <c r="QM61" s="7"/>
-      <c r="QO61" s="18"/>
-      <c r="QP61" s="10"/>
-      <c r="QQ61" s="10"/>
-      <c r="QR61" s="10"/>
-      <c r="QS61" s="10"/>
-      <c r="RB61" s="7"/>
-      <c r="RC61" s="7"/>
-      <c r="RD61" s="7"/>
-      <c r="RF61" s="18"/>
-      <c r="RG61" s="10"/>
-      <c r="RH61" s="10"/>
-      <c r="RI61" s="10"/>
-      <c r="RJ61" s="10"/>
-      <c r="RS61" s="7"/>
-      <c r="RT61" s="7"/>
-      <c r="RU61" s="7"/>
-      <c r="RW61" s="18"/>
-      <c r="RX61" s="10"/>
-      <c r="RY61" s="10"/>
-      <c r="RZ61" s="10"/>
-      <c r="SA61" s="10"/>
-      <c r="SJ61" s="7"/>
-      <c r="SK61" s="7"/>
-      <c r="SL61" s="7"/>
-      <c r="SN61" s="18"/>
-      <c r="SO61" s="10"/>
-      <c r="SP61" s="10"/>
-      <c r="SQ61" s="10"/>
-      <c r="SR61" s="10"/>
-      <c r="TA61" s="7"/>
-      <c r="TB61" s="7"/>
-      <c r="TC61" s="7"/>
-      <c r="TE61" s="18"/>
-      <c r="TF61" s="10"/>
-      <c r="TG61" s="10"/>
-      <c r="TH61" s="10"/>
-      <c r="TI61" s="10"/>
-      <c r="TR61" s="7"/>
-      <c r="TS61" s="7"/>
-      <c r="TT61" s="7"/>
-      <c r="TV61" s="18"/>
-      <c r="TW61" s="10"/>
-      <c r="TX61" s="10"/>
-      <c r="TY61" s="10"/>
-      <c r="TZ61" s="10"/>
-      <c r="UI61" s="7"/>
-      <c r="UJ61" s="7"/>
-      <c r="UK61" s="7"/>
-      <c r="UM61" s="18"/>
-      <c r="UN61" s="10"/>
-      <c r="UO61" s="10"/>
-      <c r="UP61" s="10"/>
-      <c r="UQ61" s="10"/>
-      <c r="UZ61" s="7"/>
-      <c r="VA61" s="7"/>
-      <c r="VB61" s="7"/>
-      <c r="VD61" s="18"/>
-      <c r="VE61" s="10"/>
-      <c r="VF61" s="10"/>
-      <c r="VG61" s="10"/>
-      <c r="VH61" s="10"/>
-      <c r="VQ61" s="7"/>
-      <c r="VR61" s="7"/>
-      <c r="VS61" s="7"/>
-      <c r="VU61" s="18"/>
-      <c r="VV61" s="10"/>
-      <c r="VW61" s="10"/>
-      <c r="VX61" s="10"/>
-      <c r="VY61" s="10"/>
-      <c r="WH61" s="7"/>
-      <c r="WI61" s="7"/>
-      <c r="WJ61" s="7"/>
-      <c r="WL61" s="18"/>
-      <c r="WM61" s="10"/>
-      <c r="WN61" s="10"/>
-      <c r="WO61" s="10"/>
-      <c r="WP61" s="10"/>
-      <c r="WY61" s="7"/>
-      <c r="WZ61" s="7"/>
-      <c r="XA61" s="7"/>
-      <c r="XC61" s="18"/>
-      <c r="XD61" s="10"/>
-      <c r="XE61" s="10"/>
-      <c r="XF61" s="10"/>
-      <c r="XG61" s="10"/>
-      <c r="XP61" s="7"/>
-      <c r="XQ61" s="7"/>
-      <c r="XR61" s="7"/>
-      <c r="XT61" s="18"/>
-      <c r="XU61" s="10"/>
-      <c r="XV61" s="10"/>
-      <c r="XW61" s="10"/>
-      <c r="XX61" s="10"/>
-      <c r="YG61" s="7"/>
-      <c r="YH61" s="7"/>
-      <c r="YI61" s="7"/>
-      <c r="YK61" s="18"/>
-      <c r="YL61" s="10"/>
-      <c r="YM61" s="10"/>
-      <c r="YN61" s="10"/>
-      <c r="YO61" s="10"/>
-      <c r="YX61" s="7"/>
-      <c r="YY61" s="7"/>
-      <c r="YZ61" s="7"/>
-      <c r="ZB61" s="18"/>
-      <c r="ZC61" s="10"/>
-      <c r="ZD61" s="10"/>
-      <c r="ZE61" s="10"/>
-      <c r="ZF61" s="10"/>
-      <c r="ZO61" s="7"/>
-      <c r="ZP61" s="7"/>
-      <c r="ZQ61" s="7"/>
-      <c r="ZS61" s="18"/>
-      <c r="ZT61" s="10"/>
-      <c r="ZU61" s="10"/>
-      <c r="ZV61" s="10"/>
-      <c r="ZW61" s="10"/>
-      <c r="AAF61" s="7"/>
-      <c r="AAG61" s="7"/>
-      <c r="AAH61" s="7"/>
-      <c r="AAJ61" s="18"/>
-      <c r="AAK61" s="10"/>
-      <c r="AAL61" s="10"/>
-      <c r="AAM61" s="10"/>
-      <c r="AAN61" s="10"/>
-      <c r="AAW61" s="7"/>
-      <c r="AAX61" s="7"/>
-      <c r="AAY61" s="7"/>
-      <c r="ABA61" s="18"/>
-      <c r="ABB61" s="10"/>
-      <c r="ABC61" s="10"/>
-      <c r="ABD61" s="10"/>
-      <c r="ABE61" s="10"/>
-      <c r="ABN61" s="7"/>
-      <c r="ABO61" s="7"/>
-      <c r="ABP61" s="7"/>
-      <c r="ABR61" s="18"/>
-      <c r="ABS61" s="10"/>
-      <c r="ABT61" s="10"/>
-      <c r="ABU61" s="10"/>
-      <c r="ABV61" s="10"/>
-      <c r="ACE61" s="7"/>
-      <c r="ACF61" s="7"/>
-      <c r="ACG61" s="7"/>
-      <c r="ACI61" s="18"/>
-      <c r="ACJ61" s="10"/>
-      <c r="ACK61" s="10"/>
-      <c r="ACL61" s="10"/>
-      <c r="ACM61" s="10"/>
-      <c r="ACV61" s="7"/>
-      <c r="ACW61" s="7"/>
-      <c r="ACX61" s="7"/>
-      <c r="ACZ61" s="18"/>
-      <c r="ADA61" s="10"/>
-      <c r="ADB61" s="10"/>
-      <c r="ADC61" s="10"/>
-      <c r="ADD61" s="10"/>
-      <c r="ADM61" s="7"/>
-      <c r="ADN61" s="7"/>
-      <c r="ADO61" s="7"/>
-      <c r="ADQ61" s="18"/>
-      <c r="ADR61" s="10"/>
-      <c r="ADS61" s="10"/>
-      <c r="ADT61" s="10"/>
-      <c r="ADU61" s="10"/>
-      <c r="AED61" s="7"/>
-      <c r="AEE61" s="7"/>
-      <c r="AEF61" s="7"/>
-      <c r="AEH61" s="18"/>
-      <c r="AEI61" s="10"/>
-      <c r="AEJ61" s="10"/>
-      <c r="AEK61" s="10"/>
-      <c r="AEL61" s="10"/>
-      <c r="AEU61" s="7"/>
-      <c r="AEV61" s="7"/>
-      <c r="AEW61" s="7"/>
-      <c r="AEY61" s="18"/>
-      <c r="AEZ61" s="10"/>
-      <c r="AFA61" s="10"/>
-      <c r="AFB61" s="10"/>
-      <c r="AFC61" s="10"/>
-      <c r="AFL61" s="7"/>
-      <c r="AFM61" s="7"/>
-      <c r="AFN61" s="7"/>
-      <c r="AFP61" s="18"/>
-      <c r="AFQ61" s="10"/>
-      <c r="AFR61" s="10"/>
-      <c r="AFS61" s="10"/>
-      <c r="AFT61" s="10"/>
-      <c r="AGC61" s="7"/>
-      <c r="AGD61" s="7"/>
-      <c r="AGE61" s="7"/>
-      <c r="AGG61" s="18"/>
-      <c r="AGH61" s="10"/>
-      <c r="AGI61" s="10"/>
-      <c r="AGJ61" s="10"/>
-      <c r="AGK61" s="10"/>
-      <c r="AGT61" s="7"/>
-      <c r="AGU61" s="7"/>
-      <c r="AGV61" s="7"/>
-      <c r="AGX61" s="18"/>
-      <c r="AGY61" s="10"/>
-      <c r="AGZ61" s="10"/>
-      <c r="AHA61" s="10"/>
-      <c r="AHB61" s="10"/>
-      <c r="AHK61" s="7"/>
-      <c r="AHL61" s="7"/>
-      <c r="AHM61" s="7"/>
-      <c r="AHO61" s="18"/>
-      <c r="AHP61" s="10"/>
-      <c r="AHQ61" s="10"/>
-      <c r="AHR61" s="10"/>
-      <c r="AHS61" s="10"/>
-      <c r="AIB61" s="7"/>
-      <c r="AIC61" s="7"/>
-      <c r="AID61" s="7"/>
-      <c r="AIF61" s="18"/>
-      <c r="AIG61" s="10"/>
-      <c r="AIH61" s="10"/>
-      <c r="AII61" s="10"/>
-      <c r="AIJ61" s="10"/>
-      <c r="AIS61" s="7"/>
-      <c r="AIT61" s="7"/>
-      <c r="AIU61" s="7"/>
-      <c r="AIW61" s="18"/>
-      <c r="AIX61" s="10"/>
-      <c r="AIY61" s="10"/>
-      <c r="AIZ61" s="10"/>
-      <c r="AJA61" s="10"/>
-      <c r="AJJ61" s="7"/>
-      <c r="AJK61" s="7"/>
-      <c r="AJL61" s="7"/>
-      <c r="AJN61" s="18"/>
-      <c r="AJO61" s="10"/>
-      <c r="AJP61" s="10"/>
-      <c r="AJQ61" s="10"/>
-      <c r="AJR61" s="10"/>
-      <c r="AKA61" s="7"/>
-      <c r="AKB61" s="7"/>
-      <c r="AKC61" s="7"/>
-      <c r="AKE61" s="18"/>
-      <c r="AKF61" s="10"/>
-      <c r="AKG61" s="10"/>
-      <c r="AKH61" s="10"/>
-      <c r="AKI61" s="10"/>
-      <c r="AKR61" s="7"/>
-      <c r="AKS61" s="7"/>
-      <c r="AKT61" s="7"/>
-      <c r="AKV61" s="18"/>
-      <c r="AKW61" s="10"/>
-      <c r="AKX61" s="10"/>
-      <c r="AKY61" s="10"/>
-      <c r="AKZ61" s="10"/>
-      <c r="ALI61" s="7"/>
-      <c r="ALJ61" s="7"/>
-      <c r="ALK61" s="7"/>
-      <c r="ALM61" s="18"/>
-      <c r="ALN61" s="10"/>
-      <c r="ALO61" s="10"/>
-      <c r="ALP61" s="10"/>
-      <c r="ALQ61" s="10"/>
-      <c r="ALZ61" s="7"/>
-      <c r="AMA61" s="7"/>
-      <c r="AMB61" s="7"/>
-      <c r="AMD61" s="18"/>
-      <c r="AME61" s="10"/>
-      <c r="AMF61" s="10"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AF61" s="16"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AS61" s="6"/>
+      <c r="AT61" s="6"/>
+      <c r="AU61" s="6"/>
+      <c r="AW61" s="16"/>
+      <c r="AX61" s="8"/>
+      <c r="AY61" s="8"/>
+      <c r="AZ61" s="8"/>
+      <c r="BA61" s="8"/>
+      <c r="BJ61" s="6"/>
+      <c r="BK61" s="6"/>
+      <c r="BL61" s="6"/>
+      <c r="BN61" s="16"/>
+      <c r="BO61" s="8"/>
+      <c r="BP61" s="8"/>
+      <c r="BQ61" s="8"/>
+      <c r="BR61" s="8"/>
+      <c r="CA61" s="6"/>
+      <c r="CB61" s="6"/>
+      <c r="CC61" s="6"/>
+      <c r="CE61" s="16"/>
+      <c r="CF61" s="8"/>
+      <c r="CG61" s="8"/>
+      <c r="CH61" s="8"/>
+      <c r="CI61" s="8"/>
+      <c r="CR61" s="6"/>
+      <c r="CS61" s="6"/>
+      <c r="CT61" s="6"/>
+      <c r="CV61" s="16"/>
+      <c r="CW61" s="8"/>
+      <c r="CX61" s="8"/>
+      <c r="CY61" s="8"/>
+      <c r="CZ61" s="8"/>
+      <c r="DI61" s="6"/>
+      <c r="DJ61" s="6"/>
+      <c r="DK61" s="6"/>
+      <c r="DM61" s="16"/>
+      <c r="DN61" s="8"/>
+      <c r="DO61" s="8"/>
+      <c r="DP61" s="8"/>
+      <c r="DQ61" s="8"/>
+      <c r="DZ61" s="6"/>
+      <c r="EA61" s="6"/>
+      <c r="EB61" s="6"/>
+      <c r="ED61" s="16"/>
+      <c r="EE61" s="8"/>
+      <c r="EF61" s="8"/>
+      <c r="EG61" s="8"/>
+      <c r="EH61" s="8"/>
+      <c r="EQ61" s="6"/>
+      <c r="ER61" s="6"/>
+      <c r="ES61" s="6"/>
+      <c r="EU61" s="16"/>
+      <c r="EV61" s="8"/>
+      <c r="EW61" s="8"/>
+      <c r="EX61" s="8"/>
+      <c r="EY61" s="8"/>
+      <c r="FH61" s="6"/>
+      <c r="FI61" s="6"/>
+      <c r="FJ61" s="6"/>
+      <c r="FL61" s="16"/>
+      <c r="FM61" s="8"/>
+      <c r="FN61" s="8"/>
+      <c r="FO61" s="8"/>
+      <c r="FP61" s="8"/>
+      <c r="FY61" s="6"/>
+      <c r="FZ61" s="6"/>
+      <c r="GA61" s="6"/>
+      <c r="GC61" s="16"/>
+      <c r="GD61" s="8"/>
+      <c r="GE61" s="8"/>
+      <c r="GF61" s="8"/>
+      <c r="GG61" s="8"/>
+      <c r="GP61" s="6"/>
+      <c r="GQ61" s="6"/>
+      <c r="GR61" s="6"/>
+      <c r="GT61" s="16"/>
+      <c r="GU61" s="8"/>
+      <c r="GV61" s="8"/>
+      <c r="GW61" s="8"/>
+      <c r="GX61" s="8"/>
+      <c r="HG61" s="6"/>
+      <c r="HH61" s="6"/>
+      <c r="HI61" s="6"/>
+      <c r="HK61" s="16"/>
+      <c r="HL61" s="8"/>
+      <c r="HM61" s="8"/>
+      <c r="HN61" s="8"/>
+      <c r="HO61" s="8"/>
+      <c r="HX61" s="6"/>
+      <c r="HY61" s="6"/>
+      <c r="HZ61" s="6"/>
+      <c r="IB61" s="16"/>
+      <c r="IC61" s="8"/>
+      <c r="ID61" s="8"/>
+      <c r="IE61" s="8"/>
+      <c r="IF61" s="8"/>
+      <c r="IO61" s="6"/>
+      <c r="IP61" s="6"/>
+      <c r="IQ61" s="6"/>
+      <c r="IS61" s="16"/>
+      <c r="IT61" s="8"/>
+      <c r="IU61" s="8"/>
+      <c r="IV61" s="8"/>
+      <c r="IW61" s="8"/>
+      <c r="JF61" s="6"/>
+      <c r="JG61" s="6"/>
+      <c r="JH61" s="6"/>
+      <c r="JJ61" s="16"/>
+      <c r="JK61" s="8"/>
+      <c r="JL61" s="8"/>
+      <c r="JM61" s="8"/>
+      <c r="JN61" s="8"/>
+      <c r="JW61" s="6"/>
+      <c r="JX61" s="6"/>
+      <c r="JY61" s="6"/>
+      <c r="KA61" s="16"/>
+      <c r="KB61" s="8"/>
+      <c r="KC61" s="8"/>
+      <c r="KD61" s="8"/>
+      <c r="KE61" s="8"/>
+      <c r="KN61" s="6"/>
+      <c r="KO61" s="6"/>
+      <c r="KP61" s="6"/>
+      <c r="KR61" s="16"/>
+      <c r="KS61" s="8"/>
+      <c r="KT61" s="8"/>
+      <c r="KU61" s="8"/>
+      <c r="KV61" s="8"/>
+      <c r="LE61" s="6"/>
+      <c r="LF61" s="6"/>
+      <c r="LG61" s="6"/>
+      <c r="LI61" s="16"/>
+      <c r="LJ61" s="8"/>
+      <c r="LK61" s="8"/>
+      <c r="LL61" s="8"/>
+      <c r="LM61" s="8"/>
+      <c r="LV61" s="6"/>
+      <c r="LW61" s="6"/>
+      <c r="LX61" s="6"/>
+      <c r="LZ61" s="16"/>
+      <c r="MA61" s="8"/>
+      <c r="MB61" s="8"/>
+      <c r="MC61" s="8"/>
+      <c r="MD61" s="8"/>
+      <c r="MM61" s="6"/>
+      <c r="MN61" s="6"/>
+      <c r="MO61" s="6"/>
+      <c r="MQ61" s="16"/>
+      <c r="MR61" s="8"/>
+      <c r="MS61" s="8"/>
+      <c r="MT61" s="8"/>
+      <c r="MU61" s="8"/>
+      <c r="ND61" s="6"/>
+      <c r="NE61" s="6"/>
+      <c r="NF61" s="6"/>
+      <c r="NH61" s="16"/>
+      <c r="NI61" s="8"/>
+      <c r="NJ61" s="8"/>
+      <c r="NK61" s="8"/>
+      <c r="NL61" s="8"/>
+      <c r="NU61" s="6"/>
+      <c r="NV61" s="6"/>
+      <c r="NW61" s="6"/>
+      <c r="NY61" s="16"/>
+      <c r="NZ61" s="8"/>
+      <c r="OA61" s="8"/>
+      <c r="OB61" s="8"/>
+      <c r="OC61" s="8"/>
+      <c r="OL61" s="6"/>
+      <c r="OM61" s="6"/>
+      <c r="ON61" s="6"/>
+      <c r="OP61" s="16"/>
+      <c r="OQ61" s="8"/>
+      <c r="OR61" s="8"/>
+      <c r="OS61" s="8"/>
+      <c r="OT61" s="8"/>
+      <c r="PC61" s="6"/>
+      <c r="PD61" s="6"/>
+      <c r="PE61" s="6"/>
+      <c r="PG61" s="16"/>
+      <c r="PH61" s="8"/>
+      <c r="PI61" s="8"/>
+      <c r="PJ61" s="8"/>
+      <c r="PK61" s="8"/>
+      <c r="PT61" s="6"/>
+      <c r="PU61" s="6"/>
+      <c r="PV61" s="6"/>
+      <c r="PX61" s="16"/>
+      <c r="PY61" s="8"/>
+      <c r="PZ61" s="8"/>
+      <c r="QA61" s="8"/>
+      <c r="QB61" s="8"/>
+      <c r="QK61" s="6"/>
+      <c r="QL61" s="6"/>
+      <c r="QM61" s="6"/>
+      <c r="QO61" s="16"/>
+      <c r="QP61" s="8"/>
+      <c r="QQ61" s="8"/>
+      <c r="QR61" s="8"/>
+      <c r="QS61" s="8"/>
+      <c r="RB61" s="6"/>
+      <c r="RC61" s="6"/>
+      <c r="RD61" s="6"/>
+      <c r="RF61" s="16"/>
+      <c r="RG61" s="8"/>
+      <c r="RH61" s="8"/>
+      <c r="RI61" s="8"/>
+      <c r="RJ61" s="8"/>
+      <c r="RS61" s="6"/>
+      <c r="RT61" s="6"/>
+      <c r="RU61" s="6"/>
+      <c r="RW61" s="16"/>
+      <c r="RX61" s="8"/>
+      <c r="RY61" s="8"/>
+      <c r="RZ61" s="8"/>
+      <c r="SA61" s="8"/>
+      <c r="SJ61" s="6"/>
+      <c r="SK61" s="6"/>
+      <c r="SL61" s="6"/>
+      <c r="SN61" s="16"/>
+      <c r="SO61" s="8"/>
+      <c r="SP61" s="8"/>
+      <c r="SQ61" s="8"/>
+      <c r="SR61" s="8"/>
+      <c r="TA61" s="6"/>
+      <c r="TB61" s="6"/>
+      <c r="TC61" s="6"/>
+      <c r="TE61" s="16"/>
+      <c r="TF61" s="8"/>
+      <c r="TG61" s="8"/>
+      <c r="TH61" s="8"/>
+      <c r="TI61" s="8"/>
+      <c r="TR61" s="6"/>
+      <c r="TS61" s="6"/>
+      <c r="TT61" s="6"/>
+      <c r="TV61" s="16"/>
+      <c r="TW61" s="8"/>
+      <c r="TX61" s="8"/>
+      <c r="TY61" s="8"/>
+      <c r="TZ61" s="8"/>
+      <c r="UI61" s="6"/>
+      <c r="UJ61" s="6"/>
+      <c r="UK61" s="6"/>
+      <c r="UM61" s="16"/>
+      <c r="UN61" s="8"/>
+      <c r="UO61" s="8"/>
+      <c r="UP61" s="8"/>
+      <c r="UQ61" s="8"/>
+      <c r="UZ61" s="6"/>
+      <c r="VA61" s="6"/>
+      <c r="VB61" s="6"/>
+      <c r="VD61" s="16"/>
+      <c r="VE61" s="8"/>
+      <c r="VF61" s="8"/>
+      <c r="VG61" s="8"/>
+      <c r="VH61" s="8"/>
+      <c r="VQ61" s="6"/>
+      <c r="VR61" s="6"/>
+      <c r="VS61" s="6"/>
+      <c r="VU61" s="16"/>
+      <c r="VV61" s="8"/>
+      <c r="VW61" s="8"/>
+      <c r="VX61" s="8"/>
+      <c r="VY61" s="8"/>
+      <c r="WH61" s="6"/>
+      <c r="WI61" s="6"/>
+      <c r="WJ61" s="6"/>
+      <c r="WL61" s="16"/>
+      <c r="WM61" s="8"/>
+      <c r="WN61" s="8"/>
+      <c r="WO61" s="8"/>
+      <c r="WP61" s="8"/>
+      <c r="WY61" s="6"/>
+      <c r="WZ61" s="6"/>
+      <c r="XA61" s="6"/>
+      <c r="XC61" s="16"/>
+      <c r="XD61" s="8"/>
+      <c r="XE61" s="8"/>
+      <c r="XF61" s="8"/>
+      <c r="XG61" s="8"/>
+      <c r="XP61" s="6"/>
+      <c r="XQ61" s="6"/>
+      <c r="XR61" s="6"/>
+      <c r="XT61" s="16"/>
+      <c r="XU61" s="8"/>
+      <c r="XV61" s="8"/>
+      <c r="XW61" s="8"/>
+      <c r="XX61" s="8"/>
+      <c r="YG61" s="6"/>
+      <c r="YH61" s="6"/>
+      <c r="YI61" s="6"/>
+      <c r="YK61" s="16"/>
+      <c r="YL61" s="8"/>
+      <c r="YM61" s="8"/>
+      <c r="YN61" s="8"/>
+      <c r="YO61" s="8"/>
+      <c r="YX61" s="6"/>
+      <c r="YY61" s="6"/>
+      <c r="YZ61" s="6"/>
+      <c r="ZB61" s="16"/>
+      <c r="ZC61" s="8"/>
+      <c r="ZD61" s="8"/>
+      <c r="ZE61" s="8"/>
+      <c r="ZF61" s="8"/>
+      <c r="ZO61" s="6"/>
+      <c r="ZP61" s="6"/>
+      <c r="ZQ61" s="6"/>
+      <c r="ZS61" s="16"/>
+      <c r="ZT61" s="8"/>
+      <c r="ZU61" s="8"/>
+      <c r="ZV61" s="8"/>
+      <c r="ZW61" s="8"/>
+      <c r="AAF61" s="6"/>
+      <c r="AAG61" s="6"/>
+      <c r="AAH61" s="6"/>
+      <c r="AAJ61" s="16"/>
+      <c r="AAK61" s="8"/>
+      <c r="AAL61" s="8"/>
+      <c r="AAM61" s="8"/>
+      <c r="AAN61" s="8"/>
+      <c r="AAW61" s="6"/>
+      <c r="AAX61" s="6"/>
+      <c r="AAY61" s="6"/>
+      <c r="ABA61" s="16"/>
+      <c r="ABB61" s="8"/>
+      <c r="ABC61" s="8"/>
+      <c r="ABD61" s="8"/>
+      <c r="ABE61" s="8"/>
+      <c r="ABN61" s="6"/>
+      <c r="ABO61" s="6"/>
+      <c r="ABP61" s="6"/>
+      <c r="ABR61" s="16"/>
+      <c r="ABS61" s="8"/>
+      <c r="ABT61" s="8"/>
+      <c r="ABU61" s="8"/>
+      <c r="ABV61" s="8"/>
+      <c r="ACE61" s="6"/>
+      <c r="ACF61" s="6"/>
+      <c r="ACG61" s="6"/>
+      <c r="ACI61" s="16"/>
+      <c r="ACJ61" s="8"/>
+      <c r="ACK61" s="8"/>
+      <c r="ACL61" s="8"/>
+      <c r="ACM61" s="8"/>
+      <c r="ACV61" s="6"/>
+      <c r="ACW61" s="6"/>
+      <c r="ACX61" s="6"/>
+      <c r="ACZ61" s="16"/>
+      <c r="ADA61" s="8"/>
+      <c r="ADB61" s="8"/>
+      <c r="ADC61" s="8"/>
+      <c r="ADD61" s="8"/>
+      <c r="ADM61" s="6"/>
+      <c r="ADN61" s="6"/>
+      <c r="ADO61" s="6"/>
+      <c r="ADQ61" s="16"/>
+      <c r="ADR61" s="8"/>
+      <c r="ADS61" s="8"/>
+      <c r="ADT61" s="8"/>
+      <c r="ADU61" s="8"/>
+      <c r="AED61" s="6"/>
+      <c r="AEE61" s="6"/>
+      <c r="AEF61" s="6"/>
+      <c r="AEH61" s="16"/>
+      <c r="AEI61" s="8"/>
+      <c r="AEJ61" s="8"/>
+      <c r="AEK61" s="8"/>
+      <c r="AEL61" s="8"/>
+      <c r="AEU61" s="6"/>
+      <c r="AEV61" s="6"/>
+      <c r="AEW61" s="6"/>
+      <c r="AEY61" s="16"/>
+      <c r="AEZ61" s="8"/>
+      <c r="AFA61" s="8"/>
+      <c r="AFB61" s="8"/>
+      <c r="AFC61" s="8"/>
+      <c r="AFL61" s="6"/>
+      <c r="AFM61" s="6"/>
+      <c r="AFN61" s="6"/>
+      <c r="AFP61" s="16"/>
+      <c r="AFQ61" s="8"/>
+      <c r="AFR61" s="8"/>
+      <c r="AFS61" s="8"/>
+      <c r="AFT61" s="8"/>
+      <c r="AGC61" s="6"/>
+      <c r="AGD61" s="6"/>
+      <c r="AGE61" s="6"/>
+      <c r="AGG61" s="16"/>
+      <c r="AGH61" s="8"/>
+      <c r="AGI61" s="8"/>
+      <c r="AGJ61" s="8"/>
+      <c r="AGK61" s="8"/>
+      <c r="AGT61" s="6"/>
+      <c r="AGU61" s="6"/>
+      <c r="AGV61" s="6"/>
+      <c r="AGX61" s="16"/>
+      <c r="AGY61" s="8"/>
+      <c r="AGZ61" s="8"/>
+      <c r="AHA61" s="8"/>
+      <c r="AHB61" s="8"/>
+      <c r="AHK61" s="6"/>
+      <c r="AHL61" s="6"/>
+      <c r="AHM61" s="6"/>
+      <c r="AHO61" s="16"/>
+      <c r="AHP61" s="8"/>
+      <c r="AHQ61" s="8"/>
+      <c r="AHR61" s="8"/>
+      <c r="AHS61" s="8"/>
+      <c r="AIB61" s="6"/>
+      <c r="AIC61" s="6"/>
+      <c r="AID61" s="6"/>
+      <c r="AIF61" s="16"/>
+      <c r="AIG61" s="8"/>
+      <c r="AIH61" s="8"/>
+      <c r="AII61" s="8"/>
+      <c r="AIJ61" s="8"/>
+      <c r="AIS61" s="6"/>
+      <c r="AIT61" s="6"/>
+      <c r="AIU61" s="6"/>
+      <c r="AIW61" s="16"/>
+      <c r="AIX61" s="8"/>
+      <c r="AIY61" s="8"/>
+      <c r="AIZ61" s="8"/>
+      <c r="AJA61" s="8"/>
+      <c r="AJJ61" s="6"/>
+      <c r="AJK61" s="6"/>
+      <c r="AJL61" s="6"/>
+      <c r="AJN61" s="16"/>
+      <c r="AJO61" s="8"/>
+      <c r="AJP61" s="8"/>
+      <c r="AJQ61" s="8"/>
+      <c r="AJR61" s="8"/>
+      <c r="AKA61" s="6"/>
+      <c r="AKB61" s="6"/>
+      <c r="AKC61" s="6"/>
+      <c r="AKE61" s="16"/>
+      <c r="AKF61" s="8"/>
+      <c r="AKG61" s="8"/>
+      <c r="AKH61" s="8"/>
+      <c r="AKI61" s="8"/>
+      <c r="AKR61" s="6"/>
+      <c r="AKS61" s="6"/>
+      <c r="AKT61" s="6"/>
+      <c r="AKV61" s="16"/>
+      <c r="AKW61" s="8"/>
+      <c r="AKX61" s="8"/>
+      <c r="AKY61" s="8"/>
+      <c r="AKZ61" s="8"/>
+      <c r="ALI61" s="6"/>
+      <c r="ALJ61" s="6"/>
+      <c r="ALK61" s="6"/>
+      <c r="ALM61" s="16"/>
+      <c r="ALN61" s="8"/>
+      <c r="ALO61" s="8"/>
+      <c r="ALP61" s="8"/>
+      <c r="ALQ61" s="8"/>
+      <c r="ALZ61" s="6"/>
+      <c r="AMA61" s="6"/>
+      <c r="AMB61" s="6"/>
+      <c r="AMD61" s="16"/>
+      <c r="AME61" s="8"/>
+      <c r="AMF61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>29</v>
@@ -6266,38 +6272,38 @@
       <c r="I62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J62" s="14" t="n">
+      <c r="J62" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K62" s="14" t="n">
+      <c r="K62" s="12" t="n">
         <v>1</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O62" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="O62" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P62" s="6" t="s">
+      <c r="P62" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q62" s="6" t="s">
+      <c r="Q62" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R62" s="15" t="n">
+      <c r="R62" s="13" t="n">
         <v>7709577438</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="U62" s="2" t="s">
         <v>33</v>
@@ -6311,7 +6317,7 @@
     </row>
     <row r="63" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>29</v>
@@ -6319,7 +6325,7 @@
       <c r="C63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="19" t="n">
+      <c r="D63" s="17" t="n">
         <v>123456</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -6337,14 +6343,14 @@
       <c r="I63" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J63" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K63" s="14" t="s">
+      <c r="J63" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>34</v>
@@ -6352,13 +6358,13 @@
       <c r="N63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O63" s="17" t="n">
+      <c r="O63" s="15" t="n">
         <v>45384</v>
       </c>
-      <c r="P63" s="6" t="s">
+      <c r="P63" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q63" s="6" t="s">
+      <c r="Q63" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R63" s="2" t="s">
@@ -6382,21 +6388,21 @@
     </row>
     <row r="64" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="10" t="n">
+      <c r="D64" s="8" t="n">
         <v>123456</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F64" s="10" t="n">
+      <c r="F64" s="8" t="n">
         <v>123456</v>
       </c>
       <c r="G64" s="1" t="n">
@@ -6405,31 +6411,31 @@
       <c r="H64" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="K64" s="12" t="n">
+      <c r="J64" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K64" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L64" s="12" t="n">
+      <c r="L64" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M64" s="12" t="s">
+      <c r="M64" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N64" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O64" s="17" t="n">
+      <c r="N64" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O64" s="15" t="n">
         <v>45384</v>
       </c>
-      <c r="P64" s="7" t="s">
+      <c r="P64" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q64" s="6" t="s">
+      <c r="Q64" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R64" s="2" t="s">
@@ -6448,12 +6454,12 @@
         <v>37</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>29</v>
@@ -6479,14 +6485,14 @@
       <c r="I65" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J65" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K65" s="14" t="s">
+      <c r="J65" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>34</v>
@@ -6494,16 +6500,16 @@
       <c r="N65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O65" s="17" t="n">
+      <c r="O65" s="15" t="n">
         <v>45384</v>
       </c>
-      <c r="P65" s="6" t="s">
+      <c r="P65" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q65" s="6" t="s">
+      <c r="Q65" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R65" s="15" t="n">
+      <c r="R65" s="13" t="n">
         <v>7709577438</v>
       </c>
       <c r="S65" s="2" t="s">
@@ -6519,12 +6525,12 @@
         <v>37</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>29</v>
@@ -6550,14 +6556,14 @@
       <c r="I66" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J66" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K66" s="14" t="s">
+      <c r="J66" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K66" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>34</v>
@@ -6565,7 +6571,7 @@
       <c r="N66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O66" s="17" t="n">
+      <c r="O66" s="15" t="n">
         <v>45384</v>
       </c>
       <c r="P66" s="1" t="s">
@@ -6574,7 +6580,7 @@
       <c r="Q66" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R66" s="15" t="n">
+      <c r="R66" s="13" t="n">
         <v>7709577438</v>
       </c>
       <c r="S66" s="2" t="s">
@@ -6590,12 +6596,12 @@
         <v>37</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>29</v>
@@ -6621,31 +6627,31 @@
       <c r="I67" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J67" s="14" t="n">
+      <c r="J67" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K67" s="14" t="n">
+      <c r="K67" s="12" t="n">
         <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O67" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="O67" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P67" s="6" t="s">
+      <c r="P67" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q67" s="6" t="s">
+      <c r="Q67" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R67" s="15" t="n">
+      <c r="R67" s="13" t="n">
         <v>7709577438</v>
       </c>
       <c r="S67" s="2" t="s">
@@ -6661,12 +6667,12 @@
         <v>37</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>29</v>
@@ -6692,31 +6698,31 @@
       <c r="I68" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J68" s="14" t="n">
+      <c r="J68" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K68" s="14" t="n">
+      <c r="K68" s="12" t="n">
         <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O68" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="O68" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P68" s="6" t="s">
+      <c r="P68" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q68" s="6" t="s">
+      <c r="Q68" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R68" s="15" t="n">
+      <c r="R68" s="13" t="n">
         <v>7709577438</v>
       </c>
       <c r="S68" s="2" t="s">
@@ -6732,12 +6738,12 @@
         <v>37</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>29</v>
@@ -6763,31 +6769,31 @@
       <c r="I69" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J69" s="14" t="n">
+      <c r="J69" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K69" s="14" t="n">
+      <c r="K69" s="12" t="n">
         <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O69" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="O69" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P69" s="6" t="s">
+      <c r="P69" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q69" s="6" t="s">
+      <c r="Q69" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R69" s="15" t="n">
+      <c r="R69" s="13" t="n">
         <v>7709577438</v>
       </c>
       <c r="S69" s="2" t="s">
@@ -6808,7 +6814,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>29</v>
@@ -6834,31 +6840,31 @@
       <c r="I70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J70" s="14" t="n">
+      <c r="J70" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K70" s="14" t="n">
+      <c r="K70" s="12" t="n">
         <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O70" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="O70" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P70" s="6" t="s">
+      <c r="P70" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q70" s="6" t="s">
+      <c r="Q70" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R70" s="15" t="n">
+      <c r="R70" s="13" t="n">
         <v>6375266109</v>
       </c>
       <c r="S70" s="2" t="s">
@@ -6879,7 +6885,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>29</v>
@@ -6905,31 +6911,31 @@
       <c r="I71" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J71" s="14" t="n">
+      <c r="J71" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K71" s="14" t="n">
+      <c r="K71" s="12" t="n">
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O71" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="O71" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P71" s="6" t="s">
+      <c r="P71" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q71" s="6" t="s">
+      <c r="Q71" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R71" s="15" t="n">
+      <c r="R71" s="13" t="n">
         <v>7709577438</v>
       </c>
       <c r="S71" s="2" t="s">
@@ -6950,7 +6956,7 @@
     </row>
     <row r="72" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>29</v>
@@ -6976,31 +6982,31 @@
       <c r="I72" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J72" s="14" t="n">
+      <c r="J72" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K72" s="14" t="n">
+      <c r="K72" s="12" t="n">
         <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O72" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="O72" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P72" s="6" t="s">
+      <c r="P72" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q72" s="6" t="s">
+      <c r="Q72" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R72" s="15" t="n">
+      <c r="R72" s="13" t="n">
         <v>7709577438</v>
       </c>
       <c r="S72" s="2" t="s">
@@ -7021,7 +7027,7 @@
     </row>
     <row r="73" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>29</v>
@@ -7047,35 +7053,35 @@
       <c r="I73" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J73" s="14" t="n">
+      <c r="J73" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K73" s="14" t="n">
+      <c r="K73" s="12" t="n">
         <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O73" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="O73" s="5" t="n">
         <v>45384</v>
       </c>
-      <c r="P73" s="6" t="s">
+      <c r="P73" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q73" s="6" t="s">
+      <c r="Q73" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R73" s="15" t="n">
+      <c r="R73" s="13" t="n">
         <v>7709577438</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="T73" s="2" t="s">
         <v>33</v>
@@ -7092,7 +7098,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -7101,14 +7107,14 @@
       <c r="I74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="15"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -7117,14 +7123,14 @@
       <c r="I75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="15"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="13"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -7133,14 +7139,14 @@
       <c r="I76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="15"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="13"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -7149,14 +7155,14 @@
       <c r="I77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="15"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="13"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -7165,14 +7171,14 @@
       <c r="I78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="15"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="13"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -7181,14 +7187,14 @@
       <c r="I79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="15"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -7197,14 +7203,14 @@
       <c r="I80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="15"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="13"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -7213,14 +7219,14 @@
       <c r="I81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="15"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="13"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -7229,14 +7235,14 @@
       <c r="I82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="15"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="13"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -7245,54 +7251,54 @@
       <c r="I83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="15"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="13"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="289">
   <si>
     <t xml:space="preserve">TC_Id</t>
   </si>
@@ -286,9 +286,6 @@
     <t xml:space="preserve">E_28</t>
   </si>
   <si>
-    <t xml:space="preserve">JVL003 : 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">E_29</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t xml:space="preserve">Null</t>
   </si>
   <si>
-    <t xml:space="preserve">jvlearphone : 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">E_32</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
   </si>
   <si>
     <t xml:space="preserve">E_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JVL001 : 1</t>
   </si>
   <si>
     <t xml:space="preserve">E_37</t>
@@ -442,7 +433,10 @@
     <t xml:space="preserve">E_55</t>
   </si>
   <si>
-    <t xml:space="preserve">tushar shinde</t>
+    <t xml:space="preserve">lemn : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siddhesh maurya</t>
   </si>
   <si>
     <t xml:space="preserve">E_56</t>
@@ -487,6 +481,9 @@
     <t xml:space="preserve">E_61</t>
   </si>
   <si>
+    <t xml:space="preserve">JVL001 : 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">E_62</t>
   </si>
   <si>
@@ -631,18 +628,18 @@
     <t xml:space="preserve">E_81</t>
   </si>
   <si>
+    <t xml:space="preserve">E_82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624WoJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">i9_store_p01</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage : 20</t>
   </si>
   <si>
-    <t xml:space="preserve">E_82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307260624WoJ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Buy 1 Get 20% Off</t>
   </si>
   <si>
@@ -694,7 +691,7 @@
     <t xml:space="preserve">cash : 100, paytm : 100, voucher : 15</t>
   </si>
   <si>
-    <t xml:space="preserve">555555555 : 10</t>
+    <t xml:space="preserve">555555555 : 5</t>
   </si>
   <si>
     <t xml:space="preserve">E_88</t>
@@ -703,6 +700,9 @@
     <t xml:space="preserve">E_89</t>
   </si>
   <si>
+    <t xml:space="preserve">Return</t>
+  </si>
+  <si>
     <t xml:space="preserve">E_90</t>
   </si>
   <si>
@@ -760,7 +760,7 @@
     <t xml:space="preserve">E_105</t>
   </si>
   <si>
-    <t xml:space="preserve">Sal</t>
+    <t xml:space="preserve">sal</t>
   </si>
   <si>
     <t xml:space="preserve">E_106</t>
@@ -826,6 +826,9 @@
     <t xml:space="preserve">E_123</t>
   </si>
   <si>
+    <t xml:space="preserve">Billing</t>
+  </si>
+  <si>
     <t xml:space="preserve">E_124</t>
   </si>
   <si>
@@ -835,6 +838,9 @@
     <t xml:space="preserve">E_126</t>
   </si>
   <si>
+    <t xml:space="preserve">Order</t>
+  </si>
+  <si>
     <t xml:space="preserve">E_127</t>
   </si>
   <si>
@@ -848,6 +854,9 @@
   </si>
   <si>
     <t xml:space="preserve">E_131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return </t>
   </si>
   <si>
     <t xml:space="preserve">E_132</t>
@@ -1052,7 +1061,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1135,6 +1144,42 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1395,10 +1440,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH148"/>
+  <dimension ref="A1:AJ148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F61" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M82" activeCellId="0" sqref="M82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M50" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M86" activeCellId="0" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4276,7 +4321,7 @@
         <v>76</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>77</v>
@@ -4341,7 +4386,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>35</v>
@@ -4442,7 +4487,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>35</v>
@@ -4543,7 +4588,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>35</v>
@@ -4576,10 +4621,10 @@
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>77</v>
@@ -4644,7 +4689,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>35</v>
@@ -4677,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>40</v>
@@ -4745,7 +4790,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>35</v>
@@ -4846,7 +4891,7 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>35</v>
@@ -4947,7 +4992,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>35</v>
@@ -4983,7 +5028,7 @@
         <v>80</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>77</v>
@@ -5048,7 +5093,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>35</v>
@@ -5084,7 +5129,7 @@
         <v>80</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>77</v>
@@ -5149,7 +5194,7 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>35</v>
@@ -5250,7 +5295,7 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>35</v>
@@ -5286,7 +5331,7 @@
         <v>80</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>77</v>
@@ -5351,7 +5396,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>35</v>
@@ -5387,7 +5432,7 @@
         <v>80</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>77</v>
@@ -5452,7 +5497,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>35</v>
@@ -5488,7 +5533,7 @@
         <v>76</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>77</v>
@@ -5553,7 +5598,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>35</v>
@@ -5589,7 +5634,7 @@
         <v>39</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>39</v>
@@ -5628,7 +5673,7 @@
         <v>52</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA42" s="4" t="n">
         <v>1</v>
@@ -5654,7 +5699,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>35</v>
@@ -5690,7 +5735,7 @@
         <v>39</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>39</v>
@@ -5729,7 +5774,7 @@
         <v>52</v>
       </c>
       <c r="Z43" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA43" s="4" t="n">
         <v>1</v>
@@ -5755,7 +5800,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>35</v>
@@ -5791,7 +5836,7 @@
         <v>39</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>39</v>
@@ -5830,7 +5875,7 @@
         <v>52</v>
       </c>
       <c r="Z44" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA44" s="4" t="n">
         <v>1</v>
@@ -5856,7 +5901,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>35</v>
@@ -5892,7 +5937,7 @@
         <v>39</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>39</v>
@@ -5931,7 +5976,7 @@
         <v>52</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA45" s="4" t="n">
         <v>1</v>
@@ -5960,7 +6005,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>35</v>
@@ -5996,7 +6041,7 @@
         <v>39</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>39</v>
@@ -6061,7 +6106,7 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>35</v>
@@ -6097,7 +6142,7 @@
         <v>39</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>39</v>
@@ -6136,7 +6181,7 @@
         <v>52</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AA47" s="4" t="n">
         <v>3</v>
@@ -6162,7 +6207,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>35</v>
@@ -6198,7 +6243,7 @@
         <v>39</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>39</v>
@@ -6237,7 +6282,7 @@
         <v>52</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AA48" s="4" t="n">
         <v>4</v>
@@ -6263,7 +6308,7 @@
     </row>
     <row r="49" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>35</v>
@@ -6290,7 +6335,7 @@
         <v>38</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K49" s="15" t="n">
         <v>1</v>
@@ -6338,7 +6383,7 @@
         <v>52</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AA49" s="4" t="n">
         <v>1</v>
@@ -6364,7 +6409,7 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>35</v>
@@ -6400,7 +6445,7 @@
         <v>39</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>39</v>
@@ -6439,7 +6484,7 @@
         <v>52</v>
       </c>
       <c r="Z50" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AA50" s="4" t="n">
         <v>1</v>
@@ -6465,7 +6510,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>35</v>
@@ -6540,7 +6585,7 @@
         <v>52</v>
       </c>
       <c r="Z51" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AA51" s="4" t="n">
         <v>1</v>
@@ -6566,7 +6611,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>35</v>
@@ -6641,7 +6686,7 @@
         <v>52</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA52" s="4" t="n">
         <v>1</v>
@@ -6667,7 +6712,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>35</v>
@@ -6742,7 +6787,7 @@
         <v>52</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AA53" s="4" t="n">
         <v>3</v>
@@ -6768,7 +6813,7 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>35</v>
@@ -6843,7 +6888,7 @@
         <v>52</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA54" s="4" t="n">
         <v>1</v>
@@ -6869,7 +6914,7 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>35</v>
@@ -6905,7 +6950,7 @@
         <v>39</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>39</v>
@@ -6944,7 +6989,7 @@
         <v>52</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AA55" s="4" t="n">
         <v>3</v>
@@ -6970,7 +7015,7 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>35</v>
@@ -7006,7 +7051,7 @@
         <v>39</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>39</v>
@@ -7045,7 +7090,7 @@
         <v>52</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AA56" s="4" t="n">
         <v>1</v>
@@ -7071,7 +7116,7 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>35</v>
@@ -7146,7 +7191,7 @@
         <v>52</v>
       </c>
       <c r="Z57" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA57" s="4" t="n">
         <v>1</v>
@@ -7172,7 +7217,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>35</v>
@@ -7205,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>40</v>
@@ -7247,7 +7292,7 @@
         <v>52</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA58" s="1" t="n">
         <v>1</v>
@@ -7273,7 +7318,7 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>35</v>
@@ -7306,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>40</v>
@@ -7374,7 +7419,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>35</v>
@@ -7407,10 +7452,10 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>77</v>
@@ -7449,7 +7494,7 @@
         <v>52</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA60" s="1" t="n">
         <v>1</v>
@@ -7475,7 +7520,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>35</v>
@@ -7532,7 +7577,7 @@
         <v>86</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>39</v>
@@ -7576,7 +7621,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>35</v>
@@ -7612,7 +7657,7 @@
         <v>80</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>77</v>
@@ -7633,7 +7678,7 @@
         <v>86</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>39</v>
@@ -7677,7 +7722,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>35</v>
@@ -7734,7 +7779,7 @@
         <v>86</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>39</v>
@@ -7758,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC63" s="8" t="s">
         <v>39</v>
@@ -7778,7 +7823,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>35</v>
@@ -7805,7 +7850,7 @@
         <v>38</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K64" s="15" t="n">
         <v>1</v>
@@ -7853,7 +7898,7 @@
         <v>52</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA64" s="1" t="n">
         <v>1</v>
@@ -7879,7 +7924,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>35</v>
@@ -7912,7 +7957,7 @@
         <v>39</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>40</v>
@@ -7954,7 +7999,7 @@
         <v>52</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA65" s="1" t="n">
         <v>1</v>
@@ -7980,7 +8025,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>35</v>
@@ -8013,7 +8058,7 @@
         <v>39</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>40</v>
@@ -8046,7 +8091,7 @@
         <v>43</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>44</v>
@@ -8055,7 +8100,7 @@
         <v>52</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA66" s="1" t="n">
         <v>1</v>
@@ -8081,7 +8126,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>35</v>
@@ -8156,7 +8201,7 @@
         <v>52</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA67" s="1" t="n">
         <v>1</v>
@@ -8182,7 +8227,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>35</v>
@@ -8263,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC68" s="8" t="s">
         <v>39</v>
@@ -8283,7 +8328,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>35</v>
@@ -8384,7 +8429,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>35</v>
@@ -8485,7 +8530,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>35</v>
@@ -8586,7 +8631,7 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>35</v>
@@ -8687,7 +8732,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>35</v>
@@ -8788,7 +8833,7 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>35</v>
@@ -8821,13 +8866,13 @@
         <v>1</v>
       </c>
       <c r="L74" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M74" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="N74" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="O74" s="10" t="n">
         <v>45384</v>
@@ -8889,7 +8934,7 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>35</v>
@@ -8922,13 +8967,13 @@
         <v>1</v>
       </c>
       <c r="L75" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M75" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="M75" s="2" t="s">
+      <c r="N75" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="O75" s="10" t="n">
         <v>45384</v>
@@ -8943,10 +8988,10 @@
         <v>7709577438</v>
       </c>
       <c r="S75" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="T75" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="T75" s="20" t="s">
-        <v>175</v>
       </c>
       <c r="U75" s="1" t="s">
         <v>39</v>
@@ -8990,7 +9035,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>35</v>
@@ -9023,13 +9068,13 @@
         <v>1</v>
       </c>
       <c r="L76" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M76" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="N76" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="O76" s="10" t="n">
         <v>45384</v>
@@ -9044,10 +9089,10 @@
         <v>6060606060</v>
       </c>
       <c r="S76" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="T76" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="T76" s="20" t="s">
-        <v>175</v>
       </c>
       <c r="U76" s="1" t="s">
         <v>39</v>
@@ -9091,7 +9136,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>35</v>
@@ -9124,13 +9169,13 @@
         <v>1</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O77" s="10" t="n">
         <v>45384</v>
@@ -9145,10 +9190,10 @@
         <v>7070707070</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T77" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U77" s="1" t="s">
         <v>39</v>
@@ -9178,7 +9223,7 @@
         <v>39</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AE77" s="8" t="s">
         <v>39</v>
@@ -9192,7 +9237,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>35</v>
@@ -9225,13 +9270,13 @@
         <v>1</v>
       </c>
       <c r="L78" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M78" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="M78" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="N78" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O78" s="10" t="n">
         <v>45384</v>
@@ -9246,10 +9291,10 @@
         <v>7070707070</v>
       </c>
       <c r="S78" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="T78" s="20" t="s">
         <v>186</v>
-      </c>
-      <c r="T78" s="20" t="s">
-        <v>187</v>
       </c>
       <c r="U78" s="1" t="s">
         <v>39</v>
@@ -9293,7 +9338,7 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>35</v>
@@ -9329,7 +9374,7 @@
         <v>80</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>77</v>
@@ -9350,7 +9395,7 @@
         <v>86</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U79" s="1" t="s">
         <v>39</v>
@@ -9374,13 +9419,13 @@
         <v>1</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC79" s="8" t="s">
         <v>39</v>
       </c>
       <c r="AD79" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AE79" s="8" t="s">
         <v>39</v>
@@ -9394,7 +9439,7 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>35</v>
@@ -9427,13 +9472,13 @@
         <v>1</v>
       </c>
       <c r="L80" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M80" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="N80" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="O80" s="10" t="n">
         <v>45384</v>
@@ -9475,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC80" s="8" t="s">
         <v>39</v>
@@ -9495,7 +9540,7 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>35</v>
@@ -9528,13 +9573,13 @@
         <v>1</v>
       </c>
       <c r="L81" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M81" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="M81" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="N81" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O81" s="10" t="n">
         <v>45384</v>
@@ -9576,13 +9621,13 @@
         <v>1</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC81" s="8" t="s">
         <v>39</v>
       </c>
       <c r="AD81" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE81" s="8" t="s">
         <v>39</v>
@@ -9595,112 +9640,108 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B82" s="3" t="s">
+      <c r="A82" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D82" s="3" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="D82" s="22" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E82" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F82" s="3" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G82" s="4" t="n">
+      <c r="F82" s="22" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G82" s="21" t="n">
         <v>1000</v>
       </c>
-      <c r="H82" s="4" t="n">
+      <c r="H82" s="21" t="n">
         <v>600</v>
       </c>
-      <c r="I82" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J82" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N82" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O82" s="10" t="n">
+      <c r="I82" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J82" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M82" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="N82" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O82" s="27" t="n">
         <v>45384</v>
       </c>
-      <c r="P82" s="10" t="s">
+      <c r="P82" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Q82" s="10" t="s">
+      <c r="Q82" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="R82" s="11" t="n">
-        <v>1111111000</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T82" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="U82" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V82" s="4" t="s">
+      <c r="R82" s="28" t="n">
+        <v>7709577438</v>
+      </c>
+      <c r="S82" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T82" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U82" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="V82" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="W82" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X82" s="4" t="s">
+      <c r="W82" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="X82" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="Y82" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z82" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA82" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB82" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC82" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD82" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE82" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF82" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="Y82" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z82" s="21" t="n">
+        <v>7719921544</v>
+      </c>
+      <c r="AA82" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB82" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC82" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD82" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE82" s="21"/>
+      <c r="AF82" s="21"/>
       <c r="AG82" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="83" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>36</v>
@@ -9721,7 +9762,7 @@
         <v>600</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J83" s="9" t="n">
         <v>1</v>
@@ -9733,7 +9774,7 @@
         <v>39</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N83" s="4" t="s">
         <v>39</v>
@@ -9754,7 +9795,7 @@
         <v>39</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U83" s="4" t="s">
         <v>39</v>
@@ -9790,15 +9831,15 @@
         <v>39</v>
       </c>
       <c r="AF83" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>36</v>
@@ -9819,7 +9860,7 @@
         <v>600</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J84" s="9" t="n">
         <v>1</v>
@@ -9828,10 +9869,10 @@
         <v>1</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>39</v>
@@ -9888,15 +9929,15 @@
         <v>39</v>
       </c>
       <c r="AF84" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>36</v>
@@ -9917,7 +9958,7 @@
         <v>600</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J85" s="9" t="n">
         <v>1</v>
@@ -9926,10 +9967,10 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>39</v>
@@ -9986,15 +10027,15 @@
         <v>39</v>
       </c>
       <c r="AF85" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" s="4" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>36</v>
@@ -10015,7 +10056,7 @@
         <v>600</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J86" s="9" t="n">
         <v>1</v>
@@ -10024,10 +10065,10 @@
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>39</v>
@@ -10084,18 +10125,18 @@
         <v>39</v>
       </c>
       <c r="AF86" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>36</v>
@@ -10116,7 +10157,7 @@
         <v>600</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J87" s="9" t="n">
         <v>1</v>
@@ -10125,10 +10166,10 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>39</v>
@@ -10185,15 +10226,15 @@
         <v>39</v>
       </c>
       <c r="AF87" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>36</v>
@@ -10202,7 +10243,7 @@
         <v>123456</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F88" s="3" t="n">
         <v>123456</v>
@@ -10214,19 +10255,19 @@
         <v>600</v>
       </c>
       <c r="I88" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J88" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="J88" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L88" s="2" t="s">
+      <c r="M88" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>39</v>
@@ -10287,415 +10328,419 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B89" s="3" t="s">
+      <c r="A89" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D89" s="3" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E89" s="1" t="s">
+      <c r="D89" s="22" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E89" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F89" s="3" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G89" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H89" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K89" s="21" t="s">
+      <c r="F89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J89" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K89" s="24" t="s">
         <v>39</v>
       </c>
       <c r="L89" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M89" s="5" t="s">
-        <v>40</v>
+      <c r="M89" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="N89" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O89" s="6" t="n">
-        <v>45384</v>
-      </c>
-      <c r="P89" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q89" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R89" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S89" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T89" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U89" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V89" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W89" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X89" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y89" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z89" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA89" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB89" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC89" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD89" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE89" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF89" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG89" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="O89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="R89" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="S89" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T89" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="V89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="W89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="X89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG89" s="0"/>
+      <c r="AH89" s="0"/>
+      <c r="AI89" s="0"/>
+      <c r="AJ89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="22" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" s="22" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G90" s="21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H90" s="21" t="n">
+        <v>600</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J90" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M90" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N90" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O90" s="27" t="n">
+        <v>45384</v>
+      </c>
+      <c r="P90" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q90" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="R90" s="28" t="n">
+        <v>7350513300</v>
+      </c>
+      <c r="S90" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T90" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U90" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="V90" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W90" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="X90" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" s="3" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F90" s="3" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G90" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H90" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J90" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K90" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L90" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N90" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="O90" s="6" t="n">
-        <v>45384</v>
-      </c>
-      <c r="P90" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q90" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R90" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S90" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T90" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U90" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V90" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W90" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X90" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y90" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z90" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA90" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB90" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC90" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD90" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE90" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF90" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG90" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="Y90" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z90" s="28" t="n">
+        <v>7350513300</v>
+      </c>
+      <c r="AA90" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC90" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD90" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE90" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF90" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG90" s="0"/>
+      <c r="AH90" s="0"/>
+      <c r="AI90" s="0"/>
+      <c r="AJ90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="3" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="D91" s="22" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E91" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F91" s="3" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G91" s="1" t="n">
+      <c r="F91" s="22" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G91" s="21" t="n">
         <v>1000</v>
       </c>
-      <c r="H91" s="1" t="n">
+      <c r="H91" s="21" t="n">
         <v>600</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="I91" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J91" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K91" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L91" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M91" s="5" t="s">
+      <c r="J91" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M91" s="24" t="s">
         <v>40</v>
       </c>
       <c r="N91" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="O91" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="O91" s="27" t="n">
         <v>45384</v>
       </c>
-      <c r="P91" s="6" t="s">
+      <c r="P91" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Q91" s="6" t="s">
+      <c r="Q91" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S91" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T91" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U91" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V91" s="1" t="s">
+      <c r="R91" s="28" t="n">
+        <v>7350516600</v>
+      </c>
+      <c r="S91" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T91" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U91" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="V91" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="W91" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X91" s="1" t="s">
+      <c r="W91" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="X91" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="Y91" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z91" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA91" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB91" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC91" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD91" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE91" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF91" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG91" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="Y91" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z91" s="28" t="n">
+        <v>7350516600</v>
+      </c>
+      <c r="AA91" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC91" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD91" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE91" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF91" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG91" s="0"/>
+      <c r="AH91" s="0"/>
+      <c r="AI91" s="0"/>
+      <c r="AJ91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D92" s="3" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="D92" s="22" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E92" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F92" s="3" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G92" s="1" t="n">
+      <c r="F92" s="22" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G92" s="21" t="n">
         <v>1000</v>
       </c>
-      <c r="H92" s="1" t="n">
+      <c r="H92" s="21" t="n">
         <v>600</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="I92" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J92" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K92" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L92" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M92" s="5" t="s">
+      <c r="J92" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M92" s="24" t="s">
         <v>40</v>
       </c>
       <c r="N92" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="O92" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="O92" s="27" t="n">
         <v>45384</v>
       </c>
-      <c r="P92" s="6" t="s">
+      <c r="P92" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Q92" s="6" t="s">
+      <c r="Q92" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="R92" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S92" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T92" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U92" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V92" s="1" t="s">
+      <c r="R92" s="28" t="n">
+        <v>9911882277</v>
+      </c>
+      <c r="S92" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T92" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U92" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="V92" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="W92" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X92" s="1" t="s">
+      <c r="W92" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="X92" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="Y92" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z92" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA92" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB92" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC92" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD92" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE92" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF92" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG92" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="Y92" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z92" s="28" t="n">
+        <v>9911882277</v>
+      </c>
+      <c r="AA92" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC92" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD92" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE92" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF92" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG92" s="0"/>
+      <c r="AH92" s="0"/>
+      <c r="AI92" s="0"/>
+      <c r="AJ92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>36</v>
@@ -10718,19 +10763,19 @@
       <c r="I93" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J93" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K93" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L93" s="21" t="s">
+      <c r="J93" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K93" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L93" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M93" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N93" s="21" t="s">
+      <c r="N93" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O93" s="6" t="n">
@@ -10769,8 +10814,8 @@
       <c r="Z93" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AA93" s="5" t="s">
-        <v>39</v>
+      <c r="AA93" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="AB93" s="8" t="s">
         <v>39</v>
@@ -10796,7 +10841,7 @@
         <v>224</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>36</v>
@@ -10819,19 +10864,19 @@
       <c r="I94" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J94" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K94" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L94" s="21" t="s">
+      <c r="J94" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L94" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M94" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N94" s="21" t="s">
+      <c r="N94" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O94" s="6" t="n">
@@ -10897,7 +10942,7 @@
         <v>225</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>36</v>
@@ -10920,19 +10965,19 @@
       <c r="I95" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J95" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K95" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L95" s="21" t="s">
+      <c r="J95" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K95" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L95" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M95" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N95" s="21" t="s">
+      <c r="N95" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O95" s="6" t="n">
@@ -11021,19 +11066,19 @@
       <c r="I96" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J96" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K96" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L96" s="21" t="s">
+      <c r="J96" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K96" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L96" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M96" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N96" s="21" t="s">
+      <c r="N96" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O96" s="6" t="n">
@@ -11099,7 +11144,7 @@
         <v>229</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>36</v>
@@ -11122,19 +11167,19 @@
       <c r="I97" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J97" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K97" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L97" s="21" t="s">
+      <c r="J97" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K97" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L97" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M97" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N97" s="21" t="s">
+      <c r="N97" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O97" s="6" t="n">
@@ -11171,7 +11216,7 @@
         <v>52</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA97" s="5" t="s">
         <v>39</v>
@@ -11200,7 +11245,7 @@
         <v>230</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>36</v>
@@ -11223,19 +11268,19 @@
       <c r="I98" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J98" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K98" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L98" s="21" t="s">
+      <c r="J98" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K98" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L98" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M98" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N98" s="21" t="s">
+      <c r="N98" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O98" s="6" t="n">
@@ -11301,7 +11346,7 @@
         <v>231</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>36</v>
@@ -11324,19 +11369,19 @@
       <c r="I99" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J99" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K99" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L99" s="21" t="s">
+      <c r="J99" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K99" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L99" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M99" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N99" s="21" t="s">
+      <c r="N99" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O99" s="6" t="n">
@@ -11348,8 +11393,8 @@
       <c r="Q99" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="R99" s="5" t="s">
-        <v>39</v>
+      <c r="R99" s="5" t="n">
+        <v>9876543212</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>39</v>
@@ -11399,7 +11444,7 @@
         <v>232</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>36</v>
@@ -11422,19 +11467,19 @@
       <c r="I100" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J100" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K100" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L100" s="21" t="s">
+      <c r="J100" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K100" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L100" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M100" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N100" s="21" t="s">
+      <c r="N100" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O100" s="6" t="n">
@@ -11500,7 +11545,7 @@
         <v>234</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>36</v>
@@ -11523,19 +11568,19 @@
       <c r="I101" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J101" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K101" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L101" s="21" t="s">
+      <c r="J101" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K101" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L101" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M101" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N101" s="21" t="s">
+      <c r="N101" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O101" s="6" t="n">
@@ -11601,7 +11646,7 @@
         <v>235</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>36</v>
@@ -11624,19 +11669,19 @@
       <c r="I102" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J102" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K102" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L102" s="21" t="s">
+      <c r="J102" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K102" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L102" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M102" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N102" s="21" t="s">
+      <c r="N102" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O102" s="6" t="n">
@@ -11702,7 +11747,7 @@
         <v>236</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>36</v>
@@ -11725,19 +11770,19 @@
       <c r="I103" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J103" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K103" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L103" s="21" t="s">
+      <c r="J103" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K103" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L103" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M103" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N103" s="21" t="s">
+      <c r="N103" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O103" s="6" t="n">
@@ -11803,7 +11848,7 @@
         <v>237</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>36</v>
@@ -11826,19 +11871,19 @@
       <c r="I104" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J104" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K104" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L104" s="21" t="s">
+      <c r="J104" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K104" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L104" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M104" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N104" s="21" t="s">
+      <c r="N104" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O104" s="6" t="n">
@@ -11875,7 +11920,7 @@
         <v>59</v>
       </c>
       <c r="Z104" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA104" s="5" t="s">
         <v>39</v>
@@ -11904,7 +11949,7 @@
         <v>238</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>36</v>
@@ -11927,19 +11972,19 @@
       <c r="I105" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J105" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K105" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L105" s="21" t="s">
+      <c r="J105" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L105" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M105" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N105" s="21" t="s">
+      <c r="N105" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O105" s="6" t="n">
@@ -11976,7 +12021,7 @@
         <v>55</v>
       </c>
       <c r="Z105" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA105" s="5" t="s">
         <v>39</v>
@@ -12005,7 +12050,7 @@
         <v>239</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>36</v>
@@ -12028,19 +12073,19 @@
       <c r="I106" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J106" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K106" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L106" s="21" t="s">
+      <c r="J106" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K106" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L106" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M106" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N106" s="21" t="s">
+      <c r="N106" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O106" s="6" t="n">
@@ -12106,7 +12151,7 @@
         <v>241</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>36</v>
@@ -12129,19 +12174,19 @@
       <c r="I107" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J107" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K107" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L107" s="21" t="s">
+      <c r="J107" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K107" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L107" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M107" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N107" s="21" t="s">
+      <c r="N107" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O107" s="6" t="n">
@@ -12207,7 +12252,7 @@
         <v>243</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>36</v>
@@ -12230,19 +12275,19 @@
       <c r="I108" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J108" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K108" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L108" s="21" t="s">
+      <c r="J108" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K108" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L108" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M108" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N108" s="21" t="s">
+      <c r="N108" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O108" s="6" t="n">
@@ -12279,7 +12324,7 @@
         <v>52</v>
       </c>
       <c r="Z108" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA108" s="1" t="n">
         <v>1</v>
@@ -12308,7 +12353,7 @@
         <v>244</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>36</v>
@@ -12331,19 +12376,19 @@
       <c r="I109" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J109" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K109" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L109" s="21" t="s">
+      <c r="J109" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K109" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L109" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M109" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N109" s="21" t="s">
+      <c r="N109" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O109" s="6" t="n">
@@ -12409,7 +12454,7 @@
         <v>245</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>36</v>
@@ -12432,19 +12477,19 @@
       <c r="I110" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J110" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K110" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L110" s="21" t="s">
+      <c r="J110" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K110" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L110" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M110" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N110" s="21" t="s">
+      <c r="N110" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O110" s="6" t="n">
@@ -12510,7 +12555,7 @@
         <v>246</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>36</v>
@@ -12533,19 +12578,19 @@
       <c r="I111" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J111" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K111" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L111" s="21" t="s">
+      <c r="J111" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K111" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L111" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M111" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N111" s="21" t="s">
+      <c r="N111" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O111" s="6" t="n">
@@ -12611,7 +12656,7 @@
         <v>247</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>36</v>
@@ -12634,19 +12679,19 @@
       <c r="I112" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J112" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K112" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L112" s="21" t="s">
+      <c r="J112" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K112" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L112" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M112" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N112" s="21" t="s">
+      <c r="N112" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O112" s="6" t="n">
@@ -12712,7 +12757,7 @@
         <v>248</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>36</v>
@@ -12735,19 +12780,19 @@
       <c r="I113" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J113" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K113" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L113" s="21" t="s">
+      <c r="J113" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K113" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L113" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M113" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N113" s="21" t="s">
+      <c r="N113" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O113" s="6" t="n">
@@ -12784,7 +12829,7 @@
         <v>52</v>
       </c>
       <c r="Z113" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA113" s="5" t="s">
         <v>39</v>
@@ -12813,7 +12858,7 @@
         <v>249</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>36</v>
@@ -12836,19 +12881,19 @@
       <c r="I114" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J114" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K114" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L114" s="21" t="s">
+      <c r="J114" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K114" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L114" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M114" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N114" s="21" t="s">
+      <c r="N114" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O114" s="6" t="n">
@@ -12885,7 +12930,7 @@
         <v>52</v>
       </c>
       <c r="Z114" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA114" s="5" t="s">
         <v>39</v>
@@ -12914,7 +12959,7 @@
         <v>250</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>36</v>
@@ -12937,19 +12982,19 @@
       <c r="I115" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J115" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K115" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L115" s="21" t="s">
+      <c r="J115" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K115" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L115" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M115" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N115" s="21" t="s">
+      <c r="N115" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O115" s="6" t="n">
@@ -12986,7 +13031,7 @@
         <v>52</v>
       </c>
       <c r="Z115" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA115" s="1" t="n">
         <v>0</v>
@@ -13015,7 +13060,7 @@
         <v>251</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>36</v>
@@ -13038,19 +13083,19 @@
       <c r="I116" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J116" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K116" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L116" s="21" t="s">
+      <c r="J116" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K116" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L116" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M116" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N116" s="21" t="s">
+      <c r="N116" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O116" s="6" t="n">
@@ -13087,7 +13132,7 @@
         <v>52</v>
       </c>
       <c r="Z116" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA116" s="1" t="n">
         <v>1</v>
@@ -13116,7 +13161,7 @@
         <v>252</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>36</v>
@@ -13139,19 +13184,19 @@
       <c r="I117" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J117" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K117" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L117" s="21" t="s">
+      <c r="J117" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K117" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L117" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M117" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N117" s="21" t="s">
+      <c r="N117" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O117" s="6" t="n">
@@ -13188,7 +13233,7 @@
         <v>52</v>
       </c>
       <c r="Z117" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA117" s="1" t="n">
         <v>1</v>
@@ -13217,7 +13262,7 @@
         <v>253</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>36</v>
@@ -13240,19 +13285,19 @@
       <c r="I118" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J118" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K118" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L118" s="21" t="s">
+      <c r="J118" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K118" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L118" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M118" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N118" s="21" t="s">
+      <c r="N118" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O118" s="6" t="n">
@@ -13289,7 +13334,7 @@
         <v>52</v>
       </c>
       <c r="Z118" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA118" s="1" t="n">
         <v>1</v>
@@ -13341,19 +13386,19 @@
       <c r="I119" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J119" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K119" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L119" s="21" t="s">
+      <c r="J119" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K119" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L119" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M119" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N119" s="21" t="s">
+      <c r="N119" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O119" s="6" t="n">
@@ -13390,7 +13435,7 @@
         <v>52</v>
       </c>
       <c r="Z119" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA119" s="1" t="n">
         <v>1</v>
@@ -13419,7 +13464,7 @@
         <v>257</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>36</v>
@@ -13442,19 +13487,19 @@
       <c r="I120" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J120" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K120" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L120" s="21" t="s">
+      <c r="J120" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K120" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L120" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M120" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N120" s="21" t="s">
+      <c r="N120" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O120" s="6" t="n">
@@ -13491,7 +13536,7 @@
         <v>52</v>
       </c>
       <c r="Z120" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA120" s="1" t="n">
         <v>1</v>
@@ -13520,7 +13565,7 @@
         <v>258</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>36</v>
@@ -13543,19 +13588,19 @@
       <c r="I121" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J121" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K121" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L121" s="21" t="s">
+      <c r="J121" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K121" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L121" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M121" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N121" s="21" t="s">
+      <c r="N121" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O121" s="6" t="n">
@@ -13592,7 +13637,7 @@
         <v>52</v>
       </c>
       <c r="Z121" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA121" s="1" t="n">
         <v>1</v>
@@ -13621,7 +13666,7 @@
         <v>259</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>36</v>
@@ -13644,19 +13689,19 @@
       <c r="I122" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J122" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K122" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L122" s="21" t="s">
+      <c r="J122" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K122" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L122" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M122" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N122" s="21" t="s">
+      <c r="N122" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O122" s="6" t="n">
@@ -13693,7 +13738,7 @@
         <v>52</v>
       </c>
       <c r="Z122" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA122" s="1" t="n">
         <v>1</v>
@@ -13717,12 +13762,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>36</v>
@@ -13745,19 +13790,19 @@
       <c r="I123" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J123" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K123" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L123" s="21" t="s">
+      <c r="J123" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K123" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L123" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M123" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N123" s="21" t="s">
+      <c r="N123" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O123" s="6" t="n">
@@ -13794,7 +13839,7 @@
         <v>52</v>
       </c>
       <c r="Z123" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA123" s="1" t="n">
         <v>1</v>
@@ -13818,12 +13863,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>36</v>
@@ -13846,19 +13891,19 @@
       <c r="I124" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J124" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K124" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L124" s="21" t="s">
+      <c r="J124" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K124" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L124" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M124" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N124" s="21" t="s">
+      <c r="N124" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O124" s="6" t="n">
@@ -13895,7 +13940,7 @@
         <v>52</v>
       </c>
       <c r="Z124" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA124" s="1" t="n">
         <v>1</v>
@@ -13909,8 +13954,8 @@
       <c r="AD124" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE124" s="8" t="s">
-        <v>39</v>
+      <c r="AE124" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="AF124" s="8" t="s">
         <v>39</v>
@@ -13919,12 +13964,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>36</v>
@@ -13947,19 +13992,19 @@
       <c r="I125" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J125" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K125" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L125" s="21" t="s">
+      <c r="J125" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K125" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L125" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M125" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N125" s="21" t="s">
+      <c r="N125" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O125" s="6" t="n">
@@ -13996,7 +14041,7 @@
         <v>52</v>
       </c>
       <c r="Z125" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA125" s="1" t="n">
         <v>1</v>
@@ -14010,8 +14055,8 @@
       <c r="AD125" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE125" s="8" t="s">
-        <v>39</v>
+      <c r="AE125" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="AF125" s="8" t="s">
         <v>39</v>
@@ -14020,12 +14065,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>36</v>
@@ -14048,19 +14093,19 @@
       <c r="I126" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J126" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K126" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L126" s="21" t="s">
+      <c r="J126" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K126" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L126" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M126" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N126" s="21" t="s">
+      <c r="N126" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O126" s="6" t="n">
@@ -14097,7 +14142,7 @@
         <v>52</v>
       </c>
       <c r="Z126" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA126" s="1" t="n">
         <v>1</v>
@@ -14111,8 +14156,8 @@
       <c r="AD126" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE126" s="8" t="s">
-        <v>39</v>
+      <c r="AE126" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="AF126" s="8" t="s">
         <v>39</v>
@@ -14121,12 +14166,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>36</v>
@@ -14149,19 +14194,19 @@
       <c r="I127" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J127" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K127" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L127" s="21" t="s">
+      <c r="J127" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K127" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L127" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M127" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N127" s="21" t="s">
+      <c r="N127" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O127" s="6" t="n">
@@ -14198,7 +14243,7 @@
         <v>52</v>
       </c>
       <c r="Z127" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA127" s="1" t="n">
         <v>1</v>
@@ -14212,8 +14257,8 @@
       <c r="AD127" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE127" s="8" t="s">
-        <v>39</v>
+      <c r="AE127" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="AF127" s="8" t="s">
         <v>39</v>
@@ -14222,12 +14267,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>36</v>
@@ -14250,19 +14295,19 @@
       <c r="I128" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J128" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K128" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L128" s="21" t="s">
+      <c r="J128" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K128" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L128" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M128" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N128" s="21" t="s">
+      <c r="N128" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O128" s="6" t="n">
@@ -14299,7 +14344,7 @@
         <v>52</v>
       </c>
       <c r="Z128" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA128" s="1" t="n">
         <v>1</v>
@@ -14313,8 +14358,8 @@
       <c r="AD128" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE128" s="8" t="s">
-        <v>39</v>
+      <c r="AE128" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="AF128" s="8" t="s">
         <v>39</v>
@@ -14323,12 +14368,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>36</v>
@@ -14351,19 +14396,19 @@
       <c r="I129" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J129" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K129" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L129" s="21" t="s">
+      <c r="J129" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K129" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L129" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M129" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N129" s="21" t="s">
+      <c r="N129" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O129" s="6" t="n">
@@ -14400,7 +14445,7 @@
         <v>52</v>
       </c>
       <c r="Z129" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA129" s="1" t="n">
         <v>1</v>
@@ -14414,8 +14459,8 @@
       <c r="AD129" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE129" s="8" t="s">
-        <v>39</v>
+      <c r="AE129" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="AF129" s="8" t="s">
         <v>39</v>
@@ -14424,12 +14469,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>36</v>
@@ -14452,19 +14497,19 @@
       <c r="I130" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J130" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K130" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L130" s="21" t="s">
+      <c r="J130" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K130" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L130" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M130" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N130" s="21" t="s">
+      <c r="N130" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O130" s="6" t="n">
@@ -14501,7 +14546,7 @@
         <v>52</v>
       </c>
       <c r="Z130" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA130" s="1" t="n">
         <v>1</v>
@@ -14515,8 +14560,8 @@
       <c r="AD130" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE130" s="8" t="s">
-        <v>39</v>
+      <c r="AE130" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AF130" s="8" t="s">
         <v>39</v>
@@ -14525,12 +14570,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>36</v>
@@ -14553,19 +14598,19 @@
       <c r="I131" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J131" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K131" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L131" s="21" t="s">
+      <c r="J131" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K131" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L131" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M131" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N131" s="21" t="s">
+      <c r="N131" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O131" s="6" t="n">
@@ -14602,7 +14647,7 @@
         <v>52</v>
       </c>
       <c r="Z131" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA131" s="1" t="n">
         <v>1</v>
@@ -14616,8 +14661,8 @@
       <c r="AD131" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE131" s="8" t="s">
-        <v>39</v>
+      <c r="AE131" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AF131" s="8" t="s">
         <v>39</v>
@@ -14626,12 +14671,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>36</v>
@@ -14654,19 +14699,19 @@
       <c r="I132" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J132" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K132" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L132" s="21" t="s">
+      <c r="J132" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K132" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L132" s="30" t="s">
         <v>39</v>
       </c>
       <c r="M132" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N132" s="21" t="s">
+      <c r="N132" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O132" s="6" t="n">
@@ -14703,7 +14748,7 @@
         <v>52</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA132" s="1" t="n">
         <v>1</v>
@@ -14714,8 +14759,8 @@
       <c r="AC132" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE132" s="8" t="s">
-        <v>39</v>
+      <c r="AE132" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="AF132" s="8" t="s">
         <v>39</v>
@@ -14726,82 +14771,82 @@
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="290">
   <si>
     <t xml:space="preserve">TC_Id</t>
   </si>
@@ -374,6 +374,9 @@
       </rPr>
       <t xml:space="preserve"> : 1</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sarvesh nikumbh</t>
   </si>
   <si>
     <t xml:space="preserve">E_46</t>
@@ -1061,7 +1064,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1144,42 +1147,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1440,10 +1407,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ148"/>
+  <dimension ref="A1:AH148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M50" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M86" activeCellId="0" sqref="M86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S20" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA47" activeCellId="0" sqref="AA47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6077,13 +6044,13 @@
         <v>44</v>
       </c>
       <c r="Y46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z46" s="4" t="n">
-        <v>5555555555</v>
+        <v>52</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="AA46" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB46" s="8" t="s">
         <v>39</v>
@@ -6106,7 +6073,7 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>35</v>
@@ -6142,7 +6109,7 @@
         <v>39</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>39</v>
@@ -6181,7 +6148,7 @@
         <v>52</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA47" s="4" t="n">
         <v>3</v>
@@ -6207,7 +6174,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>35</v>
@@ -6282,7 +6249,7 @@
         <v>52</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA48" s="4" t="n">
         <v>4</v>
@@ -6308,7 +6275,7 @@
     </row>
     <row r="49" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>35</v>
@@ -6335,7 +6302,7 @@
         <v>38</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K49" s="15" t="n">
         <v>1</v>
@@ -6383,7 +6350,7 @@
         <v>52</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA49" s="4" t="n">
         <v>1</v>
@@ -6409,7 +6376,7 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>35</v>
@@ -6484,7 +6451,7 @@
         <v>52</v>
       </c>
       <c r="Z50" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA50" s="4" t="n">
         <v>1</v>
@@ -6510,7 +6477,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>35</v>
@@ -6585,7 +6552,7 @@
         <v>52</v>
       </c>
       <c r="Z51" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA51" s="4" t="n">
         <v>1</v>
@@ -6611,7 +6578,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>35</v>
@@ -6686,7 +6653,7 @@
         <v>52</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA52" s="4" t="n">
         <v>1</v>
@@ -6712,7 +6679,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>35</v>
@@ -6787,7 +6754,7 @@
         <v>52</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA53" s="4" t="n">
         <v>3</v>
@@ -6813,7 +6780,7 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>35</v>
@@ -6888,7 +6855,7 @@
         <v>52</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA54" s="4" t="n">
         <v>1</v>
@@ -6914,7 +6881,7 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>35</v>
@@ -6950,7 +6917,7 @@
         <v>39</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>39</v>
@@ -6989,7 +6956,7 @@
         <v>52</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA55" s="4" t="n">
         <v>3</v>
@@ -7015,7 +6982,7 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>35</v>
@@ -7051,7 +7018,7 @@
         <v>39</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>39</v>
@@ -7090,7 +7057,7 @@
         <v>52</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA56" s="4" t="n">
         <v>1</v>
@@ -7116,7 +7083,7 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>35</v>
@@ -7191,7 +7158,7 @@
         <v>52</v>
       </c>
       <c r="Z57" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA57" s="4" t="n">
         <v>1</v>
@@ -7217,7 +7184,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>35</v>
@@ -7250,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>40</v>
@@ -7292,7 +7259,7 @@
         <v>52</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA58" s="1" t="n">
         <v>1</v>
@@ -7318,7 +7285,7 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>35</v>
@@ -7351,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>40</v>
@@ -7419,7 +7386,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>35</v>
@@ -7452,10 +7419,10 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>77</v>
@@ -7494,7 +7461,7 @@
         <v>52</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA60" s="1" t="n">
         <v>1</v>
@@ -7520,7 +7487,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>35</v>
@@ -7577,7 +7544,7 @@
         <v>86</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>39</v>
@@ -7621,7 +7588,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>35</v>
@@ -7657,7 +7624,7 @@
         <v>80</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>77</v>
@@ -7678,7 +7645,7 @@
         <v>86</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>39</v>
@@ -7722,7 +7689,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>35</v>
@@ -7779,7 +7746,7 @@
         <v>86</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>39</v>
@@ -7803,7 +7770,7 @@
         <v>1</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC63" s="8" t="s">
         <v>39</v>
@@ -7823,7 +7790,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>35</v>
@@ -7850,7 +7817,7 @@
         <v>38</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K64" s="15" t="n">
         <v>1</v>
@@ -7898,7 +7865,7 @@
         <v>52</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA64" s="1" t="n">
         <v>1</v>
@@ -7924,7 +7891,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>35</v>
@@ -7957,7 +7924,7 @@
         <v>39</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>40</v>
@@ -7999,7 +7966,7 @@
         <v>52</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA65" s="1" t="n">
         <v>1</v>
@@ -8025,7 +7992,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>35</v>
@@ -8058,7 +8025,7 @@
         <v>39</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>40</v>
@@ -8091,7 +8058,7 @@
         <v>43</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>44</v>
@@ -8100,7 +8067,7 @@
         <v>52</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA66" s="1" t="n">
         <v>1</v>
@@ -8126,7 +8093,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>35</v>
@@ -8201,7 +8168,7 @@
         <v>52</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA67" s="1" t="n">
         <v>1</v>
@@ -8227,7 +8194,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>35</v>
@@ -8308,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC68" s="8" t="s">
         <v>39</v>
@@ -8328,7 +8295,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>35</v>
@@ -8429,7 +8396,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>35</v>
@@ -8530,7 +8497,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>35</v>
@@ -8631,7 +8598,7 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>35</v>
@@ -8732,7 +8699,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>35</v>
@@ -8833,7 +8800,7 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>35</v>
@@ -8866,13 +8833,13 @@
         <v>1</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O74" s="10" t="n">
         <v>45384</v>
@@ -8934,7 +8901,7 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>35</v>
@@ -8967,13 +8934,13 @@
         <v>1</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O75" s="10" t="n">
         <v>45384</v>
@@ -8988,10 +8955,10 @@
         <v>7709577438</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T75" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U75" s="1" t="s">
         <v>39</v>
@@ -9035,7 +9002,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>35</v>
@@ -9068,13 +9035,13 @@
         <v>1</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O76" s="10" t="n">
         <v>45384</v>
@@ -9089,10 +9056,10 @@
         <v>6060606060</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T76" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U76" s="1" t="s">
         <v>39</v>
@@ -9136,7 +9103,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>35</v>
@@ -9169,13 +9136,13 @@
         <v>1</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O77" s="10" t="n">
         <v>45384</v>
@@ -9190,10 +9157,10 @@
         <v>7070707070</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T77" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U77" s="1" t="s">
         <v>39</v>
@@ -9223,7 +9190,7 @@
         <v>39</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AE77" s="8" t="s">
         <v>39</v>
@@ -9237,7 +9204,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>35</v>
@@ -9270,13 +9237,13 @@
         <v>1</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O78" s="10" t="n">
         <v>45384</v>
@@ -9291,10 +9258,10 @@
         <v>7070707070</v>
       </c>
       <c r="S78" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T78" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U78" s="1" t="s">
         <v>39</v>
@@ -9338,7 +9305,7 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>35</v>
@@ -9374,7 +9341,7 @@
         <v>80</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>77</v>
@@ -9395,7 +9362,7 @@
         <v>86</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U79" s="1" t="s">
         <v>39</v>
@@ -9419,13 +9386,13 @@
         <v>1</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC79" s="8" t="s">
         <v>39</v>
       </c>
       <c r="AD79" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AE79" s="8" t="s">
         <v>39</v>
@@ -9439,7 +9406,7 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>35</v>
@@ -9472,13 +9439,13 @@
         <v>1</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O80" s="10" t="n">
         <v>45384</v>
@@ -9520,7 +9487,7 @@
         <v>1</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC80" s="8" t="s">
         <v>39</v>
@@ -9540,7 +9507,7 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>35</v>
@@ -9573,13 +9540,13 @@
         <v>1</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O81" s="10" t="n">
         <v>45384</v>
@@ -9621,13 +9588,13 @@
         <v>1</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC81" s="8" t="s">
         <v>39</v>
       </c>
       <c r="AD81" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AE81" s="8" t="s">
         <v>39</v>
@@ -9640,108 +9607,108 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G82" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H82" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J82" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M82" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B82" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="22" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F82" s="22" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G82" s="21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H82" s="21" t="n">
-        <v>600</v>
-      </c>
-      <c r="I82" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J82" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L82" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="M82" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="N82" s="21" t="s">
+      <c r="N82" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="O82" s="27" t="n">
+      <c r="O82" s="10" t="n">
         <v>45384</v>
       </c>
-      <c r="P82" s="27" t="s">
+      <c r="P82" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q82" s="27" t="s">
+      <c r="Q82" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="R82" s="28" t="n">
+      <c r="R82" s="11" t="n">
         <v>7709577438</v>
       </c>
-      <c r="S82" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T82" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="U82" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="V82" s="21" t="s">
+      <c r="S82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V82" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="W82" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="X82" s="21" t="s">
+      <c r="W82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X82" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y82" s="21" t="s">
+      <c r="Y82" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z82" s="21" t="n">
+      <c r="Z82" s="4" t="n">
         <v>7719921544</v>
       </c>
-      <c r="AA82" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB82" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC82" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD82" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE82" s="21"/>
-      <c r="AF82" s="21"/>
+      <c r="AA82" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB82" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC82" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE82" s="4"/>
+      <c r="AF82" s="4"/>
       <c r="AG82" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="83" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>36</v>
@@ -9762,7 +9729,7 @@
         <v>600</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J83" s="9" t="n">
         <v>1</v>
@@ -9795,7 +9762,7 @@
         <v>39</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U83" s="4" t="s">
         <v>39</v>
@@ -9831,15 +9798,15 @@
         <v>39</v>
       </c>
       <c r="AF83" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>36</v>
@@ -9860,7 +9827,7 @@
         <v>600</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J84" s="9" t="n">
         <v>1</v>
@@ -9869,10 +9836,10 @@
         <v>1</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>39</v>
@@ -9929,15 +9896,15 @@
         <v>39</v>
       </c>
       <c r="AF84" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>36</v>
@@ -9958,7 +9925,7 @@
         <v>600</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J85" s="9" t="n">
         <v>1</v>
@@ -9967,10 +9934,10 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>39</v>
@@ -10027,15 +9994,15 @@
         <v>39</v>
       </c>
       <c r="AF85" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" s="4" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>36</v>
@@ -10056,7 +10023,7 @@
         <v>600</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J86" s="9" t="n">
         <v>1</v>
@@ -10065,10 +10032,10 @@
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>39</v>
@@ -10125,18 +10092,18 @@
         <v>39</v>
       </c>
       <c r="AF86" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>36</v>
@@ -10157,7 +10124,7 @@
         <v>600</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J87" s="9" t="n">
         <v>1</v>
@@ -10166,10 +10133,10 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>39</v>
@@ -10226,15 +10193,15 @@
         <v>39</v>
       </c>
       <c r="AF87" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>36</v>
@@ -10243,7 +10210,7 @@
         <v>123456</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F88" s="3" t="n">
         <v>123456</v>
@@ -10255,7 +10222,7 @@
         <v>600</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J88" s="9" t="n">
         <v>1</v>
@@ -10264,10 +10231,10 @@
         <v>1</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>39</v>
@@ -10328,419 +10295,403 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B89" s="22" t="s">
+      <c r="A89" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D89" s="22" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E89" s="21" t="s">
+      <c r="D89" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J89" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="K89" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="N89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="O89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="R89" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="S89" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T89" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="U89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="V89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="W89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="X89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG89" s="0"/>
-      <c r="AH89" s="0"/>
-      <c r="AI89" s="0"/>
-      <c r="AJ89" s="0"/>
+      <c r="F89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF89" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B90" s="22" t="s">
+      <c r="A90" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D90" s="22" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E90" s="21" t="s">
+      <c r="D90" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F90" s="22" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G90" s="21" t="n">
+      <c r="F90" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G90" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="H90" s="21" t="n">
+      <c r="H90" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="I90" s="24" t="s">
+      <c r="I90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J90" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L90" s="24" t="s">
+      <c r="J90" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M90" s="24" t="s">
+      <c r="M90" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N90" s="21" t="s">
+      <c r="N90" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="O90" s="27" t="n">
+      <c r="O90" s="10" t="n">
         <v>45384</v>
       </c>
-      <c r="P90" s="27" t="s">
+      <c r="P90" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q90" s="27" t="s">
+      <c r="Q90" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="R90" s="28" t="n">
+      <c r="R90" s="11" t="n">
         <v>7350513300</v>
       </c>
-      <c r="S90" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T90" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="U90" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="V90" s="21" t="s">
+      <c r="S90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V90" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="W90" s="24" t="s">
+      <c r="W90" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="X90" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y90" s="21" t="s">
+      <c r="X90" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y90" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z90" s="28" t="n">
+      <c r="Z90" s="11" t="n">
         <v>7350513300</v>
       </c>
-      <c r="AA90" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB90" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC90" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD90" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE90" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF90" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG90" s="0"/>
-      <c r="AH90" s="0"/>
-      <c r="AI90" s="0"/>
-      <c r="AJ90" s="0"/>
+      <c r="AA90" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC90" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE90" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF90" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B91" s="22" t="s">
+      <c r="A91" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="22" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E91" s="21" t="s">
+      <c r="D91" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F91" s="22" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G91" s="21" t="n">
+      <c r="F91" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G91" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="H91" s="21" t="n">
+      <c r="H91" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="I91" s="24" t="s">
+      <c r="I91" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J91" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L91" s="24" t="s">
+      <c r="J91" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M91" s="24" t="s">
+      <c r="M91" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N91" s="21" t="s">
+      <c r="N91" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="O91" s="27" t="n">
+      <c r="O91" s="10" t="n">
         <v>45384</v>
       </c>
-      <c r="P91" s="27" t="s">
+      <c r="P91" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q91" s="27" t="s">
+      <c r="Q91" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="28" t="n">
+      <c r="R91" s="11" t="n">
         <v>7350516600</v>
       </c>
-      <c r="S91" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T91" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="U91" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="V91" s="21" t="s">
+      <c r="S91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V91" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="W91" s="24" t="s">
+      <c r="W91" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="X91" s="21" t="s">
+      <c r="X91" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y91" s="21" t="s">
+      <c r="Y91" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z91" s="28" t="n">
+      <c r="Z91" s="11" t="n">
         <v>7350516600</v>
       </c>
-      <c r="AA91" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB91" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC91" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD91" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE91" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF91" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG91" s="0"/>
-      <c r="AH91" s="0"/>
-      <c r="AI91" s="0"/>
-      <c r="AJ91" s="0"/>
+      <c r="AA91" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC91" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE91" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF91" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B92" s="22" t="s">
+      <c r="A92" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D92" s="22" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E92" s="21" t="s">
+      <c r="D92" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F92" s="22" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G92" s="21" t="n">
+      <c r="F92" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G92" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="H92" s="21" t="n">
+      <c r="H92" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="I92" s="24" t="s">
+      <c r="I92" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J92" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L92" s="24" t="s">
+      <c r="J92" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M92" s="24" t="s">
+      <c r="M92" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N92" s="21" t="s">
+      <c r="N92" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="O92" s="27" t="n">
+      <c r="O92" s="10" t="n">
         <v>45384</v>
       </c>
-      <c r="P92" s="27" t="s">
+      <c r="P92" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q92" s="27" t="s">
+      <c r="Q92" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="R92" s="28" t="n">
+      <c r="R92" s="11" t="n">
         <v>9911882277</v>
       </c>
-      <c r="S92" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T92" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="U92" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="V92" s="21" t="s">
+      <c r="S92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V92" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="W92" s="24" t="s">
+      <c r="W92" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="X92" s="21" t="s">
+      <c r="X92" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y92" s="21" t="s">
+      <c r="Y92" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Z92" s="28" t="n">
+      <c r="Z92" s="11" t="n">
         <v>9911882277</v>
       </c>
-      <c r="AA92" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB92" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC92" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD92" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE92" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF92" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG92" s="0"/>
-      <c r="AH92" s="0"/>
-      <c r="AI92" s="0"/>
-      <c r="AJ92" s="0"/>
+      <c r="AA92" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC92" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE92" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF92" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>36</v>
@@ -10763,19 +10714,19 @@
       <c r="I93" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J93" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K93" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L93" s="30" t="s">
+      <c r="J93" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K93" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L93" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M93" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N93" s="30" t="s">
+      <c r="N93" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O93" s="6" t="n">
@@ -10838,10 +10789,10 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>36</v>
@@ -10864,19 +10815,19 @@
       <c r="I94" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J94" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K94" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L94" s="30" t="s">
+      <c r="J94" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L94" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M94" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N94" s="30" t="s">
+      <c r="N94" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O94" s="6" t="n">
@@ -10939,10 +10890,10 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>36</v>
@@ -10965,19 +10916,19 @@
       <c r="I95" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J95" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K95" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L95" s="30" t="s">
+      <c r="J95" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K95" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L95" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M95" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N95" s="30" t="s">
+      <c r="N95" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O95" s="6" t="n">
@@ -11040,10 +10991,10 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>36</v>
@@ -11052,7 +11003,7 @@
         <v>123456</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F96" s="3" t="n">
         <v>123456</v>
@@ -11066,19 +11017,19 @@
       <c r="I96" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J96" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K96" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L96" s="30" t="s">
+      <c r="J96" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K96" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L96" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M96" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N96" s="30" t="s">
+      <c r="N96" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O96" s="6" t="n">
@@ -11141,10 +11092,10 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>36</v>
@@ -11167,19 +11118,19 @@
       <c r="I97" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J97" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K97" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L97" s="30" t="s">
+      <c r="J97" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K97" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L97" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M97" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N97" s="30" t="s">
+      <c r="N97" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O97" s="6" t="n">
@@ -11216,7 +11167,7 @@
         <v>52</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA97" s="5" t="s">
         <v>39</v>
@@ -11242,10 +11193,10 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>36</v>
@@ -11268,19 +11219,19 @@
       <c r="I98" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J98" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K98" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L98" s="30" t="s">
+      <c r="J98" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K98" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L98" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M98" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N98" s="30" t="s">
+      <c r="N98" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O98" s="6" t="n">
@@ -11343,10 +11294,10 @@
     </row>
     <row r="99" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>36</v>
@@ -11369,19 +11320,19 @@
       <c r="I99" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J99" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K99" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L99" s="30" t="s">
+      <c r="J99" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K99" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L99" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M99" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N99" s="30" t="s">
+      <c r="N99" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O99" s="6" t="n">
@@ -11441,10 +11392,10 @@
     </row>
     <row r="100" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>36</v>
@@ -11467,19 +11418,19 @@
       <c r="I100" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J100" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K100" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L100" s="30" t="s">
+      <c r="J100" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K100" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L100" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M100" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N100" s="30" t="s">
+      <c r="N100" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O100" s="6" t="n">
@@ -11516,7 +11467,7 @@
         <v>52</v>
       </c>
       <c r="Z100" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA100" s="5" t="s">
         <v>39</v>
@@ -11542,10 +11493,10 @@
     </row>
     <row r="101" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>36</v>
@@ -11568,19 +11519,19 @@
       <c r="I101" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J101" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K101" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L101" s="30" t="s">
+      <c r="J101" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K101" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L101" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M101" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N101" s="30" t="s">
+      <c r="N101" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O101" s="6" t="n">
@@ -11617,7 +11568,7 @@
         <v>55</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA101" s="5" t="s">
         <v>39</v>
@@ -11643,10 +11594,10 @@
     </row>
     <row r="102" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>36</v>
@@ -11669,19 +11620,19 @@
       <c r="I102" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J102" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K102" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L102" s="30" t="s">
+      <c r="J102" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K102" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L102" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M102" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N102" s="30" t="s">
+      <c r="N102" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O102" s="6" t="n">
@@ -11744,10 +11695,10 @@
     </row>
     <row r="103" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>36</v>
@@ -11770,19 +11721,19 @@
       <c r="I103" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J103" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K103" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L103" s="30" t="s">
+      <c r="J103" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K103" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L103" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M103" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N103" s="30" t="s">
+      <c r="N103" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O103" s="6" t="n">
@@ -11845,10 +11796,10 @@
     </row>
     <row r="104" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>36</v>
@@ -11871,19 +11822,19 @@
       <c r="I104" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J104" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K104" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L104" s="30" t="s">
+      <c r="J104" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K104" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L104" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M104" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N104" s="30" t="s">
+      <c r="N104" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O104" s="6" t="n">
@@ -11920,7 +11871,7 @@
         <v>59</v>
       </c>
       <c r="Z104" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA104" s="5" t="s">
         <v>39</v>
@@ -11946,10 +11897,10 @@
     </row>
     <row r="105" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>36</v>
@@ -11972,19 +11923,19 @@
       <c r="I105" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J105" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K105" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L105" s="30" t="s">
+      <c r="J105" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L105" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M105" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N105" s="30" t="s">
+      <c r="N105" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O105" s="6" t="n">
@@ -12021,7 +11972,7 @@
         <v>55</v>
       </c>
       <c r="Z105" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA105" s="5" t="s">
         <v>39</v>
@@ -12047,10 +11998,10 @@
     </row>
     <row r="106" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>36</v>
@@ -12073,19 +12024,19 @@
       <c r="I106" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J106" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K106" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L106" s="30" t="s">
+      <c r="J106" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K106" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L106" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M106" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N106" s="30" t="s">
+      <c r="N106" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O106" s="6" t="n">
@@ -12122,7 +12073,7 @@
         <v>52</v>
       </c>
       <c r="Z106" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA106" s="5" t="s">
         <v>39</v>
@@ -12148,10 +12099,10 @@
     </row>
     <row r="107" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>36</v>
@@ -12174,19 +12125,19 @@
       <c r="I107" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J107" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K107" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L107" s="30" t="s">
+      <c r="J107" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K107" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L107" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M107" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N107" s="30" t="s">
+      <c r="N107" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O107" s="6" t="n">
@@ -12223,7 +12174,7 @@
         <v>52</v>
       </c>
       <c r="Z107" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA107" s="5" t="s">
         <v>39</v>
@@ -12249,10 +12200,10 @@
     </row>
     <row r="108" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>36</v>
@@ -12275,19 +12226,19 @@
       <c r="I108" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J108" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K108" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L108" s="30" t="s">
+      <c r="J108" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K108" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L108" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M108" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N108" s="30" t="s">
+      <c r="N108" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O108" s="6" t="n">
@@ -12324,7 +12275,7 @@
         <v>52</v>
       </c>
       <c r="Z108" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA108" s="1" t="n">
         <v>1</v>
@@ -12350,10 +12301,10 @@
     </row>
     <row r="109" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>36</v>
@@ -12376,19 +12327,19 @@
       <c r="I109" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J109" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K109" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L109" s="30" t="s">
+      <c r="J109" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K109" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L109" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M109" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N109" s="30" t="s">
+      <c r="N109" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O109" s="6" t="n">
@@ -12451,10 +12402,10 @@
     </row>
     <row r="110" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>36</v>
@@ -12477,19 +12428,19 @@
       <c r="I110" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J110" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K110" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L110" s="30" t="s">
+      <c r="J110" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K110" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L110" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M110" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N110" s="30" t="s">
+      <c r="N110" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O110" s="6" t="n">
@@ -12552,10 +12503,10 @@
     </row>
     <row r="111" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>36</v>
@@ -12578,19 +12529,19 @@
       <c r="I111" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J111" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K111" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L111" s="30" t="s">
+      <c r="J111" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K111" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L111" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M111" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N111" s="30" t="s">
+      <c r="N111" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O111" s="6" t="n">
@@ -12653,10 +12604,10 @@
     </row>
     <row r="112" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>36</v>
@@ -12679,19 +12630,19 @@
       <c r="I112" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J112" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K112" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L112" s="30" t="s">
+      <c r="J112" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K112" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L112" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M112" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N112" s="30" t="s">
+      <c r="N112" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O112" s="6" t="n">
@@ -12754,10 +12705,10 @@
     </row>
     <row r="113" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>36</v>
@@ -12780,19 +12731,19 @@
       <c r="I113" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J113" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K113" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L113" s="30" t="s">
+      <c r="J113" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K113" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L113" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M113" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N113" s="30" t="s">
+      <c r="N113" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O113" s="6" t="n">
@@ -12829,7 +12780,7 @@
         <v>52</v>
       </c>
       <c r="Z113" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA113" s="5" t="s">
         <v>39</v>
@@ -12855,10 +12806,10 @@
     </row>
     <row r="114" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>36</v>
@@ -12881,19 +12832,19 @@
       <c r="I114" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J114" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K114" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L114" s="30" t="s">
+      <c r="J114" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K114" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L114" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M114" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N114" s="30" t="s">
+      <c r="N114" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O114" s="6" t="n">
@@ -12930,7 +12881,7 @@
         <v>52</v>
       </c>
       <c r="Z114" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA114" s="5" t="s">
         <v>39</v>
@@ -12956,10 +12907,10 @@
     </row>
     <row r="115" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>36</v>
@@ -12982,19 +12933,19 @@
       <c r="I115" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J115" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K115" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L115" s="30" t="s">
+      <c r="J115" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K115" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L115" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M115" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N115" s="30" t="s">
+      <c r="N115" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O115" s="6" t="n">
@@ -13031,7 +12982,7 @@
         <v>52</v>
       </c>
       <c r="Z115" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA115" s="1" t="n">
         <v>0</v>
@@ -13057,10 +13008,10 @@
     </row>
     <row r="116" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>36</v>
@@ -13083,19 +13034,19 @@
       <c r="I116" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J116" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K116" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L116" s="30" t="s">
+      <c r="J116" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K116" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L116" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M116" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N116" s="30" t="s">
+      <c r="N116" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O116" s="6" t="n">
@@ -13132,7 +13083,7 @@
         <v>52</v>
       </c>
       <c r="Z116" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA116" s="1" t="n">
         <v>1</v>
@@ -13158,10 +13109,10 @@
     </row>
     <row r="117" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>36</v>
@@ -13184,19 +13135,19 @@
       <c r="I117" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J117" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K117" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L117" s="30" t="s">
+      <c r="J117" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K117" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L117" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M117" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N117" s="30" t="s">
+      <c r="N117" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O117" s="6" t="n">
@@ -13233,7 +13184,7 @@
         <v>52</v>
       </c>
       <c r="Z117" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA117" s="1" t="n">
         <v>1</v>
@@ -13259,10 +13210,10 @@
     </row>
     <row r="118" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>36</v>
@@ -13285,19 +13236,19 @@
       <c r="I118" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J118" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K118" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L118" s="30" t="s">
+      <c r="J118" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K118" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L118" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M118" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N118" s="30" t="s">
+      <c r="N118" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O118" s="6" t="n">
@@ -13334,7 +13285,7 @@
         <v>52</v>
       </c>
       <c r="Z118" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA118" s="1" t="n">
         <v>1</v>
@@ -13360,10 +13311,10 @@
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>36</v>
@@ -13372,7 +13323,7 @@
         <v>123456</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F119" s="3" t="n">
         <v>123456</v>
@@ -13386,19 +13337,19 @@
       <c r="I119" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J119" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K119" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L119" s="30" t="s">
+      <c r="J119" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K119" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L119" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M119" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N119" s="30" t="s">
+      <c r="N119" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O119" s="6" t="n">
@@ -13435,7 +13386,7 @@
         <v>52</v>
       </c>
       <c r="Z119" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA119" s="1" t="n">
         <v>1</v>
@@ -13461,10 +13412,10 @@
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>36</v>
@@ -13487,19 +13438,19 @@
       <c r="I120" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J120" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K120" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L120" s="30" t="s">
+      <c r="J120" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K120" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L120" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M120" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N120" s="30" t="s">
+      <c r="N120" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O120" s="6" t="n">
@@ -13536,7 +13487,7 @@
         <v>52</v>
       </c>
       <c r="Z120" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA120" s="1" t="n">
         <v>1</v>
@@ -13562,10 +13513,10 @@
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>36</v>
@@ -13588,19 +13539,19 @@
       <c r="I121" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J121" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K121" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L121" s="30" t="s">
+      <c r="J121" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K121" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L121" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M121" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N121" s="30" t="s">
+      <c r="N121" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O121" s="6" t="n">
@@ -13637,7 +13588,7 @@
         <v>52</v>
       </c>
       <c r="Z121" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA121" s="1" t="n">
         <v>1</v>
@@ -13663,10 +13614,10 @@
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>36</v>
@@ -13689,19 +13640,19 @@
       <c r="I122" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J122" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K122" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L122" s="30" t="s">
+      <c r="J122" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K122" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L122" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M122" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N122" s="30" t="s">
+      <c r="N122" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O122" s="6" t="n">
@@ -13738,7 +13689,7 @@
         <v>52</v>
       </c>
       <c r="Z122" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA122" s="1" t="n">
         <v>1</v>
@@ -13764,10 +13715,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>36</v>
@@ -13790,19 +13741,19 @@
       <c r="I123" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J123" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K123" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L123" s="30" t="s">
+      <c r="J123" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K123" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L123" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M123" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N123" s="30" t="s">
+      <c r="N123" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O123" s="6" t="n">
@@ -13839,7 +13790,7 @@
         <v>52</v>
       </c>
       <c r="Z123" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA123" s="1" t="n">
         <v>1</v>
@@ -13865,10 +13816,10 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>36</v>
@@ -13891,19 +13842,19 @@
       <c r="I124" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J124" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K124" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L124" s="30" t="s">
+      <c r="J124" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K124" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L124" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M124" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N124" s="30" t="s">
+      <c r="N124" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O124" s="6" t="n">
@@ -13940,7 +13891,7 @@
         <v>52</v>
       </c>
       <c r="Z124" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA124" s="1" t="n">
         <v>1</v>
@@ -13955,7 +13906,7 @@
         <v>39</v>
       </c>
       <c r="AE124" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF124" s="8" t="s">
         <v>39</v>
@@ -13966,10 +13917,10 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>36</v>
@@ -13992,19 +13943,19 @@
       <c r="I125" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J125" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K125" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L125" s="30" t="s">
+      <c r="J125" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K125" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L125" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M125" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N125" s="30" t="s">
+      <c r="N125" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O125" s="6" t="n">
@@ -14041,7 +13992,7 @@
         <v>52</v>
       </c>
       <c r="Z125" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA125" s="1" t="n">
         <v>1</v>
@@ -14056,7 +14007,7 @@
         <v>39</v>
       </c>
       <c r="AE125" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF125" s="8" t="s">
         <v>39</v>
@@ -14067,10 +14018,10 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>36</v>
@@ -14093,19 +14044,19 @@
       <c r="I126" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J126" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K126" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L126" s="30" t="s">
+      <c r="J126" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K126" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L126" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M126" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N126" s="30" t="s">
+      <c r="N126" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O126" s="6" t="n">
@@ -14142,7 +14093,7 @@
         <v>52</v>
       </c>
       <c r="Z126" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA126" s="1" t="n">
         <v>1</v>
@@ -14157,7 +14108,7 @@
         <v>39</v>
       </c>
       <c r="AE126" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF126" s="8" t="s">
         <v>39</v>
@@ -14168,10 +14119,10 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>36</v>
@@ -14194,19 +14145,19 @@
       <c r="I127" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J127" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K127" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L127" s="30" t="s">
+      <c r="J127" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K127" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L127" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M127" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N127" s="30" t="s">
+      <c r="N127" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O127" s="6" t="n">
@@ -14243,7 +14194,7 @@
         <v>52</v>
       </c>
       <c r="Z127" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA127" s="1" t="n">
         <v>1</v>
@@ -14258,7 +14209,7 @@
         <v>39</v>
       </c>
       <c r="AE127" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF127" s="8" t="s">
         <v>39</v>
@@ -14269,10 +14220,10 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>36</v>
@@ -14295,19 +14246,19 @@
       <c r="I128" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J128" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K128" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L128" s="30" t="s">
+      <c r="J128" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K128" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L128" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M128" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N128" s="30" t="s">
+      <c r="N128" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O128" s="6" t="n">
@@ -14344,7 +14295,7 @@
         <v>52</v>
       </c>
       <c r="Z128" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA128" s="1" t="n">
         <v>1</v>
@@ -14359,7 +14310,7 @@
         <v>39</v>
       </c>
       <c r="AE128" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF128" s="8" t="s">
         <v>39</v>
@@ -14370,10 +14321,10 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>36</v>
@@ -14396,19 +14347,19 @@
       <c r="I129" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J129" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K129" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L129" s="30" t="s">
+      <c r="J129" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K129" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L129" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M129" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N129" s="30" t="s">
+      <c r="N129" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O129" s="6" t="n">
@@ -14445,7 +14396,7 @@
         <v>52</v>
       </c>
       <c r="Z129" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA129" s="1" t="n">
         <v>1</v>
@@ -14460,7 +14411,7 @@
         <v>39</v>
       </c>
       <c r="AE129" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF129" s="8" t="s">
         <v>39</v>
@@ -14471,10 +14422,10 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>36</v>
@@ -14497,19 +14448,19 @@
       <c r="I130" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J130" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K130" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L130" s="30" t="s">
+      <c r="J130" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K130" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L130" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M130" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N130" s="30" t="s">
+      <c r="N130" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O130" s="6" t="n">
@@ -14546,7 +14497,7 @@
         <v>52</v>
       </c>
       <c r="Z130" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA130" s="1" t="n">
         <v>1</v>
@@ -14561,7 +14512,7 @@
         <v>39</v>
       </c>
       <c r="AE130" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF130" s="8" t="s">
         <v>39</v>
@@ -14572,10 +14523,10 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>36</v>
@@ -14598,19 +14549,19 @@
       <c r="I131" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J131" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K131" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L131" s="30" t="s">
+      <c r="J131" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K131" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L131" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M131" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N131" s="30" t="s">
+      <c r="N131" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O131" s="6" t="n">
@@ -14647,7 +14598,7 @@
         <v>52</v>
       </c>
       <c r="Z131" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA131" s="1" t="n">
         <v>1</v>
@@ -14662,7 +14613,7 @@
         <v>39</v>
       </c>
       <c r="AE131" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF131" s="8" t="s">
         <v>39</v>
@@ -14673,10 +14624,10 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>36</v>
@@ -14699,19 +14650,19 @@
       <c r="I132" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J132" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K132" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L132" s="30" t="s">
+      <c r="J132" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K132" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L132" s="21" t="s">
         <v>39</v>
       </c>
       <c r="M132" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N132" s="30" t="s">
+      <c r="N132" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O132" s="6" t="n">
@@ -14748,7 +14699,7 @@
         <v>52</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA132" s="1" t="n">
         <v>1</v>
@@ -14760,7 +14711,7 @@
         <v>39</v>
       </c>
       <c r="AE132" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF132" s="8" t="s">
         <v>39</v>
@@ -14771,82 +14722,82 @@
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="292">
   <si>
     <t xml:space="preserve">TC_Id</t>
   </si>
@@ -247,22 +247,28 @@
     <t xml:space="preserve">E_20</t>
   </si>
   <si>
+    <t xml:space="preserve">8906118412556 : 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">E_21</t>
   </si>
   <si>
     <t xml:space="preserve">cash : 275 , paytm : 275</t>
   </si>
   <si>
+    <t xml:space="preserve">8906118412662 : 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O5eza0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash : 100, paytm : 100, voucher : 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">8906118410781: 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O5eza0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cash : 100, paytm : 100, voucher : 0</t>
   </si>
   <si>
     <t xml:space="preserve">E_23</t>
@@ -1409,8 +1415,8 @@
   </sheetPr>
   <dimension ref="A1:AH148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S20" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA47" activeCellId="0" sqref="AA47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3482,8 +3488,8 @@
       <c r="L21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>40</v>
+      <c r="M21" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>39</v>
@@ -3539,13 +3545,13 @@
       <c r="AF21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AG21" s="8" t="s">
-        <v>39</v>
+      <c r="AG21" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>35</v>
@@ -3578,13 +3584,13 @@
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="O22" s="10" t="n">
         <v>45384</v>
@@ -3611,13 +3617,13 @@
         <v>43</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Z22" s="1" t="n">
         <v>7719921544</v>
@@ -3640,13 +3646,13 @@
       <c r="AF22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AG22" s="8" t="s">
-        <v>39</v>
+      <c r="AG22" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3679,13 +3685,13 @@
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O23" s="10" t="n">
         <v>45384</v>
@@ -3712,7 +3718,7 @@
         <v>43</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>44</v>
@@ -3747,7 +3753,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>35</v>
@@ -3780,13 +3786,13 @@
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O24" s="10" t="n">
         <v>45384</v>
@@ -3848,7 +3854,7 @@
     </row>
     <row r="25" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>35</v>
@@ -3881,13 +3887,13 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O25" s="10" t="n">
         <v>45384</v>
@@ -3949,7 +3955,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>35</v>
@@ -3982,13 +3988,13 @@
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O26" s="10" t="n">
         <v>45384</v>
@@ -4050,7 +4056,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>35</v>
@@ -4083,13 +4089,13 @@
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O27" s="10" t="n">
         <v>45384</v>
@@ -4151,7 +4157,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>35</v>
@@ -4184,13 +4190,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O28" s="10" t="n">
         <v>45384</v>
@@ -4205,7 +4211,7 @@
         <v>7709577438</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>39</v>
@@ -4252,7 +4258,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>35</v>
@@ -4285,13 +4291,13 @@
         <v>1</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O29" s="10" t="n">
         <v>45384</v>
@@ -4318,7 +4324,7 @@
         <v>43</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>44</v>
@@ -4353,7 +4359,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>35</v>
@@ -4386,13 +4392,13 @@
         <v>1</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O30" s="10" t="n">
         <v>45384</v>
@@ -4419,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>44</v>
@@ -4454,7 +4460,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>35</v>
@@ -4487,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O31" s="10" t="n">
         <v>45384</v>
@@ -4555,7 +4561,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>35</v>
@@ -4588,13 +4594,13 @@
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O32" s="10" t="n">
         <v>45384</v>
@@ -4656,7 +4662,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>35</v>
@@ -4689,13 +4695,13 @@
         <v>1</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O33" s="10" t="n">
         <v>45384</v>
@@ -4757,7 +4763,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>35</v>
@@ -4790,13 +4796,13 @@
         <v>1</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O34" s="10" t="n">
         <v>45384</v>
@@ -4858,7 +4864,7 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>35</v>
@@ -4891,13 +4897,13 @@
         <v>1</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O35" s="10" t="n">
         <v>45384</v>
@@ -4924,7 +4930,7 @@
         <v>43</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>44</v>
@@ -4959,7 +4965,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>35</v>
@@ -4992,13 +4998,13 @@
         <v>1</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O36" s="10" t="n">
         <v>45384</v>
@@ -5025,7 +5031,7 @@
         <v>43</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>44</v>
@@ -5060,7 +5066,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>35</v>
@@ -5093,13 +5099,13 @@
         <v>1</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O37" s="10" t="n">
         <v>45384</v>
@@ -5161,7 +5167,7 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>35</v>
@@ -5194,13 +5200,13 @@
         <v>1</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O38" s="10" t="n">
         <v>45384</v>
@@ -5262,7 +5268,7 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>35</v>
@@ -5295,13 +5301,13 @@
         <v>1</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O39" s="10" t="n">
         <v>45384</v>
@@ -5363,7 +5369,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>35</v>
@@ -5396,13 +5402,13 @@
         <v>1</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O40" s="10" t="n">
         <v>45384</v>
@@ -5464,7 +5470,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>35</v>
@@ -5497,13 +5503,13 @@
         <v>1</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O41" s="10" t="n">
         <v>45384</v>
@@ -5530,7 +5536,7 @@
         <v>43</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>44</v>
@@ -5565,7 +5571,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>35</v>
@@ -5601,7 +5607,7 @@
         <v>39</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>39</v>
@@ -5640,7 +5646,7 @@
         <v>52</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AA42" s="4" t="n">
         <v>1</v>
@@ -5666,7 +5672,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>35</v>
@@ -5702,7 +5708,7 @@
         <v>39</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>39</v>
@@ -5741,7 +5747,7 @@
         <v>52</v>
       </c>
       <c r="Z43" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AA43" s="4" t="n">
         <v>1</v>
@@ -5767,7 +5773,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>35</v>
@@ -5803,7 +5809,7 @@
         <v>39</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>39</v>
@@ -5842,7 +5848,7 @@
         <v>52</v>
       </c>
       <c r="Z44" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AA44" s="4" t="n">
         <v>1</v>
@@ -5868,7 +5874,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>35</v>
@@ -5904,7 +5910,7 @@
         <v>39</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>39</v>
@@ -5943,7 +5949,7 @@
         <v>52</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AA45" s="4" t="n">
         <v>1</v>
@@ -5972,7 +5978,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>35</v>
@@ -6008,7 +6014,7 @@
         <v>39</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>39</v>
@@ -6047,7 +6053,7 @@
         <v>52</v>
       </c>
       <c r="Z46" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA46" s="4" t="n">
         <v>2</v>
@@ -6073,7 +6079,7 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>35</v>
@@ -6109,7 +6115,7 @@
         <v>39</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>39</v>
@@ -6148,7 +6154,7 @@
         <v>52</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AA47" s="4" t="n">
         <v>3</v>
@@ -6174,7 +6180,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>35</v>
@@ -6210,7 +6216,7 @@
         <v>39</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>39</v>
@@ -6249,7 +6255,7 @@
         <v>52</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AA48" s="4" t="n">
         <v>4</v>
@@ -6275,7 +6281,7 @@
     </row>
     <row r="49" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>35</v>
@@ -6302,7 +6308,7 @@
         <v>38</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K49" s="15" t="n">
         <v>1</v>
@@ -6350,7 +6356,7 @@
         <v>52</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AA49" s="4" t="n">
         <v>1</v>
@@ -6376,7 +6382,7 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>35</v>
@@ -6412,7 +6418,7 @@
         <v>39</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>39</v>
@@ -6451,7 +6457,7 @@
         <v>52</v>
       </c>
       <c r="Z50" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA50" s="4" t="n">
         <v>1</v>
@@ -6477,7 +6483,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>35</v>
@@ -6552,7 +6558,7 @@
         <v>52</v>
       </c>
       <c r="Z51" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA51" s="4" t="n">
         <v>1</v>
@@ -6578,7 +6584,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>35</v>
@@ -6653,7 +6659,7 @@
         <v>52</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA52" s="4" t="n">
         <v>1</v>
@@ -6679,7 +6685,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>35</v>
@@ -6754,7 +6760,7 @@
         <v>52</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AA53" s="4" t="n">
         <v>3</v>
@@ -6780,7 +6786,7 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>35</v>
@@ -6855,7 +6861,7 @@
         <v>52</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA54" s="4" t="n">
         <v>1</v>
@@ -6881,7 +6887,7 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>35</v>
@@ -6917,7 +6923,7 @@
         <v>39</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>39</v>
@@ -6956,7 +6962,7 @@
         <v>52</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AA55" s="4" t="n">
         <v>3</v>
@@ -6982,7 +6988,7 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>35</v>
@@ -7018,7 +7024,7 @@
         <v>39</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>39</v>
@@ -7057,7 +7063,7 @@
         <v>52</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AA56" s="4" t="n">
         <v>1</v>
@@ -7083,7 +7089,7 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>35</v>
@@ -7158,7 +7164,7 @@
         <v>52</v>
       </c>
       <c r="Z57" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AA57" s="4" t="n">
         <v>1</v>
@@ -7184,7 +7190,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>35</v>
@@ -7217,13 +7223,13 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O58" s="10" t="n">
         <v>45384</v>
@@ -7259,7 +7265,7 @@
         <v>52</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AA58" s="1" t="n">
         <v>1</v>
@@ -7285,7 +7291,7 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>35</v>
@@ -7318,13 +7324,13 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O59" s="10" t="n">
         <v>45384</v>
@@ -7386,7 +7392,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>35</v>
@@ -7419,13 +7425,13 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O60" s="10" t="n">
         <v>45384</v>
@@ -7461,7 +7467,7 @@
         <v>52</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AA60" s="1" t="n">
         <v>1</v>
@@ -7487,7 +7493,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>35</v>
@@ -7520,13 +7526,13 @@
         <v>1</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O61" s="10" t="n">
         <v>45384</v>
@@ -7541,10 +7547,10 @@
         <v>7709577438</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>39</v>
@@ -7588,7 +7594,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>35</v>
@@ -7621,13 +7627,13 @@
         <v>1</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O62" s="10" t="n">
         <v>45384</v>
@@ -7642,10 +7648,10 @@
         <v>7709577438</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>39</v>
@@ -7689,7 +7695,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>35</v>
@@ -7722,13 +7728,13 @@
         <v>1</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O63" s="19" t="n">
         <v>45384</v>
@@ -7743,10 +7749,10 @@
         <v>7709577438</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>39</v>
@@ -7770,7 +7776,7 @@
         <v>1</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AC63" s="8" t="s">
         <v>39</v>
@@ -7790,7 +7796,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>35</v>
@@ -7817,7 +7823,7 @@
         <v>38</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K64" s="15" t="n">
         <v>1</v>
@@ -7856,7 +7862,7 @@
         <v>43</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X64" s="1" t="s">
         <v>44</v>
@@ -7865,7 +7871,7 @@
         <v>52</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA64" s="1" t="n">
         <v>1</v>
@@ -7891,7 +7897,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>35</v>
@@ -7924,7 +7930,7 @@
         <v>39</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>40</v>
@@ -7957,7 +7963,7 @@
         <v>43</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>44</v>
@@ -7966,7 +7972,7 @@
         <v>52</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA65" s="1" t="n">
         <v>1</v>
@@ -7992,7 +7998,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>35</v>
@@ -8025,7 +8031,7 @@
         <v>39</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>40</v>
@@ -8058,7 +8064,7 @@
         <v>43</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>44</v>
@@ -8067,7 +8073,7 @@
         <v>52</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA66" s="1" t="n">
         <v>1</v>
@@ -8093,7 +8099,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>35</v>
@@ -8126,13 +8132,13 @@
         <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O67" s="10" t="n">
         <v>45384</v>
@@ -8159,7 +8165,7 @@
         <v>43</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>44</v>
@@ -8168,7 +8174,7 @@
         <v>52</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA67" s="1" t="n">
         <v>1</v>
@@ -8194,7 +8200,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>35</v>
@@ -8227,13 +8233,13 @@
         <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O68" s="10" t="n">
         <v>45384</v>
@@ -8260,7 +8266,7 @@
         <v>43</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X68" s="1" t="s">
         <v>44</v>
@@ -8275,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AC68" s="8" t="s">
         <v>39</v>
@@ -8295,7 +8301,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>35</v>
@@ -8328,13 +8334,13 @@
         <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O69" s="10" t="n">
         <v>45384</v>
@@ -8396,7 +8402,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>35</v>
@@ -8429,13 +8435,13 @@
         <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O70" s="10" t="n">
         <v>45384</v>
@@ -8497,7 +8503,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>35</v>
@@ -8530,13 +8536,13 @@
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O71" s="10" t="n">
         <v>45384</v>
@@ -8598,7 +8604,7 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>35</v>
@@ -8631,13 +8637,13 @@
         <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O72" s="10" t="n">
         <v>45384</v>
@@ -8699,7 +8705,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>35</v>
@@ -8732,13 +8738,13 @@
         <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O73" s="10" t="n">
         <v>45384</v>
@@ -8753,7 +8759,7 @@
         <v>7709577438</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T73" s="2" t="s">
         <v>39</v>
@@ -8800,7 +8806,7 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>35</v>
@@ -8833,13 +8839,13 @@
         <v>1</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O74" s="10" t="n">
         <v>45384</v>
@@ -8854,7 +8860,7 @@
         <v>7709577438</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T74" s="2" t="s">
         <v>39</v>
@@ -8901,7 +8907,7 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>35</v>
@@ -8934,13 +8940,13 @@
         <v>1</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O75" s="10" t="n">
         <v>45384</v>
@@ -8955,10 +8961,10 @@
         <v>7709577438</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="T75" s="20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="U75" s="1" t="s">
         <v>39</v>
@@ -9002,7 +9008,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>35</v>
@@ -9035,13 +9041,13 @@
         <v>1</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O76" s="10" t="n">
         <v>45384</v>
@@ -9056,10 +9062,10 @@
         <v>6060606060</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="T76" s="20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="U76" s="1" t="s">
         <v>39</v>
@@ -9103,7 +9109,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>35</v>
@@ -9136,13 +9142,13 @@
         <v>1</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O77" s="10" t="n">
         <v>45384</v>
@@ -9157,10 +9163,10 @@
         <v>7070707070</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="T77" s="20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="U77" s="1" t="s">
         <v>39</v>
@@ -9190,7 +9196,7 @@
         <v>39</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE77" s="8" t="s">
         <v>39</v>
@@ -9204,7 +9210,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>35</v>
@@ -9237,13 +9243,13 @@
         <v>1</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O78" s="10" t="n">
         <v>45384</v>
@@ -9258,10 +9264,10 @@
         <v>7070707070</v>
       </c>
       <c r="S78" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="T78" s="20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="U78" s="1" t="s">
         <v>39</v>
@@ -9305,7 +9311,7 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>35</v>
@@ -9338,13 +9344,13 @@
         <v>1</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O79" s="19" t="n">
         <v>45384</v>
@@ -9359,10 +9365,10 @@
         <v>2020202020</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U79" s="1" t="s">
         <v>39</v>
@@ -9386,13 +9392,13 @@
         <v>1</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AC79" s="8" t="s">
         <v>39</v>
       </c>
       <c r="AD79" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AE79" s="8" t="s">
         <v>39</v>
@@ -9406,7 +9412,7 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>35</v>
@@ -9439,13 +9445,13 @@
         <v>1</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O80" s="10" t="n">
         <v>45384</v>
@@ -9460,7 +9466,7 @@
         <v>8080808080</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>39</v>
@@ -9487,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AC80" s="8" t="s">
         <v>39</v>
@@ -9507,7 +9513,7 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>35</v>
@@ -9540,13 +9546,13 @@
         <v>1</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O81" s="10" t="n">
         <v>45384</v>
@@ -9561,7 +9567,7 @@
         <v>3030303030</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T81" s="2" t="s">
         <v>39</v>
@@ -9588,13 +9594,13 @@
         <v>1</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AC81" s="8" t="s">
         <v>39</v>
       </c>
       <c r="AD81" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AE81" s="8" t="s">
         <v>39</v>
@@ -9608,7 +9614,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>35</v>
@@ -9641,13 +9647,13 @@
         <v>1</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O82" s="10" t="n">
         <v>45384</v>
@@ -9705,10 +9711,10 @@
     </row>
     <row r="83" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>36</v>
@@ -9729,7 +9735,7 @@
         <v>600</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J83" s="9" t="n">
         <v>1</v>
@@ -9741,7 +9747,7 @@
         <v>39</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N83" s="4" t="s">
         <v>39</v>
@@ -9762,7 +9768,7 @@
         <v>39</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="U83" s="4" t="s">
         <v>39</v>
@@ -9798,15 +9804,15 @@
         <v>39</v>
       </c>
       <c r="AF83" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>36</v>
@@ -9827,7 +9833,7 @@
         <v>600</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J84" s="9" t="n">
         <v>1</v>
@@ -9836,10 +9842,10 @@
         <v>1</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>39</v>
@@ -9857,7 +9863,7 @@
         <v>1111111101</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T84" s="2" t="s">
         <v>39</v>
@@ -9896,15 +9902,15 @@
         <v>39</v>
       </c>
       <c r="AF84" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>36</v>
@@ -9925,7 +9931,7 @@
         <v>600</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J85" s="9" t="n">
         <v>1</v>
@@ -9934,10 +9940,10 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>39</v>
@@ -9955,7 +9961,7 @@
         <v>1111110101</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T85" s="2" t="s">
         <v>39</v>
@@ -9994,15 +10000,15 @@
         <v>39</v>
       </c>
       <c r="AF85" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" s="4" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>36</v>
@@ -10023,7 +10029,7 @@
         <v>600</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J86" s="9" t="n">
         <v>1</v>
@@ -10032,10 +10038,10 @@
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>39</v>
@@ -10053,7 +10059,7 @@
         <v>1111109101</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T86" s="2" t="s">
         <v>39</v>
@@ -10092,18 +10098,18 @@
         <v>39</v>
       </c>
       <c r="AF86" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>36</v>
@@ -10124,7 +10130,7 @@
         <v>600</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J87" s="9" t="n">
         <v>1</v>
@@ -10133,10 +10139,10 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>39</v>
@@ -10154,7 +10160,7 @@
         <v>1111108101</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T87" s="2" t="s">
         <v>39</v>
@@ -10193,15 +10199,15 @@
         <v>39</v>
       </c>
       <c r="AF87" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>36</v>
@@ -10210,7 +10216,7 @@
         <v>123456</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F88" s="3" t="n">
         <v>123456</v>
@@ -10222,7 +10228,7 @@
         <v>600</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J88" s="9" t="n">
         <v>1</v>
@@ -10231,10 +10237,10 @@
         <v>1</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>39</v>
@@ -10252,7 +10258,7 @@
         <v>6000000000</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T88" s="2" t="s">
         <v>39</v>
@@ -10296,7 +10302,7 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>35</v>
@@ -10394,7 +10400,7 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>35</v>
@@ -10427,13 +10433,13 @@
         <v>1</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O90" s="10" t="n">
         <v>45384</v>
@@ -10460,10 +10466,10 @@
         <v>43</v>
       </c>
       <c r="W90" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X90" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Y90" s="4" t="s">
         <v>55</v>
@@ -10492,7 +10498,7 @@
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>35</v>
@@ -10525,13 +10531,13 @@
         <v>1</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O91" s="10" t="n">
         <v>45384</v>
@@ -10558,7 +10564,7 @@
         <v>43</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X91" s="4" t="s">
         <v>44</v>
@@ -10590,7 +10596,7 @@
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>35</v>
@@ -10623,13 +10629,13 @@
         <v>1</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O92" s="10" t="n">
         <v>45384</v>
@@ -10656,7 +10662,7 @@
         <v>43</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X92" s="4" t="s">
         <v>44</v>
@@ -10688,10 +10694,10 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>36</v>
@@ -10789,10 +10795,10 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>36</v>
@@ -10890,10 +10896,10 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>36</v>
@@ -10991,10 +10997,10 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>36</v>
@@ -11003,7 +11009,7 @@
         <v>123456</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F96" s="3" t="n">
         <v>123456</v>
@@ -11092,10 +11098,10 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>36</v>
@@ -11167,7 +11173,7 @@
         <v>52</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA97" s="5" t="s">
         <v>39</v>
@@ -11193,10 +11199,10 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>36</v>
@@ -11294,10 +11300,10 @@
     </row>
     <row r="99" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>36</v>
@@ -11392,10 +11398,10 @@
     </row>
     <row r="100" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>36</v>
@@ -11467,7 +11473,7 @@
         <v>52</v>
       </c>
       <c r="Z100" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AA100" s="5" t="s">
         <v>39</v>
@@ -11493,10 +11499,10 @@
     </row>
     <row r="101" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>36</v>
@@ -11568,7 +11574,7 @@
         <v>55</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AA101" s="5" t="s">
         <v>39</v>
@@ -11594,10 +11600,10 @@
     </row>
     <row r="102" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>36</v>
@@ -11695,10 +11701,10 @@
     </row>
     <row r="103" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>36</v>
@@ -11796,10 +11802,10 @@
     </row>
     <row r="104" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>36</v>
@@ -11871,7 +11877,7 @@
         <v>59</v>
       </c>
       <c r="Z104" s="20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA104" s="5" t="s">
         <v>39</v>
@@ -11897,10 +11903,10 @@
     </row>
     <row r="105" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>36</v>
@@ -11972,7 +11978,7 @@
         <v>55</v>
       </c>
       <c r="Z105" s="20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA105" s="5" t="s">
         <v>39</v>
@@ -11998,10 +12004,10 @@
     </row>
     <row r="106" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>36</v>
@@ -12073,7 +12079,7 @@
         <v>52</v>
       </c>
       <c r="Z106" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AA106" s="5" t="s">
         <v>39</v>
@@ -12099,10 +12105,10 @@
     </row>
     <row r="107" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>36</v>
@@ -12174,7 +12180,7 @@
         <v>52</v>
       </c>
       <c r="Z107" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AA107" s="5" t="s">
         <v>39</v>
@@ -12200,10 +12206,10 @@
     </row>
     <row r="108" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>36</v>
@@ -12275,7 +12281,7 @@
         <v>52</v>
       </c>
       <c r="Z108" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA108" s="1" t="n">
         <v>1</v>
@@ -12301,10 +12307,10 @@
     </row>
     <row r="109" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>36</v>
@@ -12402,10 +12408,10 @@
     </row>
     <row r="110" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>36</v>
@@ -12503,10 +12509,10 @@
     </row>
     <row r="111" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>36</v>
@@ -12604,10 +12610,10 @@
     </row>
     <row r="112" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>36</v>
@@ -12705,10 +12711,10 @@
     </row>
     <row r="113" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>36</v>
@@ -12780,7 +12786,7 @@
         <v>52</v>
       </c>
       <c r="Z113" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA113" s="5" t="s">
         <v>39</v>
@@ -12806,10 +12812,10 @@
     </row>
     <row r="114" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>36</v>
@@ -12881,7 +12887,7 @@
         <v>52</v>
       </c>
       <c r="Z114" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA114" s="5" t="s">
         <v>39</v>
@@ -12907,10 +12913,10 @@
     </row>
     <row r="115" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>36</v>
@@ -12982,7 +12988,7 @@
         <v>52</v>
       </c>
       <c r="Z115" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA115" s="1" t="n">
         <v>0</v>
@@ -13008,10 +13014,10 @@
     </row>
     <row r="116" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>36</v>
@@ -13083,7 +13089,7 @@
         <v>52</v>
       </c>
       <c r="Z116" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA116" s="1" t="n">
         <v>1</v>
@@ -13109,10 +13115,10 @@
     </row>
     <row r="117" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>36</v>
@@ -13184,7 +13190,7 @@
         <v>52</v>
       </c>
       <c r="Z117" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA117" s="1" t="n">
         <v>1</v>
@@ -13210,10 +13216,10 @@
     </row>
     <row r="118" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>36</v>
@@ -13285,7 +13291,7 @@
         <v>52</v>
       </c>
       <c r="Z118" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA118" s="1" t="n">
         <v>1</v>
@@ -13311,10 +13317,10 @@
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>36</v>
@@ -13323,7 +13329,7 @@
         <v>123456</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F119" s="3" t="n">
         <v>123456</v>
@@ -13386,7 +13392,7 @@
         <v>52</v>
       </c>
       <c r="Z119" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA119" s="1" t="n">
         <v>1</v>
@@ -13412,10 +13418,10 @@
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>36</v>
@@ -13487,7 +13493,7 @@
         <v>52</v>
       </c>
       <c r="Z120" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA120" s="1" t="n">
         <v>1</v>
@@ -13513,10 +13519,10 @@
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>36</v>
@@ -13588,7 +13594,7 @@
         <v>52</v>
       </c>
       <c r="Z121" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA121" s="1" t="n">
         <v>1</v>
@@ -13614,10 +13620,10 @@
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>36</v>
@@ -13689,7 +13695,7 @@
         <v>52</v>
       </c>
       <c r="Z122" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA122" s="1" t="n">
         <v>1</v>
@@ -13715,10 +13721,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>36</v>
@@ -13790,7 +13796,7 @@
         <v>52</v>
       </c>
       <c r="Z123" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA123" s="1" t="n">
         <v>1</v>
@@ -13816,10 +13822,10 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>36</v>
@@ -13891,7 +13897,7 @@
         <v>52</v>
       </c>
       <c r="Z124" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA124" s="1" t="n">
         <v>1</v>
@@ -13906,7 +13912,7 @@
         <v>39</v>
       </c>
       <c r="AE124" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF124" s="8" t="s">
         <v>39</v>
@@ -13917,10 +13923,10 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>36</v>
@@ -13992,7 +13998,7 @@
         <v>52</v>
       </c>
       <c r="Z125" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA125" s="1" t="n">
         <v>1</v>
@@ -14007,7 +14013,7 @@
         <v>39</v>
       </c>
       <c r="AE125" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF125" s="8" t="s">
         <v>39</v>
@@ -14018,10 +14024,10 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>36</v>
@@ -14093,7 +14099,7 @@
         <v>52</v>
       </c>
       <c r="Z126" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA126" s="1" t="n">
         <v>1</v>
@@ -14108,7 +14114,7 @@
         <v>39</v>
       </c>
       <c r="AE126" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF126" s="8" t="s">
         <v>39</v>
@@ -14119,10 +14125,10 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>36</v>
@@ -14194,7 +14200,7 @@
         <v>52</v>
       </c>
       <c r="Z127" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA127" s="1" t="n">
         <v>1</v>
@@ -14209,7 +14215,7 @@
         <v>39</v>
       </c>
       <c r="AE127" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF127" s="8" t="s">
         <v>39</v>
@@ -14220,10 +14226,10 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>36</v>
@@ -14295,7 +14301,7 @@
         <v>52</v>
       </c>
       <c r="Z128" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA128" s="1" t="n">
         <v>1</v>
@@ -14310,7 +14316,7 @@
         <v>39</v>
       </c>
       <c r="AE128" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF128" s="8" t="s">
         <v>39</v>
@@ -14321,10 +14327,10 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>36</v>
@@ -14396,7 +14402,7 @@
         <v>52</v>
       </c>
       <c r="Z129" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA129" s="1" t="n">
         <v>1</v>
@@ -14411,7 +14417,7 @@
         <v>39</v>
       </c>
       <c r="AE129" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF129" s="8" t="s">
         <v>39</v>
@@ -14422,10 +14428,10 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>36</v>
@@ -14497,7 +14503,7 @@
         <v>52</v>
       </c>
       <c r="Z130" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA130" s="1" t="n">
         <v>1</v>
@@ -14512,7 +14518,7 @@
         <v>39</v>
       </c>
       <c r="AE130" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF130" s="8" t="s">
         <v>39</v>
@@ -14523,10 +14529,10 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>36</v>
@@ -14598,7 +14604,7 @@
         <v>52</v>
       </c>
       <c r="Z131" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA131" s="1" t="n">
         <v>1</v>
@@ -14613,7 +14619,7 @@
         <v>39</v>
       </c>
       <c r="AE131" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF131" s="8" t="s">
         <v>39</v>
@@ -14624,10 +14630,10 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>36</v>
@@ -14699,7 +14705,7 @@
         <v>52</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA132" s="1" t="n">
         <v>1</v>
@@ -14711,7 +14717,7 @@
         <v>39</v>
       </c>
       <c r="AE132" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AF132" s="8" t="s">
         <v>39</v>
@@ -14722,82 +14728,82 @@
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Exchange/exchange_test_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="293">
   <si>
     <t xml:space="preserve">TC_Id</t>
   </si>
@@ -334,10 +334,13 @@
     <t xml:space="preserve">E_39</t>
   </si>
   <si>
+    <t xml:space="preserve">Toyto79  : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_40</t>
+  </si>
+  <si>
     <t xml:space="preserve">TS002 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_40</t>
   </si>
   <si>
     <t xml:space="preserve">E_41</t>
@@ -1415,8 +1418,8 @@
   </sheetPr>
   <dimension ref="A1:AH148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U46" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF71" activeCellId="0" sqref="AF71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4155,7 +4158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -4231,8 +4234,8 @@
       <c r="Y28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z28" s="1" t="n">
-        <v>7719921544</v>
+      <c r="Z28" s="2" t="n">
+        <v>1020304050</v>
       </c>
       <c r="AA28" s="1" t="n">
         <v>1</v>
@@ -5443,8 +5446,8 @@
       <c r="Y40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z40" s="1" t="n">
-        <v>7719921544</v>
+      <c r="Z40" s="2" t="n">
+        <v>1020304050</v>
       </c>
       <c r="AA40" s="1" t="n">
         <v>1</v>
@@ -5506,7 +5509,7 @@
         <v>77</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>82</v>
@@ -5571,7 +5574,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>35</v>
@@ -5607,7 +5610,7 @@
         <v>39</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>39</v>
@@ -5646,7 +5649,7 @@
         <v>52</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA42" s="4" t="n">
         <v>1</v>
@@ -5672,7 +5675,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>35</v>
@@ -5708,7 +5711,7 @@
         <v>39</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>39</v>
@@ -5747,7 +5750,7 @@
         <v>52</v>
       </c>
       <c r="Z43" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA43" s="4" t="n">
         <v>1</v>
@@ -5773,7 +5776,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>35</v>
@@ -5809,7 +5812,7 @@
         <v>39</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>39</v>
@@ -5848,7 +5851,7 @@
         <v>52</v>
       </c>
       <c r="Z44" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA44" s="4" t="n">
         <v>1</v>
@@ -5874,7 +5877,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>35</v>
@@ -5910,7 +5913,7 @@
         <v>39</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>39</v>
@@ -5949,7 +5952,7 @@
         <v>52</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA45" s="4" t="n">
         <v>1</v>
@@ -5978,7 +5981,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>35</v>
@@ -6014,7 +6017,7 @@
         <v>39</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>39</v>
@@ -6053,7 +6056,7 @@
         <v>52</v>
       </c>
       <c r="Z46" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA46" s="4" t="n">
         <v>2</v>
@@ -6079,7 +6082,7 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>35</v>
@@ -6115,7 +6118,7 @@
         <v>39</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>39</v>
@@ -6154,7 +6157,7 @@
         <v>52</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA47" s="4" t="n">
         <v>3</v>
@@ -6180,7 +6183,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>35</v>
@@ -6216,7 +6219,7 @@
         <v>39</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>39</v>
@@ -6255,7 +6258,7 @@
         <v>52</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA48" s="4" t="n">
         <v>4</v>
@@ -6281,7 +6284,7 @@
     </row>
     <row r="49" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>35</v>
@@ -6308,7 +6311,7 @@
         <v>38</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K49" s="15" t="n">
         <v>1</v>
@@ -6356,7 +6359,7 @@
         <v>52</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA49" s="4" t="n">
         <v>1</v>
@@ -6382,7 +6385,7 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>35</v>
@@ -6418,7 +6421,7 @@
         <v>39</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>39</v>
@@ -6457,7 +6460,7 @@
         <v>52</v>
       </c>
       <c r="Z50" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA50" s="4" t="n">
         <v>1</v>
@@ -6483,7 +6486,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>35</v>
@@ -6558,7 +6561,7 @@
         <v>52</v>
       </c>
       <c r="Z51" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA51" s="4" t="n">
         <v>1</v>
@@ -6584,7 +6587,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>35</v>
@@ -6659,7 +6662,7 @@
         <v>52</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA52" s="4" t="n">
         <v>1</v>
@@ -6685,7 +6688,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>35</v>
@@ -6760,7 +6763,7 @@
         <v>52</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA53" s="4" t="n">
         <v>3</v>
@@ -6786,7 +6789,7 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>35</v>
@@ -6861,7 +6864,7 @@
         <v>52</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA54" s="4" t="n">
         <v>1</v>
@@ -6887,7 +6890,7 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>35</v>
@@ -6923,7 +6926,7 @@
         <v>39</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>39</v>
@@ -6962,7 +6965,7 @@
         <v>52</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA55" s="4" t="n">
         <v>3</v>
@@ -6988,7 +6991,7 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>35</v>
@@ -7024,7 +7027,7 @@
         <v>39</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>39</v>
@@ -7063,7 +7066,7 @@
         <v>52</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA56" s="4" t="n">
         <v>1</v>
@@ -7089,7 +7092,7 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>35</v>
@@ -7164,7 +7167,7 @@
         <v>52</v>
       </c>
       <c r="Z57" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA57" s="4" t="n">
         <v>1</v>
@@ -7190,7 +7193,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>35</v>
@@ -7223,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>40</v>
@@ -7265,7 +7268,7 @@
         <v>52</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA58" s="1" t="n">
         <v>1</v>
@@ -7291,7 +7294,7 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>35</v>
@@ -7324,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>40</v>
@@ -7392,7 +7395,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>35</v>
@@ -7425,10 +7428,10 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>82</v>
@@ -7467,7 +7470,7 @@
         <v>52</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA60" s="1" t="n">
         <v>1</v>
@@ -7493,7 +7496,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>35</v>
@@ -7550,7 +7553,7 @@
         <v>88</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>39</v>
@@ -7594,7 +7597,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>35</v>
@@ -7630,7 +7633,7 @@
         <v>81</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>82</v>
@@ -7651,7 +7654,7 @@
         <v>88</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>39</v>
@@ -7695,7 +7698,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>35</v>
@@ -7752,7 +7755,7 @@
         <v>88</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>39</v>
@@ -7776,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC63" s="8" t="s">
         <v>39</v>
@@ -7796,7 +7799,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>35</v>
@@ -7823,7 +7826,7 @@
         <v>38</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K64" s="15" t="n">
         <v>1</v>
@@ -7871,7 +7874,7 @@
         <v>52</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA64" s="1" t="n">
         <v>1</v>
@@ -7897,7 +7900,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>35</v>
@@ -7930,7 +7933,7 @@
         <v>39</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>40</v>
@@ -7972,7 +7975,7 @@
         <v>52</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA65" s="1" t="n">
         <v>1</v>
@@ -7998,7 +8001,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>35</v>
@@ -8031,7 +8034,7 @@
         <v>39</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>40</v>
@@ -8064,7 +8067,7 @@
         <v>43</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>44</v>
@@ -8073,7 +8076,7 @@
         <v>52</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA66" s="1" t="n">
         <v>1</v>
@@ -8099,7 +8102,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>35</v>
@@ -8174,7 +8177,7 @@
         <v>52</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA67" s="1" t="n">
         <v>1</v>
@@ -8200,7 +8203,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>35</v>
@@ -8281,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC68" s="8" t="s">
         <v>39</v>
@@ -8301,7 +8304,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>35</v>
@@ -8402,7 +8405,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>35</v>
@@ -8503,7 +8506,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>35</v>
@@ -8604,7 +8607,7 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>35</v>
@@ -8705,7 +8708,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>35</v>
@@ -8806,7 +8809,7 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>35</v>
@@ -8839,13 +8842,13 @@
         <v>1</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O74" s="10" t="n">
         <v>45384</v>
@@ -8907,7 +8910,7 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>35</v>
@@ -8940,13 +8943,13 @@
         <v>1</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O75" s="10" t="n">
         <v>45384</v>
@@ -8961,10 +8964,10 @@
         <v>7709577438</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T75" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U75" s="1" t="s">
         <v>39</v>
@@ -9008,7 +9011,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>35</v>
@@ -9041,13 +9044,13 @@
         <v>1</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O76" s="10" t="n">
         <v>45384</v>
@@ -9062,10 +9065,10 @@
         <v>6060606060</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T76" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U76" s="1" t="s">
         <v>39</v>
@@ -9109,7 +9112,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>35</v>
@@ -9142,13 +9145,13 @@
         <v>1</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O77" s="10" t="n">
         <v>45384</v>
@@ -9163,10 +9166,10 @@
         <v>7070707070</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T77" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U77" s="1" t="s">
         <v>39</v>
@@ -9196,7 +9199,7 @@
         <v>39</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE77" s="8" t="s">
         <v>39</v>
@@ -9208,9 +9211,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>35</v>
@@ -9243,13 +9246,13 @@
         <v>1</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O78" s="10" t="n">
         <v>45384</v>
@@ -9264,10 +9267,10 @@
         <v>7070707070</v>
       </c>
       <c r="S78" s="20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T78" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U78" s="1" t="s">
         <v>39</v>
@@ -9297,7 +9300,7 @@
         <v>39</v>
       </c>
       <c r="AD78" s="2" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="AE78" s="8" t="s">
         <v>39</v>
@@ -9311,7 +9314,7 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>35</v>
@@ -9347,7 +9350,7 @@
         <v>81</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>82</v>
@@ -9368,7 +9371,7 @@
         <v>88</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U79" s="1" t="s">
         <v>39</v>
@@ -9392,13 +9395,13 @@
         <v>1</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC79" s="8" t="s">
         <v>39</v>
       </c>
       <c r="AD79" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE79" s="8" t="s">
         <v>39</v>
@@ -9412,7 +9415,7 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>35</v>
@@ -9445,13 +9448,13 @@
         <v>1</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O80" s="10" t="n">
         <v>45384</v>
@@ -9493,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC80" s="8" t="s">
         <v>39</v>
@@ -9513,7 +9516,7 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>35</v>
@@ -9546,13 +9549,13 @@
         <v>1</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O81" s="10" t="n">
         <v>45384</v>
@@ -9594,13 +9597,13 @@
         <v>1</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC81" s="8" t="s">
         <v>39</v>
       </c>
       <c r="AD81" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE81" s="8" t="s">
         <v>39</v>
@@ -9614,7 +9617,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>35</v>
@@ -9650,7 +9653,7 @@
         <v>81</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N82" s="4" t="s">
         <v>82</v>
@@ -9711,10 +9714,10 @@
     </row>
     <row r="83" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>36</v>
@@ -9735,7 +9738,7 @@
         <v>600</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J83" s="9" t="n">
         <v>1</v>
@@ -9747,7 +9750,7 @@
         <v>39</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N83" s="4" t="s">
         <v>39</v>
@@ -9768,7 +9771,7 @@
         <v>39</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U83" s="4" t="s">
         <v>39</v>
@@ -9804,15 +9807,15 @@
         <v>39</v>
       </c>
       <c r="AF83" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>36</v>
@@ -9833,7 +9836,7 @@
         <v>600</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J84" s="9" t="n">
         <v>1</v>
@@ -9842,10 +9845,10 @@
         <v>1</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>39</v>
@@ -9902,15 +9905,15 @@
         <v>39</v>
       </c>
       <c r="AF84" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>36</v>
@@ -9931,7 +9934,7 @@
         <v>600</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J85" s="9" t="n">
         <v>1</v>
@@ -9940,10 +9943,10 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>39</v>
@@ -10000,15 +10003,15 @@
         <v>39</v>
       </c>
       <c r="AF85" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" s="4" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>36</v>
@@ -10029,7 +10032,7 @@
         <v>600</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J86" s="9" t="n">
         <v>1</v>
@@ -10038,10 +10041,10 @@
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>39</v>
@@ -10098,18 +10101,18 @@
         <v>39</v>
       </c>
       <c r="AF86" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>36</v>
@@ -10130,7 +10133,7 @@
         <v>600</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J87" s="9" t="n">
         <v>1</v>
@@ -10139,10 +10142,10 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>39</v>
@@ -10199,15 +10202,15 @@
         <v>39</v>
       </c>
       <c r="AF87" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>36</v>
@@ -10216,7 +10219,7 @@
         <v>123456</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F88" s="3" t="n">
         <v>123456</v>
@@ -10228,7 +10231,7 @@
         <v>600</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J88" s="9" t="n">
         <v>1</v>
@@ -10237,10 +10240,10 @@
         <v>1</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>39</v>
@@ -10302,7 +10305,7 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>35</v>
@@ -10400,7 +10403,7 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>35</v>
@@ -10469,7 +10472,7 @@
         <v>79</v>
       </c>
       <c r="X90" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y90" s="4" t="s">
         <v>55</v>
@@ -10498,7 +10501,7 @@
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>35</v>
@@ -10596,7 +10599,7 @@
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>35</v>
@@ -10694,10 +10697,10 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>36</v>
@@ -10795,10 +10798,10 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>36</v>
@@ -10896,10 +10899,10 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>36</v>
@@ -10997,10 +11000,10 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>36</v>
@@ -11009,7 +11012,7 @@
         <v>123456</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F96" s="3" t="n">
         <v>123456</v>
@@ -11098,10 +11101,10 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>36</v>
@@ -11173,7 +11176,7 @@
         <v>52</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA97" s="5" t="s">
         <v>39</v>
@@ -11199,10 +11202,10 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>36</v>
@@ -11300,10 +11303,10 @@
     </row>
     <row r="99" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>36</v>
@@ -11398,10 +11401,10 @@
     </row>
     <row r="100" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>36</v>
@@ -11473,7 +11476,7 @@
         <v>52</v>
       </c>
       <c r="Z100" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AA100" s="5" t="s">
         <v>39</v>
@@ -11499,10 +11502,10 @@
     </row>
     <row r="101" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>36</v>
@@ -11574,7 +11577,7 @@
         <v>55</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AA101" s="5" t="s">
         <v>39</v>
@@ -11600,10 +11603,10 @@
     </row>
     <row r="102" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>36</v>
@@ -11701,10 +11704,10 @@
     </row>
     <row r="103" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>36</v>
@@ -11802,10 +11805,10 @@
     </row>
     <row r="104" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>36</v>
@@ -11877,7 +11880,7 @@
         <v>59</v>
       </c>
       <c r="Z104" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA104" s="5" t="s">
         <v>39</v>
@@ -11903,10 +11906,10 @@
     </row>
     <row r="105" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>36</v>
@@ -11978,7 +11981,7 @@
         <v>55</v>
       </c>
       <c r="Z105" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA105" s="5" t="s">
         <v>39</v>
@@ -12004,10 +12007,10 @@
     </row>
     <row r="106" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>36</v>
@@ -12079,7 +12082,7 @@
         <v>52</v>
       </c>
       <c r="Z106" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA106" s="5" t="s">
         <v>39</v>
@@ -12105,10 +12108,10 @@
     </row>
     <row r="107" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>36</v>
@@ -12180,7 +12183,7 @@
         <v>52</v>
       </c>
       <c r="Z107" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA107" s="5" t="s">
         <v>39</v>
@@ -12206,10 +12209,10 @@
     </row>
     <row r="108" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>36</v>
@@ -12281,7 +12284,7 @@
         <v>52</v>
       </c>
       <c r="Z108" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA108" s="1" t="n">
         <v>1</v>
@@ -12307,10 +12310,10 @@
     </row>
     <row r="109" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>36</v>
@@ -12408,10 +12411,10 @@
     </row>
     <row r="110" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>36</v>
@@ -12509,10 +12512,10 @@
     </row>
     <row r="111" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>36</v>
@@ -12610,10 +12613,10 @@
     </row>
     <row r="112" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>36</v>
@@ -12711,10 +12714,10 @@
     </row>
     <row r="113" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>36</v>
@@ -12786,7 +12789,7 @@
         <v>52</v>
       </c>
       <c r="Z113" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA113" s="5" t="s">
         <v>39</v>
@@ -12812,10 +12815,10 @@
     </row>
     <row r="114" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>36</v>
@@ -12887,7 +12890,7 @@
         <v>52</v>
       </c>
       <c r="Z114" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA114" s="5" t="s">
         <v>39</v>
@@ -12913,10 +12916,10 @@
     </row>
     <row r="115" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>36</v>
@@ -12988,7 +12991,7 @@
         <v>52</v>
       </c>
       <c r="Z115" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA115" s="1" t="n">
         <v>0</v>
@@ -13014,10 +13017,10 @@
     </row>
     <row r="116" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>36</v>
@@ -13089,7 +13092,7 @@
         <v>52</v>
       </c>
       <c r="Z116" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA116" s="1" t="n">
         <v>1</v>
@@ -13115,10 +13118,10 @@
     </row>
     <row r="117" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>36</v>
@@ -13190,7 +13193,7 @@
         <v>52</v>
       </c>
       <c r="Z117" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA117" s="1" t="n">
         <v>1</v>
@@ -13216,10 +13219,10 @@
     </row>
     <row r="118" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>36</v>
@@ -13291,7 +13294,7 @@
         <v>52</v>
       </c>
       <c r="Z118" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA118" s="1" t="n">
         <v>1</v>
@@ -13317,10 +13320,10 @@
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>36</v>
@@ -13329,7 +13332,7 @@
         <v>123456</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F119" s="3" t="n">
         <v>123456</v>
@@ -13392,7 +13395,7 @@
         <v>52</v>
       </c>
       <c r="Z119" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA119" s="1" t="n">
         <v>1</v>
@@ -13418,10 +13421,10 @@
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>36</v>
@@ -13493,7 +13496,7 @@
         <v>52</v>
       </c>
       <c r="Z120" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA120" s="1" t="n">
         <v>1</v>
@@ -13519,10 +13522,10 @@
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>36</v>
@@ -13594,7 +13597,7 @@
         <v>52</v>
       </c>
       <c r="Z121" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA121" s="1" t="n">
         <v>1</v>
@@ -13620,10 +13623,10 @@
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>36</v>
@@ -13695,7 +13698,7 @@
         <v>52</v>
       </c>
       <c r="Z122" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA122" s="1" t="n">
         <v>1</v>
@@ -13721,10 +13724,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>36</v>
@@ -13796,7 +13799,7 @@
         <v>52</v>
       </c>
       <c r="Z123" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA123" s="1" t="n">
         <v>1</v>
@@ -13822,10 +13825,10 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>36</v>
@@ -13897,7 +13900,7 @@
         <v>52</v>
       </c>
       <c r="Z124" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA124" s="1" t="n">
         <v>1</v>
@@ -13912,7 +13915,7 @@
         <v>39</v>
       </c>
       <c r="AE124" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF124" s="8" t="s">
         <v>39</v>
@@ -13923,10 +13926,10 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>36</v>
@@ -13998,7 +14001,7 @@
         <v>52</v>
       </c>
       <c r="Z125" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA125" s="1" t="n">
         <v>1</v>
@@ -14013,7 +14016,7 @@
         <v>39</v>
       </c>
       <c r="AE125" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF125" s="8" t="s">
         <v>39</v>
@@ -14024,10 +14027,10 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>36</v>
@@ -14099,7 +14102,7 @@
         <v>52</v>
       </c>
       <c r="Z126" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA126" s="1" t="n">
         <v>1</v>
@@ -14114,7 +14117,7 @@
         <v>39</v>
       </c>
       <c r="AE126" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF126" s="8" t="s">
         <v>39</v>
@@ -14125,10 +14128,10 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>36</v>
@@ -14200,7 +14203,7 @@
         <v>52</v>
       </c>
       <c r="Z127" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA127" s="1" t="n">
         <v>1</v>
@@ -14215,7 +14218,7 @@
         <v>39</v>
       </c>
       <c r="AE127" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF127" s="8" t="s">
         <v>39</v>
@@ -14226,10 +14229,10 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>36</v>
@@ -14301,7 +14304,7 @@
         <v>52</v>
       </c>
       <c r="Z128" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA128" s="1" t="n">
         <v>1</v>
@@ -14316,7 +14319,7 @@
         <v>39</v>
       </c>
       <c r="AE128" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF128" s="8" t="s">
         <v>39</v>
@@ -14327,10 +14330,10 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>36</v>
@@ -14402,7 +14405,7 @@
         <v>52</v>
       </c>
       <c r="Z129" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA129" s="1" t="n">
         <v>1</v>
@@ -14417,7 +14420,7 @@
         <v>39</v>
       </c>
       <c r="AE129" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF129" s="8" t="s">
         <v>39</v>
@@ -14428,10 +14431,10 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>36</v>
@@ -14503,7 +14506,7 @@
         <v>52</v>
       </c>
       <c r="Z130" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA130" s="1" t="n">
         <v>1</v>
@@ -14518,7 +14521,7 @@
         <v>39</v>
       </c>
       <c r="AE130" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF130" s="8" t="s">
         <v>39</v>
@@ -14529,10 +14532,10 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>36</v>
@@ -14604,7 +14607,7 @@
         <v>52</v>
       </c>
       <c r="Z131" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA131" s="1" t="n">
         <v>1</v>
@@ -14619,7 +14622,7 @@
         <v>39</v>
       </c>
       <c r="AE131" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF131" s="8" t="s">
         <v>39</v>
@@ -14630,10 +14633,10 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>36</v>
@@ -14705,7 +14708,7 @@
         <v>52</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA132" s="1" t="n">
         <v>1</v>
@@ -14717,7 +14720,7 @@
         <v>39</v>
       </c>
       <c r="AE132" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF132" s="8" t="s">
         <v>39</v>
@@ -14728,82 +14731,82 @@
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
